--- a/Dumps/iexRtmFile/MarketMinute.xlsx
+++ b/Dumps/iexRtmFile/MarketMinute.xlsx
@@ -67,7 +67,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +96,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEFF"/>
         <bgColor rgb="FFEEEEFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAD3FC"/>
+        <bgColor rgb="FFBAD3FC"/>
       </patternFill>
     </fill>
   </fills>
@@ -174,7 +180,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -211,6 +217,9 @@
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="1" fillId="3" borderId="4">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="5" fillId="6" borderId="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="1" fillId="2" borderId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -250,7 +259,7 @@
       <rgbColor rgb="00F5F5F5"/>
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00EEEEFF"/>
-      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00BAD3FC"/>
       <rgbColor rgb="00800000"/>
       <rgbColor rgb="00008000"/>
       <rgbColor rgb="00000080"/>
@@ -378,7 +387,7 @@
     <row r="4" ht="14.4" customHeight="1">
       <c s="2" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Date: 01-03-2021</t>
+          <t xml:space="preserve">Date: 24-03-2021</t>
         </is>
       </c>
     </row>
@@ -468,7 +477,7 @@
     <row r="8" ht="13.2" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">01-03-2021</t>
+          <t xml:space="preserve">24-03-2021</t>
         </is>
       </c>
       <c s="6" r="B8">
@@ -484,23 +493,23 @@
       </c>
       <c s="8" t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">1732.10</t>
+          <t xml:space="preserve">3102.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F8"/>
       <c s="8" t="inlineStr" r="G8">
         <is>
-          <t xml:space="preserve">3308.00</t>
+          <t xml:space="preserve">3668.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">1395.00</t>
+          <t xml:space="preserve">2541.22</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">1395.00</t>
+          <t xml:space="preserve">2541.22</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J8">
@@ -510,12 +519,12 @@
       </c>
       <c s="8" t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">1395.00</t>
+          <t xml:space="preserve">2541.22</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L8">
         <is>
-          <t xml:space="preserve">2959.50</t>
+          <t xml:space="preserve">3688.30</t>
         </is>
       </c>
     </row>
@@ -530,23 +539,23 @@
       </c>
       <c s="8" t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">1728.50</t>
+          <t xml:space="preserve">2963.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F9"/>
       <c s="8" t="inlineStr" r="G9">
         <is>
-          <t xml:space="preserve">2581.40</t>
+          <t xml:space="preserve">3114.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">1391.40</t>
+          <t xml:space="preserve">2470.91</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">1391.40</t>
+          <t xml:space="preserve">2470.91</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J9">
@@ -556,12 +565,12 @@
       </c>
       <c s="8" t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">1391.40</t>
+          <t xml:space="preserve">2470.91</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L9">
         <is>
-          <t xml:space="preserve">3379.42</t>
+          <t xml:space="preserve">3774.63</t>
         </is>
       </c>
     </row>
@@ -578,23 +587,23 @@
       </c>
       <c s="8" t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">1265.90</t>
+          <t xml:space="preserve">2595.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F10"/>
       <c s="8" t="inlineStr" r="G10">
         <is>
-          <t xml:space="preserve">2662.90</t>
+          <t xml:space="preserve">3227.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">941.50</t>
+          <t xml:space="preserve">2185.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">941.50</t>
+          <t xml:space="preserve">2185.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J10">
@@ -604,12 +613,12 @@
       </c>
       <c s="8" t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">941.50</t>
+          <t xml:space="preserve">2185.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L10">
         <is>
-          <t xml:space="preserve">2909.93</t>
+          <t xml:space="preserve">3031.91</t>
         </is>
       </c>
     </row>
@@ -624,23 +633,23 @@
       </c>
       <c s="8" t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">1266.60</t>
+          <t xml:space="preserve">2737.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F11"/>
       <c s="8" t="inlineStr" r="G11">
         <is>
-          <t xml:space="preserve">2669.80</t>
+          <t xml:space="preserve">3246.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">942.20</t>
+          <t xml:space="preserve">2229.68</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">942.20</t>
+          <t xml:space="preserve">2229.68</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J11">
@@ -650,12 +659,12 @@
       </c>
       <c s="8" t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">942.20</t>
+          <t xml:space="preserve">2229.68</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L11">
         <is>
-          <t xml:space="preserve">2909.85</t>
+          <t xml:space="preserve">3333.63</t>
         </is>
       </c>
     </row>
@@ -674,23 +683,23 @@
       </c>
       <c s="8" t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">1121.10</t>
+          <t xml:space="preserve">3014.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F12"/>
       <c s="8" t="inlineStr" r="G12">
         <is>
-          <t xml:space="preserve">3479.40</t>
+          <t xml:space="preserve">4267.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">793.80</t>
+          <t xml:space="preserve">2521.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">793.80</t>
+          <t xml:space="preserve">2521.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J12">
@@ -700,12 +709,12 @@
       </c>
       <c s="8" t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">793.80</t>
+          <t xml:space="preserve">2521.97</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L12">
         <is>
-          <t xml:space="preserve">2886.67</t>
+          <t xml:space="preserve">2869.66</t>
         </is>
       </c>
     </row>
@@ -720,23 +729,23 @@
       </c>
       <c s="8" t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">1045.30</t>
+          <t xml:space="preserve">2959.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F13"/>
       <c s="8" t="inlineStr" r="G13">
         <is>
-          <t xml:space="preserve">3758.40</t>
+          <t xml:space="preserve">4374.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">741.00</t>
+          <t xml:space="preserve">2467.58</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">741.00</t>
+          <t xml:space="preserve">2467.58</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J13">
@@ -746,12 +755,12 @@
       </c>
       <c s="8" t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">741.00</t>
+          <t xml:space="preserve">2467.58</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L13">
         <is>
-          <t xml:space="preserve">2841.14</t>
+          <t xml:space="preserve">2869.60</t>
         </is>
       </c>
     </row>
@@ -768,23 +777,23 @@
       </c>
       <c s="8" t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">1069.70</t>
+          <t xml:space="preserve">2856.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F14"/>
       <c s="8" t="inlineStr" r="G14">
         <is>
-          <t xml:space="preserve">3902.60</t>
+          <t xml:space="preserve">3190.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">765.40</t>
+          <t xml:space="preserve">2010.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">765.40</t>
+          <t xml:space="preserve">2010.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J14">
@@ -794,12 +803,12 @@
       </c>
       <c s="8" t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">765.40</t>
+          <t xml:space="preserve">2010.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L14">
         <is>
-          <t xml:space="preserve">2827.90</t>
+          <t xml:space="preserve">3399.31</t>
         </is>
       </c>
     </row>
@@ -814,23 +823,23 @@
       </c>
       <c s="8" t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">1338.00</t>
+          <t xml:space="preserve">2779.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F15"/>
       <c s="8" t="inlineStr" r="G15">
         <is>
-          <t xml:space="preserve">3727.60</t>
+          <t xml:space="preserve">3129.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">1010.70</t>
+          <t xml:space="preserve">1938.73</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">1010.70</t>
+          <t xml:space="preserve">1938.73</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J15">
@@ -840,12 +849,12 @@
       </c>
       <c s="8" t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">1010.70</t>
+          <t xml:space="preserve">1938.73</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L15">
         <is>
-          <t xml:space="preserve">2909.07</t>
+          <t xml:space="preserve">3399.11</t>
         </is>
       </c>
     </row>
@@ -864,23 +873,23 @@
       </c>
       <c s="8" t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">1185.00</t>
+          <t xml:space="preserve">2829.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F16"/>
       <c s="8" t="inlineStr" r="G16">
         <is>
-          <t xml:space="preserve">3245.50</t>
+          <t xml:space="preserve">3467.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">880.70</t>
+          <t xml:space="preserve">2089.54</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">880.70</t>
+          <t xml:space="preserve">2089.54</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J16">
@@ -890,12 +899,12 @@
       </c>
       <c s="8" t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">880.70</t>
+          <t xml:space="preserve">2089.54</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L16">
         <is>
-          <t xml:space="preserve">2833.54</t>
+          <t xml:space="preserve">3299.48</t>
         </is>
       </c>
     </row>
@@ -910,23 +919,23 @@
       </c>
       <c s="8" t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">1135.00</t>
+          <t xml:space="preserve">2667.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F17"/>
       <c s="8" t="inlineStr" r="G17">
         <is>
-          <t xml:space="preserve">3295.50</t>
+          <t xml:space="preserve">3494.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">830.70</t>
+          <t xml:space="preserve">1931.38</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">830.70</t>
+          <t xml:space="preserve">1931.38</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J17">
@@ -936,12 +945,12 @@
       </c>
       <c s="8" t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">830.70</t>
+          <t xml:space="preserve">1931.38</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L17">
         <is>
-          <t xml:space="preserve">2833.44</t>
+          <t xml:space="preserve">3250.32</t>
         </is>
       </c>
     </row>
@@ -958,23 +967,23 @@
       </c>
       <c s="8" t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">1040.00</t>
+          <t xml:space="preserve">2832.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F18"/>
       <c s="8" t="inlineStr" r="G18">
         <is>
-          <t xml:space="preserve">3457.80</t>
+          <t xml:space="preserve">3886.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">730.70</t>
+          <t xml:space="preserve">2112.49</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">730.70</t>
+          <t xml:space="preserve">2112.49</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J18">
@@ -984,12 +993,12 @@
       </c>
       <c s="8" t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">730.70</t>
+          <t xml:space="preserve">2112.49</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L18">
         <is>
-          <t xml:space="preserve">2781.80</t>
+          <t xml:space="preserve">3112.97</t>
         </is>
       </c>
     </row>
@@ -1004,23 +1013,23 @@
       </c>
       <c s="8" t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">1050.00</t>
+          <t xml:space="preserve">3057.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F19"/>
       <c s="8" t="inlineStr" r="G19">
         <is>
-          <t xml:space="preserve">3229.10</t>
+          <t xml:space="preserve">4009.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">740.70</t>
+          <t xml:space="preserve">2299.39</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">740.70</t>
+          <t xml:space="preserve">2299.39</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J19">
@@ -1030,12 +1039,12 @@
       </c>
       <c s="8" t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">740.70</t>
+          <t xml:space="preserve">2299.39</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L19">
         <is>
-          <t xml:space="preserve">2809.00</t>
+          <t xml:space="preserve">3250.81</t>
         </is>
       </c>
     </row>
@@ -1054,23 +1063,23 @@
       </c>
       <c s="8" t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">1089.90</t>
+          <t xml:space="preserve">2673.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F20"/>
       <c s="8" t="inlineStr" r="G20">
         <is>
-          <t xml:space="preserve">3154.70</t>
+          <t xml:space="preserve">4400.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">780.60</t>
+          <t xml:space="preserve">1981.04</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">780.60</t>
+          <t xml:space="preserve">1981.04</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J20">
@@ -1080,12 +1089,12 @@
       </c>
       <c s="8" t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">780.60</t>
+          <t xml:space="preserve">1981.04</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L20">
         <is>
-          <t xml:space="preserve">2781.67</t>
+          <t xml:space="preserve">3099.17</t>
         </is>
       </c>
     </row>
@@ -1100,23 +1109,23 @@
       </c>
       <c s="8" t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">1059.90</t>
+          <t xml:space="preserve">2649.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F21"/>
       <c s="8" t="inlineStr" r="G21">
         <is>
-          <t xml:space="preserve">3133.10</t>
+          <t xml:space="preserve">4399.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">750.60</t>
+          <t xml:space="preserve">1942.86</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">750.60</t>
+          <t xml:space="preserve">1942.86</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J21">
@@ -1126,12 +1135,12 @@
       </c>
       <c s="8" t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">750.60</t>
+          <t xml:space="preserve">1942.86</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L21">
         <is>
-          <t xml:space="preserve">2818.00</t>
+          <t xml:space="preserve">3095.31</t>
         </is>
       </c>
     </row>
@@ -1148,23 +1157,23 @@
       </c>
       <c s="8" t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">1363.70</t>
+          <t xml:space="preserve">2314.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F22"/>
       <c s="8" t="inlineStr" r="G22">
         <is>
-          <t xml:space="preserve">3182.90</t>
+          <t xml:space="preserve">4542.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">1054.40</t>
+          <t xml:space="preserve">1732.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">1054.40</t>
+          <t xml:space="preserve">1732.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J22">
@@ -1174,12 +1183,12 @@
       </c>
       <c s="8" t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">1054.40</t>
+          <t xml:space="preserve">1732.93</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L22">
         <is>
-          <t xml:space="preserve">2833.50</t>
+          <t xml:space="preserve">2789.49</t>
         </is>
       </c>
     </row>
@@ -1194,23 +1203,23 @@
       </c>
       <c s="8" t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">1062.30</t>
+          <t xml:space="preserve">2203.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F23"/>
       <c s="8" t="inlineStr" r="G23">
         <is>
-          <t xml:space="preserve">3149.70</t>
+          <t xml:space="preserve">4629.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">753.00</t>
+          <t xml:space="preserve">1631.95</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I23">
         <is>
-          <t xml:space="preserve">753.00</t>
+          <t xml:space="preserve">1631.95</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J23">
@@ -1220,12 +1229,12 @@
       </c>
       <c s="8" t="inlineStr" r="K23">
         <is>
-          <t xml:space="preserve">753.00</t>
+          <t xml:space="preserve">1631.95</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L23">
         <is>
-          <t xml:space="preserve">2781.56</t>
+          <t xml:space="preserve">2789.40</t>
         </is>
       </c>
     </row>
@@ -1244,23 +1253,23 @@
       </c>
       <c s="8" t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">1263.90</t>
+          <t xml:space="preserve">2211.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F24"/>
       <c s="8" t="inlineStr" r="G24">
         <is>
-          <t xml:space="preserve">3848.30</t>
+          <t xml:space="preserve">4064.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">954.60</t>
+          <t xml:space="preserve">1599.96</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">954.60</t>
+          <t xml:space="preserve">1599.96</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J24">
@@ -1270,12 +1279,12 @@
       </c>
       <c s="8" t="inlineStr" r="K24">
         <is>
-          <t xml:space="preserve">954.60</t>
+          <t xml:space="preserve">1599.96</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L24">
         <is>
-          <t xml:space="preserve">2800.75</t>
+          <t xml:space="preserve">2810.57</t>
         </is>
       </c>
     </row>
@@ -1290,23 +1299,23 @@
       </c>
       <c s="8" t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">1270.00</t>
+          <t xml:space="preserve">2322.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F25"/>
       <c s="8" t="inlineStr" r="G25">
         <is>
-          <t xml:space="preserve">3533.00</t>
+          <t xml:space="preserve">3618.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">965.70</t>
+          <t xml:space="preserve">1607.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I25">
         <is>
-          <t xml:space="preserve">965.70</t>
+          <t xml:space="preserve">1607.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J25">
@@ -1316,12 +1325,12 @@
       </c>
       <c s="8" t="inlineStr" r="K25">
         <is>
-          <t xml:space="preserve">965.70</t>
+          <t xml:space="preserve">1607.31</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L25">
         <is>
-          <t xml:space="preserve">2833.42</t>
+          <t xml:space="preserve">3193.05</t>
         </is>
       </c>
     </row>
@@ -1338,23 +1347,23 @@
       </c>
       <c s="8" t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">1270.60</t>
+          <t xml:space="preserve">2359.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F26"/>
       <c s="8" t="inlineStr" r="G26">
         <is>
-          <t xml:space="preserve">2841.00</t>
+          <t xml:space="preserve">3098.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">943.30</t>
+          <t xml:space="preserve">1605.17</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">943.30</t>
+          <t xml:space="preserve">1605.17</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J26">
@@ -1364,12 +1373,12 @@
       </c>
       <c s="8" t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">943.30</t>
+          <t xml:space="preserve">1605.17</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L26">
         <is>
-          <t xml:space="preserve">2925.32</t>
+          <t xml:space="preserve">3477.04</t>
         </is>
       </c>
     </row>
@@ -1384,23 +1393,23 @@
       </c>
       <c s="8" t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">1217.50</t>
+          <t xml:space="preserve">2232.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F27"/>
       <c s="8" t="inlineStr" r="G27">
         <is>
-          <t xml:space="preserve">2952.00</t>
+          <t xml:space="preserve">3003.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">890.20</t>
+          <t xml:space="preserve">1471.65</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I27">
         <is>
-          <t xml:space="preserve">890.20</t>
+          <t xml:space="preserve">1471.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J27">
@@ -1410,12 +1419,12 @@
       </c>
       <c s="8" t="inlineStr" r="K27">
         <is>
-          <t xml:space="preserve">890.20</t>
+          <t xml:space="preserve">1471.64</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L27">
         <is>
-          <t xml:space="preserve">2892.00</t>
+          <t xml:space="preserve">3477.22</t>
         </is>
       </c>
     </row>
@@ -1432,40 +1441,40 @@
           <t xml:space="preserve">05:00-05:15</t>
         </is>
       </c>
-      <c s="8" t="inlineStr" r="E28">
-        <is>
-          <t xml:space="preserve">1202.50</t>
+      <c s="13" t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">3138.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F28"/>
-      <c s="8" t="inlineStr" r="G28">
-        <is>
-          <t xml:space="preserve">2968.50</t>
-        </is>
-      </c>
-      <c s="8" t="inlineStr" r="H28">
-        <is>
-          <t xml:space="preserve">958.70</t>
-        </is>
-      </c>
-      <c s="8" t="inlineStr" r="I28">
-        <is>
-          <t xml:space="preserve">958.70</t>
-        </is>
-      </c>
-      <c s="8" t="inlineStr" r="J28">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c s="8" t="inlineStr" r="K28">
-        <is>
-          <t xml:space="preserve">958.70</t>
+      <c s="13" t="inlineStr" r="G28">
+        <is>
+          <t xml:space="preserve">3703.10</t>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve">2445.70</t>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">2432.18</t>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="J28">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c s="13" t="inlineStr" r="K28">
+        <is>
+          <t xml:space="preserve">2432.18</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L28">
         <is>
-          <t xml:space="preserve">2986.79</t>
+          <t xml:space="preserve">3202.81</t>
         </is>
       </c>
     </row>
@@ -1480,23 +1489,23 @@
       </c>
       <c s="8" t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">1360.70</t>
+          <t xml:space="preserve">2998.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F29"/>
       <c s="8" t="inlineStr" r="G29">
         <is>
-          <t xml:space="preserve">2866.50</t>
+          <t xml:space="preserve">3837.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">1109.40</t>
+          <t xml:space="preserve">2327.98</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">1109.40</t>
+          <t xml:space="preserve">2327.98</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J29">
@@ -1506,12 +1515,12 @@
       </c>
       <c s="8" t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">1109.40</t>
+          <t xml:space="preserve">2327.98</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L29">
         <is>
-          <t xml:space="preserve">3160.27</t>
+          <t xml:space="preserve">3099.78</t>
         </is>
       </c>
     </row>
@@ -1528,23 +1537,23 @@
       </c>
       <c s="8" t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">1867.50</t>
+          <t xml:space="preserve">3199.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F30"/>
       <c s="8" t="inlineStr" r="G30">
         <is>
-          <t xml:space="preserve">2932.40</t>
+          <t xml:space="preserve">3100.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">1604.90</t>
+          <t xml:space="preserve">2145.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">1604.90</t>
+          <t xml:space="preserve">2145.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J30">
@@ -1554,12 +1563,12 @@
       </c>
       <c s="8" t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">1604.90</t>
+          <t xml:space="preserve">2145.31</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L30">
         <is>
-          <t xml:space="preserve">3379.48</t>
+          <t xml:space="preserve">3477.55</t>
         </is>
       </c>
     </row>
@@ -1574,23 +1583,23 @@
       </c>
       <c s="8" t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">2365.60</t>
+          <t xml:space="preserve">3049.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F31"/>
       <c s="8" t="inlineStr" r="G31">
         <is>
-          <t xml:space="preserve">2760.90</t>
+          <t xml:space="preserve">2528.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">2038.10</t>
+          <t xml:space="preserve">1879.09</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I31">
         <is>
-          <t xml:space="preserve">2038.10</t>
+          <t xml:space="preserve">1879.09</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J31">
@@ -1600,12 +1609,12 @@
       </c>
       <c s="8" t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">2038.10</t>
+          <t xml:space="preserve">1879.09</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L31">
         <is>
-          <t xml:space="preserve">4089.18</t>
+          <t xml:space="preserve">3990.30</t>
         </is>
       </c>
     </row>
@@ -1624,23 +1633,23 @@
       </c>
       <c s="8" t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">2988.90</t>
+          <t xml:space="preserve">3522.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F32"/>
       <c s="8" t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">2879.00</t>
+          <t xml:space="preserve">2784.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">2593.00</t>
+          <t xml:space="preserve">2497.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">2593.00</t>
+          <t xml:space="preserve">2497.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J32">
@@ -1650,12 +1659,12 @@
       </c>
       <c s="8" t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">2593.00</t>
+          <t xml:space="preserve">2497.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L32">
         <is>
-          <t xml:space="preserve">4099.21</t>
+          <t xml:space="preserve">4700.58</t>
         </is>
       </c>
     </row>
@@ -1670,23 +1679,23 @@
       </c>
       <c s="8" t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">3336.30</t>
+          <t xml:space="preserve">3540.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F33"/>
       <c s="8" t="inlineStr" r="G33">
         <is>
-          <t xml:space="preserve">2551.20</t>
+          <t xml:space="preserve">2196.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">2538.30</t>
+          <t xml:space="preserve">2016.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I33">
         <is>
-          <t xml:space="preserve">2538.30</t>
+          <t xml:space="preserve">2016.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J33">
@@ -1696,12 +1705,12 @@
       </c>
       <c s="8" t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">2538.30</t>
+          <t xml:space="preserve">2016.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L33">
         <is>
-          <t xml:space="preserve">5303.44</t>
+          <t xml:space="preserve">5500.48</t>
         </is>
       </c>
     </row>
@@ -1718,23 +1727,23 @@
       </c>
       <c s="8" t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">3124.30</t>
+          <t xml:space="preserve">3584.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F34"/>
       <c s="8" t="inlineStr" r="G34">
         <is>
-          <t xml:space="preserve">2636.80</t>
+          <t xml:space="preserve">3112.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H34">
         <is>
-          <t xml:space="preserve">2622.10</t>
+          <t xml:space="preserve">2699.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I34">
         <is>
-          <t xml:space="preserve">2622.10</t>
+          <t xml:space="preserve">2699.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J34">
@@ -1744,12 +1753,12 @@
       </c>
       <c s="8" t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">2622.10</t>
+          <t xml:space="preserve">2699.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L34">
         <is>
-          <t xml:space="preserve">5383.80</t>
+          <t xml:space="preserve">4823.62</t>
         </is>
       </c>
     </row>
@@ -1764,23 +1773,23 @@
       </c>
       <c s="8" t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">2948.30</t>
+          <t xml:space="preserve">3673.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F35"/>
       <c s="8" t="inlineStr" r="G35">
         <is>
-          <t xml:space="preserve">2161.90</t>
+          <t xml:space="preserve">3397.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">2161.90</t>
+          <t xml:space="preserve">2920.67</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">2161.90</t>
+          <t xml:space="preserve">2920.67</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J35">
@@ -1790,12 +1799,12 @@
       </c>
       <c s="8" t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">2161.90</t>
+          <t xml:space="preserve">2920.67</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L35">
         <is>
-          <t xml:space="preserve">6000.76</t>
+          <t xml:space="preserve">3990.78</t>
         </is>
       </c>
     </row>
@@ -1814,23 +1823,23 @@
       </c>
       <c s="8" t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">2758.40</t>
+          <t xml:space="preserve">3393.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F36"/>
       <c s="8" t="inlineStr" r="G36">
         <is>
-          <t xml:space="preserve">2017.20</t>
+          <t xml:space="preserve">4036.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">2007.20</t>
+          <t xml:space="preserve">3135.24</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I36">
         <is>
-          <t xml:space="preserve">2007.20</t>
+          <t xml:space="preserve">3135.24</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J36">
@@ -1840,12 +1849,12 @@
       </c>
       <c s="8" t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">2007.20</t>
+          <t xml:space="preserve">3135.24</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L36">
         <is>
-          <t xml:space="preserve">6092.24</t>
+          <t xml:space="preserve">2999.93</t>
         </is>
       </c>
     </row>
@@ -1860,23 +1869,23 @@
       </c>
       <c s="8" t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">2872.60</t>
+          <t xml:space="preserve">3248.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F37"/>
       <c s="8" t="inlineStr" r="G37">
         <is>
-          <t xml:space="preserve">1946.70</t>
+          <t xml:space="preserve">3829.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">1936.70</t>
+          <t xml:space="preserve">2990.75</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I37">
         <is>
-          <t xml:space="preserve">1936.70</t>
+          <t xml:space="preserve">2990.75</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J37">
@@ -1886,12 +1895,12 @@
       </c>
       <c s="8" t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">1936.70</t>
+          <t xml:space="preserve">2990.75</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L37">
         <is>
-          <t xml:space="preserve">6093.85</t>
+          <t xml:space="preserve">2999.89</t>
         </is>
       </c>
     </row>
@@ -1908,23 +1917,23 @@
       </c>
       <c s="8" t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">2303.50</t>
+          <t xml:space="preserve">2901.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F38"/>
       <c s="8" t="inlineStr" r="G38">
         <is>
-          <t xml:space="preserve">2891.50</t>
+          <t xml:space="preserve">3501.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">1987.10</t>
+          <t xml:space="preserve">2543.42</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I38">
         <is>
-          <t xml:space="preserve">1987.10</t>
+          <t xml:space="preserve">2543.42</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J38">
@@ -1934,12 +1943,12 @@
       </c>
       <c s="8" t="inlineStr" r="K38">
         <is>
-          <t xml:space="preserve">1987.10</t>
+          <t xml:space="preserve">2543.42</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L38">
         <is>
-          <t xml:space="preserve">3699.51</t>
+          <t xml:space="preserve">2999.92</t>
         </is>
       </c>
     </row>
@@ -1954,23 +1963,23 @@
       </c>
       <c s="8" t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">1928.70</t>
+          <t xml:space="preserve">2639.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F39"/>
       <c s="8" t="inlineStr" r="G39">
         <is>
-          <t xml:space="preserve">2799.00</t>
+          <t xml:space="preserve">3492.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">1675.64</t>
+          <t xml:space="preserve">2281.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I39">
         <is>
-          <t xml:space="preserve">1675.64</t>
+          <t xml:space="preserve">2281.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J39">
@@ -1980,12 +1989,12 @@
       </c>
       <c s="8" t="inlineStr" r="K39">
         <is>
-          <t xml:space="preserve">1675.64</t>
+          <t xml:space="preserve">2281.34</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L39">
         <is>
-          <t xml:space="preserve">3500.88</t>
+          <t xml:space="preserve">2999.86</t>
         </is>
       </c>
     </row>
@@ -2004,23 +2013,23 @@
       </c>
       <c s="8" t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">2162.80</t>
+          <t xml:space="preserve">2737.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F40"/>
       <c s="8" t="inlineStr" r="G40">
         <is>
-          <t xml:space="preserve">3118.20</t>
+          <t xml:space="preserve">2770.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">1961.50</t>
+          <t xml:space="preserve">2036.11</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I40">
         <is>
-          <t xml:space="preserve">1961.50</t>
+          <t xml:space="preserve">2036.11</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J40">
@@ -2030,12 +2039,12 @@
       </c>
       <c s="8" t="inlineStr" r="K40">
         <is>
-          <t xml:space="preserve">1961.50</t>
+          <t xml:space="preserve">2036.11</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L40">
         <is>
-          <t xml:space="preserve">3149.28</t>
+          <t xml:space="preserve">3477.44</t>
         </is>
       </c>
     </row>
@@ -2050,23 +2059,23 @@
       </c>
       <c s="8" t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">2048.80</t>
+          <t xml:space="preserve">2651.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F41"/>
       <c s="8" t="inlineStr" r="G41">
         <is>
-          <t xml:space="preserve">3066.40</t>
+          <t xml:space="preserve">2821.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">1847.50</t>
+          <t xml:space="preserve">2117.81</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I41">
         <is>
-          <t xml:space="preserve">1847.50</t>
+          <t xml:space="preserve">2117.82</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J41">
@@ -2076,12 +2085,12 @@
       </c>
       <c s="8" t="inlineStr" r="K41">
         <is>
-          <t xml:space="preserve">1847.50</t>
+          <t xml:space="preserve">2117.82</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L41">
         <is>
-          <t xml:space="preserve">3099.79</t>
+          <t xml:space="preserve">3440.21</t>
         </is>
       </c>
     </row>
@@ -2098,23 +2107,23 @@
       </c>
       <c s="8" t="inlineStr" r="E42">
         <is>
-          <t xml:space="preserve">2023.00</t>
+          <t xml:space="preserve">1536.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F42"/>
       <c s="8" t="inlineStr" r="G42">
         <is>
-          <t xml:space="preserve">2836.50</t>
+          <t xml:space="preserve">2918.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H42">
         <is>
-          <t xml:space="preserve">1821.70</t>
+          <t xml:space="preserve">1073.91</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I42">
         <is>
-          <t xml:space="preserve">1821.70</t>
+          <t xml:space="preserve">1073.91</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J42">
@@ -2124,12 +2133,12 @@
       </c>
       <c s="8" t="inlineStr" r="K42">
         <is>
-          <t xml:space="preserve">1821.70</t>
+          <t xml:space="preserve">1073.91</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L42">
         <is>
-          <t xml:space="preserve">3149.18</t>
+          <t xml:space="preserve">2999.56</t>
         </is>
       </c>
     </row>
@@ -2144,23 +2153,23 @@
       </c>
       <c s="8" t="inlineStr" r="E43">
         <is>
-          <t xml:space="preserve">1796.40</t>
+          <t xml:space="preserve">1551.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F43"/>
       <c s="8" t="inlineStr" r="G43">
         <is>
-          <t xml:space="preserve">2924.10</t>
+          <t xml:space="preserve">2949.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H43">
         <is>
-          <t xml:space="preserve">1595.10</t>
+          <t xml:space="preserve">1088.61</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I43">
         <is>
-          <t xml:space="preserve">1595.10</t>
+          <t xml:space="preserve">1088.61</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J43">
@@ -2170,12 +2179,12 @@
       </c>
       <c s="8" t="inlineStr" r="K43">
         <is>
-          <t xml:space="preserve">1595.10</t>
+          <t xml:space="preserve">1088.61</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L43">
         <is>
-          <t xml:space="preserve">3117.15</t>
+          <t xml:space="preserve">2999.55</t>
         </is>
       </c>
     </row>
@@ -2194,23 +2203,23 @@
       </c>
       <c s="8" t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">2627.00</t>
+          <t xml:space="preserve">1928.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F44"/>
       <c s="8" t="inlineStr" r="G44">
         <is>
-          <t xml:space="preserve">2441.60</t>
+          <t xml:space="preserve">2391.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H44">
         <is>
-          <t xml:space="preserve">1808.70</t>
+          <t xml:space="preserve">1232.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I44">
         <is>
-          <t xml:space="preserve">1808.70</t>
+          <t xml:space="preserve">1232.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J44">
@@ -2220,12 +2229,12 @@
       </c>
       <c s="8" t="inlineStr" r="K44">
         <is>
-          <t xml:space="preserve">1808.70</t>
+          <t xml:space="preserve">1232.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L44">
         <is>
-          <t xml:space="preserve">3603.99</t>
+          <t xml:space="preserve">3089.98</t>
         </is>
       </c>
     </row>
@@ -2240,23 +2249,23 @@
       </c>
       <c s="8" t="inlineStr" r="E45">
         <is>
-          <t xml:space="preserve">2619.10</t>
+          <t xml:space="preserve">2200.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F45"/>
       <c s="8" t="inlineStr" r="G45">
         <is>
-          <t xml:space="preserve">2343.50</t>
+          <t xml:space="preserve">2233.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">1796.77</t>
+          <t xml:space="preserve">1374.67</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I45">
         <is>
-          <t xml:space="preserve">1796.77</t>
+          <t xml:space="preserve">1374.67</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J45">
@@ -2266,12 +2275,12 @@
       </c>
       <c s="8" t="inlineStr" r="K45">
         <is>
-          <t xml:space="preserve">1796.77</t>
+          <t xml:space="preserve">1374.67</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L45">
         <is>
-          <t xml:space="preserve">3603.98</t>
+          <t xml:space="preserve">3426.79</t>
         </is>
       </c>
     </row>
@@ -2288,23 +2297,23 @@
       </c>
       <c s="8" t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">3381.80</t>
+          <t xml:space="preserve">2919.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F46"/>
       <c s="8" t="inlineStr" r="G46">
         <is>
-          <t xml:space="preserve">2781.90</t>
+          <t xml:space="preserve">2720.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">2358.46</t>
+          <t xml:space="preserve">2098.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I46">
         <is>
-          <t xml:space="preserve">2358.46</t>
+          <t xml:space="preserve">2098.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J46">
@@ -2314,12 +2323,12 @@
       </c>
       <c s="8" t="inlineStr" r="K46">
         <is>
-          <t xml:space="preserve">2358.46</t>
+          <t xml:space="preserve">2098.93</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L46">
         <is>
-          <t xml:space="preserve">4502.94</t>
+          <t xml:space="preserve">3688.12</t>
         </is>
       </c>
     </row>
@@ -2334,23 +2343,23 @@
       </c>
       <c s="8" t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">2985.40</t>
+          <t xml:space="preserve">3031.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F47"/>
       <c s="8" t="inlineStr" r="G47">
         <is>
-          <t xml:space="preserve">3069.50</t>
+          <t xml:space="preserve">2343.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">2227.20</t>
+          <t xml:space="preserve">2093.06</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I47">
         <is>
-          <t xml:space="preserve">2227.20</t>
+          <t xml:space="preserve">2093.06</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J47">
@@ -2360,12 +2369,12 @@
       </c>
       <c s="8" t="inlineStr" r="K47">
         <is>
-          <t xml:space="preserve">2227.20</t>
+          <t xml:space="preserve">2093.06</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L47">
         <is>
-          <t xml:space="preserve">4299.55</t>
+          <t xml:space="preserve">3838.15</t>
         </is>
       </c>
     </row>
@@ -2384,23 +2393,23 @@
       </c>
       <c s="8" t="inlineStr" r="E48">
         <is>
-          <t xml:space="preserve">3324.80</t>
+          <t xml:space="preserve">3808.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F48"/>
       <c s="8" t="inlineStr" r="G48">
         <is>
-          <t xml:space="preserve">3300.50</t>
+          <t xml:space="preserve">3226.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H48">
         <is>
-          <t xml:space="preserve">2459.90</t>
+          <t xml:space="preserve">2180.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I48">
         <is>
-          <t xml:space="preserve">2459.90</t>
+          <t xml:space="preserve">2180.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J48">
@@ -2410,12 +2419,12 @@
       </c>
       <c s="8" t="inlineStr" r="K48">
         <is>
-          <t xml:space="preserve">2459.90</t>
+          <t xml:space="preserve">2180.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L48">
         <is>
-          <t xml:space="preserve">4099.23</t>
+          <t xml:space="preserve">4111.43</t>
         </is>
       </c>
     </row>
@@ -2430,23 +2439,23 @@
       </c>
       <c s="8" t="inlineStr" r="E49">
         <is>
-          <t xml:space="preserve">3255.60</t>
+          <t xml:space="preserve">3715.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F49"/>
       <c s="8" t="inlineStr" r="G49">
         <is>
-          <t xml:space="preserve">3325.60</t>
+          <t xml:space="preserve">3069.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H49">
         <is>
-          <t xml:space="preserve">2436.08</t>
+          <t xml:space="preserve">2023.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I49">
         <is>
-          <t xml:space="preserve">2436.08</t>
+          <t xml:space="preserve">2023.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J49">
@@ -2456,12 +2465,12 @@
       </c>
       <c s="8" t="inlineStr" r="K49">
         <is>
-          <t xml:space="preserve">2436.08</t>
+          <t xml:space="preserve">2023.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L49">
         <is>
-          <t xml:space="preserve">4000.72</t>
+          <t xml:space="preserve">4111.59</t>
         </is>
       </c>
     </row>
@@ -2478,23 +2487,23 @@
       </c>
       <c s="8" t="inlineStr" r="E50">
         <is>
-          <t xml:space="preserve">2697.50</t>
+          <t xml:space="preserve">3647.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F50"/>
       <c s="8" t="inlineStr" r="G50">
         <is>
-          <t xml:space="preserve">3613.10</t>
+          <t xml:space="preserve">2863.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H50">
         <is>
-          <t xml:space="preserve">2024.80</t>
+          <t xml:space="preserve">1994.21</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I50">
         <is>
-          <t xml:space="preserve">2024.80</t>
+          <t xml:space="preserve">1994.21</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J50">
@@ -2504,12 +2513,12 @@
       </c>
       <c s="8" t="inlineStr" r="K50">
         <is>
-          <t xml:space="preserve">2024.80</t>
+          <t xml:space="preserve">1994.21</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L50">
         <is>
-          <t xml:space="preserve">3739.04</t>
+          <t xml:space="preserve">4423.15</t>
         </is>
       </c>
     </row>
@@ -2524,23 +2533,23 @@
       </c>
       <c s="8" t="inlineStr" r="E51">
         <is>
-          <t xml:space="preserve">2647.90</t>
+          <t xml:space="preserve">3776.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F51"/>
       <c s="8" t="inlineStr" r="G51">
         <is>
-          <t xml:space="preserve">3780.50</t>
+          <t xml:space="preserve">3060.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">2058.90</t>
+          <t xml:space="preserve">2134.23</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I51">
         <is>
-          <t xml:space="preserve">2058.90</t>
+          <t xml:space="preserve">2134.23</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J51">
@@ -2550,12 +2559,12 @@
       </c>
       <c s="8" t="inlineStr" r="K51">
         <is>
-          <t xml:space="preserve">2058.90</t>
+          <t xml:space="preserve">2134.23</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L51">
         <is>
-          <t xml:space="preserve">3449.53</t>
+          <t xml:space="preserve">4423.04</t>
         </is>
       </c>
     </row>
@@ -2574,23 +2583,23 @@
       </c>
       <c s="8" t="inlineStr" r="E52">
         <is>
-          <t xml:space="preserve">3239.50</t>
+          <t xml:space="preserve">3202.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F52"/>
       <c s="8" t="inlineStr" r="G52">
         <is>
-          <t xml:space="preserve">4010.30</t>
+          <t xml:space="preserve">2904.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H52">
         <is>
-          <t xml:space="preserve">2621.20</t>
+          <t xml:space="preserve">2151.54</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I52">
         <is>
-          <t xml:space="preserve">2621.20</t>
+          <t xml:space="preserve">2151.54</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J52">
@@ -2600,12 +2609,12 @@
       </c>
       <c s="8" t="inlineStr" r="K52">
         <is>
-          <t xml:space="preserve">2621.20</t>
+          <t xml:space="preserve">2151.54</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L52">
         <is>
-          <t xml:space="preserve">3429.93</t>
+          <t xml:space="preserve">4423.47</t>
         </is>
       </c>
     </row>
@@ -2620,23 +2629,23 @@
       </c>
       <c s="8" t="inlineStr" r="E53">
         <is>
-          <t xml:space="preserve">2944.50</t>
+          <t xml:space="preserve">3112.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F53"/>
       <c s="8" t="inlineStr" r="G53">
         <is>
-          <t xml:space="preserve">4103.30</t>
+          <t xml:space="preserve">2763.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H53">
         <is>
-          <t xml:space="preserve">2528.50</t>
+          <t xml:space="preserve">2029.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I53">
         <is>
-          <t xml:space="preserve">2528.50</t>
+          <t xml:space="preserve">2029.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J53">
@@ -2646,12 +2655,12 @@
       </c>
       <c s="8" t="inlineStr" r="K53">
         <is>
-          <t xml:space="preserve">2528.50</t>
+          <t xml:space="preserve">2029.34</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L53">
         <is>
-          <t xml:space="preserve">3298.79</t>
+          <t xml:space="preserve">4423.52</t>
         </is>
       </c>
     </row>
@@ -2668,23 +2677,23 @@
       </c>
       <c s="8" t="inlineStr" r="E54">
         <is>
-          <t xml:space="preserve">3235.20</t>
+          <t xml:space="preserve">2713.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F54"/>
       <c s="8" t="inlineStr" r="G54">
         <is>
-          <t xml:space="preserve">4238.90</t>
+          <t xml:space="preserve">3168.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">2819.90</t>
+          <t xml:space="preserve">1372.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I54">
         <is>
-          <t xml:space="preserve">2819.90</t>
+          <t xml:space="preserve">1372.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J54">
@@ -2694,12 +2703,12 @@
       </c>
       <c s="8" t="inlineStr" r="K54">
         <is>
-          <t xml:space="preserve">2819.90</t>
+          <t xml:space="preserve">1372.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L54">
         <is>
-          <t xml:space="preserve">3298.90</t>
+          <t xml:space="preserve">3600.96</t>
         </is>
       </c>
     </row>
@@ -2714,23 +2723,23 @@
       </c>
       <c s="8" t="inlineStr" r="E55">
         <is>
-          <t xml:space="preserve">3049.20</t>
+          <t xml:space="preserve">2598.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F55"/>
       <c s="8" t="inlineStr" r="G55">
         <is>
-          <t xml:space="preserve">4650.20</t>
+          <t xml:space="preserve">3388.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">2638.40</t>
+          <t xml:space="preserve">1340.57</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I55">
         <is>
-          <t xml:space="preserve">2638.40</t>
+          <t xml:space="preserve">1340.57</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J55">
@@ -2740,12 +2749,12 @@
       </c>
       <c s="8" t="inlineStr" r="K55">
         <is>
-          <t xml:space="preserve">2638.40</t>
+          <t xml:space="preserve">1340.57</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L55">
         <is>
-          <t xml:space="preserve">3119.99</t>
+          <t xml:space="preserve">3319.18</t>
         </is>
       </c>
     </row>
@@ -2764,23 +2773,23 @@
       </c>
       <c s="8" t="inlineStr" r="E56">
         <is>
-          <t xml:space="preserve">3340.20</t>
+          <t xml:space="preserve">3072.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F56"/>
       <c s="8" t="inlineStr" r="G56">
         <is>
-          <t xml:space="preserve">4313.00</t>
+          <t xml:space="preserve">3829.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H56">
         <is>
-          <t xml:space="preserve">2872.93</t>
+          <t xml:space="preserve">2183.39</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I56">
         <is>
-          <t xml:space="preserve">2872.93</t>
+          <t xml:space="preserve">2183.39</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J56">
@@ -2790,12 +2799,12 @@
       </c>
       <c s="8" t="inlineStr" r="K56">
         <is>
-          <t xml:space="preserve">2872.93</t>
+          <t xml:space="preserve">2183.39</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L56">
         <is>
-          <t xml:space="preserve">3300.41</t>
+          <t xml:space="preserve">3774.10</t>
         </is>
       </c>
     </row>
@@ -2810,23 +2819,23 @@
       </c>
       <c s="8" t="inlineStr" r="E57">
         <is>
-          <t xml:space="preserve">3337.20</t>
+          <t xml:space="preserve">3002.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F57"/>
       <c s="8" t="inlineStr" r="G57">
         <is>
-          <t xml:space="preserve">4521.90</t>
+          <t xml:space="preserve">4096.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">2956.10</t>
+          <t xml:space="preserve">2170.82</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I57">
         <is>
-          <t xml:space="preserve">2956.10</t>
+          <t xml:space="preserve">2170.82</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J57">
@@ -2836,12 +2845,12 @@
       </c>
       <c s="8" t="inlineStr" r="K57">
         <is>
-          <t xml:space="preserve">2956.10</t>
+          <t xml:space="preserve">2170.82</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L57">
         <is>
-          <t xml:space="preserve">3229.23</t>
+          <t xml:space="preserve">3562.80</t>
         </is>
       </c>
     </row>
@@ -2858,23 +2867,23 @@
       </c>
       <c s="8" t="inlineStr" r="E58">
         <is>
-          <t xml:space="preserve">3327.30</t>
+          <t xml:space="preserve">2745.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F58"/>
       <c s="8" t="inlineStr" r="G58">
         <is>
-          <t xml:space="preserve">4719.70</t>
+          <t xml:space="preserve">4154.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">2969.10</t>
+          <t xml:space="preserve">2277.55</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I58">
         <is>
-          <t xml:space="preserve">2969.10</t>
+          <t xml:space="preserve">2277.55</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J58">
@@ -2884,12 +2893,12 @@
       </c>
       <c s="8" t="inlineStr" r="K58">
         <is>
-          <t xml:space="preserve">2969.10</t>
+          <t xml:space="preserve">2277.55</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L58">
         <is>
-          <t xml:space="preserve">3117.47</t>
+          <t xml:space="preserve">3688.12</t>
         </is>
       </c>
     </row>
@@ -2904,23 +2913,23 @@
       </c>
       <c s="8" t="inlineStr" r="E59">
         <is>
-          <t xml:space="preserve">2973.20</t>
+          <t xml:space="preserve">2531.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F59"/>
       <c s="8" t="inlineStr" r="G59">
         <is>
-          <t xml:space="preserve">4787.50</t>
+          <t xml:space="preserve">4553.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H59">
         <is>
-          <t xml:space="preserve">2635.80</t>
+          <t xml:space="preserve">2138.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I59">
         <is>
-          <t xml:space="preserve">2635.80</t>
+          <t xml:space="preserve">2138.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J59">
@@ -2930,12 +2939,12 @@
       </c>
       <c s="8" t="inlineStr" r="K59">
         <is>
-          <t xml:space="preserve">2635.80</t>
+          <t xml:space="preserve">2138.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L59">
         <is>
-          <t xml:space="preserve">3031.72</t>
+          <t xml:space="preserve">3319.16</t>
         </is>
       </c>
     </row>
@@ -2954,23 +2963,23 @@
       </c>
       <c s="8" t="inlineStr" r="E60">
         <is>
-          <t xml:space="preserve">1838.80</t>
+          <t xml:space="preserve">1683.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F60"/>
       <c s="8" t="inlineStr" r="G60">
         <is>
-          <t xml:space="preserve">4832.20</t>
+          <t xml:space="preserve">4189.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">1744.97</t>
+          <t xml:space="preserve">1068.85</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I60">
         <is>
-          <t xml:space="preserve">1744.98</t>
+          <t xml:space="preserve">1068.85</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J60">
@@ -2980,12 +2989,12 @@
       </c>
       <c s="8" t="inlineStr" r="K60">
         <is>
-          <t xml:space="preserve">1744.98</t>
+          <t xml:space="preserve">1068.85</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L60">
         <is>
-          <t xml:space="preserve">2800.62</t>
+          <t xml:space="preserve">3140.50</t>
         </is>
       </c>
     </row>
@@ -3000,23 +3009,23 @@
       </c>
       <c s="8" t="inlineStr" r="E61">
         <is>
-          <t xml:space="preserve">1444.10</t>
+          <t xml:space="preserve">1942.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F61"/>
       <c s="8" t="inlineStr" r="G61">
         <is>
-          <t xml:space="preserve">5261.00</t>
+          <t xml:space="preserve">4501.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H61">
         <is>
-          <t xml:space="preserve">1428.70</t>
+          <t xml:space="preserve">1328.45</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I61">
         <is>
-          <t xml:space="preserve">1428.70</t>
+          <t xml:space="preserve">1328.45</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J61">
@@ -3026,12 +3035,12 @@
       </c>
       <c s="8" t="inlineStr" r="K61">
         <is>
-          <t xml:space="preserve">1428.70</t>
+          <t xml:space="preserve">1328.45</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L61">
         <is>
-          <t xml:space="preserve">2513.90</t>
+          <t xml:space="preserve">3118.16</t>
         </is>
       </c>
     </row>
@@ -3048,23 +3057,23 @@
       </c>
       <c s="8" t="inlineStr" r="E62">
         <is>
-          <t xml:space="preserve">2408.80</t>
+          <t xml:space="preserve">1870.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F62"/>
       <c s="8" t="inlineStr" r="G62">
         <is>
-          <t xml:space="preserve">5160.40</t>
+          <t xml:space="preserve">3389.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H62">
         <is>
-          <t xml:space="preserve">2264.72</t>
+          <t xml:space="preserve">1205.33</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I62">
         <is>
-          <t xml:space="preserve">2264.72</t>
+          <t xml:space="preserve">1205.33</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J62">
@@ -3074,12 +3083,12 @@
       </c>
       <c s="8" t="inlineStr" r="K62">
         <is>
-          <t xml:space="preserve">2264.72</t>
+          <t xml:space="preserve">1205.33</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L62">
         <is>
-          <t xml:space="preserve">2605.95</t>
+          <t xml:space="preserve">3083.33</t>
         </is>
       </c>
     </row>
@@ -3094,23 +3103,23 @@
       </c>
       <c s="8" t="inlineStr" r="E63">
         <is>
-          <t xml:space="preserve">2063.00</t>
+          <t xml:space="preserve">1915.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F63"/>
       <c s="8" t="inlineStr" r="G63">
         <is>
-          <t xml:space="preserve">5334.30</t>
+          <t xml:space="preserve">3195.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">2054.60</t>
+          <t xml:space="preserve">1246.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I63">
         <is>
-          <t xml:space="preserve">2054.60</t>
+          <t xml:space="preserve">1246.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J63">
@@ -3120,12 +3129,12 @@
       </c>
       <c s="8" t="inlineStr" r="K63">
         <is>
-          <t xml:space="preserve">2054.60</t>
+          <t xml:space="preserve">1246.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L63">
         <is>
-          <t xml:space="preserve">2513.50</t>
+          <t xml:space="preserve">3250.10</t>
         </is>
       </c>
     </row>
@@ -3144,23 +3153,23 @@
       </c>
       <c s="8" t="inlineStr" r="E64">
         <is>
-          <t xml:space="preserve">2852.90</t>
+          <t xml:space="preserve">1873.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F64"/>
       <c s="8" t="inlineStr" r="G64">
         <is>
-          <t xml:space="preserve">4610.40</t>
+          <t xml:space="preserve">3064.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">2440.96</t>
+          <t xml:space="preserve">1450.19</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I64">
         <is>
-          <t xml:space="preserve">2440.95</t>
+          <t xml:space="preserve">1450.19</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J64">
@@ -3170,12 +3179,12 @@
       </c>
       <c s="8" t="inlineStr" r="K64">
         <is>
-          <t xml:space="preserve">2440.95</t>
+          <t xml:space="preserve">1450.19</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L64">
         <is>
-          <t xml:space="preserve">2812.37</t>
+          <t xml:space="preserve">3374.29</t>
         </is>
       </c>
     </row>
@@ -3190,23 +3199,23 @@
       </c>
       <c s="8" t="inlineStr" r="E65">
         <is>
-          <t xml:space="preserve">2955.40</t>
+          <t xml:space="preserve">2245.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F65"/>
       <c s="8" t="inlineStr" r="G65">
         <is>
-          <t xml:space="preserve">4598.30</t>
+          <t xml:space="preserve">2449.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H65">
         <is>
-          <t xml:space="preserve">2554.60</t>
+          <t xml:space="preserve">1265.32</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I65">
         <is>
-          <t xml:space="preserve">2554.60</t>
+          <t xml:space="preserve">1265.32</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J65">
@@ -3216,12 +3225,12 @@
       </c>
       <c s="8" t="inlineStr" r="K65">
         <is>
-          <t xml:space="preserve">2554.60</t>
+          <t xml:space="preserve">1265.32</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L65">
         <is>
-          <t xml:space="preserve">2812.25</t>
+          <t xml:space="preserve">3765.69</t>
         </is>
       </c>
     </row>
@@ -3238,23 +3247,23 @@
       </c>
       <c s="8" t="inlineStr" r="E66">
         <is>
-          <t xml:space="preserve">2657.20</t>
+          <t xml:space="preserve">2062.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F66"/>
       <c s="8" t="inlineStr" r="G66">
         <is>
-          <t xml:space="preserve">4091.30</t>
+          <t xml:space="preserve">2276.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">2304.39</t>
+          <t xml:space="preserve">1306.12</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I66">
         <is>
-          <t xml:space="preserve">2304.39</t>
+          <t xml:space="preserve">1306.12</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J66">
@@ -3264,12 +3273,12 @@
       </c>
       <c s="8" t="inlineStr" r="K66">
         <is>
-          <t xml:space="preserve">2304.39</t>
+          <t xml:space="preserve">1306.12</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L66">
         <is>
-          <t xml:space="preserve">2977.78</t>
+          <t xml:space="preserve">3990.90</t>
         </is>
       </c>
     </row>
@@ -3284,23 +3293,23 @@
       </c>
       <c s="8" t="inlineStr" r="E67">
         <is>
-          <t xml:space="preserve">2656.50</t>
+          <t xml:space="preserve">1973.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F67"/>
       <c s="8" t="inlineStr" r="G67">
         <is>
-          <t xml:space="preserve">3557.70</t>
+          <t xml:space="preserve">2175.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H67">
         <is>
-          <t xml:space="preserve">1842.01</t>
+          <t xml:space="preserve">1216.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I67">
         <is>
-          <t xml:space="preserve">1842.01</t>
+          <t xml:space="preserve">1216.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J67">
@@ -3310,12 +3319,12 @@
       </c>
       <c s="8" t="inlineStr" r="K67">
         <is>
-          <t xml:space="preserve">1842.01</t>
+          <t xml:space="preserve">1216.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L67">
         <is>
-          <t xml:space="preserve">3014.26</t>
+          <t xml:space="preserve">4000.00</t>
         </is>
       </c>
     </row>
@@ -3334,23 +3343,23 @@
       </c>
       <c s="8" t="inlineStr" r="E68">
         <is>
-          <t xml:space="preserve">3061.20</t>
+          <t xml:space="preserve">2002.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F68"/>
       <c s="8" t="inlineStr" r="G68">
         <is>
-          <t xml:space="preserve">2983.50</t>
+          <t xml:space="preserve">2193.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">1980.27</t>
+          <t xml:space="preserve">1336.62</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I68">
         <is>
-          <t xml:space="preserve">1980.27</t>
+          <t xml:space="preserve">1336.62</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J68">
@@ -3360,12 +3369,12 @@
       </c>
       <c s="8" t="inlineStr" r="K68">
         <is>
-          <t xml:space="preserve">1980.27</t>
+          <t xml:space="preserve">1336.62</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L68">
         <is>
-          <t xml:space="preserve">3500.26</t>
+          <t xml:space="preserve">4399.64</t>
         </is>
       </c>
     </row>
@@ -3380,23 +3389,23 @@
       </c>
       <c s="8" t="inlineStr" r="E69">
         <is>
-          <t xml:space="preserve">2989.40</t>
+          <t xml:space="preserve">1955.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F69"/>
       <c s="8" t="inlineStr" r="G69">
         <is>
-          <t xml:space="preserve">2745.50</t>
+          <t xml:space="preserve">2039.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H69">
         <is>
-          <t xml:space="preserve">1772.71</t>
+          <t xml:space="preserve">1285.44</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I69">
         <is>
-          <t xml:space="preserve">1772.71</t>
+          <t xml:space="preserve">1285.44</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J69">
@@ -3406,12 +3415,12 @@
       </c>
       <c s="8" t="inlineStr" r="K69">
         <is>
-          <t xml:space="preserve">1772.71</t>
+          <t xml:space="preserve">1285.44</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L69">
         <is>
-          <t xml:space="preserve">3500.56</t>
+          <t xml:space="preserve">4423.20</t>
         </is>
       </c>
     </row>
@@ -3428,23 +3437,23 @@
       </c>
       <c s="8" t="inlineStr" r="E70">
         <is>
-          <t xml:space="preserve">2804.40</t>
+          <t xml:space="preserve">2961.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F70"/>
       <c s="8" t="inlineStr" r="G70">
         <is>
-          <t xml:space="preserve">2846.60</t>
+          <t xml:space="preserve">1943.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">1835.10</t>
+          <t xml:space="preserve">1726.67</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I70">
         <is>
-          <t xml:space="preserve">1835.10</t>
+          <t xml:space="preserve">1726.67</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J70">
@@ -3454,12 +3463,12 @@
       </c>
       <c s="8" t="inlineStr" r="K70">
         <is>
-          <t xml:space="preserve">1835.10</t>
+          <t xml:space="preserve">1726.67</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L70">
         <is>
-          <t xml:space="preserve">3429.21</t>
+          <t xml:space="preserve">4999.30</t>
         </is>
       </c>
     </row>
@@ -3474,23 +3483,23 @@
       </c>
       <c s="8" t="inlineStr" r="E71">
         <is>
-          <t xml:space="preserve">2830.30</t>
+          <t xml:space="preserve">3165.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F71"/>
       <c s="8" t="inlineStr" r="G71">
         <is>
-          <t xml:space="preserve">2736.90</t>
+          <t xml:space="preserve">1933.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">1967.60</t>
+          <t xml:space="preserve">1912.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I71">
         <is>
-          <t xml:space="preserve">1967.60</t>
+          <t xml:space="preserve">1912.61</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J71">
@@ -3500,12 +3509,12 @@
       </c>
       <c s="8" t="inlineStr" r="K71">
         <is>
-          <t xml:space="preserve">1967.60</t>
+          <t xml:space="preserve">1912.61</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L71">
         <is>
-          <t xml:space="preserve">3333.76</t>
+          <t xml:space="preserve">4999.95</t>
         </is>
       </c>
     </row>
@@ -3524,23 +3533,23 @@
       </c>
       <c s="8" t="inlineStr" r="E72">
         <is>
-          <t xml:space="preserve">2825.00</t>
+          <t xml:space="preserve">3504.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F72"/>
       <c s="8" t="inlineStr" r="G72">
         <is>
-          <t xml:space="preserve">2871.90</t>
+          <t xml:space="preserve">1772.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">2198.30</t>
+          <t xml:space="preserve">1765.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I72">
         <is>
-          <t xml:space="preserve">2198.30</t>
+          <t xml:space="preserve">1765.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J72">
@@ -3550,12 +3559,12 @@
       </c>
       <c s="8" t="inlineStr" r="K72">
         <is>
-          <t xml:space="preserve">2198.30</t>
+          <t xml:space="preserve">1765.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L72">
         <is>
-          <t xml:space="preserve">3333.23</t>
+          <t xml:space="preserve">6003.11</t>
         </is>
       </c>
     </row>
@@ -3570,23 +3579,23 @@
       </c>
       <c s="8" t="inlineStr" r="E73">
         <is>
-          <t xml:space="preserve">3080.50</t>
+          <t xml:space="preserve">3386.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F73"/>
       <c s="8" t="inlineStr" r="G73">
         <is>
-          <t xml:space="preserve">2798.00</t>
+          <t xml:space="preserve">1712.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">2108.00</t>
+          <t xml:space="preserve">1705.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I73">
         <is>
-          <t xml:space="preserve">2108.00</t>
+          <t xml:space="preserve">1705.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J73">
@@ -3596,12 +3605,12 @@
       </c>
       <c s="8" t="inlineStr" r="K73">
         <is>
-          <t xml:space="preserve">2108.00</t>
+          <t xml:space="preserve">1705.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L73">
         <is>
-          <t xml:space="preserve">3349.36</t>
+          <t xml:space="preserve">6002.68</t>
         </is>
       </c>
     </row>
@@ -3618,23 +3627,23 @@
       </c>
       <c s="8" t="inlineStr" r="E74">
         <is>
-          <t xml:space="preserve">3509.50</t>
+          <t xml:space="preserve">3029.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F74"/>
       <c s="8" t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">2948.20</t>
+          <t xml:space="preserve">1324.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">2688.60</t>
+          <t xml:space="preserve">1324.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I74">
         <is>
-          <t xml:space="preserve">2688.60</t>
+          <t xml:space="preserve">1324.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J74">
@@ -3644,12 +3653,12 @@
       </c>
       <c s="8" t="inlineStr" r="K74">
         <is>
-          <t xml:space="preserve">2688.60</t>
+          <t xml:space="preserve">1324.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L74">
         <is>
-          <t xml:space="preserve">3748.91</t>
+          <t xml:space="preserve">7477.00</t>
         </is>
       </c>
     </row>
@@ -3664,23 +3673,23 @@
       </c>
       <c s="8" t="inlineStr" r="E75">
         <is>
-          <t xml:space="preserve">3640.90</t>
+          <t xml:space="preserve">2882.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F75"/>
       <c s="8" t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">2966.30</t>
+          <t xml:space="preserve">1351.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">2656.10</t>
+          <t xml:space="preserve">1351.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I75">
         <is>
-          <t xml:space="preserve">2656.10</t>
+          <t xml:space="preserve">1351.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J75">
@@ -3690,12 +3699,12 @@
       </c>
       <c s="8" t="inlineStr" r="K75">
         <is>
-          <t xml:space="preserve">2656.10</t>
+          <t xml:space="preserve">1351.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L75">
         <is>
-          <t xml:space="preserve">4403.49</t>
+          <t xml:space="preserve">7114.50</t>
         </is>
       </c>
     </row>
@@ -3714,23 +3723,23 @@
       </c>
       <c s="8" t="inlineStr" r="E76">
         <is>
-          <t xml:space="preserve">2465.40</t>
+          <t xml:space="preserve">3541.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F76"/>
       <c s="8" t="inlineStr" r="G76">
         <is>
-          <t xml:space="preserve">3457.70</t>
+          <t xml:space="preserve">2241.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">2236.90</t>
+          <t xml:space="preserve">2234.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I76">
         <is>
-          <t xml:space="preserve">2236.90</t>
+          <t xml:space="preserve">2234.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J76">
@@ -3740,12 +3749,12 @@
       </c>
       <c s="8" t="inlineStr" r="K76">
         <is>
-          <t xml:space="preserve">2236.90</t>
+          <t xml:space="preserve">2234.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L76">
         <is>
-          <t xml:space="preserve">3109.78</t>
+          <t xml:space="preserve">6000.27</t>
         </is>
       </c>
     </row>
@@ -3760,23 +3769,23 @@
       </c>
       <c s="8" t="inlineStr" r="E77">
         <is>
-          <t xml:space="preserve">2396.60</t>
+          <t xml:space="preserve">3892.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F77"/>
       <c s="8" t="inlineStr" r="G77">
         <is>
-          <t xml:space="preserve">4133.30</t>
+          <t xml:space="preserve">2107.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H77">
         <is>
-          <t xml:space="preserve">2168.10</t>
+          <t xml:space="preserve">2100.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I77">
         <is>
-          <t xml:space="preserve">2168.10</t>
+          <t xml:space="preserve">2100.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J77">
@@ -3786,12 +3795,12 @@
       </c>
       <c s="8" t="inlineStr" r="K77">
         <is>
-          <t xml:space="preserve">2168.10</t>
+          <t xml:space="preserve">2100.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L77">
         <is>
-          <t xml:space="preserve">3109.01</t>
+          <t xml:space="preserve">6000.68</t>
         </is>
       </c>
     </row>
@@ -3808,23 +3817,23 @@
       </c>
       <c s="8" t="inlineStr" r="E78">
         <is>
-          <t xml:space="preserve">2802.30</t>
+          <t xml:space="preserve">3392.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F78"/>
       <c s="8" t="inlineStr" r="G78">
         <is>
-          <t xml:space="preserve">4354.20</t>
+          <t xml:space="preserve">2102.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H78">
         <is>
-          <t xml:space="preserve">2598.53</t>
+          <t xml:space="preserve">2095.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I78">
         <is>
-          <t xml:space="preserve">2598.54</t>
+          <t xml:space="preserve">2095.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J78">
@@ -3834,12 +3843,12 @@
       </c>
       <c s="8" t="inlineStr" r="K78">
         <is>
-          <t xml:space="preserve">2598.54</t>
+          <t xml:space="preserve">2095.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L78">
         <is>
-          <t xml:space="preserve">3000.45</t>
+          <t xml:space="preserve">6000.46</t>
         </is>
       </c>
     </row>
@@ -3854,23 +3863,23 @@
       </c>
       <c s="8" t="inlineStr" r="E79">
         <is>
-          <t xml:space="preserve">2936.20</t>
+          <t xml:space="preserve">3677.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F79"/>
       <c s="8" t="inlineStr" r="G79">
         <is>
-          <t xml:space="preserve">4230.40</t>
+          <t xml:space="preserve">1961.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H79">
         <is>
-          <t xml:space="preserve">2744.40</t>
+          <t xml:space="preserve">1954.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I79">
         <is>
-          <t xml:space="preserve">2744.40</t>
+          <t xml:space="preserve">1954.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J79">
@@ -3880,12 +3889,12 @@
       </c>
       <c s="8" t="inlineStr" r="K79">
         <is>
-          <t xml:space="preserve">2744.40</t>
+          <t xml:space="preserve">1954.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L79">
         <is>
-          <t xml:space="preserve">2999.89</t>
+          <t xml:space="preserve">5721.97</t>
         </is>
       </c>
     </row>
@@ -3904,23 +3913,23 @@
       </c>
       <c s="8" t="inlineStr" r="E80">
         <is>
-          <t xml:space="preserve">3096.80</t>
+          <t xml:space="preserve">3312.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F80"/>
       <c s="8" t="inlineStr" r="G80">
         <is>
-          <t xml:space="preserve">4263.90</t>
+          <t xml:space="preserve">1847.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H80">
         <is>
-          <t xml:space="preserve">3057.80</t>
+          <t xml:space="preserve">1847.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I80">
         <is>
-          <t xml:space="preserve">3057.80</t>
+          <t xml:space="preserve">1847.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J80">
@@ -3930,12 +3939,12 @@
       </c>
       <c s="8" t="inlineStr" r="K80">
         <is>
-          <t xml:space="preserve">3057.80</t>
+          <t xml:space="preserve">1847.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L80">
         <is>
-          <t xml:space="preserve">3309.67</t>
+          <t xml:space="preserve">7131.00</t>
         </is>
       </c>
     </row>
@@ -3950,23 +3959,23 @@
       </c>
       <c s="8" t="inlineStr" r="E81">
         <is>
-          <t xml:space="preserve">3375.40</t>
+          <t xml:space="preserve">4249.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F81"/>
       <c s="8" t="inlineStr" r="G81">
         <is>
-          <t xml:space="preserve">3590.00</t>
+          <t xml:space="preserve">1308.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H81">
         <is>
-          <t xml:space="preserve">3126.80</t>
+          <t xml:space="preserve">1308.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I81">
         <is>
-          <t xml:space="preserve">3126.80</t>
+          <t xml:space="preserve">1308.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J81">
@@ -3976,12 +3985,12 @@
       </c>
       <c s="8" t="inlineStr" r="K81">
         <is>
-          <t xml:space="preserve">3126.80</t>
+          <t xml:space="preserve">1308.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L81">
         <is>
-          <t xml:space="preserve">3621.65</t>
+          <t xml:space="preserve">8261.55</t>
         </is>
       </c>
     </row>
@@ -3998,23 +4007,23 @@
       </c>
       <c s="8" t="inlineStr" r="E82">
         <is>
-          <t xml:space="preserve">3839.00</t>
+          <t xml:space="preserve">3930.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F82"/>
       <c s="8" t="inlineStr" r="G82">
         <is>
-          <t xml:space="preserve">2457.30</t>
+          <t xml:space="preserve">1121.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H82">
         <is>
-          <t xml:space="preserve">2456.30</t>
+          <t xml:space="preserve">1121.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I82">
         <is>
-          <t xml:space="preserve">2456.30</t>
+          <t xml:space="preserve">1121.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J82">
@@ -4024,12 +4033,12 @@
       </c>
       <c s="8" t="inlineStr" r="K82">
         <is>
-          <t xml:space="preserve">2456.30</t>
+          <t xml:space="preserve">1121.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L82">
         <is>
-          <t xml:space="preserve">6000.16</t>
+          <t xml:space="preserve">8653.50</t>
         </is>
       </c>
     </row>
@@ -4044,23 +4053,23 @@
       </c>
       <c s="8" t="inlineStr" r="E83">
         <is>
-          <t xml:space="preserve">4108.40</t>
+          <t xml:space="preserve">4633.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F83"/>
       <c s="8" t="inlineStr" r="G83">
         <is>
-          <t xml:space="preserve">2291.70</t>
+          <t xml:space="preserve">713.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H83">
         <is>
-          <t xml:space="preserve">2290.70</t>
+          <t xml:space="preserve">713.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I83">
         <is>
-          <t xml:space="preserve">2290.70</t>
+          <t xml:space="preserve">713.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J83">
@@ -4070,12 +4079,12 @@
       </c>
       <c s="8" t="inlineStr" r="K83">
         <is>
-          <t xml:space="preserve">2290.70</t>
+          <t xml:space="preserve">713.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L83">
         <is>
-          <t xml:space="preserve">6000.62</t>
+          <t xml:space="preserve">9002.28</t>
         </is>
       </c>
     </row>
@@ -4094,23 +4103,23 @@
       </c>
       <c s="8" t="inlineStr" r="E84">
         <is>
-          <t xml:space="preserve">3752.20</t>
+          <t xml:space="preserve">4948.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F84"/>
       <c s="8" t="inlineStr" r="G84">
         <is>
-          <t xml:space="preserve">2487.50</t>
+          <t xml:space="preserve">930.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H84">
         <is>
-          <t xml:space="preserve">2486.50</t>
+          <t xml:space="preserve">930.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I84">
         <is>
-          <t xml:space="preserve">2486.50</t>
+          <t xml:space="preserve">930.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J84">
@@ -4120,12 +4129,12 @@
       </c>
       <c s="8" t="inlineStr" r="K84">
         <is>
-          <t xml:space="preserve">2486.50</t>
+          <t xml:space="preserve">930.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L84">
         <is>
-          <t xml:space="preserve">6000.43</t>
+          <t xml:space="preserve">9312.46</t>
         </is>
       </c>
     </row>
@@ -4140,23 +4149,23 @@
       </c>
       <c s="8" t="inlineStr" r="E85">
         <is>
-          <t xml:space="preserve">3187.10</t>
+          <t xml:space="preserve">5028.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F85"/>
       <c s="8" t="inlineStr" r="G85">
         <is>
-          <t xml:space="preserve">2502.90</t>
+          <t xml:space="preserve">928.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H85">
         <is>
-          <t xml:space="preserve">2346.35</t>
+          <t xml:space="preserve">928.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I85">
         <is>
-          <t xml:space="preserve">2346.35</t>
+          <t xml:space="preserve">928.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J85">
@@ -4166,12 +4175,12 @@
       </c>
       <c s="8" t="inlineStr" r="K85">
         <is>
-          <t xml:space="preserve">2346.35</t>
+          <t xml:space="preserve">928.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L85">
         <is>
-          <t xml:space="preserve">4999.44</t>
+          <t xml:space="preserve">9312.56</t>
         </is>
       </c>
     </row>
@@ -4188,23 +4197,23 @@
       </c>
       <c s="8" t="inlineStr" r="E86">
         <is>
-          <t xml:space="preserve">1780.70</t>
+          <t xml:space="preserve">3965.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F86"/>
       <c s="8" t="inlineStr" r="G86">
         <is>
-          <t xml:space="preserve">3089.90</t>
+          <t xml:space="preserve">1169.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H86">
         <is>
-          <t xml:space="preserve">1743.40</t>
+          <t xml:space="preserve">1169.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I86">
         <is>
-          <t xml:space="preserve">1743.40</t>
+          <t xml:space="preserve">1169.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J86">
@@ -4214,12 +4223,12 @@
       </c>
       <c s="8" t="inlineStr" r="K86">
         <is>
-          <t xml:space="preserve">1743.40</t>
+          <t xml:space="preserve">1169.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L86">
         <is>
-          <t xml:space="preserve">3199.88</t>
+          <t xml:space="preserve">9592.70</t>
         </is>
       </c>
     </row>
@@ -4234,23 +4243,23 @@
       </c>
       <c s="8" t="inlineStr" r="E87">
         <is>
-          <t xml:space="preserve">1771.00</t>
+          <t xml:space="preserve">4186.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F87"/>
       <c s="8" t="inlineStr" r="G87">
         <is>
-          <t xml:space="preserve">3195.90</t>
+          <t xml:space="preserve">1122.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H87">
         <is>
-          <t xml:space="preserve">1733.70</t>
+          <t xml:space="preserve">1122.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I87">
         <is>
-          <t xml:space="preserve">1733.70</t>
+          <t xml:space="preserve">1122.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J87">
@@ -4260,12 +4269,12 @@
       </c>
       <c s="8" t="inlineStr" r="K87">
         <is>
-          <t xml:space="preserve">1733.70</t>
+          <t xml:space="preserve">1122.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L87">
         <is>
-          <t xml:space="preserve">3199.86</t>
+          <t xml:space="preserve">9847.41</t>
         </is>
       </c>
     </row>
@@ -4284,23 +4293,23 @@
       </c>
       <c s="8" t="inlineStr" r="E88">
         <is>
-          <t xml:space="preserve">1797.70</t>
+          <t xml:space="preserve">3784.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F88"/>
       <c s="8" t="inlineStr" r="G88">
         <is>
-          <t xml:space="preserve">2532.50</t>
+          <t xml:space="preserve">1567.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H88">
         <is>
-          <t xml:space="preserve">1710.40</t>
+          <t xml:space="preserve">1567.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I88">
         <is>
-          <t xml:space="preserve">1710.40</t>
+          <t xml:space="preserve">1567.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J88">
@@ -4310,12 +4319,12 @@
       </c>
       <c s="8" t="inlineStr" r="K88">
         <is>
-          <t xml:space="preserve">1710.40</t>
+          <t xml:space="preserve">1567.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L88">
         <is>
-          <t xml:space="preserve">3099.32</t>
+          <t xml:space="preserve">8164.56</t>
         </is>
       </c>
     </row>
@@ -4330,23 +4339,23 @@
       </c>
       <c s="8" t="inlineStr" r="E89">
         <is>
-          <t xml:space="preserve">1662.50</t>
+          <t xml:space="preserve">4012.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F89"/>
       <c s="8" t="inlineStr" r="G89">
         <is>
-          <t xml:space="preserve">2813.20</t>
+          <t xml:space="preserve">1741.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H89">
         <is>
-          <t xml:space="preserve">1579.50</t>
+          <t xml:space="preserve">1741.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I89">
         <is>
-          <t xml:space="preserve">1579.50</t>
+          <t xml:space="preserve">1741.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J89">
@@ -4356,12 +4365,12 @@
       </c>
       <c s="8" t="inlineStr" r="K89">
         <is>
-          <t xml:space="preserve">1579.50</t>
+          <t xml:space="preserve">1741.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L89">
         <is>
-          <t xml:space="preserve">2800.93</t>
+          <t xml:space="preserve">8164.50</t>
         </is>
       </c>
     </row>
@@ -4378,23 +4387,23 @@
       </c>
       <c s="8" t="inlineStr" r="E90">
         <is>
-          <t xml:space="preserve">1781.20</t>
+          <t xml:space="preserve">3031.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F90"/>
       <c s="8" t="inlineStr" r="G90">
         <is>
-          <t xml:space="preserve">1973.00</t>
+          <t xml:space="preserve">1519.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H90">
         <is>
-          <t xml:space="preserve">1689.80</t>
+          <t xml:space="preserve">1419.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I90">
         <is>
-          <t xml:space="preserve">1689.80</t>
+          <t xml:space="preserve">1419.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J90">
@@ -4404,12 +4413,12 @@
       </c>
       <c s="8" t="inlineStr" r="K90">
         <is>
-          <t xml:space="preserve">1689.80</t>
+          <t xml:space="preserve">1419.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L90">
         <is>
-          <t xml:space="preserve">3333.02</t>
+          <t xml:space="preserve">8000.02</t>
         </is>
       </c>
     </row>
@@ -4424,23 +4433,23 @@
       </c>
       <c s="8" t="inlineStr" r="E91">
         <is>
-          <t xml:space="preserve">1520.50</t>
+          <t xml:space="preserve">3331.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F91"/>
       <c s="8" t="inlineStr" r="G91">
         <is>
-          <t xml:space="preserve">2002.90</t>
+          <t xml:space="preserve">1382.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H91">
         <is>
-          <t xml:space="preserve">1435.20</t>
+          <t xml:space="preserve">1282.01</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I91">
         <is>
-          <t xml:space="preserve">1435.20</t>
+          <t xml:space="preserve">1282.01</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J91">
@@ -4450,12 +4459,12 @@
       </c>
       <c s="8" t="inlineStr" r="K91">
         <is>
-          <t xml:space="preserve">1435.20</t>
+          <t xml:space="preserve">1282.01</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L91">
         <is>
-          <t xml:space="preserve">2909.18</t>
+          <t xml:space="preserve">8000.81</t>
         </is>
       </c>
     </row>
@@ -4474,23 +4483,23 @@
       </c>
       <c s="8" t="inlineStr" r="E92">
         <is>
-          <t xml:space="preserve">1914.20</t>
+          <t xml:space="preserve">2554.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F92"/>
       <c s="8" t="inlineStr" r="G92">
         <is>
-          <t xml:space="preserve">2021.10</t>
+          <t xml:space="preserve">1213.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H92">
         <is>
-          <t xml:space="preserve">1369.59</t>
+          <t xml:space="preserve">1068.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I92">
         <is>
-          <t xml:space="preserve">1369.59</t>
+          <t xml:space="preserve">1068.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J92">
@@ -4500,12 +4509,12 @@
       </c>
       <c s="8" t="inlineStr" r="K92">
         <is>
-          <t xml:space="preserve">1369.59</t>
+          <t xml:space="preserve">1068.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L92">
         <is>
-          <t xml:space="preserve">3605.65</t>
+          <t xml:space="preserve">6500.59</t>
         </is>
       </c>
     </row>
@@ -4520,23 +4529,23 @@
       </c>
       <c s="8" t="inlineStr" r="E93">
         <is>
-          <t xml:space="preserve">1643.00</t>
+          <t xml:space="preserve">2569.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F93"/>
       <c s="8" t="inlineStr" r="G93">
         <is>
-          <t xml:space="preserve">2004.50</t>
+          <t xml:space="preserve">1259.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H93">
         <is>
-          <t xml:space="preserve">1355.90</t>
+          <t xml:space="preserve">1124.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I93">
         <is>
-          <t xml:space="preserve">1355.90</t>
+          <t xml:space="preserve">1124.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J93">
@@ -4546,12 +4555,12 @@
       </c>
       <c s="8" t="inlineStr" r="K93">
         <is>
-          <t xml:space="preserve">1355.90</t>
+          <t xml:space="preserve">1124.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L93">
         <is>
-          <t xml:space="preserve">3499.69</t>
+          <t xml:space="preserve">6500.48</t>
         </is>
       </c>
     </row>
@@ -4568,23 +4577,23 @@
       </c>
       <c s="8" t="inlineStr" r="E94">
         <is>
-          <t xml:space="preserve">1456.10</t>
+          <t xml:space="preserve">2600.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F94"/>
       <c s="8" t="inlineStr" r="G94">
         <is>
-          <t xml:space="preserve">2967.90</t>
+          <t xml:space="preserve">2621.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H94">
         <is>
-          <t xml:space="preserve">1374.20</t>
+          <t xml:space="preserve">1515.36</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I94">
         <is>
-          <t xml:space="preserve">1374.20</t>
+          <t xml:space="preserve">1515.36</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J94">
@@ -4594,12 +4603,12 @@
       </c>
       <c s="8" t="inlineStr" r="K94">
         <is>
-          <t xml:space="preserve">1374.20</t>
+          <t xml:space="preserve">1515.36</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L94">
         <is>
-          <t xml:space="preserve">3140.20</t>
+          <t xml:space="preserve">4423.37</t>
         </is>
       </c>
     </row>
@@ -4614,23 +4623,23 @@
       </c>
       <c s="8" t="inlineStr" r="E95">
         <is>
-          <t xml:space="preserve">1578.00</t>
+          <t xml:space="preserve">2389.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F95"/>
       <c s="8" t="inlineStr" r="G95">
         <is>
-          <t xml:space="preserve">3132.60</t>
+          <t xml:space="preserve">2666.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H95">
         <is>
-          <t xml:space="preserve">1496.10</t>
+          <t xml:space="preserve">1383.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I95">
         <is>
-          <t xml:space="preserve">1496.10</t>
+          <t xml:space="preserve">1383.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J95">
@@ -4640,12 +4649,12 @@
       </c>
       <c s="8" t="inlineStr" r="K95">
         <is>
-          <t xml:space="preserve">1496.10</t>
+          <t xml:space="preserve">1383.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L95">
         <is>
-          <t xml:space="preserve">3140.17</t>
+          <t xml:space="preserve">4423.03</t>
         </is>
       </c>
     </row>
@@ -4664,23 +4673,23 @@
       </c>
       <c s="8" t="inlineStr" r="E96">
         <is>
-          <t xml:space="preserve">1620.20</t>
+          <t xml:space="preserve">2381.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F96"/>
       <c s="8" t="inlineStr" r="G96">
         <is>
-          <t xml:space="preserve">3214.60</t>
+          <t xml:space="preserve">2666.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H96">
         <is>
-          <t xml:space="preserve">1294.20</t>
+          <t xml:space="preserve">1362.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I96">
         <is>
-          <t xml:space="preserve">1294.20</t>
+          <t xml:space="preserve">1362.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J96">
@@ -4690,12 +4699,12 @@
       </c>
       <c s="8" t="inlineStr" r="K96">
         <is>
-          <t xml:space="preserve">1294.20</t>
+          <t xml:space="preserve">1362.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L96">
         <is>
-          <t xml:space="preserve">2909.62</t>
+          <t xml:space="preserve">4240.95</t>
         </is>
       </c>
     </row>
@@ -4710,23 +4719,23 @@
       </c>
       <c s="8" t="inlineStr" r="E97">
         <is>
-          <t xml:space="preserve">1677.30</t>
+          <t xml:space="preserve">2449.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F97"/>
       <c s="8" t="inlineStr" r="G97">
         <is>
-          <t xml:space="preserve">2744.30</t>
+          <t xml:space="preserve">2688.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H97">
         <is>
-          <t xml:space="preserve">1333.61</t>
+          <t xml:space="preserve">1422.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I97">
         <is>
-          <t xml:space="preserve">1333.61</t>
+          <t xml:space="preserve">1422.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J97">
@@ -4736,12 +4745,12 @@
       </c>
       <c s="8" t="inlineStr" r="K97">
         <is>
-          <t xml:space="preserve">1333.61</t>
+          <t xml:space="preserve">1422.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L97">
         <is>
-          <t xml:space="preserve">2993.88</t>
+          <t xml:space="preserve">4423.01</t>
         </is>
       </c>
     </row>
@@ -4758,23 +4767,23 @@
       </c>
       <c s="8" t="inlineStr" r="E98">
         <is>
-          <t xml:space="preserve">1870.00</t>
+          <t xml:space="preserve">3247.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F98"/>
       <c s="8" t="inlineStr" r="G98">
         <is>
-          <t xml:space="preserve">2892.30</t>
+          <t xml:space="preserve">2561.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H98">
         <is>
-          <t xml:space="preserve">1492.70</t>
+          <t xml:space="preserve">1595.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I98">
         <is>
-          <t xml:space="preserve">1492.70</t>
+          <t xml:space="preserve">1595.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J98">
@@ -4784,12 +4793,12 @@
       </c>
       <c s="8" t="inlineStr" r="K98">
         <is>
-          <t xml:space="preserve">1492.70</t>
+          <t xml:space="preserve">1595.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L98">
         <is>
-          <t xml:space="preserve">3027.69</t>
+          <t xml:space="preserve">4218.80</t>
         </is>
       </c>
     </row>
@@ -4804,23 +4813,23 @@
       </c>
       <c s="8" t="inlineStr" r="E99">
         <is>
-          <t xml:space="preserve">1387.00</t>
+          <t xml:space="preserve">3185.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F99"/>
       <c s="8" t="inlineStr" r="G99">
         <is>
-          <t xml:space="preserve">2967.50</t>
+          <t xml:space="preserve">2571.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H99">
         <is>
-          <t xml:space="preserve">1061.90</t>
+          <t xml:space="preserve">1615.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I99">
         <is>
-          <t xml:space="preserve">1061.90</t>
+          <t xml:space="preserve">1615.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J99">
@@ -4830,12 +4839,12 @@
       </c>
       <c s="8" t="inlineStr" r="K99">
         <is>
-          <t xml:space="preserve">1061.90</t>
+          <t xml:space="preserve">1615.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L99">
         <is>
-          <t xml:space="preserve">2899.47</t>
+          <t xml:space="preserve">4190.38</t>
         </is>
       </c>
     </row>
@@ -4854,23 +4863,23 @@
       </c>
       <c s="8" t="inlineStr" r="E100">
         <is>
-          <t xml:space="preserve">2019.30</t>
+          <t xml:space="preserve">2700.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F100"/>
       <c s="8" t="inlineStr" r="G100">
         <is>
-          <t xml:space="preserve">2957.80</t>
+          <t xml:space="preserve">2327.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H100">
         <is>
-          <t xml:space="preserve">1455.00</t>
+          <t xml:space="preserve">1393.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I100">
         <is>
-          <t xml:space="preserve">1455.00</t>
+          <t xml:space="preserve">1393.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J100">
@@ -4880,12 +4889,12 @@
       </c>
       <c s="8" t="inlineStr" r="K100">
         <is>
-          <t xml:space="preserve">1455.00</t>
+          <t xml:space="preserve">1393.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L100">
         <is>
-          <t xml:space="preserve">3066.52</t>
+          <t xml:space="preserve">4381.15</t>
         </is>
       </c>
     </row>
@@ -4900,23 +4909,23 @@
       </c>
       <c s="8" t="inlineStr" r="E101">
         <is>
-          <t xml:space="preserve">2131.40</t>
+          <t xml:space="preserve">2654.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F101"/>
       <c s="8" t="inlineStr" r="G101">
         <is>
-          <t xml:space="preserve">3131.30</t>
+          <t xml:space="preserve">2332.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H101">
         <is>
-          <t xml:space="preserve">1567.10</t>
+          <t xml:space="preserve">1376.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I101">
         <is>
-          <t xml:space="preserve">1567.10</t>
+          <t xml:space="preserve">1376.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J101">
@@ -4926,12 +4935,12 @@
       </c>
       <c s="8" t="inlineStr" r="K101">
         <is>
-          <t xml:space="preserve">1567.10</t>
+          <t xml:space="preserve">1376.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L101">
         <is>
-          <t xml:space="preserve">3079.40</t>
+          <t xml:space="preserve">4260.40</t>
         </is>
       </c>
     </row>
@@ -4948,23 +4957,23 @@
       </c>
       <c s="8" t="inlineStr" r="E102">
         <is>
-          <t xml:space="preserve">2038.90</t>
+          <t xml:space="preserve">2801.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F102"/>
       <c s="8" t="inlineStr" r="G102">
         <is>
-          <t xml:space="preserve">3649.10</t>
+          <t xml:space="preserve">2034.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H102">
         <is>
-          <t xml:space="preserve">1493.62</t>
+          <t xml:space="preserve">1300.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I102">
         <is>
-          <t xml:space="preserve">1493.62</t>
+          <t xml:space="preserve">1300.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J102">
@@ -4974,17 +4983,17 @@
       </c>
       <c s="8" t="inlineStr" r="K102">
         <is>
-          <t xml:space="preserve">1493.62</t>
+          <t xml:space="preserve">1300.97</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L102">
         <is>
-          <t xml:space="preserve">2999.69</t>
+          <t xml:space="preserve">4401.00</t>
         </is>
       </c>
     </row>
     <row r="103" ht="13.2" customHeight="0">
-      <c s="13" t="str" r="A103"/>
+      <c s="14" t="str" r="A103"/>
       <c s="12" t="str" r="B103"/>
       <c s="12" t="str" r="C103"/>
       <c s="7" t="inlineStr" r="D103">
@@ -4994,23 +5003,23 @@
       </c>
       <c s="8" t="inlineStr" r="E103">
         <is>
-          <t xml:space="preserve">1870.10</t>
+          <t xml:space="preserve">2760.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F103"/>
       <c s="8" t="inlineStr" r="G103">
         <is>
-          <t xml:space="preserve">3803.30</t>
+          <t xml:space="preserve">2458.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H103">
         <is>
-          <t xml:space="preserve">1372.10</t>
+          <t xml:space="preserve">1687.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I103">
         <is>
-          <t xml:space="preserve">1372.10</t>
+          <t xml:space="preserve">1687.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J103">
@@ -5020,25 +5029,25 @@
       </c>
       <c s="8" t="inlineStr" r="K103">
         <is>
-          <t xml:space="preserve">1372.10</t>
+          <t xml:space="preserve">1687.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L103">
         <is>
-          <t xml:space="preserve">2899.83</t>
+          <t xml:space="preserve">4006.39</t>
         </is>
       </c>
     </row>
     <row r="104" ht="0.05" customHeight="1"/>
     <row r="105" ht="5.7" customHeight="1"/>
     <row r="106" ht="17.4" customHeight="0">
-      <c s="14" t="inlineStr" r="A106">
+      <c s="15" t="inlineStr" r="A106">
         <is>
           <t xml:space="preserve">Date</t>
         </is>
       </c>
-      <c s="15" t="str" r="B106"/>
-      <c s="15" t="str" r="C106"/>
+      <c s="16" t="str" r="B106"/>
+      <c s="16" t="str" r="C106"/>
       <c s="4" t="str" r="D106"/>
       <c s="3" t="inlineStr" r="E106">
         <is>
@@ -5103,45 +5112,45 @@
     <row r="107" ht="14.4" customHeight="0">
       <c s="5" t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">01-03-2021</t>
-        </is>
-      </c>
-      <c s="16" t="inlineStr" r="B107">
+          <t xml:space="preserve">24-03-2021</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="B107">
         <is>
           <t xml:space="preserve">Total (MWh)</t>
         </is>
       </c>
-      <c s="15" t="str" r="C107"/>
+      <c s="16" t="str" r="C107"/>
       <c s="4" t="str" r="D107"/>
-      <c s="17" t="inlineStr" r="E107">
-        <is>
-          <t xml:space="preserve">54436.28</t>
+      <c s="18" t="inlineStr" r="E107">
+        <is>
+          <t xml:space="preserve">70601.18</t>
         </is>
       </c>
       <c s="4" t="str" r="F107"/>
-      <c s="17" t="inlineStr" r="G107">
-        <is>
-          <t xml:space="preserve">78418.90</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="H107">
-        <is>
-          <t xml:space="preserve">43459.95</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="I107">
-        <is>
-          <t xml:space="preserve">43459.96</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="J107">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="K107">
-        <is>
-          <t xml:space="preserve">43459.96</t>
+      <c s="18" t="inlineStr" r="G107">
+        <is>
+          <t xml:space="preserve">66814.13</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="H107">
+        <is>
+          <t xml:space="preserve">42560.79</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="I107">
+        <is>
+          <t xml:space="preserve">42557.41</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="J107">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="K107">
+        <is>
+          <t xml:space="preserve">42557.41</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L107">
@@ -5152,139 +5161,139 @@
     </row>
     <row r="108" ht="13.65" customHeight="0">
       <c s="10" t="str" r="A108"/>
-      <c s="16" t="inlineStr" r="B108">
+      <c s="17" t="inlineStr" r="B108">
         <is>
           <t xml:space="preserve">Max (MW)</t>
         </is>
       </c>
-      <c s="15" t="str" r="C108"/>
+      <c s="16" t="str" r="C108"/>
       <c s="4" t="str" r="D108"/>
-      <c s="17" t="inlineStr" r="E108">
-        <is>
-          <t xml:space="preserve">4108.40</t>
+      <c s="18" t="inlineStr" r="E108">
+        <is>
+          <t xml:space="preserve">5028.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F108"/>
-      <c s="17" t="inlineStr" r="G108">
-        <is>
-          <t xml:space="preserve">5334.30</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="H108">
-        <is>
-          <t xml:space="preserve">3126.80</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="I108">
-        <is>
-          <t xml:space="preserve">3126.80</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="J108">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="K108">
-        <is>
-          <t xml:space="preserve">3126.80</t>
+      <c s="18" t="inlineStr" r="G108">
+        <is>
+          <t xml:space="preserve">4629.80</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="H108">
+        <is>
+          <t xml:space="preserve">3135.24</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="I108">
+        <is>
+          <t xml:space="preserve">3135.24</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="J108">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="K108">
+        <is>
+          <t xml:space="preserve">3135.24</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L108">
         <is>
-          <t xml:space="preserve">6093.85</t>
+          <t xml:space="preserve">9847.41</t>
         </is>
       </c>
     </row>
     <row r="109" ht="12.9" customHeight="0">
       <c s="10" t="str" r="A109"/>
-      <c s="16" t="inlineStr" r="B109">
+      <c s="17" t="inlineStr" r="B109">
         <is>
           <t xml:space="preserve">Min (MW)</t>
         </is>
       </c>
-      <c s="15" t="str" r="C109"/>
+      <c s="16" t="str" r="C109"/>
       <c s="4" t="str" r="D109"/>
-      <c s="17" t="inlineStr" r="E109">
-        <is>
-          <t xml:space="preserve">1040.00</t>
+      <c s="18" t="inlineStr" r="E109">
+        <is>
+          <t xml:space="preserve">1536.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F109"/>
-      <c s="17" t="inlineStr" r="G109">
-        <is>
-          <t xml:space="preserve">1946.70</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="H109">
-        <is>
-          <t xml:space="preserve">730.70</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="I109">
-        <is>
-          <t xml:space="preserve">730.70</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="J109">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="K109">
-        <is>
-          <t xml:space="preserve">730.70</t>
+      <c s="18" t="inlineStr" r="G109">
+        <is>
+          <t xml:space="preserve">713.40</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="H109">
+        <is>
+          <t xml:space="preserve">713.40</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="I109">
+        <is>
+          <t xml:space="preserve">713.40</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="J109">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="K109">
+        <is>
+          <t xml:space="preserve">713.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L109">
         <is>
-          <t xml:space="preserve">2513.50</t>
+          <t xml:space="preserve">2789.40</t>
         </is>
       </c>
     </row>
     <row r="110" ht="12.9" customHeight="0">
-      <c s="13" t="str" r="A110"/>
-      <c s="16" t="inlineStr" r="B110">
+      <c s="14" t="str" r="A110"/>
+      <c s="17" t="inlineStr" r="B110">
         <is>
           <t xml:space="preserve">Average (MW)</t>
         </is>
       </c>
-      <c s="15" t="str" r="C110"/>
+      <c s="16" t="str" r="C110"/>
       <c s="4" t="str" r="D110"/>
-      <c s="17" t="inlineStr" r="E110">
-        <is>
-          <t xml:space="preserve">2268.18</t>
+      <c s="18" t="inlineStr" r="E110">
+        <is>
+          <t xml:space="preserve">2941.72</t>
         </is>
       </c>
       <c s="4" t="str" r="F110"/>
-      <c s="17" t="inlineStr" r="G110">
-        <is>
-          <t xml:space="preserve">3267.45</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="H110">
-        <is>
-          <t xml:space="preserve">1810.83</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="I110">
-        <is>
-          <t xml:space="preserve">1810.83</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="J110">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="K110">
-        <is>
-          <t xml:space="preserve">1810.83</t>
+      <c s="18" t="inlineStr" r="G110">
+        <is>
+          <t xml:space="preserve">2783.92</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="H110">
+        <is>
+          <t xml:space="preserve">1773.37</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="I110">
+        <is>
+          <t xml:space="preserve">1773.23</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="J110">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c s="18" t="inlineStr" r="K110">
+        <is>
+          <t xml:space="preserve">1773.23</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L110">
         <is>
-          <t xml:space="preserve">3433.15</t>
+          <t xml:space="preserve">4575.16</t>
         </is>
       </c>
     </row>

--- a/Dumps/iexRtmFile/MarketMinute.xlsx
+++ b/Dumps/iexRtmFile/MarketMinute.xlsx
@@ -67,7 +67,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,12 +96,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEFF"/>
         <bgColor rgb="FFEEEEFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBAD3FC"/>
-        <bgColor rgb="FFBAD3FC"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,7 +174,7 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
@@ -217,9 +211,6 @@
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="1" fillId="3" borderId="4">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="5" fillId="6" borderId="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="1" fillId="2" borderId="4">
       <alignment vertical="top" wrapText="1"/>
@@ -259,7 +250,7 @@
       <rgbColor rgb="00F5F5F5"/>
       <rgbColor rgb="00FFFFFF"/>
       <rgbColor rgb="00EEEEFF"/>
-      <rgbColor rgb="00BAD3FC"/>
+      <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
       <rgbColor rgb="00008000"/>
       <rgbColor rgb="00000080"/>
@@ -387,7 +378,7 @@
     <row r="4" ht="14.4" customHeight="1">
       <c s="2" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Date: 24-03-2021</t>
+          <t xml:space="preserve">Date: 05-04-2021</t>
         </is>
       </c>
     </row>
@@ -477,7 +468,7 @@
     <row r="8" ht="13.2" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">24-03-2021</t>
+          <t xml:space="preserve">05-04-2021</t>
         </is>
       </c>
       <c s="6" r="B8">
@@ -493,23 +484,23 @@
       </c>
       <c s="8" t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">3102.00</t>
+          <t xml:space="preserve">2474.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F8"/>
       <c s="8" t="inlineStr" r="G8">
         <is>
-          <t xml:space="preserve">3668.30</t>
+          <t xml:space="preserve">3255.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">2541.22</t>
+          <t xml:space="preserve">2144.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">2541.22</t>
+          <t xml:space="preserve">2144.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J8">
@@ -519,12 +510,12 @@
       </c>
       <c s="8" t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">2541.22</t>
+          <t xml:space="preserve">2144.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L8">
         <is>
-          <t xml:space="preserve">3688.30</t>
+          <t xml:space="preserve">2829.58</t>
         </is>
       </c>
     </row>
@@ -539,23 +530,23 @@
       </c>
       <c s="8" t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">2963.70</t>
+          <t xml:space="preserve">2485.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F9"/>
       <c s="8" t="inlineStr" r="G9">
         <is>
-          <t xml:space="preserve">3114.30</t>
+          <t xml:space="preserve">3260.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">2470.91</t>
+          <t xml:space="preserve">2154.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">2470.91</t>
+          <t xml:space="preserve">2154.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J9">
@@ -565,12 +556,12 @@
       </c>
       <c s="8" t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">2470.91</t>
+          <t xml:space="preserve">2154.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L9">
         <is>
-          <t xml:space="preserve">3774.63</t>
+          <t xml:space="preserve">2829.60</t>
         </is>
       </c>
     </row>
@@ -587,23 +578,23 @@
       </c>
       <c s="8" t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">2595.10</t>
+          <t xml:space="preserve">2342.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F10"/>
       <c s="8" t="inlineStr" r="G10">
         <is>
-          <t xml:space="preserve">3227.50</t>
+          <t xml:space="preserve">3011.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">2185.00</t>
+          <t xml:space="preserve">1970.95</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">2185.00</t>
+          <t xml:space="preserve">1970.95</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J10">
@@ -613,12 +604,12 @@
       </c>
       <c s="8" t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">2185.00</t>
+          <t xml:space="preserve">1970.95</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L10">
         <is>
-          <t xml:space="preserve">3031.91</t>
+          <t xml:space="preserve">2829.48</t>
         </is>
       </c>
     </row>
@@ -633,23 +624,23 @@
       </c>
       <c s="8" t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">2737.00</t>
+          <t xml:space="preserve">2541.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F11"/>
       <c s="8" t="inlineStr" r="G11">
         <is>
-          <t xml:space="preserve">3246.50</t>
+          <t xml:space="preserve">3286.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">2229.68</t>
+          <t xml:space="preserve">2169.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">2229.68</t>
+          <t xml:space="preserve">2169.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J11">
@@ -659,12 +650,12 @@
       </c>
       <c s="8" t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">2229.68</t>
+          <t xml:space="preserve">2169.93</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L11">
         <is>
-          <t xml:space="preserve">3333.63</t>
+          <t xml:space="preserve">2829.66</t>
         </is>
       </c>
     </row>
@@ -683,23 +674,23 @@
       </c>
       <c s="8" t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">3014.10</t>
+          <t xml:space="preserve">2746.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F12"/>
       <c s="8" t="inlineStr" r="G12">
         <is>
-          <t xml:space="preserve">4267.30</t>
+          <t xml:space="preserve">3000.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">2521.97</t>
+          <t xml:space="preserve">2142.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">2521.97</t>
+          <t xml:space="preserve">2142.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J12">
@@ -709,12 +700,12 @@
       </c>
       <c s="8" t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">2521.97</t>
+          <t xml:space="preserve">2142.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L12">
         <is>
-          <t xml:space="preserve">2869.66</t>
+          <t xml:space="preserve">3081.73</t>
         </is>
       </c>
     </row>
@@ -729,23 +720,23 @@
       </c>
       <c s="8" t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">2959.70</t>
+          <t xml:space="preserve">2267.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F13"/>
       <c s="8" t="inlineStr" r="G13">
         <is>
-          <t xml:space="preserve">4374.70</t>
+          <t xml:space="preserve">3157.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">2467.58</t>
+          <t xml:space="preserve">1867.89</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">2467.58</t>
+          <t xml:space="preserve">1867.89</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J13">
@@ -755,12 +746,12 @@
       </c>
       <c s="8" t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">2467.58</t>
+          <t xml:space="preserve">1867.89</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L13">
         <is>
-          <t xml:space="preserve">2869.60</t>
+          <t xml:space="preserve">2959.09</t>
         </is>
       </c>
     </row>
@@ -777,23 +768,23 @@
       </c>
       <c s="8" t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">2856.40</t>
+          <t xml:space="preserve">2543.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F14"/>
       <c s="8" t="inlineStr" r="G14">
         <is>
-          <t xml:space="preserve">3190.70</t>
+          <t xml:space="preserve">2731.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">2010.31</t>
+          <t xml:space="preserve">1460.06</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">2010.30</t>
+          <t xml:space="preserve">1460.06</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J14">
@@ -803,12 +794,12 @@
       </c>
       <c s="8" t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">2010.30</t>
+          <t xml:space="preserve">1460.06</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L14">
         <is>
-          <t xml:space="preserve">3399.31</t>
+          <t xml:space="preserve">3215.83</t>
         </is>
       </c>
     </row>
@@ -823,23 +814,23 @@
       </c>
       <c s="8" t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">2779.70</t>
+          <t xml:space="preserve">2470.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F15"/>
       <c s="8" t="inlineStr" r="G15">
         <is>
-          <t xml:space="preserve">3129.90</t>
+          <t xml:space="preserve">2948.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">1938.73</t>
+          <t xml:space="preserve">1437.57</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">1938.73</t>
+          <t xml:space="preserve">1437.57</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J15">
@@ -849,12 +840,12 @@
       </c>
       <c s="8" t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">1938.73</t>
+          <t xml:space="preserve">1437.57</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L15">
         <is>
-          <t xml:space="preserve">3399.11</t>
+          <t xml:space="preserve">3215.14</t>
         </is>
       </c>
     </row>
@@ -873,23 +864,23 @@
       </c>
       <c s="8" t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">2829.90</t>
+          <t xml:space="preserve">2179.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F16"/>
       <c s="8" t="inlineStr" r="G16">
         <is>
-          <t xml:space="preserve">3467.70</t>
+          <t xml:space="preserve">2898.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">2089.54</t>
+          <t xml:space="preserve">1405.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">2089.54</t>
+          <t xml:space="preserve">1405.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J16">
@@ -899,12 +890,12 @@
       </c>
       <c s="8" t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">2089.54</t>
+          <t xml:space="preserve">1405.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L16">
         <is>
-          <t xml:space="preserve">3299.48</t>
+          <t xml:space="preserve">3100.52</t>
         </is>
       </c>
     </row>
@@ -919,23 +910,23 @@
       </c>
       <c s="8" t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">2667.30</t>
+          <t xml:space="preserve">2241.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F17"/>
       <c s="8" t="inlineStr" r="G17">
         <is>
-          <t xml:space="preserve">3494.50</t>
+          <t xml:space="preserve">3088.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">1931.38</t>
+          <t xml:space="preserve">1446.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">1931.38</t>
+          <t xml:space="preserve">1446.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J17">
@@ -945,12 +936,12 @@
       </c>
       <c s="8" t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">1931.38</t>
+          <t xml:space="preserve">1446.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L17">
         <is>
-          <t xml:space="preserve">3250.32</t>
+          <t xml:space="preserve">3150.09</t>
         </is>
       </c>
     </row>
@@ -967,23 +958,23 @@
       </c>
       <c s="8" t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">2832.60</t>
+          <t xml:space="preserve">2037.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F18"/>
       <c s="8" t="inlineStr" r="G18">
         <is>
-          <t xml:space="preserve">3886.00</t>
+          <t xml:space="preserve">3880.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">2112.49</t>
+          <t xml:space="preserve">1366.33</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">2112.49</t>
+          <t xml:space="preserve">1366.33</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J18">
@@ -993,12 +984,12 @@
       </c>
       <c s="8" t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">2112.49</t>
+          <t xml:space="preserve">1366.33</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L18">
         <is>
-          <t xml:space="preserve">3112.97</t>
+          <t xml:space="preserve">2829.75</t>
         </is>
       </c>
     </row>
@@ -1013,23 +1004,23 @@
       </c>
       <c s="8" t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">3057.70</t>
+          <t xml:space="preserve">2014.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F19"/>
       <c s="8" t="inlineStr" r="G19">
         <is>
-          <t xml:space="preserve">4009.00</t>
+          <t xml:space="preserve">4023.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">2299.39</t>
+          <t xml:space="preserve">1343.84</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">2299.39</t>
+          <t xml:space="preserve">1343.84</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J19">
@@ -1039,12 +1030,12 @@
       </c>
       <c s="8" t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">2299.39</t>
+          <t xml:space="preserve">1343.84</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L19">
         <is>
-          <t xml:space="preserve">3250.81</t>
+          <t xml:space="preserve">2829.69</t>
         </is>
       </c>
     </row>
@@ -1063,23 +1054,23 @@
       </c>
       <c s="8" t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">2673.00</t>
+          <t xml:space="preserve">1974.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F20"/>
       <c s="8" t="inlineStr" r="G20">
         <is>
-          <t xml:space="preserve">4400.50</t>
+          <t xml:space="preserve">4602.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">1981.04</t>
+          <t xml:space="preserve">1424.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">1981.04</t>
+          <t xml:space="preserve">1424.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J20">
@@ -1089,12 +1080,12 @@
       </c>
       <c s="8" t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">1981.04</t>
+          <t xml:space="preserve">1424.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L20">
         <is>
-          <t xml:space="preserve">3099.17</t>
+          <t xml:space="preserve">2800.20</t>
         </is>
       </c>
     </row>
@@ -1109,23 +1100,23 @@
       </c>
       <c s="8" t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">2649.50</t>
+          <t xml:space="preserve">2148.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F21"/>
       <c s="8" t="inlineStr" r="G21">
         <is>
-          <t xml:space="preserve">4399.40</t>
+          <t xml:space="preserve">4266.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">1942.86</t>
+          <t xml:space="preserve">1477.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">1942.86</t>
+          <t xml:space="preserve">1477.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J21">
@@ -1135,12 +1126,12 @@
       </c>
       <c s="8" t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">1942.86</t>
+          <t xml:space="preserve">1477.93</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L21">
         <is>
-          <t xml:space="preserve">3095.31</t>
+          <t xml:space="preserve">2829.80</t>
         </is>
       </c>
     </row>
@@ -1157,23 +1148,23 @@
       </c>
       <c s="8" t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">2314.30</t>
+          <t xml:space="preserve">2061.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F22"/>
       <c s="8" t="inlineStr" r="G22">
         <is>
-          <t xml:space="preserve">4542.60</t>
+          <t xml:space="preserve">4490.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">1732.93</t>
+          <t xml:space="preserve">1426.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">1732.93</t>
+          <t xml:space="preserve">1426.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J22">
@@ -1183,12 +1174,12 @@
       </c>
       <c s="8" t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">1732.93</t>
+          <t xml:space="preserve">1426.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L22">
         <is>
-          <t xml:space="preserve">2789.49</t>
+          <t xml:space="preserve">2800.78</t>
         </is>
       </c>
     </row>
@@ -1203,23 +1194,23 @@
       </c>
       <c s="8" t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">2203.30</t>
+          <t xml:space="preserve">2027.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F23"/>
       <c s="8" t="inlineStr" r="G23">
         <is>
-          <t xml:space="preserve">4629.80</t>
+          <t xml:space="preserve">4411.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">1631.95</t>
+          <t xml:space="preserve">1356.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I23">
         <is>
-          <t xml:space="preserve">1631.95</t>
+          <t xml:space="preserve">1356.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J23">
@@ -1229,12 +1220,12 @@
       </c>
       <c s="8" t="inlineStr" r="K23">
         <is>
-          <t xml:space="preserve">1631.95</t>
+          <t xml:space="preserve">1356.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L23">
         <is>
-          <t xml:space="preserve">2789.40</t>
+          <t xml:space="preserve">2829.18</t>
         </is>
       </c>
     </row>
@@ -1253,23 +1244,23 @@
       </c>
       <c s="8" t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">2211.60</t>
+          <t xml:space="preserve">2030.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F24"/>
       <c s="8" t="inlineStr" r="G24">
         <is>
-          <t xml:space="preserve">4064.80</t>
+          <t xml:space="preserve">4388.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">1599.96</t>
+          <t xml:space="preserve">1529.46</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">1599.96</t>
+          <t xml:space="preserve">1529.46</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J24">
@@ -1279,12 +1270,12 @@
       </c>
       <c s="8" t="inlineStr" r="K24">
         <is>
-          <t xml:space="preserve">1599.96</t>
+          <t xml:space="preserve">1529.46</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L24">
         <is>
-          <t xml:space="preserve">2810.57</t>
+          <t xml:space="preserve">2684.95</t>
         </is>
       </c>
     </row>
@@ -1299,23 +1290,23 @@
       </c>
       <c s="8" t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">2322.10</t>
+          <t xml:space="preserve">2053.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F25"/>
       <c s="8" t="inlineStr" r="G25">
         <is>
-          <t xml:space="preserve">3618.50</t>
+          <t xml:space="preserve">3992.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">1607.31</t>
+          <t xml:space="preserve">1542.39</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I25">
         <is>
-          <t xml:space="preserve">1607.31</t>
+          <t xml:space="preserve">1542.39</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J25">
@@ -1325,12 +1316,12 @@
       </c>
       <c s="8" t="inlineStr" r="K25">
         <is>
-          <t xml:space="preserve">1607.31</t>
+          <t xml:space="preserve">1542.39</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L25">
         <is>
-          <t xml:space="preserve">3193.05</t>
+          <t xml:space="preserve">2723.62</t>
         </is>
       </c>
     </row>
@@ -1347,23 +1338,23 @@
       </c>
       <c s="8" t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">2359.30</t>
+          <t xml:space="preserve">2093.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F26"/>
       <c s="8" t="inlineStr" r="G26">
         <is>
-          <t xml:space="preserve">3098.10</t>
+          <t xml:space="preserve">3584.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">1605.17</t>
+          <t xml:space="preserve">1538.98</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">1605.17</t>
+          <t xml:space="preserve">1538.98</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J26">
@@ -1373,12 +1364,12 @@
       </c>
       <c s="8" t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">1605.17</t>
+          <t xml:space="preserve">1538.98</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L26">
         <is>
-          <t xml:space="preserve">3477.04</t>
+          <t xml:space="preserve">2723.29</t>
         </is>
       </c>
     </row>
@@ -1393,23 +1384,23 @@
       </c>
       <c s="8" t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">2232.70</t>
+          <t xml:space="preserve">2333.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F27"/>
       <c s="8" t="inlineStr" r="G27">
         <is>
-          <t xml:space="preserve">3003.50</t>
+          <t xml:space="preserve">3453.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">1471.65</t>
+          <t xml:space="preserve">1601.87</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I27">
         <is>
-          <t xml:space="preserve">1471.64</t>
+          <t xml:space="preserve">1601.87</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J27">
@@ -1419,12 +1410,12 @@
       </c>
       <c s="8" t="inlineStr" r="K27">
         <is>
-          <t xml:space="preserve">1471.64</t>
+          <t xml:space="preserve">1601.87</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L27">
         <is>
-          <t xml:space="preserve">3477.22</t>
+          <t xml:space="preserve">2829.66</t>
         </is>
       </c>
     </row>
@@ -1441,40 +1432,40 @@
           <t xml:space="preserve">05:00-05:15</t>
         </is>
       </c>
-      <c s="13" t="inlineStr" r="E28">
-        <is>
-          <t xml:space="preserve">3138.50</t>
+      <c s="8" t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">2757.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F28"/>
-      <c s="13" t="inlineStr" r="G28">
-        <is>
-          <t xml:space="preserve">3703.10</t>
-        </is>
-      </c>
-      <c s="13" t="inlineStr" r="H28">
-        <is>
-          <t xml:space="preserve">2445.70</t>
-        </is>
-      </c>
-      <c s="13" t="inlineStr" r="I28">
-        <is>
-          <t xml:space="preserve">2432.18</t>
-        </is>
-      </c>
-      <c s="13" t="inlineStr" r="J28">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c s="13" t="inlineStr" r="K28">
-        <is>
-          <t xml:space="preserve">2432.18</t>
+      <c s="8" t="inlineStr" r="G28">
+        <is>
+          <t xml:space="preserve">3696.30</t>
+        </is>
+      </c>
+      <c s="8" t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve">2088.80</t>
+        </is>
+      </c>
+      <c s="8" t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">2088.80</t>
+        </is>
+      </c>
+      <c s="8" t="inlineStr" r="J28">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c s="8" t="inlineStr" r="K28">
+        <is>
+          <t xml:space="preserve">2088.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L28">
         <is>
-          <t xml:space="preserve">3202.81</t>
+          <t xml:space="preserve">3112.22</t>
         </is>
       </c>
     </row>
@@ -1489,23 +1480,23 @@
       </c>
       <c s="8" t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">2998.10</t>
+          <t xml:space="preserve">2611.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F29"/>
       <c s="8" t="inlineStr" r="G29">
         <is>
-          <t xml:space="preserve">3837.80</t>
+          <t xml:space="preserve">3819.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">2327.98</t>
+          <t xml:space="preserve">1976.41</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">2327.98</t>
+          <t xml:space="preserve">1976.41</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J29">
@@ -1515,12 +1506,12 @@
       </c>
       <c s="8" t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">2327.98</t>
+          <t xml:space="preserve">1976.41</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L29">
         <is>
-          <t xml:space="preserve">3099.78</t>
+          <t xml:space="preserve">2993.66</t>
         </is>
       </c>
     </row>
@@ -1537,23 +1528,23 @@
       </c>
       <c s="8" t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">3199.30</t>
+          <t xml:space="preserve">2082.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F30"/>
       <c s="8" t="inlineStr" r="G30">
         <is>
-          <t xml:space="preserve">3100.80</t>
+          <t xml:space="preserve">4548.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">2145.31</t>
+          <t xml:space="preserve">1601.98</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">2145.31</t>
+          <t xml:space="preserve">1601.98</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J30">
@@ -1563,12 +1554,12 @@
       </c>
       <c s="8" t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">2145.31</t>
+          <t xml:space="preserve">1601.98</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L30">
         <is>
-          <t xml:space="preserve">3477.55</t>
+          <t xml:space="preserve">2464.12</t>
         </is>
       </c>
     </row>
@@ -1583,23 +1574,23 @@
       </c>
       <c s="8" t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">3049.40</t>
+          <t xml:space="preserve">2285.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F31"/>
       <c s="8" t="inlineStr" r="G31">
         <is>
-          <t xml:space="preserve">2528.90</t>
+          <t xml:space="preserve">4740.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">1879.09</t>
+          <t xml:space="preserve">1768.42</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I31">
         <is>
-          <t xml:space="preserve">1879.09</t>
+          <t xml:space="preserve">1768.42</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J31">
@@ -1609,12 +1600,12 @@
       </c>
       <c s="8" t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">1879.09</t>
+          <t xml:space="preserve">1768.42</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L31">
         <is>
-          <t xml:space="preserve">3990.30</t>
+          <t xml:space="preserve">2723.06</t>
         </is>
       </c>
     </row>
@@ -1633,23 +1624,23 @@
       </c>
       <c s="8" t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">3522.00</t>
+          <t xml:space="preserve">2592.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F32"/>
       <c s="8" t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">2784.30</t>
+          <t xml:space="preserve">4578.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">2497.60</t>
+          <t xml:space="preserve">2205.38</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">2497.60</t>
+          <t xml:space="preserve">2205.38</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J32">
@@ -1659,12 +1650,12 @@
       </c>
       <c s="8" t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">2497.60</t>
+          <t xml:space="preserve">2205.38</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L32">
         <is>
-          <t xml:space="preserve">4700.58</t>
+          <t xml:space="preserve">2829.25</t>
         </is>
       </c>
     </row>
@@ -1679,23 +1670,23 @@
       </c>
       <c s="8" t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">3540.80</t>
+          <t xml:space="preserve">2787.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F33"/>
       <c s="8" t="inlineStr" r="G33">
         <is>
-          <t xml:space="preserve">2196.50</t>
+          <t xml:space="preserve">4466.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">2016.50</t>
+          <t xml:space="preserve">2388.21</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I33">
         <is>
-          <t xml:space="preserve">2016.50</t>
+          <t xml:space="preserve">2388.21</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J33">
@@ -1705,12 +1696,12 @@
       </c>
       <c s="8" t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">2016.50</t>
+          <t xml:space="preserve">2388.21</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L33">
         <is>
-          <t xml:space="preserve">5500.48</t>
+          <t xml:space="preserve">2993.48</t>
         </is>
       </c>
     </row>
@@ -1727,23 +1718,23 @@
       </c>
       <c s="8" t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">3584.20</t>
+          <t xml:space="preserve">2952.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F34"/>
       <c s="8" t="inlineStr" r="G34">
         <is>
-          <t xml:space="preserve">3112.50</t>
+          <t xml:space="preserve">3673.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H34">
         <is>
-          <t xml:space="preserve">2699.40</t>
+          <t xml:space="preserve">2491.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I34">
         <is>
-          <t xml:space="preserve">2699.40</t>
+          <t xml:space="preserve">2491.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J34">
@@ -1753,12 +1744,12 @@
       </c>
       <c s="8" t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">2699.40</t>
+          <t xml:space="preserve">2491.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L34">
         <is>
-          <t xml:space="preserve">4823.62</t>
+          <t xml:space="preserve">3252.75</t>
         </is>
       </c>
     </row>
@@ -1773,23 +1764,23 @@
       </c>
       <c s="8" t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">3673.60</t>
+          <t xml:space="preserve">3139.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F35"/>
       <c s="8" t="inlineStr" r="G35">
         <is>
-          <t xml:space="preserve">3397.00</t>
+          <t xml:space="preserve">4109.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">2920.67</t>
+          <t xml:space="preserve">2824.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">2920.67</t>
+          <t xml:space="preserve">2824.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J35">
@@ -1799,12 +1790,12 @@
       </c>
       <c s="8" t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">2920.67</t>
+          <t xml:space="preserve">2824.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L35">
         <is>
-          <t xml:space="preserve">3990.78</t>
+          <t xml:space="preserve">3179.86</t>
         </is>
       </c>
     </row>
@@ -1823,23 +1814,23 @@
       </c>
       <c s="8" t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">3393.30</t>
+          <t xml:space="preserve">2991.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F36"/>
       <c s="8" t="inlineStr" r="G36">
         <is>
-          <t xml:space="preserve">4036.80</t>
+          <t xml:space="preserve">3778.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">3135.24</t>
+          <t xml:space="preserve">2654.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I36">
         <is>
-          <t xml:space="preserve">3135.24</t>
+          <t xml:space="preserve">2654.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J36">
@@ -1849,12 +1840,12 @@
       </c>
       <c s="8" t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">3135.24</t>
+          <t xml:space="preserve">2654.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L36">
         <is>
-          <t xml:space="preserve">2999.93</t>
+          <t xml:space="preserve">3279.93</t>
         </is>
       </c>
     </row>
@@ -1869,23 +1860,23 @@
       </c>
       <c s="8" t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">3248.80</t>
+          <t xml:space="preserve">2869.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F37"/>
       <c s="8" t="inlineStr" r="G37">
         <is>
-          <t xml:space="preserve">3829.20</t>
+          <t xml:space="preserve">4221.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">2990.75</t>
+          <t xml:space="preserve">2583.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I37">
         <is>
-          <t xml:space="preserve">2990.75</t>
+          <t xml:space="preserve">2583.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J37">
@@ -1895,12 +1886,12 @@
       </c>
       <c s="8" t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">2990.75</t>
+          <t xml:space="preserve">2583.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L37">
         <is>
-          <t xml:space="preserve">2999.89</t>
+          <t xml:space="preserve">2993.93</t>
         </is>
       </c>
     </row>
@@ -1917,23 +1908,23 @@
       </c>
       <c s="8" t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">2901.50</t>
+          <t xml:space="preserve">2751.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F38"/>
       <c s="8" t="inlineStr" r="G38">
         <is>
-          <t xml:space="preserve">3501.00</t>
+          <t xml:space="preserve">3445.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">2543.42</t>
+          <t xml:space="preserve">2379.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I38">
         <is>
-          <t xml:space="preserve">2543.42</t>
+          <t xml:space="preserve">2379.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J38">
@@ -1943,12 +1934,12 @@
       </c>
       <c s="8" t="inlineStr" r="K38">
         <is>
-          <t xml:space="preserve">2543.42</t>
+          <t xml:space="preserve">2379.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L38">
         <is>
-          <t xml:space="preserve">2999.92</t>
+          <t xml:space="preserve">3340.50</t>
         </is>
       </c>
     </row>
@@ -1963,23 +1954,23 @@
       </c>
       <c s="8" t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">2639.40</t>
+          <t xml:space="preserve">2656.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F39"/>
       <c s="8" t="inlineStr" r="G39">
         <is>
-          <t xml:space="preserve">3492.60</t>
+          <t xml:space="preserve">3456.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">2281.34</t>
+          <t xml:space="preserve">2185.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I39">
         <is>
-          <t xml:space="preserve">2281.34</t>
+          <t xml:space="preserve">2185.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J39">
@@ -1989,12 +1980,12 @@
       </c>
       <c s="8" t="inlineStr" r="K39">
         <is>
-          <t xml:space="preserve">2281.34</t>
+          <t xml:space="preserve">2185.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L39">
         <is>
-          <t xml:space="preserve">2999.86</t>
+          <t xml:space="preserve">3341.78</t>
         </is>
       </c>
     </row>
@@ -2013,23 +2004,23 @@
       </c>
       <c s="8" t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">2737.70</t>
+          <t xml:space="preserve">2393.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F40"/>
       <c s="8" t="inlineStr" r="G40">
         <is>
-          <t xml:space="preserve">2770.20</t>
+          <t xml:space="preserve">4647.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">2036.11</t>
+          <t xml:space="preserve">2133.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I40">
         <is>
-          <t xml:space="preserve">2036.11</t>
+          <t xml:space="preserve">2133.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J40">
@@ -2039,12 +2030,12 @@
       </c>
       <c s="8" t="inlineStr" r="K40">
         <is>
-          <t xml:space="preserve">2036.11</t>
+          <t xml:space="preserve">2133.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L40">
         <is>
-          <t xml:space="preserve">3477.44</t>
+          <t xml:space="preserve">2819.48</t>
         </is>
       </c>
     </row>
@@ -2059,23 +2050,23 @@
       </c>
       <c s="8" t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">2651.00</t>
+          <t xml:space="preserve">2470.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F41"/>
       <c s="8" t="inlineStr" r="G41">
         <is>
-          <t xml:space="preserve">2821.40</t>
+          <t xml:space="preserve">4497.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">2117.81</t>
+          <t xml:space="preserve">2190.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I41">
         <is>
-          <t xml:space="preserve">2117.82</t>
+          <t xml:space="preserve">2190.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J41">
@@ -2085,12 +2076,12 @@
       </c>
       <c s="8" t="inlineStr" r="K41">
         <is>
-          <t xml:space="preserve">2117.82</t>
+          <t xml:space="preserve">2190.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L41">
         <is>
-          <t xml:space="preserve">3440.21</t>
+          <t xml:space="preserve">2993.12</t>
         </is>
       </c>
     </row>
@@ -2107,23 +2098,23 @@
       </c>
       <c s="8" t="inlineStr" r="E42">
         <is>
-          <t xml:space="preserve">1536.90</t>
+          <t xml:space="preserve">2082.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F42"/>
       <c s="8" t="inlineStr" r="G42">
         <is>
-          <t xml:space="preserve">2918.30</t>
+          <t xml:space="preserve">4653.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H42">
         <is>
-          <t xml:space="preserve">1073.91</t>
+          <t xml:space="preserve">1882.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I42">
         <is>
-          <t xml:space="preserve">1073.91</t>
+          <t xml:space="preserve">1882.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J42">
@@ -2133,12 +2124,12 @@
       </c>
       <c s="8" t="inlineStr" r="K42">
         <is>
-          <t xml:space="preserve">1073.91</t>
+          <t xml:space="preserve">1882.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L42">
         <is>
-          <t xml:space="preserve">2999.56</t>
+          <t xml:space="preserve">2684.77</t>
         </is>
       </c>
     </row>
@@ -2153,23 +2144,23 @@
       </c>
       <c s="8" t="inlineStr" r="E43">
         <is>
-          <t xml:space="preserve">1551.60</t>
+          <t xml:space="preserve">2111.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F43"/>
       <c s="8" t="inlineStr" r="G43">
         <is>
-          <t xml:space="preserve">2949.30</t>
+          <t xml:space="preserve">4667.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H43">
         <is>
-          <t xml:space="preserve">1088.61</t>
+          <t xml:space="preserve">1828.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I43">
         <is>
-          <t xml:space="preserve">1088.61</t>
+          <t xml:space="preserve">1828.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J43">
@@ -2179,12 +2170,12 @@
       </c>
       <c s="8" t="inlineStr" r="K43">
         <is>
-          <t xml:space="preserve">1088.61</t>
+          <t xml:space="preserve">1828.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L43">
         <is>
-          <t xml:space="preserve">2999.55</t>
+          <t xml:space="preserve">2800.83</t>
         </is>
       </c>
     </row>
@@ -2203,23 +2194,23 @@
       </c>
       <c s="8" t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">1928.50</t>
+          <t xml:space="preserve">2097.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F44"/>
       <c s="8" t="inlineStr" r="G44">
         <is>
-          <t xml:space="preserve">2391.00</t>
+          <t xml:space="preserve">4275.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H44">
         <is>
-          <t xml:space="preserve">1232.90</t>
+          <t xml:space="preserve">1827.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I44">
         <is>
-          <t xml:space="preserve">1232.90</t>
+          <t xml:space="preserve">1827.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J44">
@@ -2229,12 +2220,12 @@
       </c>
       <c s="8" t="inlineStr" r="K44">
         <is>
-          <t xml:space="preserve">1232.90</t>
+          <t xml:space="preserve">1827.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L44">
         <is>
-          <t xml:space="preserve">3089.98</t>
+          <t xml:space="preserve">2950.06</t>
         </is>
       </c>
     </row>
@@ -2249,23 +2240,23 @@
       </c>
       <c s="8" t="inlineStr" r="E45">
         <is>
-          <t xml:space="preserve">2200.80</t>
+          <t xml:space="preserve">2161.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F45"/>
       <c s="8" t="inlineStr" r="G45">
         <is>
-          <t xml:space="preserve">2233.70</t>
+          <t xml:space="preserve">3547.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">1374.67</t>
+          <t xml:space="preserve">1702.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I45">
         <is>
-          <t xml:space="preserve">1374.67</t>
+          <t xml:space="preserve">1702.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J45">
@@ -2275,12 +2266,12 @@
       </c>
       <c s="8" t="inlineStr" r="K45">
         <is>
-          <t xml:space="preserve">1374.67</t>
+          <t xml:space="preserve">1702.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L45">
         <is>
-          <t xml:space="preserve">3426.79</t>
+          <t xml:space="preserve">2993.97</t>
         </is>
       </c>
     </row>
@@ -2297,23 +2288,23 @@
       </c>
       <c s="8" t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">2919.70</t>
+          <t xml:space="preserve">2444.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F46"/>
       <c s="8" t="inlineStr" r="G46">
         <is>
-          <t xml:space="preserve">2720.80</t>
+          <t xml:space="preserve">3730.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">2098.93</t>
+          <t xml:space="preserve">1683.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I46">
         <is>
-          <t xml:space="preserve">2098.93</t>
+          <t xml:space="preserve">1683.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J46">
@@ -2323,12 +2314,12 @@
       </c>
       <c s="8" t="inlineStr" r="K46">
         <is>
-          <t xml:space="preserve">2098.93</t>
+          <t xml:space="preserve">1683.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L46">
         <is>
-          <t xml:space="preserve">3688.12</t>
+          <t xml:space="preserve">3182.40</t>
         </is>
       </c>
     </row>
@@ -2343,23 +2334,23 @@
       </c>
       <c s="8" t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">3031.60</t>
+          <t xml:space="preserve">2475.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F47"/>
       <c s="8" t="inlineStr" r="G47">
         <is>
-          <t xml:space="preserve">2343.70</t>
+          <t xml:space="preserve">3649.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">2093.06</t>
+          <t xml:space="preserve">1711.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I47">
         <is>
-          <t xml:space="preserve">2093.06</t>
+          <t xml:space="preserve">1711.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J47">
@@ -2369,12 +2360,12 @@
       </c>
       <c s="8" t="inlineStr" r="K47">
         <is>
-          <t xml:space="preserve">2093.06</t>
+          <t xml:space="preserve">1711.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L47">
         <is>
-          <t xml:space="preserve">3838.15</t>
+          <t xml:space="preserve">3215.73</t>
         </is>
       </c>
     </row>
@@ -2393,23 +2384,23 @@
       </c>
       <c s="8" t="inlineStr" r="E48">
         <is>
-          <t xml:space="preserve">3808.30</t>
+          <t xml:space="preserve">2557.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F48"/>
       <c s="8" t="inlineStr" r="G48">
         <is>
-          <t xml:space="preserve">3226.70</t>
+          <t xml:space="preserve">3458.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H48">
         <is>
-          <t xml:space="preserve">2180.00</t>
+          <t xml:space="preserve">1607.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I48">
         <is>
-          <t xml:space="preserve">2180.00</t>
+          <t xml:space="preserve">1607.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J48">
@@ -2419,12 +2410,12 @@
       </c>
       <c s="8" t="inlineStr" r="K48">
         <is>
-          <t xml:space="preserve">2180.00</t>
+          <t xml:space="preserve">1607.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L48">
         <is>
-          <t xml:space="preserve">4111.43</t>
+          <t xml:space="preserve">3187.68</t>
         </is>
       </c>
     </row>
@@ -2439,23 +2430,23 @@
       </c>
       <c s="8" t="inlineStr" r="E49">
         <is>
-          <t xml:space="preserve">3715.90</t>
+          <t xml:space="preserve">2512.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F49"/>
       <c s="8" t="inlineStr" r="G49">
         <is>
-          <t xml:space="preserve">3069.80</t>
+          <t xml:space="preserve">3582.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H49">
         <is>
-          <t xml:space="preserve">2023.10</t>
+          <t xml:space="preserve">1563.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I49">
         <is>
-          <t xml:space="preserve">2023.10</t>
+          <t xml:space="preserve">1563.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J49">
@@ -2465,12 +2456,12 @@
       </c>
       <c s="8" t="inlineStr" r="K49">
         <is>
-          <t xml:space="preserve">2023.10</t>
+          <t xml:space="preserve">1563.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L49">
         <is>
-          <t xml:space="preserve">4111.59</t>
+          <t xml:space="preserve">3191.62</t>
         </is>
       </c>
     </row>
@@ -2487,23 +2478,23 @@
       </c>
       <c s="8" t="inlineStr" r="E50">
         <is>
-          <t xml:space="preserve">3647.30</t>
+          <t xml:space="preserve">2744.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F50"/>
       <c s="8" t="inlineStr" r="G50">
         <is>
-          <t xml:space="preserve">2863.80</t>
+          <t xml:space="preserve">3787.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H50">
         <is>
-          <t xml:space="preserve">1994.21</t>
+          <t xml:space="preserve">1710.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I50">
         <is>
-          <t xml:space="preserve">1994.21</t>
+          <t xml:space="preserve">1710.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J50">
@@ -2513,12 +2504,12 @@
       </c>
       <c s="8" t="inlineStr" r="K50">
         <is>
-          <t xml:space="preserve">1994.21</t>
+          <t xml:space="preserve">1710.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L50">
         <is>
-          <t xml:space="preserve">4423.15</t>
+          <t xml:space="preserve">3200.98</t>
         </is>
       </c>
     </row>
@@ -2533,23 +2524,23 @@
       </c>
       <c s="8" t="inlineStr" r="E51">
         <is>
-          <t xml:space="preserve">3776.90</t>
+          <t xml:space="preserve">2640.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F51"/>
       <c s="8" t="inlineStr" r="G51">
         <is>
-          <t xml:space="preserve">3060.70</t>
+          <t xml:space="preserve">3864.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">2134.23</t>
+          <t xml:space="preserve">1707.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I51">
         <is>
-          <t xml:space="preserve">2134.23</t>
+          <t xml:space="preserve">1707.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J51">
@@ -2559,12 +2550,12 @@
       </c>
       <c s="8" t="inlineStr" r="K51">
         <is>
-          <t xml:space="preserve">2134.23</t>
+          <t xml:space="preserve">1707.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L51">
         <is>
-          <t xml:space="preserve">4423.04</t>
+          <t xml:space="preserve">3191.31</t>
         </is>
       </c>
     </row>
@@ -2583,23 +2574,23 @@
       </c>
       <c s="8" t="inlineStr" r="E52">
         <is>
-          <t xml:space="preserve">3202.00</t>
+          <t xml:space="preserve">1967.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F52"/>
       <c s="8" t="inlineStr" r="G52">
         <is>
-          <t xml:space="preserve">2904.80</t>
+          <t xml:space="preserve">3407.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H52">
         <is>
-          <t xml:space="preserve">2151.54</t>
+          <t xml:space="preserve">1281.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I52">
         <is>
-          <t xml:space="preserve">2151.54</t>
+          <t xml:space="preserve">1281.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J52">
@@ -2609,12 +2600,12 @@
       </c>
       <c s="8" t="inlineStr" r="K52">
         <is>
-          <t xml:space="preserve">2151.54</t>
+          <t xml:space="preserve">1281.93</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L52">
         <is>
-          <t xml:space="preserve">4423.47</t>
+          <t xml:space="preserve">3102.53</t>
         </is>
       </c>
     </row>
@@ -2629,23 +2620,23 @@
       </c>
       <c s="8" t="inlineStr" r="E53">
         <is>
-          <t xml:space="preserve">3112.40</t>
+          <t xml:space="preserve">1891.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F53"/>
       <c s="8" t="inlineStr" r="G53">
         <is>
-          <t xml:space="preserve">2763.50</t>
+          <t xml:space="preserve">3503.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H53">
         <is>
-          <t xml:space="preserve">2029.34</t>
+          <t xml:space="preserve">1283.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I53">
         <is>
-          <t xml:space="preserve">2029.34</t>
+          <t xml:space="preserve">1283.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J53">
@@ -2655,12 +2646,12 @@
       </c>
       <c s="8" t="inlineStr" r="K53">
         <is>
-          <t xml:space="preserve">2029.34</t>
+          <t xml:space="preserve">1283.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L53">
         <is>
-          <t xml:space="preserve">4423.52</t>
+          <t xml:space="preserve">3059.20</t>
         </is>
       </c>
     </row>
@@ -2677,23 +2668,23 @@
       </c>
       <c s="8" t="inlineStr" r="E54">
         <is>
-          <t xml:space="preserve">2713.90</t>
+          <t xml:space="preserve">3128.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F54"/>
       <c s="8" t="inlineStr" r="G54">
         <is>
-          <t xml:space="preserve">3168.50</t>
+          <t xml:space="preserve">3211.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">1372.10</t>
+          <t xml:space="preserve">1702.51</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I54">
         <is>
-          <t xml:space="preserve">1372.10</t>
+          <t xml:space="preserve">1702.51</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J54">
@@ -2703,12 +2694,12 @@
       </c>
       <c s="8" t="inlineStr" r="K54">
         <is>
-          <t xml:space="preserve">1372.10</t>
+          <t xml:space="preserve">1702.51</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L54">
         <is>
-          <t xml:space="preserve">3600.96</t>
+          <t xml:space="preserve">3565.22</t>
         </is>
       </c>
     </row>
@@ -2723,23 +2714,23 @@
       </c>
       <c s="8" t="inlineStr" r="E55">
         <is>
-          <t xml:space="preserve">2598.50</t>
+          <t xml:space="preserve">3049.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F55"/>
       <c s="8" t="inlineStr" r="G55">
         <is>
-          <t xml:space="preserve">3388.60</t>
+          <t xml:space="preserve">3272.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">1340.57</t>
+          <t xml:space="preserve">1635.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I55">
         <is>
-          <t xml:space="preserve">1340.57</t>
+          <t xml:space="preserve">1635.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J55">
@@ -2749,12 +2740,12 @@
       </c>
       <c s="8" t="inlineStr" r="K55">
         <is>
-          <t xml:space="preserve">1340.57</t>
+          <t xml:space="preserve">1635.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L55">
         <is>
-          <t xml:space="preserve">3319.18</t>
+          <t xml:space="preserve">3515.77</t>
         </is>
       </c>
     </row>
@@ -2773,23 +2764,23 @@
       </c>
       <c s="8" t="inlineStr" r="E56">
         <is>
-          <t xml:space="preserve">3072.80</t>
+          <t xml:space="preserve">2880.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F56"/>
       <c s="8" t="inlineStr" r="G56">
         <is>
-          <t xml:space="preserve">3829.40</t>
+          <t xml:space="preserve">4107.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H56">
         <is>
-          <t xml:space="preserve">2183.39</t>
+          <t xml:space="preserve">2025.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I56">
         <is>
-          <t xml:space="preserve">2183.39</t>
+          <t xml:space="preserve">2025.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J56">
@@ -2799,12 +2790,12 @@
       </c>
       <c s="8" t="inlineStr" r="K56">
         <is>
-          <t xml:space="preserve">2183.39</t>
+          <t xml:space="preserve">2025.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L56">
         <is>
-          <t xml:space="preserve">3774.10</t>
+          <t xml:space="preserve">3300.53</t>
         </is>
       </c>
     </row>
@@ -2819,23 +2810,23 @@
       </c>
       <c s="8" t="inlineStr" r="E57">
         <is>
-          <t xml:space="preserve">3002.60</t>
+          <t xml:space="preserve">2796.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F57"/>
       <c s="8" t="inlineStr" r="G57">
         <is>
-          <t xml:space="preserve">4096.50</t>
+          <t xml:space="preserve">4230.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">2170.82</t>
+          <t xml:space="preserve">1995.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I57">
         <is>
-          <t xml:space="preserve">2170.82</t>
+          <t xml:space="preserve">1995.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J57">
@@ -2845,12 +2836,12 @@
       </c>
       <c s="8" t="inlineStr" r="K57">
         <is>
-          <t xml:space="preserve">2170.82</t>
+          <t xml:space="preserve">1995.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L57">
         <is>
-          <t xml:space="preserve">3562.80</t>
+          <t xml:space="preserve">3300.26</t>
         </is>
       </c>
     </row>
@@ -2867,23 +2858,23 @@
       </c>
       <c s="8" t="inlineStr" r="E58">
         <is>
-          <t xml:space="preserve">2745.20</t>
+          <t xml:space="preserve">2654.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F58"/>
       <c s="8" t="inlineStr" r="G58">
         <is>
-          <t xml:space="preserve">4154.10</t>
+          <t xml:space="preserve">4884.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">2277.55</t>
+          <t xml:space="preserve">2059.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I58">
         <is>
-          <t xml:space="preserve">2277.55</t>
+          <t xml:space="preserve">2059.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J58">
@@ -2893,12 +2884,12 @@
       </c>
       <c s="8" t="inlineStr" r="K58">
         <is>
-          <t xml:space="preserve">2277.55</t>
+          <t xml:space="preserve">2059.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L58">
         <is>
-          <t xml:space="preserve">3688.12</t>
+          <t xml:space="preserve">3091.37</t>
         </is>
       </c>
     </row>
@@ -2913,23 +2904,23 @@
       </c>
       <c s="8" t="inlineStr" r="E59">
         <is>
-          <t xml:space="preserve">2531.00</t>
+          <t xml:space="preserve">2610.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F59"/>
       <c s="8" t="inlineStr" r="G59">
         <is>
-          <t xml:space="preserve">4553.00</t>
+          <t xml:space="preserve">4952.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H59">
         <is>
-          <t xml:space="preserve">2138.80</t>
+          <t xml:space="preserve">2073.25</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I59">
         <is>
-          <t xml:space="preserve">2138.80</t>
+          <t xml:space="preserve">2073.25</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J59">
@@ -2939,12 +2930,12 @@
       </c>
       <c s="8" t="inlineStr" r="K59">
         <is>
-          <t xml:space="preserve">2138.80</t>
+          <t xml:space="preserve">2073.25</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L59">
         <is>
-          <t xml:space="preserve">3319.16</t>
+          <t xml:space="preserve">3048.84</t>
         </is>
       </c>
     </row>
@@ -2963,23 +2954,23 @@
       </c>
       <c s="8" t="inlineStr" r="E60">
         <is>
-          <t xml:space="preserve">1683.10</t>
+          <t xml:space="preserve">2716.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F60"/>
       <c s="8" t="inlineStr" r="G60">
         <is>
-          <t xml:space="preserve">4189.30</t>
+          <t xml:space="preserve">5588.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">1068.85</t>
+          <t xml:space="preserve">2404.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I60">
         <is>
-          <t xml:space="preserve">1068.85</t>
+          <t xml:space="preserve">2404.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J60">
@@ -2989,12 +2980,12 @@
       </c>
       <c s="8" t="inlineStr" r="K60">
         <is>
-          <t xml:space="preserve">1068.85</t>
+          <t xml:space="preserve">2404.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L60">
         <is>
-          <t xml:space="preserve">3140.50</t>
+          <t xml:space="preserve">2871.83</t>
         </is>
       </c>
     </row>
@@ -3009,23 +3000,23 @@
       </c>
       <c s="8" t="inlineStr" r="E61">
         <is>
-          <t xml:space="preserve">1942.10</t>
+          <t xml:space="preserve">2824.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F61"/>
       <c s="8" t="inlineStr" r="G61">
         <is>
-          <t xml:space="preserve">4501.00</t>
+          <t xml:space="preserve">5899.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H61">
         <is>
-          <t xml:space="preserve">1328.45</t>
+          <t xml:space="preserve">2493.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I61">
         <is>
-          <t xml:space="preserve">1328.45</t>
+          <t xml:space="preserve">2493.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J61">
@@ -3035,12 +3026,12 @@
       </c>
       <c s="8" t="inlineStr" r="K61">
         <is>
-          <t xml:space="preserve">1328.45</t>
+          <t xml:space="preserve">2493.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L61">
         <is>
-          <t xml:space="preserve">3118.16</t>
+          <t xml:space="preserve">2916.39</t>
         </is>
       </c>
     </row>
@@ -3057,23 +3048,23 @@
       </c>
       <c s="8" t="inlineStr" r="E62">
         <is>
-          <t xml:space="preserve">1870.60</t>
+          <t xml:space="preserve">2947.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F62"/>
       <c s="8" t="inlineStr" r="G62">
         <is>
-          <t xml:space="preserve">3389.30</t>
+          <t xml:space="preserve">5607.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H62">
         <is>
-          <t xml:space="preserve">1205.33</t>
+          <t xml:space="preserve">2621.36</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I62">
         <is>
-          <t xml:space="preserve">1205.33</t>
+          <t xml:space="preserve">2621.36</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J62">
@@ -3083,12 +3074,12 @@
       </c>
       <c s="8" t="inlineStr" r="K62">
         <is>
-          <t xml:space="preserve">1205.33</t>
+          <t xml:space="preserve">2621.36</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L62">
         <is>
-          <t xml:space="preserve">3083.33</t>
+          <t xml:space="preserve">2891.94</t>
         </is>
       </c>
     </row>
@@ -3103,23 +3094,23 @@
       </c>
       <c s="8" t="inlineStr" r="E63">
         <is>
-          <t xml:space="preserve">1915.30</t>
+          <t xml:space="preserve">3020.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F63"/>
       <c s="8" t="inlineStr" r="G63">
         <is>
-          <t xml:space="preserve">3195.30</t>
+          <t xml:space="preserve">5301.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">1246.60</t>
+          <t xml:space="preserve">2742.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I63">
         <is>
-          <t xml:space="preserve">1246.60</t>
+          <t xml:space="preserve">2742.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J63">
@@ -3129,12 +3120,12 @@
       </c>
       <c s="8" t="inlineStr" r="K63">
         <is>
-          <t xml:space="preserve">1246.60</t>
+          <t xml:space="preserve">2742.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L63">
         <is>
-          <t xml:space="preserve">3250.10</t>
+          <t xml:space="preserve">2831.54</t>
         </is>
       </c>
     </row>
@@ -3153,23 +3144,23 @@
       </c>
       <c s="8" t="inlineStr" r="E64">
         <is>
-          <t xml:space="preserve">1873.70</t>
+          <t xml:space="preserve">3308.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F64"/>
       <c s="8" t="inlineStr" r="G64">
         <is>
-          <t xml:space="preserve">3064.70</t>
+          <t xml:space="preserve">5384.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">1450.19</t>
+          <t xml:space="preserve">2666.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I64">
         <is>
-          <t xml:space="preserve">1450.19</t>
+          <t xml:space="preserve">2666.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J64">
@@ -3179,12 +3170,12 @@
       </c>
       <c s="8" t="inlineStr" r="K64">
         <is>
-          <t xml:space="preserve">1450.19</t>
+          <t xml:space="preserve">2666.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L64">
         <is>
-          <t xml:space="preserve">3374.29</t>
+          <t xml:space="preserve">2969.03</t>
         </is>
       </c>
     </row>
@@ -3199,23 +3190,23 @@
       </c>
       <c s="8" t="inlineStr" r="E65">
         <is>
-          <t xml:space="preserve">2245.90</t>
+          <t xml:space="preserve">3352.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F65"/>
       <c s="8" t="inlineStr" r="G65">
         <is>
-          <t xml:space="preserve">2449.00</t>
+          <t xml:space="preserve">4654.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H65">
         <is>
-          <t xml:space="preserve">1265.32</t>
+          <t xml:space="preserve">2714.47</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I65">
         <is>
-          <t xml:space="preserve">1265.32</t>
+          <t xml:space="preserve">2714.47</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J65">
@@ -3225,12 +3216,12 @@
       </c>
       <c s="8" t="inlineStr" r="K65">
         <is>
-          <t xml:space="preserve">1265.32</t>
+          <t xml:space="preserve">2714.47</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L65">
         <is>
-          <t xml:space="preserve">3765.69</t>
+          <t xml:space="preserve">3050.14</t>
         </is>
       </c>
     </row>
@@ -3247,23 +3238,23 @@
       </c>
       <c s="8" t="inlineStr" r="E66">
         <is>
-          <t xml:space="preserve">2062.80</t>
+          <t xml:space="preserve">2866.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F66"/>
       <c s="8" t="inlineStr" r="G66">
         <is>
-          <t xml:space="preserve">2276.00</t>
+          <t xml:space="preserve">4287.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">1306.12</t>
+          <t xml:space="preserve">2214.11</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I66">
         <is>
-          <t xml:space="preserve">1306.12</t>
+          <t xml:space="preserve">2214.11</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J66">
@@ -3273,12 +3264,12 @@
       </c>
       <c s="8" t="inlineStr" r="K66">
         <is>
-          <t xml:space="preserve">1306.12</t>
+          <t xml:space="preserve">2214.11</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L66">
         <is>
-          <t xml:space="preserve">3990.90</t>
+          <t xml:space="preserve">2999.39</t>
         </is>
       </c>
     </row>
@@ -3293,23 +3284,23 @@
       </c>
       <c s="8" t="inlineStr" r="E67">
         <is>
-          <t xml:space="preserve">1973.10</t>
+          <t xml:space="preserve">2946.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F67"/>
       <c s="8" t="inlineStr" r="G67">
         <is>
-          <t xml:space="preserve">2175.80</t>
+          <t xml:space="preserve">3930.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H67">
         <is>
-          <t xml:space="preserve">1216.00</t>
+          <t xml:space="preserve">2060.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I67">
         <is>
-          <t xml:space="preserve">1216.00</t>
+          <t xml:space="preserve">2060.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J67">
@@ -3319,12 +3310,12 @@
       </c>
       <c s="8" t="inlineStr" r="K67">
         <is>
-          <t xml:space="preserve">1216.00</t>
+          <t xml:space="preserve">2060.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L67">
         <is>
-          <t xml:space="preserve">4000.00</t>
+          <t xml:space="preserve">3200.46</t>
         </is>
       </c>
     </row>
@@ -3343,23 +3334,23 @@
       </c>
       <c s="8" t="inlineStr" r="E68">
         <is>
-          <t xml:space="preserve">2002.00</t>
+          <t xml:space="preserve">2546.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F68"/>
       <c s="8" t="inlineStr" r="G68">
         <is>
-          <t xml:space="preserve">2193.70</t>
+          <t xml:space="preserve">3956.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">1336.62</t>
+          <t xml:space="preserve">2165.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I68">
         <is>
-          <t xml:space="preserve">1336.62</t>
+          <t xml:space="preserve">2165.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J68">
@@ -3369,12 +3360,12 @@
       </c>
       <c s="8" t="inlineStr" r="K68">
         <is>
-          <t xml:space="preserve">1336.62</t>
+          <t xml:space="preserve">2165.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L68">
         <is>
-          <t xml:space="preserve">4399.64</t>
+          <t xml:space="preserve">2950.74</t>
         </is>
       </c>
     </row>
@@ -3389,23 +3380,23 @@
       </c>
       <c s="8" t="inlineStr" r="E69">
         <is>
-          <t xml:space="preserve">1955.60</t>
+          <t xml:space="preserve">3351.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F69"/>
       <c s="8" t="inlineStr" r="G69">
         <is>
-          <t xml:space="preserve">2039.10</t>
+          <t xml:space="preserve">3906.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H69">
         <is>
-          <t xml:space="preserve">1285.44</t>
+          <t xml:space="preserve">2333.85</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I69">
         <is>
-          <t xml:space="preserve">1285.44</t>
+          <t xml:space="preserve">2333.85</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J69">
@@ -3415,12 +3406,12 @@
       </c>
       <c s="8" t="inlineStr" r="K69">
         <is>
-          <t xml:space="preserve">1285.44</t>
+          <t xml:space="preserve">2333.85</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L69">
         <is>
-          <t xml:space="preserve">4423.20</t>
+          <t xml:space="preserve">3500.05</t>
         </is>
       </c>
     </row>
@@ -3437,23 +3428,23 @@
       </c>
       <c s="8" t="inlineStr" r="E70">
         <is>
-          <t xml:space="preserve">2961.70</t>
+          <t xml:space="preserve">3826.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F70"/>
       <c s="8" t="inlineStr" r="G70">
         <is>
-          <t xml:space="preserve">1943.10</t>
+          <t xml:space="preserve">4182.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">1726.67</t>
+          <t xml:space="preserve">2834.63</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I70">
         <is>
-          <t xml:space="preserve">1726.67</t>
+          <t xml:space="preserve">2834.63</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J70">
@@ -3463,12 +3454,12 @@
       </c>
       <c s="8" t="inlineStr" r="K70">
         <is>
-          <t xml:space="preserve">1726.67</t>
+          <t xml:space="preserve">2834.63</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L70">
         <is>
-          <t xml:space="preserve">4999.30</t>
+          <t xml:space="preserve">3515.49</t>
         </is>
       </c>
     </row>
@@ -3483,23 +3474,23 @@
       </c>
       <c s="8" t="inlineStr" r="E71">
         <is>
-          <t xml:space="preserve">3165.60</t>
+          <t xml:space="preserve">3931.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F71"/>
       <c s="8" t="inlineStr" r="G71">
         <is>
-          <t xml:space="preserve">1933.10</t>
+          <t xml:space="preserve">4049.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">1912.60</t>
+          <t xml:space="preserve">2922.05</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I71">
         <is>
-          <t xml:space="preserve">1912.61</t>
+          <t xml:space="preserve">2922.05</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J71">
@@ -3509,12 +3500,12 @@
       </c>
       <c s="8" t="inlineStr" r="K71">
         <is>
-          <t xml:space="preserve">1912.61</t>
+          <t xml:space="preserve">2922.05</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L71">
         <is>
-          <t xml:space="preserve">4999.95</t>
+          <t xml:space="preserve">3565.63</t>
         </is>
       </c>
     </row>
@@ -3533,23 +3524,23 @@
       </c>
       <c s="8" t="inlineStr" r="E72">
         <is>
-          <t xml:space="preserve">3504.30</t>
+          <t xml:space="preserve">4087.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F72"/>
       <c s="8" t="inlineStr" r="G72">
         <is>
-          <t xml:space="preserve">1772.90</t>
+          <t xml:space="preserve">3972.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">1765.90</t>
+          <t xml:space="preserve">3212.87</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I72">
         <is>
-          <t xml:space="preserve">1765.90</t>
+          <t xml:space="preserve">3212.87</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J72">
@@ -3559,12 +3550,12 @@
       </c>
       <c s="8" t="inlineStr" r="K72">
         <is>
-          <t xml:space="preserve">1765.90</t>
+          <t xml:space="preserve">3212.87</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L72">
         <is>
-          <t xml:space="preserve">6003.11</t>
+          <t xml:space="preserve">3657.12</t>
         </is>
       </c>
     </row>
@@ -3579,23 +3570,23 @@
       </c>
       <c s="8" t="inlineStr" r="E73">
         <is>
-          <t xml:space="preserve">3386.50</t>
+          <t xml:space="preserve">3992.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F73"/>
       <c s="8" t="inlineStr" r="G73">
         <is>
-          <t xml:space="preserve">1712.20</t>
+          <t xml:space="preserve">3736.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">1705.20</t>
+          <t xml:space="preserve">3094.96</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I73">
         <is>
-          <t xml:space="preserve">1705.20</t>
+          <t xml:space="preserve">3094.96</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J73">
@@ -3605,12 +3596,12 @@
       </c>
       <c s="8" t="inlineStr" r="K73">
         <is>
-          <t xml:space="preserve">1705.20</t>
+          <t xml:space="preserve">3094.96</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L73">
         <is>
-          <t xml:space="preserve">6002.68</t>
+          <t xml:space="preserve">3657.94</t>
         </is>
       </c>
     </row>
@@ -3627,23 +3618,23 @@
       </c>
       <c s="8" t="inlineStr" r="E74">
         <is>
-          <t xml:space="preserve">3029.80</t>
+          <t xml:space="preserve">4144.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F74"/>
       <c s="8" t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">1324.40</t>
+          <t xml:space="preserve">3332.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">1324.40</t>
+          <t xml:space="preserve">2777.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I74">
         <is>
-          <t xml:space="preserve">1324.40</t>
+          <t xml:space="preserve">2777.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J74">
@@ -3653,12 +3644,12 @@
       </c>
       <c s="8" t="inlineStr" r="K74">
         <is>
-          <t xml:space="preserve">1324.40</t>
+          <t xml:space="preserve">2777.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L74">
         <is>
-          <t xml:space="preserve">7477.00</t>
+          <t xml:space="preserve">4307.76</t>
         </is>
       </c>
     </row>
@@ -3673,23 +3664,23 @@
       </c>
       <c s="8" t="inlineStr" r="E75">
         <is>
-          <t xml:space="preserve">2882.70</t>
+          <t xml:space="preserve">4320.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F75"/>
       <c s="8" t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">1351.90</t>
+          <t xml:space="preserve">3113.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">1351.90</t>
+          <t xml:space="preserve">2830.84</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I75">
         <is>
-          <t xml:space="preserve">1351.90</t>
+          <t xml:space="preserve">2830.85</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J75">
@@ -3699,12 +3690,12 @@
       </c>
       <c s="8" t="inlineStr" r="K75">
         <is>
-          <t xml:space="preserve">1351.90</t>
+          <t xml:space="preserve">2830.85</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L75">
         <is>
-          <t xml:space="preserve">7114.50</t>
+          <t xml:space="preserve">4999.06</t>
         </is>
       </c>
     </row>
@@ -3723,23 +3714,23 @@
       </c>
       <c s="8" t="inlineStr" r="E76">
         <is>
-          <t xml:space="preserve">3541.20</t>
+          <t xml:space="preserve">3519.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F76"/>
       <c s="8" t="inlineStr" r="G76">
         <is>
-          <t xml:space="preserve">2241.00</t>
+          <t xml:space="preserve">3748.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">2234.00</t>
+          <t xml:space="preserve">2766.14</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I76">
         <is>
-          <t xml:space="preserve">2234.00</t>
+          <t xml:space="preserve">2766.14</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J76">
@@ -3749,12 +3740,12 @@
       </c>
       <c s="8" t="inlineStr" r="K76">
         <is>
-          <t xml:space="preserve">2234.00</t>
+          <t xml:space="preserve">2766.14</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L76">
         <is>
-          <t xml:space="preserve">6000.27</t>
+          <t xml:space="preserve">3500.87</t>
         </is>
       </c>
     </row>
@@ -3769,23 +3760,23 @@
       </c>
       <c s="8" t="inlineStr" r="E77">
         <is>
-          <t xml:space="preserve">3892.70</t>
+          <t xml:space="preserve">3348.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F77"/>
       <c s="8" t="inlineStr" r="G77">
         <is>
-          <t xml:space="preserve">2107.30</t>
+          <t xml:space="preserve">3252.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H77">
         <is>
-          <t xml:space="preserve">2100.30</t>
+          <t xml:space="preserve">2724.98</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I77">
         <is>
-          <t xml:space="preserve">2100.30</t>
+          <t xml:space="preserve">2724.98</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J77">
@@ -3795,12 +3786,12 @@
       </c>
       <c s="8" t="inlineStr" r="K77">
         <is>
-          <t xml:space="preserve">2100.30</t>
+          <t xml:space="preserve">2724.98</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L77">
         <is>
-          <t xml:space="preserve">6000.68</t>
+          <t xml:space="preserve">3422.45</t>
         </is>
       </c>
     </row>
@@ -3817,23 +3808,23 @@
       </c>
       <c s="8" t="inlineStr" r="E78">
         <is>
-          <t xml:space="preserve">3392.80</t>
+          <t xml:space="preserve">3069.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F78"/>
       <c s="8" t="inlineStr" r="G78">
         <is>
-          <t xml:space="preserve">2102.40</t>
+          <t xml:space="preserve">3293.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H78">
         <is>
-          <t xml:space="preserve">2095.40</t>
+          <t xml:space="preserve">2532.76</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I78">
         <is>
-          <t xml:space="preserve">2095.40</t>
+          <t xml:space="preserve">2532.76</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J78">
@@ -3843,12 +3834,12 @@
       </c>
       <c s="8" t="inlineStr" r="K78">
         <is>
-          <t xml:space="preserve">2095.40</t>
+          <t xml:space="preserve">2532.76</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L78">
         <is>
-          <t xml:space="preserve">6000.46</t>
+          <t xml:space="preserve">3422.83</t>
         </is>
       </c>
     </row>
@@ -3863,23 +3854,23 @@
       </c>
       <c s="8" t="inlineStr" r="E79">
         <is>
-          <t xml:space="preserve">3677.80</t>
+          <t xml:space="preserve">2962.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F79"/>
       <c s="8" t="inlineStr" r="G79">
         <is>
-          <t xml:space="preserve">1961.40</t>
+          <t xml:space="preserve">3134.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H79">
         <is>
-          <t xml:space="preserve">1954.40</t>
+          <t xml:space="preserve">2438.02</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I79">
         <is>
-          <t xml:space="preserve">1954.40</t>
+          <t xml:space="preserve">2438.03</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J79">
@@ -3889,12 +3880,12 @@
       </c>
       <c s="8" t="inlineStr" r="K79">
         <is>
-          <t xml:space="preserve">1954.40</t>
+          <t xml:space="preserve">2438.03</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L79">
         <is>
-          <t xml:space="preserve">5721.97</t>
+          <t xml:space="preserve">3369.59</t>
         </is>
       </c>
     </row>
@@ -3913,23 +3904,23 @@
       </c>
       <c s="8" t="inlineStr" r="E80">
         <is>
-          <t xml:space="preserve">3312.20</t>
+          <t xml:space="preserve">2891.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F80"/>
       <c s="8" t="inlineStr" r="G80">
         <is>
-          <t xml:space="preserve">1847.00</t>
+          <t xml:space="preserve">3463.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H80">
         <is>
-          <t xml:space="preserve">1847.00</t>
+          <t xml:space="preserve">2422.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I80">
         <is>
-          <t xml:space="preserve">1847.00</t>
+          <t xml:space="preserve">2422.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J80">
@@ -3939,12 +3930,12 @@
       </c>
       <c s="8" t="inlineStr" r="K80">
         <is>
-          <t xml:space="preserve">1847.00</t>
+          <t xml:space="preserve">2422.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L80">
         <is>
-          <t xml:space="preserve">7131.00</t>
+          <t xml:space="preserve">3422.08</t>
         </is>
       </c>
     </row>
@@ -3959,23 +3950,23 @@
       </c>
       <c s="8" t="inlineStr" r="E81">
         <is>
-          <t xml:space="preserve">4249.70</t>
+          <t xml:space="preserve">2943.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F81"/>
       <c s="8" t="inlineStr" r="G81">
         <is>
-          <t xml:space="preserve">1308.50</t>
+          <t xml:space="preserve">3384.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H81">
         <is>
-          <t xml:space="preserve">1308.50</t>
+          <t xml:space="preserve">2467.56</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I81">
         <is>
-          <t xml:space="preserve">1308.50</t>
+          <t xml:space="preserve">2467.55</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J81">
@@ -3985,12 +3976,12 @@
       </c>
       <c s="8" t="inlineStr" r="K81">
         <is>
-          <t xml:space="preserve">1308.50</t>
+          <t xml:space="preserve">2467.55</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L81">
         <is>
-          <t xml:space="preserve">8261.55</t>
+          <t xml:space="preserve">3450.05</t>
         </is>
       </c>
     </row>
@@ -4007,23 +3998,23 @@
       </c>
       <c s="8" t="inlineStr" r="E82">
         <is>
-          <t xml:space="preserve">3930.20</t>
+          <t xml:space="preserve">3373.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F82"/>
       <c s="8" t="inlineStr" r="G82">
         <is>
-          <t xml:space="preserve">1121.60</t>
+          <t xml:space="preserve">2463.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H82">
         <is>
-          <t xml:space="preserve">1121.60</t>
+          <t xml:space="preserve">2012.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I82">
         <is>
-          <t xml:space="preserve">1121.60</t>
+          <t xml:space="preserve">2012.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J82">
@@ -4033,12 +4024,12 @@
       </c>
       <c s="8" t="inlineStr" r="K82">
         <is>
-          <t xml:space="preserve">1121.60</t>
+          <t xml:space="preserve">2012.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L82">
         <is>
-          <t xml:space="preserve">8653.50</t>
+          <t xml:space="preserve">5950.23</t>
         </is>
       </c>
     </row>
@@ -4053,23 +4044,23 @@
       </c>
       <c s="8" t="inlineStr" r="E83">
         <is>
-          <t xml:space="preserve">4633.70</t>
+          <t xml:space="preserve">3578.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F83"/>
       <c s="8" t="inlineStr" r="G83">
         <is>
-          <t xml:space="preserve">713.40</t>
+          <t xml:space="preserve">2002.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H83">
         <is>
-          <t xml:space="preserve">713.40</t>
+          <t xml:space="preserve">1951.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I83">
         <is>
-          <t xml:space="preserve">713.40</t>
+          <t xml:space="preserve">1951.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J83">
@@ -4079,12 +4070,12 @@
       </c>
       <c s="8" t="inlineStr" r="K83">
         <is>
-          <t xml:space="preserve">713.40</t>
+          <t xml:space="preserve">1951.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L83">
         <is>
-          <t xml:space="preserve">9002.28</t>
+          <t xml:space="preserve">5999.97</t>
         </is>
       </c>
     </row>
@@ -4103,23 +4094,23 @@
       </c>
       <c s="8" t="inlineStr" r="E84">
         <is>
-          <t xml:space="preserve">4948.30</t>
+          <t xml:space="preserve">3750.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F84"/>
       <c s="8" t="inlineStr" r="G84">
         <is>
-          <t xml:space="preserve">930.30</t>
+          <t xml:space="preserve">2033.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H84">
         <is>
-          <t xml:space="preserve">930.30</t>
+          <t xml:space="preserve">1982.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I84">
         <is>
-          <t xml:space="preserve">930.30</t>
+          <t xml:space="preserve">1982.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J84">
@@ -4129,12 +4120,12 @@
       </c>
       <c s="8" t="inlineStr" r="K84">
         <is>
-          <t xml:space="preserve">930.30</t>
+          <t xml:space="preserve">1982.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L84">
         <is>
-          <t xml:space="preserve">9312.46</t>
+          <t xml:space="preserve">6500.10</t>
         </is>
       </c>
     </row>
@@ -4149,23 +4140,23 @@
       </c>
       <c s="8" t="inlineStr" r="E85">
         <is>
-          <t xml:space="preserve">5028.10</t>
+          <t xml:space="preserve">4097.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F85"/>
       <c s="8" t="inlineStr" r="G85">
         <is>
-          <t xml:space="preserve">928.70</t>
+          <t xml:space="preserve">2035.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H85">
         <is>
-          <t xml:space="preserve">928.70</t>
+          <t xml:space="preserve">2004.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I85">
         <is>
-          <t xml:space="preserve">928.70</t>
+          <t xml:space="preserve">2004.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J85">
@@ -4175,12 +4166,12 @@
       </c>
       <c s="8" t="inlineStr" r="K85">
         <is>
-          <t xml:space="preserve">928.70</t>
+          <t xml:space="preserve">2004.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L85">
         <is>
-          <t xml:space="preserve">9312.56</t>
+          <t xml:space="preserve">6500.58</t>
         </is>
       </c>
     </row>
@@ -4197,23 +4188,23 @@
       </c>
       <c s="8" t="inlineStr" r="E86">
         <is>
-          <t xml:space="preserve">3965.80</t>
+          <t xml:space="preserve">4286.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F86"/>
       <c s="8" t="inlineStr" r="G86">
         <is>
-          <t xml:space="preserve">1169.40</t>
+          <t xml:space="preserve">2427.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H86">
         <is>
-          <t xml:space="preserve">1169.40</t>
+          <t xml:space="preserve">2397.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I86">
         <is>
-          <t xml:space="preserve">1169.40</t>
+          <t xml:space="preserve">2397.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J86">
@@ -4223,12 +4214,12 @@
       </c>
       <c s="8" t="inlineStr" r="K86">
         <is>
-          <t xml:space="preserve">1169.40</t>
+          <t xml:space="preserve">2397.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L86">
         <is>
-          <t xml:space="preserve">9592.70</t>
+          <t xml:space="preserve">6500.59</t>
         </is>
       </c>
     </row>
@@ -4243,23 +4234,23 @@
       </c>
       <c s="8" t="inlineStr" r="E87">
         <is>
-          <t xml:space="preserve">4186.30</t>
+          <t xml:space="preserve">4159.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F87"/>
       <c s="8" t="inlineStr" r="G87">
         <is>
-          <t xml:space="preserve">1122.60</t>
+          <t xml:space="preserve">2570.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H87">
         <is>
-          <t xml:space="preserve">1122.60</t>
+          <t xml:space="preserve">2539.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I87">
         <is>
-          <t xml:space="preserve">1122.60</t>
+          <t xml:space="preserve">2539.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J87">
@@ -4269,12 +4260,12 @@
       </c>
       <c s="8" t="inlineStr" r="K87">
         <is>
-          <t xml:space="preserve">1122.60</t>
+          <t xml:space="preserve">2539.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L87">
         <is>
-          <t xml:space="preserve">9847.41</t>
+          <t xml:space="preserve">6500.67</t>
         </is>
       </c>
     </row>
@@ -4293,23 +4284,23 @@
       </c>
       <c s="8" t="inlineStr" r="E88">
         <is>
-          <t xml:space="preserve">3784.80</t>
+          <t xml:space="preserve">4186.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F88"/>
       <c s="8" t="inlineStr" r="G88">
         <is>
-          <t xml:space="preserve">1567.20</t>
+          <t xml:space="preserve">2313.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H88">
         <is>
-          <t xml:space="preserve">1567.20</t>
+          <t xml:space="preserve">2243.14</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I88">
         <is>
-          <t xml:space="preserve">1567.20</t>
+          <t xml:space="preserve">2243.14</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J88">
@@ -4319,12 +4310,12 @@
       </c>
       <c s="8" t="inlineStr" r="K88">
         <is>
-          <t xml:space="preserve">1567.20</t>
+          <t xml:space="preserve">2243.14</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L88">
         <is>
-          <t xml:space="preserve">8164.56</t>
+          <t xml:space="preserve">5989.57</t>
         </is>
       </c>
     </row>
@@ -4339,23 +4330,23 @@
       </c>
       <c s="8" t="inlineStr" r="E89">
         <is>
-          <t xml:space="preserve">4012.90</t>
+          <t xml:space="preserve">3880.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F89"/>
       <c s="8" t="inlineStr" r="G89">
         <is>
-          <t xml:space="preserve">1741.50</t>
+          <t xml:space="preserve">2364.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H89">
         <is>
-          <t xml:space="preserve">1741.50</t>
+          <t xml:space="preserve">2333.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I89">
         <is>
-          <t xml:space="preserve">1741.50</t>
+          <t xml:space="preserve">2333.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J89">
@@ -4365,12 +4356,12 @@
       </c>
       <c s="8" t="inlineStr" r="K89">
         <is>
-          <t xml:space="preserve">1741.50</t>
+          <t xml:space="preserve">2333.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L89">
         <is>
-          <t xml:space="preserve">8164.50</t>
+          <t xml:space="preserve">6000.06</t>
         </is>
       </c>
     </row>
@@ -4387,23 +4378,23 @@
       </c>
       <c s="8" t="inlineStr" r="E90">
         <is>
-          <t xml:space="preserve">3031.10</t>
+          <t xml:space="preserve">4614.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F90"/>
       <c s="8" t="inlineStr" r="G90">
         <is>
-          <t xml:space="preserve">1519.90</t>
+          <t xml:space="preserve">2055.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H90">
         <is>
-          <t xml:space="preserve">1419.90</t>
+          <t xml:space="preserve">2033.26</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I90">
         <is>
-          <t xml:space="preserve">1419.90</t>
+          <t xml:space="preserve">2033.26</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J90">
@@ -4413,12 +4404,12 @@
       </c>
       <c s="8" t="inlineStr" r="K90">
         <is>
-          <t xml:space="preserve">1419.90</t>
+          <t xml:space="preserve">2033.26</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L90">
         <is>
-          <t xml:space="preserve">8000.02</t>
+          <t xml:space="preserve">8239.27</t>
         </is>
       </c>
     </row>
@@ -4433,23 +4424,23 @@
       </c>
       <c s="8" t="inlineStr" r="E91">
         <is>
-          <t xml:space="preserve">3331.60</t>
+          <t xml:space="preserve">4936.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F91"/>
       <c s="8" t="inlineStr" r="G91">
         <is>
-          <t xml:space="preserve">1382.00</t>
+          <t xml:space="preserve">2121.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H91">
         <is>
-          <t xml:space="preserve">1282.01</t>
+          <t xml:space="preserve">2090.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I91">
         <is>
-          <t xml:space="preserve">1282.01</t>
+          <t xml:space="preserve">2090.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J91">
@@ -4459,12 +4450,12 @@
       </c>
       <c s="8" t="inlineStr" r="K91">
         <is>
-          <t xml:space="preserve">1282.01</t>
+          <t xml:space="preserve">2090.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L91">
         <is>
-          <t xml:space="preserve">8000.81</t>
+          <t xml:space="preserve">6850.84</t>
         </is>
       </c>
     </row>
@@ -4483,23 +4474,23 @@
       </c>
       <c s="8" t="inlineStr" r="E92">
         <is>
-          <t xml:space="preserve">2554.00</t>
+          <t xml:space="preserve">5146.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F92"/>
       <c s="8" t="inlineStr" r="G92">
         <is>
-          <t xml:space="preserve">1213.10</t>
+          <t xml:space="preserve">2471.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H92">
         <is>
-          <t xml:space="preserve">1068.10</t>
+          <t xml:space="preserve">2442.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I92">
         <is>
-          <t xml:space="preserve">1068.10</t>
+          <t xml:space="preserve">2442.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J92">
@@ -4509,12 +4500,12 @@
       </c>
       <c s="8" t="inlineStr" r="K92">
         <is>
-          <t xml:space="preserve">1068.10</t>
+          <t xml:space="preserve">2442.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L92">
         <is>
-          <t xml:space="preserve">6500.59</t>
+          <t xml:space="preserve">6500.61</t>
         </is>
       </c>
     </row>
@@ -4529,23 +4520,23 @@
       </c>
       <c s="8" t="inlineStr" r="E93">
         <is>
-          <t xml:space="preserve">2569.90</t>
+          <t xml:space="preserve">4985.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F93"/>
       <c s="8" t="inlineStr" r="G93">
         <is>
-          <t xml:space="preserve">1259.80</t>
+          <t xml:space="preserve">2566.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H93">
         <is>
-          <t xml:space="preserve">1124.80</t>
+          <t xml:space="preserve">2537.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I93">
         <is>
-          <t xml:space="preserve">1124.80</t>
+          <t xml:space="preserve">2537.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J93">
@@ -4555,12 +4546,12 @@
       </c>
       <c s="8" t="inlineStr" r="K93">
         <is>
-          <t xml:space="preserve">1124.80</t>
+          <t xml:space="preserve">2537.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L93">
         <is>
-          <t xml:space="preserve">6500.48</t>
+          <t xml:space="preserve">6500.45</t>
         </is>
       </c>
     </row>
@@ -4577,23 +4568,23 @@
       </c>
       <c s="8" t="inlineStr" r="E94">
         <is>
-          <t xml:space="preserve">2600.70</t>
+          <t xml:space="preserve">4905.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F94"/>
       <c s="8" t="inlineStr" r="G94">
         <is>
-          <t xml:space="preserve">2621.20</t>
+          <t xml:space="preserve">2541.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H94">
         <is>
-          <t xml:space="preserve">1515.36</t>
+          <t xml:space="preserve">2512.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I94">
         <is>
-          <t xml:space="preserve">1515.36</t>
+          <t xml:space="preserve">2512.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J94">
@@ -4603,12 +4594,12 @@
       </c>
       <c s="8" t="inlineStr" r="K94">
         <is>
-          <t xml:space="preserve">1515.36</t>
+          <t xml:space="preserve">2512.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L94">
         <is>
-          <t xml:space="preserve">4423.37</t>
+          <t xml:space="preserve">6500.55</t>
         </is>
       </c>
     </row>
@@ -4623,23 +4614,23 @@
       </c>
       <c s="8" t="inlineStr" r="E95">
         <is>
-          <t xml:space="preserve">2389.60</t>
+          <t xml:space="preserve">4575.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F95"/>
       <c s="8" t="inlineStr" r="G95">
         <is>
-          <t xml:space="preserve">2666.20</t>
+          <t xml:space="preserve">2757.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H95">
         <is>
-          <t xml:space="preserve">1383.40</t>
+          <t xml:space="preserve">2728.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I95">
         <is>
-          <t xml:space="preserve">1383.40</t>
+          <t xml:space="preserve">2728.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J95">
@@ -4649,12 +4640,12 @@
       </c>
       <c s="8" t="inlineStr" r="K95">
         <is>
-          <t xml:space="preserve">1383.40</t>
+          <t xml:space="preserve">2728.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L95">
         <is>
-          <t xml:space="preserve">4423.03</t>
+          <t xml:space="preserve">6500.18</t>
         </is>
       </c>
     </row>
@@ -4673,23 +4664,23 @@
       </c>
       <c s="8" t="inlineStr" r="E96">
         <is>
-          <t xml:space="preserve">2381.80</t>
+          <t xml:space="preserve">4431.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F96"/>
       <c s="8" t="inlineStr" r="G96">
         <is>
-          <t xml:space="preserve">2666.10</t>
+          <t xml:space="preserve">2973.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H96">
         <is>
-          <t xml:space="preserve">1362.40</t>
+          <t xml:space="preserve">2444.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I96">
         <is>
-          <t xml:space="preserve">1362.40</t>
+          <t xml:space="preserve">2444.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J96">
@@ -4699,12 +4690,12 @@
       </c>
       <c s="8" t="inlineStr" r="K96">
         <is>
-          <t xml:space="preserve">1362.40</t>
+          <t xml:space="preserve">2444.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L96">
         <is>
-          <t xml:space="preserve">4240.95</t>
+          <t xml:space="preserve">4527.85</t>
         </is>
       </c>
     </row>
@@ -4719,23 +4710,23 @@
       </c>
       <c s="8" t="inlineStr" r="E97">
         <is>
-          <t xml:space="preserve">2449.60</t>
+          <t xml:space="preserve">4790.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F97"/>
       <c s="8" t="inlineStr" r="G97">
         <is>
-          <t xml:space="preserve">2688.00</t>
+          <t xml:space="preserve">2974.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H97">
         <is>
-          <t xml:space="preserve">1422.00</t>
+          <t xml:space="preserve">2798.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I97">
         <is>
-          <t xml:space="preserve">1422.00</t>
+          <t xml:space="preserve">2798.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J97">
@@ -4745,12 +4736,12 @@
       </c>
       <c s="8" t="inlineStr" r="K97">
         <is>
-          <t xml:space="preserve">1422.00</t>
+          <t xml:space="preserve">2798.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L97">
         <is>
-          <t xml:space="preserve">4423.01</t>
+          <t xml:space="preserve">5000.18</t>
         </is>
       </c>
     </row>
@@ -4767,23 +4758,23 @@
       </c>
       <c s="8" t="inlineStr" r="E98">
         <is>
-          <t xml:space="preserve">3247.80</t>
+          <t xml:space="preserve">4584.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F98"/>
       <c s="8" t="inlineStr" r="G98">
         <is>
-          <t xml:space="preserve">2561.10</t>
+          <t xml:space="preserve">2982.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H98">
         <is>
-          <t xml:space="preserve">1595.40</t>
+          <t xml:space="preserve">2347.01</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I98">
         <is>
-          <t xml:space="preserve">1595.40</t>
+          <t xml:space="preserve">2347.01</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J98">
@@ -4793,12 +4784,12 @@
       </c>
       <c s="8" t="inlineStr" r="K98">
         <is>
-          <t xml:space="preserve">1595.40</t>
+          <t xml:space="preserve">2347.01</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L98">
         <is>
-          <t xml:space="preserve">4218.80</t>
+          <t xml:space="preserve">4527.66</t>
         </is>
       </c>
     </row>
@@ -4813,23 +4804,23 @@
       </c>
       <c s="8" t="inlineStr" r="E99">
         <is>
-          <t xml:space="preserve">3185.90</t>
+          <t xml:space="preserve">4675.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F99"/>
       <c s="8" t="inlineStr" r="G99">
         <is>
-          <t xml:space="preserve">2571.20</t>
+          <t xml:space="preserve">2880.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H99">
         <is>
-          <t xml:space="preserve">1615.70</t>
+          <t xml:space="preserve">2424.72</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I99">
         <is>
-          <t xml:space="preserve">1615.70</t>
+          <t xml:space="preserve">2424.72</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J99">
@@ -4839,12 +4830,12 @@
       </c>
       <c s="8" t="inlineStr" r="K99">
         <is>
-          <t xml:space="preserve">1615.70</t>
+          <t xml:space="preserve">2424.72</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L99">
         <is>
-          <t xml:space="preserve">4190.38</t>
+          <t xml:space="preserve">4999.25</t>
         </is>
       </c>
     </row>
@@ -4863,23 +4854,23 @@
       </c>
       <c s="8" t="inlineStr" r="E100">
         <is>
-          <t xml:space="preserve">2700.90</t>
+          <t xml:space="preserve">5290.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F100"/>
       <c s="8" t="inlineStr" r="G100">
         <is>
-          <t xml:space="preserve">2327.40</t>
+          <t xml:space="preserve">2261.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H100">
         <is>
-          <t xml:space="preserve">1393.90</t>
+          <t xml:space="preserve">2232.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I100">
         <is>
-          <t xml:space="preserve">1393.90</t>
+          <t xml:space="preserve">2232.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J100">
@@ -4889,12 +4880,12 @@
       </c>
       <c s="8" t="inlineStr" r="K100">
         <is>
-          <t xml:space="preserve">1393.90</t>
+          <t xml:space="preserve">2232.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L100">
         <is>
-          <t xml:space="preserve">4381.15</t>
+          <t xml:space="preserve">6500.48</t>
         </is>
       </c>
     </row>
@@ -4909,23 +4900,23 @@
       </c>
       <c s="8" t="inlineStr" r="E101">
         <is>
-          <t xml:space="preserve">2654.00</t>
+          <t xml:space="preserve">5482.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F101"/>
       <c s="8" t="inlineStr" r="G101">
         <is>
-          <t xml:space="preserve">2332.40</t>
+          <t xml:space="preserve">2067.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H101">
         <is>
-          <t xml:space="preserve">1376.60</t>
+          <t xml:space="preserve">2038.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I101">
         <is>
-          <t xml:space="preserve">1376.60</t>
+          <t xml:space="preserve">2038.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J101">
@@ -4935,12 +4926,12 @@
       </c>
       <c s="8" t="inlineStr" r="K101">
         <is>
-          <t xml:space="preserve">1376.60</t>
+          <t xml:space="preserve">2038.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L101">
         <is>
-          <t xml:space="preserve">4260.40</t>
+          <t xml:space="preserve">6500.79</t>
         </is>
       </c>
     </row>
@@ -4957,23 +4948,23 @@
       </c>
       <c s="8" t="inlineStr" r="E102">
         <is>
-          <t xml:space="preserve">2801.40</t>
+          <t xml:space="preserve">5566.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F102"/>
       <c s="8" t="inlineStr" r="G102">
         <is>
-          <t xml:space="preserve">2034.80</t>
+          <t xml:space="preserve">2247.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H102">
         <is>
-          <t xml:space="preserve">1300.97</t>
+          <t xml:space="preserve">2218.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I102">
         <is>
-          <t xml:space="preserve">1300.97</t>
+          <t xml:space="preserve">2218.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J102">
@@ -4983,17 +4974,17 @@
       </c>
       <c s="8" t="inlineStr" r="K102">
         <is>
-          <t xml:space="preserve">1300.97</t>
+          <t xml:space="preserve">2218.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L102">
         <is>
-          <t xml:space="preserve">4401.00</t>
+          <t xml:space="preserve">6500.94</t>
         </is>
       </c>
     </row>
     <row r="103" ht="13.2" customHeight="0">
-      <c s="14" t="str" r="A103"/>
+      <c s="13" t="str" r="A103"/>
       <c s="12" t="str" r="B103"/>
       <c s="12" t="str" r="C103"/>
       <c s="7" t="inlineStr" r="D103">
@@ -5003,23 +4994,23 @@
       </c>
       <c s="8" t="inlineStr" r="E103">
         <is>
-          <t xml:space="preserve">2760.60</t>
+          <t xml:space="preserve">5273.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F103"/>
       <c s="8" t="inlineStr" r="G103">
         <is>
-          <t xml:space="preserve">2458.30</t>
+          <t xml:space="preserve">2203.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H103">
         <is>
-          <t xml:space="preserve">1687.00</t>
+          <t xml:space="preserve">2174.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I103">
         <is>
-          <t xml:space="preserve">1687.00</t>
+          <t xml:space="preserve">2174.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J103">
@@ -5029,25 +5020,25 @@
       </c>
       <c s="8" t="inlineStr" r="K103">
         <is>
-          <t xml:space="preserve">1687.00</t>
+          <t xml:space="preserve">2174.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L103">
         <is>
-          <t xml:space="preserve">4006.39</t>
+          <t xml:space="preserve">6500.64</t>
         </is>
       </c>
     </row>
     <row r="104" ht="0.05" customHeight="1"/>
     <row r="105" ht="5.7" customHeight="1"/>
     <row r="106" ht="17.4" customHeight="0">
-      <c s="15" t="inlineStr" r="A106">
+      <c s="14" t="inlineStr" r="A106">
         <is>
           <t xml:space="preserve">Date</t>
         </is>
       </c>
-      <c s="16" t="str" r="B106"/>
-      <c s="16" t="str" r="C106"/>
+      <c s="15" t="str" r="B106"/>
+      <c s="15" t="str" r="C106"/>
       <c s="4" t="str" r="D106"/>
       <c s="3" t="inlineStr" r="E106">
         <is>
@@ -5112,45 +5103,45 @@
     <row r="107" ht="14.4" customHeight="0">
       <c s="5" t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">24-03-2021</t>
-        </is>
-      </c>
-      <c s="17" t="inlineStr" r="B107">
+          <t xml:space="preserve">05-04-2021</t>
+        </is>
+      </c>
+      <c s="16" t="inlineStr" r="B107">
         <is>
           <t xml:space="preserve">Total (MWh)</t>
         </is>
       </c>
-      <c s="16" t="str" r="C107"/>
+      <c s="15" t="str" r="C107"/>
       <c s="4" t="str" r="D107"/>
-      <c s="18" t="inlineStr" r="E107">
-        <is>
-          <t xml:space="preserve">70601.18</t>
+      <c s="17" t="inlineStr" r="E107">
+        <is>
+          <t xml:space="preserve">75175.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F107"/>
-      <c s="18" t="inlineStr" r="G107">
-        <is>
-          <t xml:space="preserve">66814.13</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="H107">
-        <is>
-          <t xml:space="preserve">42560.79</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="I107">
-        <is>
-          <t xml:space="preserve">42557.41</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="J107">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="K107">
-        <is>
-          <t xml:space="preserve">42557.41</t>
+      <c s="17" t="inlineStr" r="G107">
+        <is>
+          <t xml:space="preserve">86172.70</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="H107">
+        <is>
+          <t xml:space="preserve">50872.73</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="I107">
+        <is>
+          <t xml:space="preserve">50872.73</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="J107">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="K107">
+        <is>
+          <t xml:space="preserve">50872.73</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L107">
@@ -5161,139 +5152,139 @@
     </row>
     <row r="108" ht="13.65" customHeight="0">
       <c s="10" t="str" r="A108"/>
-      <c s="17" t="inlineStr" r="B108">
+      <c s="16" t="inlineStr" r="B108">
         <is>
           <t xml:space="preserve">Max (MW)</t>
         </is>
       </c>
-      <c s="16" t="str" r="C108"/>
+      <c s="15" t="str" r="C108"/>
       <c s="4" t="str" r="D108"/>
-      <c s="18" t="inlineStr" r="E108">
-        <is>
-          <t xml:space="preserve">5028.10</t>
+      <c s="17" t="inlineStr" r="E108">
+        <is>
+          <t xml:space="preserve">5566.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F108"/>
-      <c s="18" t="inlineStr" r="G108">
-        <is>
-          <t xml:space="preserve">4629.80</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="H108">
-        <is>
-          <t xml:space="preserve">3135.24</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="I108">
-        <is>
-          <t xml:space="preserve">3135.24</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="J108">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="K108">
-        <is>
-          <t xml:space="preserve">3135.24</t>
+      <c s="17" t="inlineStr" r="G108">
+        <is>
+          <t xml:space="preserve">5899.00</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="H108">
+        <is>
+          <t xml:space="preserve">3212.87</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="I108">
+        <is>
+          <t xml:space="preserve">3212.87</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="J108">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="K108">
+        <is>
+          <t xml:space="preserve">3212.87</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L108">
         <is>
-          <t xml:space="preserve">9847.41</t>
+          <t xml:space="preserve">8239.27</t>
         </is>
       </c>
     </row>
     <row r="109" ht="12.9" customHeight="0">
       <c s="10" t="str" r="A109"/>
-      <c s="17" t="inlineStr" r="B109">
+      <c s="16" t="inlineStr" r="B109">
         <is>
           <t xml:space="preserve">Min (MW)</t>
         </is>
       </c>
-      <c s="16" t="str" r="C109"/>
+      <c s="15" t="str" r="C109"/>
       <c s="4" t="str" r="D109"/>
-      <c s="18" t="inlineStr" r="E109">
-        <is>
-          <t xml:space="preserve">1536.90</t>
+      <c s="17" t="inlineStr" r="E109">
+        <is>
+          <t xml:space="preserve">1891.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F109"/>
-      <c s="18" t="inlineStr" r="G109">
-        <is>
-          <t xml:space="preserve">713.40</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="H109">
-        <is>
-          <t xml:space="preserve">713.40</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="I109">
-        <is>
-          <t xml:space="preserve">713.40</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="J109">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="K109">
-        <is>
-          <t xml:space="preserve">713.40</t>
+      <c s="17" t="inlineStr" r="G109">
+        <is>
+          <t xml:space="preserve">2002.20</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="H109">
+        <is>
+          <t xml:space="preserve">1281.93</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="I109">
+        <is>
+          <t xml:space="preserve">1281.93</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="J109">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="K109">
+        <is>
+          <t xml:space="preserve">1281.93</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L109">
         <is>
-          <t xml:space="preserve">2789.40</t>
+          <t xml:space="preserve">2464.12</t>
         </is>
       </c>
     </row>
     <row r="110" ht="12.9" customHeight="0">
-      <c s="14" t="str" r="A110"/>
-      <c s="17" t="inlineStr" r="B110">
+      <c s="13" t="str" r="A110"/>
+      <c s="16" t="inlineStr" r="B110">
         <is>
           <t xml:space="preserve">Average (MW)</t>
         </is>
       </c>
-      <c s="16" t="str" r="C110"/>
+      <c s="15" t="str" r="C110"/>
       <c s="4" t="str" r="D110"/>
-      <c s="18" t="inlineStr" r="E110">
-        <is>
-          <t xml:space="preserve">2941.72</t>
+      <c s="17" t="inlineStr" r="E110">
+        <is>
+          <t xml:space="preserve">3132.31</t>
         </is>
       </c>
       <c s="4" t="str" r="F110"/>
-      <c s="18" t="inlineStr" r="G110">
-        <is>
-          <t xml:space="preserve">2783.92</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="H110">
-        <is>
-          <t xml:space="preserve">1773.37</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="I110">
-        <is>
-          <t xml:space="preserve">1773.23</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="J110">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c s="18" t="inlineStr" r="K110">
-        <is>
-          <t xml:space="preserve">1773.23</t>
+      <c s="17" t="inlineStr" r="G110">
+        <is>
+          <t xml:space="preserve">3590.53</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="H110">
+        <is>
+          <t xml:space="preserve">2119.70</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="I110">
+        <is>
+          <t xml:space="preserve">2119.70</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="J110">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c s="17" t="inlineStr" r="K110">
+        <is>
+          <t xml:space="preserve">2119.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L110">
         <is>
-          <t xml:space="preserve">4575.16</t>
+          <t xml:space="preserve">3826.93</t>
         </is>
       </c>
     </row>

--- a/Dumps/iexRtmFile/MarketMinute.xlsx
+++ b/Dumps/iexRtmFile/MarketMinute.xlsx
@@ -378,7 +378,7 @@
     <row r="4" ht="14.4" customHeight="1">
       <c s="2" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Date: 05-04-2021</t>
+          <t xml:space="preserve">Date: 14-04-2021</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
     <row r="8" ht="13.2" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">05-04-2021</t>
+          <t xml:space="preserve">14-04-2021</t>
         </is>
       </c>
       <c s="6" r="B8">
@@ -484,23 +484,23 @@
       </c>
       <c s="8" t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">2474.90</t>
+          <t xml:space="preserve">2684.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F8"/>
       <c s="8" t="inlineStr" r="G8">
         <is>
-          <t xml:space="preserve">3255.00</t>
+          <t xml:space="preserve">2300.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">2144.60</t>
+          <t xml:space="preserve">1969.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">2144.60</t>
+          <t xml:space="preserve">1969.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J8">
@@ -510,12 +510,12 @@
       </c>
       <c s="8" t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">2144.60</t>
+          <t xml:space="preserve">1969.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L8">
         <is>
-          <t xml:space="preserve">2829.58</t>
+          <t xml:space="preserve">3999.82</t>
         </is>
       </c>
     </row>
@@ -530,23 +530,23 @@
       </c>
       <c s="8" t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">2485.00</t>
+          <t xml:space="preserve">2952.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F9"/>
       <c s="8" t="inlineStr" r="G9">
         <is>
-          <t xml:space="preserve">3260.50</t>
+          <t xml:space="preserve">2254.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">2154.70</t>
+          <t xml:space="preserve">2115.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">2154.70</t>
+          <t xml:space="preserve">2115.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J9">
@@ -556,12 +556,12 @@
       </c>
       <c s="8" t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">2154.70</t>
+          <t xml:space="preserve">2115.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L9">
         <is>
-          <t xml:space="preserve">2829.60</t>
+          <t xml:space="preserve">4998.45</t>
         </is>
       </c>
     </row>
@@ -578,23 +578,23 @@
       </c>
       <c s="8" t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">2342.70</t>
+          <t xml:space="preserve">2739.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F10"/>
       <c s="8" t="inlineStr" r="G10">
         <is>
-          <t xml:space="preserve">3011.60</t>
+          <t xml:space="preserve">3097.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">1970.95</t>
+          <t xml:space="preserve">2142.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">1970.95</t>
+          <t xml:space="preserve">2142.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J10">
@@ -604,12 +604,12 @@
       </c>
       <c s="8" t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">1970.95</t>
+          <t xml:space="preserve">2142.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L10">
         <is>
-          <t xml:space="preserve">2829.48</t>
+          <t xml:space="preserve">3529.51</t>
         </is>
       </c>
     </row>
@@ -624,23 +624,23 @@
       </c>
       <c s="8" t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">2541.70</t>
+          <t xml:space="preserve">2200.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F11"/>
       <c s="8" t="inlineStr" r="G11">
         <is>
-          <t xml:space="preserve">3286.80</t>
+          <t xml:space="preserve">3216.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">2169.93</t>
+          <t xml:space="preserve">1630.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">2169.93</t>
+          <t xml:space="preserve">1630.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J11">
@@ -650,12 +650,12 @@
       </c>
       <c s="8" t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">2169.93</t>
+          <t xml:space="preserve">1630.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L11">
         <is>
-          <t xml:space="preserve">2829.66</t>
+          <t xml:space="preserve">3496.13</t>
         </is>
       </c>
     </row>
@@ -674,23 +674,23 @@
       </c>
       <c s="8" t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">2746.00</t>
+          <t xml:space="preserve">2571.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F12"/>
       <c s="8" t="inlineStr" r="G12">
         <is>
-          <t xml:space="preserve">3000.60</t>
+          <t xml:space="preserve">3272.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">2142.50</t>
+          <t xml:space="preserve">2116.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">2142.50</t>
+          <t xml:space="preserve">2116.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J12">
@@ -700,12 +700,12 @@
       </c>
       <c s="8" t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">2142.50</t>
+          <t xml:space="preserve">2116.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L12">
         <is>
-          <t xml:space="preserve">3081.73</t>
+          <t xml:space="preserve">3098.34</t>
         </is>
       </c>
     </row>
@@ -720,23 +720,23 @@
       </c>
       <c s="8" t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">2267.20</t>
+          <t xml:space="preserve">2779.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F13"/>
       <c s="8" t="inlineStr" r="G13">
         <is>
-          <t xml:space="preserve">3157.10</t>
+          <t xml:space="preserve">3380.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">1867.89</t>
+          <t xml:space="preserve">2324.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">1867.89</t>
+          <t xml:space="preserve">2324.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J13">
@@ -746,12 +746,12 @@
       </c>
       <c s="8" t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">1867.89</t>
+          <t xml:space="preserve">2324.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L13">
         <is>
-          <t xml:space="preserve">2959.09</t>
+          <t xml:space="preserve">3098.78</t>
         </is>
       </c>
     </row>
@@ -768,23 +768,23 @@
       </c>
       <c s="8" t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">2543.40</t>
+          <t xml:space="preserve">2069.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F14"/>
       <c s="8" t="inlineStr" r="G14">
         <is>
-          <t xml:space="preserve">2731.50</t>
+          <t xml:space="preserve">2883.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">1460.06</t>
+          <t xml:space="preserve">1595.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">1460.06</t>
+          <t xml:space="preserve">1595.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J14">
@@ -794,12 +794,12 @@
       </c>
       <c s="8" t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">1460.06</t>
+          <t xml:space="preserve">1595.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L14">
         <is>
-          <t xml:space="preserve">3215.83</t>
+          <t xml:space="preserve">3081.54</t>
         </is>
       </c>
     </row>
@@ -814,23 +814,23 @@
       </c>
       <c s="8" t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">2470.90</t>
+          <t xml:space="preserve">2008.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F15"/>
       <c s="8" t="inlineStr" r="G15">
         <is>
-          <t xml:space="preserve">2948.40</t>
+          <t xml:space="preserve">2932.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">1437.57</t>
+          <t xml:space="preserve">1512.47</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">1437.57</t>
+          <t xml:space="preserve">1512.47</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J15">
@@ -840,12 +840,12 @@
       </c>
       <c s="8" t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">1437.57</t>
+          <t xml:space="preserve">1512.47</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L15">
         <is>
-          <t xml:space="preserve">3215.14</t>
+          <t xml:space="preserve">3200.17</t>
         </is>
       </c>
     </row>
@@ -864,23 +864,23 @@
       </c>
       <c s="8" t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">2179.00</t>
+          <t xml:space="preserve">1890.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F16"/>
       <c s="8" t="inlineStr" r="G16">
         <is>
-          <t xml:space="preserve">2898.40</t>
+          <t xml:space="preserve">3549.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">1405.70</t>
+          <t xml:space="preserve">1477.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">1405.70</t>
+          <t xml:space="preserve">1477.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J16">
@@ -890,12 +890,12 @@
       </c>
       <c s="8" t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">1405.70</t>
+          <t xml:space="preserve">1477.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L16">
         <is>
-          <t xml:space="preserve">3100.52</t>
+          <t xml:space="preserve">2959.44</t>
         </is>
       </c>
     </row>
@@ -910,23 +910,23 @@
       </c>
       <c s="8" t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">2241.10</t>
+          <t xml:space="preserve">1943.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F17"/>
       <c s="8" t="inlineStr" r="G17">
         <is>
-          <t xml:space="preserve">3088.20</t>
+          <t xml:space="preserve">3609.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">1446.80</t>
+          <t xml:space="preserve">1530.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">1446.80</t>
+          <t xml:space="preserve">1530.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J17">
@@ -936,12 +936,12 @@
       </c>
       <c s="8" t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">1446.80</t>
+          <t xml:space="preserve">1530.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L17">
         <is>
-          <t xml:space="preserve">3150.09</t>
+          <t xml:space="preserve">2959.64</t>
         </is>
       </c>
     </row>
@@ -958,23 +958,23 @@
       </c>
       <c s="8" t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">2037.10</t>
+          <t xml:space="preserve">2006.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F18"/>
       <c s="8" t="inlineStr" r="G18">
         <is>
-          <t xml:space="preserve">3880.20</t>
+          <t xml:space="preserve">4386.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">1366.33</t>
+          <t xml:space="preserve">1488.46</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">1366.33</t>
+          <t xml:space="preserve">1488.46</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J18">
@@ -984,12 +984,12 @@
       </c>
       <c s="8" t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">1366.33</t>
+          <t xml:space="preserve">1488.46</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L18">
         <is>
-          <t xml:space="preserve">2829.75</t>
+          <t xml:space="preserve">2959.23</t>
         </is>
       </c>
     </row>
@@ -1004,23 +1004,23 @@
       </c>
       <c s="8" t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">2014.60</t>
+          <t xml:space="preserve">1900.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F19"/>
       <c s="8" t="inlineStr" r="G19">
         <is>
-          <t xml:space="preserve">4023.70</t>
+          <t xml:space="preserve">4567.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">1343.84</t>
+          <t xml:space="preserve">1382.48</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">1343.84</t>
+          <t xml:space="preserve">1382.48</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J19">
@@ -1030,12 +1030,12 @@
       </c>
       <c s="8" t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">1343.84</t>
+          <t xml:space="preserve">1382.48</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L19">
         <is>
-          <t xml:space="preserve">2829.69</t>
+          <t xml:space="preserve">2959.09</t>
         </is>
       </c>
     </row>
@@ -1054,23 +1054,23 @@
       </c>
       <c s="8" t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">1974.80</t>
+          <t xml:space="preserve">2022.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F20"/>
       <c s="8" t="inlineStr" r="G20">
         <is>
-          <t xml:space="preserve">4602.40</t>
+          <t xml:space="preserve">4727.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">1424.00</t>
+          <t xml:space="preserve">1512.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">1424.00</t>
+          <t xml:space="preserve">1512.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J20">
@@ -1080,12 +1080,12 @@
       </c>
       <c s="8" t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">1424.00</t>
+          <t xml:space="preserve">1512.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L20">
         <is>
-          <t xml:space="preserve">2800.20</t>
+          <t xml:space="preserve">2887.20</t>
         </is>
       </c>
     </row>
@@ -1100,23 +1100,23 @@
       </c>
       <c s="8" t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">2148.70</t>
+          <t xml:space="preserve">2131.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F21"/>
       <c s="8" t="inlineStr" r="G21">
         <is>
-          <t xml:space="preserve">4266.40</t>
+          <t xml:space="preserve">4494.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">1477.93</t>
+          <t xml:space="preserve">1614.26</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">1477.93</t>
+          <t xml:space="preserve">1614.26</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J21">
@@ -1126,12 +1126,12 @@
       </c>
       <c s="8" t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">1477.93</t>
+          <t xml:space="preserve">1614.26</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L21">
         <is>
-          <t xml:space="preserve">2829.80</t>
+          <t xml:space="preserve">2949.66</t>
         </is>
       </c>
     </row>
@@ -1148,23 +1148,23 @@
       </c>
       <c s="8" t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">2061.20</t>
+          <t xml:space="preserve">2070.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F22"/>
       <c s="8" t="inlineStr" r="G22">
         <is>
-          <t xml:space="preserve">4490.90</t>
+          <t xml:space="preserve">4281.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">1426.00</t>
+          <t xml:space="preserve">1552.95</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">1426.00</t>
+          <t xml:space="preserve">1552.95</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J22">
@@ -1174,12 +1174,12 @@
       </c>
       <c s="8" t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">1426.00</t>
+          <t xml:space="preserve">1552.95</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L22">
         <is>
-          <t xml:space="preserve">2800.78</t>
+          <t xml:space="preserve">2949.78</t>
         </is>
       </c>
     </row>
@@ -1194,23 +1194,23 @@
       </c>
       <c s="8" t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">2027.60</t>
+          <t xml:space="preserve">2132.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F23"/>
       <c s="8" t="inlineStr" r="G23">
         <is>
-          <t xml:space="preserve">4411.80</t>
+          <t xml:space="preserve">4174.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">1356.90</t>
+          <t xml:space="preserve">1613.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I23">
         <is>
-          <t xml:space="preserve">1356.90</t>
+          <t xml:space="preserve">1613.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J23">
@@ -1220,12 +1220,12 @@
       </c>
       <c s="8" t="inlineStr" r="K23">
         <is>
-          <t xml:space="preserve">1356.90</t>
+          <t xml:space="preserve">1613.31</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L23">
         <is>
-          <t xml:space="preserve">2829.18</t>
+          <t xml:space="preserve">2969.44</t>
         </is>
       </c>
     </row>
@@ -1244,23 +1244,23 @@
       </c>
       <c s="8" t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">2030.60</t>
+          <t xml:space="preserve">1822.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F24"/>
       <c s="8" t="inlineStr" r="G24">
         <is>
-          <t xml:space="preserve">4388.20</t>
+          <t xml:space="preserve">4068.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">1529.46</t>
+          <t xml:space="preserve">1435.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">1529.46</t>
+          <t xml:space="preserve">1435.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J24">
@@ -1270,12 +1270,12 @@
       </c>
       <c s="8" t="inlineStr" r="K24">
         <is>
-          <t xml:space="preserve">1529.46</t>
+          <t xml:space="preserve">1435.34</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L24">
         <is>
-          <t xml:space="preserve">2684.95</t>
+          <t xml:space="preserve">2599.92</t>
         </is>
       </c>
     </row>
@@ -1290,23 +1290,23 @@
       </c>
       <c s="8" t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">2053.20</t>
+          <t xml:space="preserve">1837.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F25"/>
       <c s="8" t="inlineStr" r="G25">
         <is>
-          <t xml:space="preserve">3992.60</t>
+          <t xml:space="preserve">3781.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">1542.39</t>
+          <t xml:space="preserve">1379.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I25">
         <is>
-          <t xml:space="preserve">1542.39</t>
+          <t xml:space="preserve">1379.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J25">
@@ -1316,12 +1316,12 @@
       </c>
       <c s="8" t="inlineStr" r="K25">
         <is>
-          <t xml:space="preserve">1542.39</t>
+          <t xml:space="preserve">1379.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L25">
         <is>
-          <t xml:space="preserve">2723.62</t>
+          <t xml:space="preserve">2800.45</t>
         </is>
       </c>
     </row>
@@ -1338,23 +1338,23 @@
       </c>
       <c s="8" t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">2093.60</t>
+          <t xml:space="preserve">2093.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F26"/>
       <c s="8" t="inlineStr" r="G26">
         <is>
-          <t xml:space="preserve">3584.90</t>
+          <t xml:space="preserve">3703.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">1538.98</t>
+          <t xml:space="preserve">1414.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">1538.98</t>
+          <t xml:space="preserve">1414.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J26">
@@ -1364,12 +1364,12 @@
       </c>
       <c s="8" t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">1538.98</t>
+          <t xml:space="preserve">1414.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L26">
         <is>
-          <t xml:space="preserve">2723.29</t>
+          <t xml:space="preserve">2749.35</t>
         </is>
       </c>
     </row>
@@ -1384,23 +1384,23 @@
       </c>
       <c s="8" t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">2333.50</t>
+          <t xml:space="preserve">1942.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F27"/>
       <c s="8" t="inlineStr" r="G27">
         <is>
-          <t xml:space="preserve">3453.00</t>
+          <t xml:space="preserve">3771.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">1601.87</t>
+          <t xml:space="preserve">1363.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I27">
         <is>
-          <t xml:space="preserve">1601.87</t>
+          <t xml:space="preserve">1363.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J27">
@@ -1410,12 +1410,12 @@
       </c>
       <c s="8" t="inlineStr" r="K27">
         <is>
-          <t xml:space="preserve">1601.87</t>
+          <t xml:space="preserve">1363.34</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L27">
         <is>
-          <t xml:space="preserve">2829.66</t>
+          <t xml:space="preserve">2398.83</t>
         </is>
       </c>
     </row>
@@ -1434,23 +1434,23 @@
       </c>
       <c s="8" t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">2757.30</t>
+          <t xml:space="preserve">1852.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F28"/>
       <c s="8" t="inlineStr" r="G28">
         <is>
-          <t xml:space="preserve">3696.30</t>
+          <t xml:space="preserve">3793.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">2088.80</t>
+          <t xml:space="preserve">1336.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I28">
         <is>
-          <t xml:space="preserve">2088.80</t>
+          <t xml:space="preserve">1336.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J28">
@@ -1460,12 +1460,12 @@
       </c>
       <c s="8" t="inlineStr" r="K28">
         <is>
-          <t xml:space="preserve">2088.80</t>
+          <t xml:space="preserve">1336.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L28">
         <is>
-          <t xml:space="preserve">3112.22</t>
+          <t xml:space="preserve">2500.54</t>
         </is>
       </c>
     </row>
@@ -1480,23 +1480,23 @@
       </c>
       <c s="8" t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">2611.90</t>
+          <t xml:space="preserve">1832.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F29"/>
       <c s="8" t="inlineStr" r="G29">
         <is>
-          <t xml:space="preserve">3819.90</t>
+          <t xml:space="preserve">3618.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">1976.41</t>
+          <t xml:space="preserve">1264.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">1976.41</t>
+          <t xml:space="preserve">1264.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J29">
@@ -1506,12 +1506,12 @@
       </c>
       <c s="8" t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">1976.41</t>
+          <t xml:space="preserve">1264.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L29">
         <is>
-          <t xml:space="preserve">2993.66</t>
+          <t xml:space="preserve">2500.82</t>
         </is>
       </c>
     </row>
@@ -1528,23 +1528,23 @@
       </c>
       <c s="8" t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">2082.10</t>
+          <t xml:space="preserve">2111.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F30"/>
       <c s="8" t="inlineStr" r="G30">
         <is>
-          <t xml:space="preserve">4548.60</t>
+          <t xml:space="preserve">4459.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">1601.98</t>
+          <t xml:space="preserve">1667.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">1601.98</t>
+          <t xml:space="preserve">1667.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J30">
@@ -1554,12 +1554,12 @@
       </c>
       <c s="8" t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">1601.98</t>
+          <t xml:space="preserve">1667.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L30">
         <is>
-          <t xml:space="preserve">2464.12</t>
+          <t xml:space="preserve">2749.01</t>
         </is>
       </c>
     </row>
@@ -1574,23 +1574,23 @@
       </c>
       <c s="8" t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">2285.70</t>
+          <t xml:space="preserve">1920.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F31"/>
       <c s="8" t="inlineStr" r="G31">
         <is>
-          <t xml:space="preserve">4740.80</t>
+          <t xml:space="preserve">4973.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">1768.42</t>
+          <t xml:space="preserve">1520.12</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I31">
         <is>
-          <t xml:space="preserve">1768.42</t>
+          <t xml:space="preserve">1520.12</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J31">
@@ -1600,12 +1600,12 @@
       </c>
       <c s="8" t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">1768.42</t>
+          <t xml:space="preserve">1520.12</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L31">
         <is>
-          <t xml:space="preserve">2723.06</t>
+          <t xml:space="preserve">2574.53</t>
         </is>
       </c>
     </row>
@@ -1624,23 +1624,23 @@
       </c>
       <c s="8" t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">2592.40</t>
+          <t xml:space="preserve">1530.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F32"/>
       <c s="8" t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">4578.00</t>
+          <t xml:space="preserve">3914.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">2205.38</t>
+          <t xml:space="preserve">1379.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">2205.38</t>
+          <t xml:space="preserve">1379.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J32">
@@ -1650,12 +1650,12 @@
       </c>
       <c s="8" t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">2205.38</t>
+          <t xml:space="preserve">1379.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L32">
         <is>
-          <t xml:space="preserve">2829.25</t>
+          <t xml:space="preserve">2500.27</t>
         </is>
       </c>
     </row>
@@ -1670,23 +1670,23 @@
       </c>
       <c s="8" t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">2787.90</t>
+          <t xml:space="preserve">1415.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F33"/>
       <c s="8" t="inlineStr" r="G33">
         <is>
-          <t xml:space="preserve">4466.70</t>
+          <t xml:space="preserve">4379.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">2388.21</t>
+          <t xml:space="preserve">1307.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I33">
         <is>
-          <t xml:space="preserve">2388.21</t>
+          <t xml:space="preserve">1307.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J33">
@@ -1696,12 +1696,12 @@
       </c>
       <c s="8" t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">2388.21</t>
+          <t xml:space="preserve">1307.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L33">
         <is>
-          <t xml:space="preserve">2993.48</t>
+          <t xml:space="preserve">2199.50</t>
         </is>
       </c>
     </row>
@@ -1718,23 +1718,23 @@
       </c>
       <c s="8" t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">2952.20</t>
+          <t xml:space="preserve">1549.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F34"/>
       <c s="8" t="inlineStr" r="G34">
         <is>
-          <t xml:space="preserve">3673.60</t>
+          <t xml:space="preserve">4650.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H34">
         <is>
-          <t xml:space="preserve">2491.40</t>
+          <t xml:space="preserve">1395.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I34">
         <is>
-          <t xml:space="preserve">2491.40</t>
+          <t xml:space="preserve">1395.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J34">
@@ -1744,12 +1744,12 @@
       </c>
       <c s="8" t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">2491.40</t>
+          <t xml:space="preserve">1395.34</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L34">
         <is>
-          <t xml:space="preserve">3252.75</t>
+          <t xml:space="preserve">1998.41</t>
         </is>
       </c>
     </row>
@@ -1764,23 +1764,23 @@
       </c>
       <c s="8" t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">3139.90</t>
+          <t xml:space="preserve">1965.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F35"/>
       <c s="8" t="inlineStr" r="G35">
         <is>
-          <t xml:space="preserve">4109.40</t>
+          <t xml:space="preserve">4617.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">2824.50</t>
+          <t xml:space="preserve">1782.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">2824.50</t>
+          <t xml:space="preserve">1782.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J35">
@@ -1790,12 +1790,12 @@
       </c>
       <c s="8" t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">2824.50</t>
+          <t xml:space="preserve">1782.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L35">
         <is>
-          <t xml:space="preserve">3179.86</t>
+          <t xml:space="preserve">2114.00</t>
         </is>
       </c>
     </row>
@@ -1814,23 +1814,23 @@
       </c>
       <c s="8" t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">2991.90</t>
+          <t xml:space="preserve">1540.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F36"/>
       <c s="8" t="inlineStr" r="G36">
         <is>
-          <t xml:space="preserve">3778.80</t>
+          <t xml:space="preserve">3910.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">2654.90</t>
+          <t xml:space="preserve">1178.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I36">
         <is>
-          <t xml:space="preserve">2654.90</t>
+          <t xml:space="preserve">1178.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J36">
@@ -1840,12 +1840,12 @@
       </c>
       <c s="8" t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">2654.90</t>
+          <t xml:space="preserve">1178.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L36">
         <is>
-          <t xml:space="preserve">3279.93</t>
+          <t xml:space="preserve">2700.93</t>
         </is>
       </c>
     </row>
@@ -1860,23 +1860,23 @@
       </c>
       <c s="8" t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">2869.20</t>
+          <t xml:space="preserve">1340.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F37"/>
       <c s="8" t="inlineStr" r="G37">
         <is>
-          <t xml:space="preserve">4221.50</t>
+          <t xml:space="preserve">3955.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">2583.90</t>
+          <t xml:space="preserve">1186.01</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I37">
         <is>
-          <t xml:space="preserve">2583.90</t>
+          <t xml:space="preserve">1186.01</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J37">
@@ -1886,12 +1886,12 @@
       </c>
       <c s="8" t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">2583.90</t>
+          <t xml:space="preserve">1186.01</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L37">
         <is>
-          <t xml:space="preserve">2993.93</t>
+          <t xml:space="preserve">1999.78</t>
         </is>
       </c>
     </row>
@@ -1908,23 +1908,23 @@
       </c>
       <c s="8" t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">2751.20</t>
+          <t xml:space="preserve">1562.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F38"/>
       <c s="8" t="inlineStr" r="G38">
         <is>
-          <t xml:space="preserve">3445.00</t>
+          <t xml:space="preserve">4042.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">2379.60</t>
+          <t xml:space="preserve">996.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I38">
         <is>
-          <t xml:space="preserve">2379.60</t>
+          <t xml:space="preserve">996.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J38">
@@ -1934,12 +1934,12 @@
       </c>
       <c s="8" t="inlineStr" r="K38">
         <is>
-          <t xml:space="preserve">2379.60</t>
+          <t xml:space="preserve">996.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L38">
         <is>
-          <t xml:space="preserve">3340.50</t>
+          <t xml:space="preserve">2800.31</t>
         </is>
       </c>
     </row>
@@ -1954,23 +1954,23 @@
       </c>
       <c s="8" t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">2656.80</t>
+          <t xml:space="preserve">1471.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F39"/>
       <c s="8" t="inlineStr" r="G39">
         <is>
-          <t xml:space="preserve">3456.20</t>
+          <t xml:space="preserve">3966.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">2185.60</t>
+          <t xml:space="preserve">746.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I39">
         <is>
-          <t xml:space="preserve">2185.60</t>
+          <t xml:space="preserve">746.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J39">
@@ -1980,12 +1980,12 @@
       </c>
       <c s="8" t="inlineStr" r="K39">
         <is>
-          <t xml:space="preserve">2185.60</t>
+          <t xml:space="preserve">746.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L39">
         <is>
-          <t xml:space="preserve">3341.78</t>
+          <t xml:space="preserve">2931.60</t>
         </is>
       </c>
     </row>
@@ -2004,23 +2004,23 @@
       </c>
       <c s="8" t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">2393.60</t>
+          <t xml:space="preserve">590.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F40"/>
       <c s="8" t="inlineStr" r="G40">
         <is>
-          <t xml:space="preserve">4647.80</t>
+          <t xml:space="preserve">4689.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">2133.10</t>
+          <t xml:space="preserve">590.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I40">
         <is>
-          <t xml:space="preserve">2133.10</t>
+          <t xml:space="preserve">590.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J40">
@@ -2030,12 +2030,12 @@
       </c>
       <c s="8" t="inlineStr" r="K40">
         <is>
-          <t xml:space="preserve">2133.10</t>
+          <t xml:space="preserve">590.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L40">
         <is>
-          <t xml:space="preserve">2819.48</t>
+          <t xml:space="preserve">1499.85</t>
         </is>
       </c>
     </row>
@@ -2050,23 +2050,23 @@
       </c>
       <c s="8" t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">2470.60</t>
+          <t xml:space="preserve">531.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F41"/>
       <c s="8" t="inlineStr" r="G41">
         <is>
-          <t xml:space="preserve">4497.30</t>
+          <t xml:space="preserve">4734.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">2190.10</t>
+          <t xml:space="preserve">531.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I41">
         <is>
-          <t xml:space="preserve">2190.10</t>
+          <t xml:space="preserve">531.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J41">
@@ -2076,12 +2076,12 @@
       </c>
       <c s="8" t="inlineStr" r="K41">
         <is>
-          <t xml:space="preserve">2190.10</t>
+          <t xml:space="preserve">531.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L41">
         <is>
-          <t xml:space="preserve">2993.12</t>
+          <t xml:space="preserve">1499.51</t>
         </is>
       </c>
     </row>
@@ -2098,23 +2098,23 @@
       </c>
       <c s="8" t="inlineStr" r="E42">
         <is>
-          <t xml:space="preserve">2082.20</t>
+          <t xml:space="preserve">865.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F42"/>
       <c s="8" t="inlineStr" r="G42">
         <is>
-          <t xml:space="preserve">4653.30</t>
+          <t xml:space="preserve">4427.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H42">
         <is>
-          <t xml:space="preserve">1882.80</t>
+          <t xml:space="preserve">761.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I42">
         <is>
-          <t xml:space="preserve">1882.80</t>
+          <t xml:space="preserve">761.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J42">
@@ -2124,12 +2124,12 @@
       </c>
       <c s="8" t="inlineStr" r="K42">
         <is>
-          <t xml:space="preserve">1882.80</t>
+          <t xml:space="preserve">761.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L42">
         <is>
-          <t xml:space="preserve">2684.77</t>
+          <t xml:space="preserve">1999.44</t>
         </is>
       </c>
     </row>
@@ -2144,23 +2144,23 @@
       </c>
       <c s="8" t="inlineStr" r="E43">
         <is>
-          <t xml:space="preserve">2111.10</t>
+          <t xml:space="preserve">936.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F43"/>
       <c s="8" t="inlineStr" r="G43">
         <is>
-          <t xml:space="preserve">4667.50</t>
+          <t xml:space="preserve">4008.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H43">
         <is>
-          <t xml:space="preserve">1828.60</t>
+          <t xml:space="preserve">687.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I43">
         <is>
-          <t xml:space="preserve">1828.60</t>
+          <t xml:space="preserve">687.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J43">
@@ -2170,12 +2170,12 @@
       </c>
       <c s="8" t="inlineStr" r="K43">
         <is>
-          <t xml:space="preserve">1828.60</t>
+          <t xml:space="preserve">687.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L43">
         <is>
-          <t xml:space="preserve">2800.83</t>
+          <t xml:space="preserve">2800.14</t>
         </is>
       </c>
     </row>
@@ -2194,23 +2194,23 @@
       </c>
       <c s="8" t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">2097.90</t>
+          <t xml:space="preserve">989.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F44"/>
       <c s="8" t="inlineStr" r="G44">
         <is>
-          <t xml:space="preserve">4275.80</t>
+          <t xml:space="preserve">3973.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H44">
         <is>
-          <t xml:space="preserve">1827.60</t>
+          <t xml:space="preserve">732.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I44">
         <is>
-          <t xml:space="preserve">1827.60</t>
+          <t xml:space="preserve">732.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J44">
@@ -2220,12 +2220,12 @@
       </c>
       <c s="8" t="inlineStr" r="K44">
         <is>
-          <t xml:space="preserve">1827.60</t>
+          <t xml:space="preserve">732.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L44">
         <is>
-          <t xml:space="preserve">2950.06</t>
+          <t xml:space="preserve">2150.57</t>
         </is>
       </c>
     </row>
@@ -2240,23 +2240,23 @@
       </c>
       <c s="8" t="inlineStr" r="E45">
         <is>
-          <t xml:space="preserve">2161.20</t>
+          <t xml:space="preserve">1100.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F45"/>
       <c s="8" t="inlineStr" r="G45">
         <is>
-          <t xml:space="preserve">3547.50</t>
+          <t xml:space="preserve">4172.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">1702.60</t>
+          <t xml:space="preserve">619.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I45">
         <is>
-          <t xml:space="preserve">1702.60</t>
+          <t xml:space="preserve">619.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J45">
@@ -2266,12 +2266,12 @@
       </c>
       <c s="8" t="inlineStr" r="K45">
         <is>
-          <t xml:space="preserve">1702.60</t>
+          <t xml:space="preserve">619.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L45">
         <is>
-          <t xml:space="preserve">2993.97</t>
+          <t xml:space="preserve">2910.88</t>
         </is>
       </c>
     </row>
@@ -2288,23 +2288,23 @@
       </c>
       <c s="8" t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">2444.20</t>
+          <t xml:space="preserve">1482.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F46"/>
       <c s="8" t="inlineStr" r="G46">
         <is>
-          <t xml:space="preserve">3730.30</t>
+          <t xml:space="preserve">4524.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">1683.00</t>
+          <t xml:space="preserve">1146.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I46">
         <is>
-          <t xml:space="preserve">1683.00</t>
+          <t xml:space="preserve">1146.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J46">
@@ -2314,12 +2314,12 @@
       </c>
       <c s="8" t="inlineStr" r="K46">
         <is>
-          <t xml:space="preserve">1683.00</t>
+          <t xml:space="preserve">1146.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L46">
         <is>
-          <t xml:space="preserve">3182.40</t>
+          <t xml:space="preserve">2910.28</t>
         </is>
       </c>
     </row>
@@ -2334,23 +2334,23 @@
       </c>
       <c s="8" t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">2475.80</t>
+          <t xml:space="preserve">1222.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F47"/>
       <c s="8" t="inlineStr" r="G47">
         <is>
-          <t xml:space="preserve">3649.20</t>
+          <t xml:space="preserve">4520.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">1711.80</t>
+          <t xml:space="preserve">950.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I47">
         <is>
-          <t xml:space="preserve">1711.80</t>
+          <t xml:space="preserve">950.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J47">
@@ -2360,12 +2360,12 @@
       </c>
       <c s="8" t="inlineStr" r="K47">
         <is>
-          <t xml:space="preserve">1711.80</t>
+          <t xml:space="preserve">950.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L47">
         <is>
-          <t xml:space="preserve">3215.73</t>
+          <t xml:space="preserve">2794.00</t>
         </is>
       </c>
     </row>
@@ -2384,23 +2384,23 @@
       </c>
       <c s="8" t="inlineStr" r="E48">
         <is>
-          <t xml:space="preserve">2557.40</t>
+          <t xml:space="preserve">1223.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F48"/>
       <c s="8" t="inlineStr" r="G48">
         <is>
-          <t xml:space="preserve">3458.40</t>
+          <t xml:space="preserve">4273.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H48">
         <is>
-          <t xml:space="preserve">1607.80</t>
+          <t xml:space="preserve">817.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I48">
         <is>
-          <t xml:space="preserve">1607.80</t>
+          <t xml:space="preserve">817.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J48">
@@ -2410,12 +2410,12 @@
       </c>
       <c s="8" t="inlineStr" r="K48">
         <is>
-          <t xml:space="preserve">1607.80</t>
+          <t xml:space="preserve">817.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L48">
         <is>
-          <t xml:space="preserve">3187.68</t>
+          <t xml:space="preserve">2819.59</t>
         </is>
       </c>
     </row>
@@ -2430,23 +2430,23 @@
       </c>
       <c s="8" t="inlineStr" r="E49">
         <is>
-          <t xml:space="preserve">2512.80</t>
+          <t xml:space="preserve">1331.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F49"/>
       <c s="8" t="inlineStr" r="G49">
         <is>
-          <t xml:space="preserve">3582.50</t>
+          <t xml:space="preserve">4424.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H49">
         <is>
-          <t xml:space="preserve">1563.20</t>
+          <t xml:space="preserve">925.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I49">
         <is>
-          <t xml:space="preserve">1563.20</t>
+          <t xml:space="preserve">925.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J49">
@@ -2456,12 +2456,12 @@
       </c>
       <c s="8" t="inlineStr" r="K49">
         <is>
-          <t xml:space="preserve">1563.20</t>
+          <t xml:space="preserve">925.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L49">
         <is>
-          <t xml:space="preserve">3191.62</t>
+          <t xml:space="preserve">2820.00</t>
         </is>
       </c>
     </row>
@@ -2478,23 +2478,23 @@
       </c>
       <c s="8" t="inlineStr" r="E50">
         <is>
-          <t xml:space="preserve">2744.60</t>
+          <t xml:space="preserve">1606.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F50"/>
       <c s="8" t="inlineStr" r="G50">
         <is>
-          <t xml:space="preserve">3787.00</t>
+          <t xml:space="preserve">4596.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H50">
         <is>
-          <t xml:space="preserve">1710.40</t>
+          <t xml:space="preserve">1204.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I50">
         <is>
-          <t xml:space="preserve">1710.40</t>
+          <t xml:space="preserve">1204.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J50">
@@ -2504,12 +2504,12 @@
       </c>
       <c s="8" t="inlineStr" r="K50">
         <is>
-          <t xml:space="preserve">1710.40</t>
+          <t xml:space="preserve">1204.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L50">
         <is>
-          <t xml:space="preserve">3200.98</t>
+          <t xml:space="preserve">2863.20</t>
         </is>
       </c>
     </row>
@@ -2524,23 +2524,23 @@
       </c>
       <c s="8" t="inlineStr" r="E51">
         <is>
-          <t xml:space="preserve">2640.60</t>
+          <t xml:space="preserve">1661.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F51"/>
       <c s="8" t="inlineStr" r="G51">
         <is>
-          <t xml:space="preserve">3864.70</t>
+          <t xml:space="preserve">4552.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">1707.60</t>
+          <t xml:space="preserve">1209.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I51">
         <is>
-          <t xml:space="preserve">1707.60</t>
+          <t xml:space="preserve">1209.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J51">
@@ -2550,12 +2550,12 @@
       </c>
       <c s="8" t="inlineStr" r="K51">
         <is>
-          <t xml:space="preserve">1707.60</t>
+          <t xml:space="preserve">1209.97</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L51">
         <is>
-          <t xml:space="preserve">3191.31</t>
+          <t xml:space="preserve">2960.35</t>
         </is>
       </c>
     </row>
@@ -2574,23 +2574,23 @@
       </c>
       <c s="8" t="inlineStr" r="E52">
         <is>
-          <t xml:space="preserve">1967.20</t>
+          <t xml:space="preserve">1562.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F52"/>
       <c s="8" t="inlineStr" r="G52">
         <is>
-          <t xml:space="preserve">3407.70</t>
+          <t xml:space="preserve">4448.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H52">
         <is>
-          <t xml:space="preserve">1281.93</t>
+          <t xml:space="preserve">1213.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I52">
         <is>
-          <t xml:space="preserve">1281.93</t>
+          <t xml:space="preserve">1213.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J52">
@@ -2600,12 +2600,12 @@
       </c>
       <c s="8" t="inlineStr" r="K52">
         <is>
-          <t xml:space="preserve">1281.93</t>
+          <t xml:space="preserve">1213.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L52">
         <is>
-          <t xml:space="preserve">3102.53</t>
+          <t xml:space="preserve">2969.51</t>
         </is>
       </c>
     </row>
@@ -2620,23 +2620,23 @@
       </c>
       <c s="8" t="inlineStr" r="E53">
         <is>
-          <t xml:space="preserve">1891.30</t>
+          <t xml:space="preserve">1341.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F53"/>
       <c s="8" t="inlineStr" r="G53">
         <is>
-          <t xml:space="preserve">3503.40</t>
+          <t xml:space="preserve">4397.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H53">
         <is>
-          <t xml:space="preserve">1283.40</t>
+          <t xml:space="preserve">1035.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I53">
         <is>
-          <t xml:space="preserve">1283.40</t>
+          <t xml:space="preserve">1035.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J53">
@@ -2646,12 +2646,12 @@
       </c>
       <c s="8" t="inlineStr" r="K53">
         <is>
-          <t xml:space="preserve">1283.40</t>
+          <t xml:space="preserve">1035.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L53">
         <is>
-          <t xml:space="preserve">3059.20</t>
+          <t xml:space="preserve">2819.42</t>
         </is>
       </c>
     </row>
@@ -2668,23 +2668,23 @@
       </c>
       <c s="8" t="inlineStr" r="E54">
         <is>
-          <t xml:space="preserve">3128.60</t>
+          <t xml:space="preserve">1788.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F54"/>
       <c s="8" t="inlineStr" r="G54">
         <is>
-          <t xml:space="preserve">3211.50</t>
+          <t xml:space="preserve">5445.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">1702.51</t>
+          <t xml:space="preserve">1563.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I54">
         <is>
-          <t xml:space="preserve">1702.51</t>
+          <t xml:space="preserve">1563.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J54">
@@ -2694,12 +2694,12 @@
       </c>
       <c s="8" t="inlineStr" r="K54">
         <is>
-          <t xml:space="preserve">1702.51</t>
+          <t xml:space="preserve">1563.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L54">
         <is>
-          <t xml:space="preserve">3565.22</t>
+          <t xml:space="preserve">2748.92</t>
         </is>
       </c>
     </row>
@@ -2714,23 +2714,23 @@
       </c>
       <c s="8" t="inlineStr" r="E55">
         <is>
-          <t xml:space="preserve">3049.20</t>
+          <t xml:space="preserve">1395.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F55"/>
       <c s="8" t="inlineStr" r="G55">
         <is>
-          <t xml:space="preserve">3272.50</t>
+          <t xml:space="preserve">5400.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">1635.20</t>
+          <t xml:space="preserve">1210.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I55">
         <is>
-          <t xml:space="preserve">1635.20</t>
+          <t xml:space="preserve">1210.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J55">
@@ -2740,12 +2740,12 @@
       </c>
       <c s="8" t="inlineStr" r="K55">
         <is>
-          <t xml:space="preserve">1635.20</t>
+          <t xml:space="preserve">1210.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L55">
         <is>
-          <t xml:space="preserve">3515.77</t>
+          <t xml:space="preserve">2699.86</t>
         </is>
       </c>
     </row>
@@ -2764,23 +2764,23 @@
       </c>
       <c s="8" t="inlineStr" r="E56">
         <is>
-          <t xml:space="preserve">2880.00</t>
+          <t xml:space="preserve">1927.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F56"/>
       <c s="8" t="inlineStr" r="G56">
         <is>
-          <t xml:space="preserve">4107.00</t>
+          <t xml:space="preserve">5321.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H56">
         <is>
-          <t xml:space="preserve">2025.70</t>
+          <t xml:space="preserve">1706.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I56">
         <is>
-          <t xml:space="preserve">2025.70</t>
+          <t xml:space="preserve">1706.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J56">
@@ -2790,12 +2790,12 @@
       </c>
       <c s="8" t="inlineStr" r="K56">
         <is>
-          <t xml:space="preserve">2025.70</t>
+          <t xml:space="preserve">1706.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L56">
         <is>
-          <t xml:space="preserve">3300.53</t>
+          <t xml:space="preserve">2819.08</t>
         </is>
       </c>
     </row>
@@ -2810,23 +2810,23 @@
       </c>
       <c s="8" t="inlineStr" r="E57">
         <is>
-          <t xml:space="preserve">2796.20</t>
+          <t xml:space="preserve">1955.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F57"/>
       <c s="8" t="inlineStr" r="G57">
         <is>
-          <t xml:space="preserve">4230.40</t>
+          <t xml:space="preserve">5272.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">1995.70</t>
+          <t xml:space="preserve">1734.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I57">
         <is>
-          <t xml:space="preserve">1995.70</t>
+          <t xml:space="preserve">1734.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J57">
@@ -2836,12 +2836,12 @@
       </c>
       <c s="8" t="inlineStr" r="K57">
         <is>
-          <t xml:space="preserve">1995.70</t>
+          <t xml:space="preserve">1734.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L57">
         <is>
-          <t xml:space="preserve">3300.26</t>
+          <t xml:space="preserve">2864.60</t>
         </is>
       </c>
     </row>
@@ -2858,23 +2858,23 @@
       </c>
       <c s="8" t="inlineStr" r="E58">
         <is>
-          <t xml:space="preserve">2654.70</t>
+          <t xml:space="preserve">2235.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F58"/>
       <c s="8" t="inlineStr" r="G58">
         <is>
-          <t xml:space="preserve">4884.40</t>
+          <t xml:space="preserve">5389.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">2059.00</t>
+          <t xml:space="preserve">2037.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I58">
         <is>
-          <t xml:space="preserve">2059.00</t>
+          <t xml:space="preserve">2037.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J58">
@@ -2884,12 +2884,12 @@
       </c>
       <c s="8" t="inlineStr" r="K58">
         <is>
-          <t xml:space="preserve">2059.00</t>
+          <t xml:space="preserve">2037.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L58">
         <is>
-          <t xml:space="preserve">3091.37</t>
+          <t xml:space="preserve">2969.31</t>
         </is>
       </c>
     </row>
@@ -2904,23 +2904,23 @@
       </c>
       <c s="8" t="inlineStr" r="E59">
         <is>
-          <t xml:space="preserve">2610.50</t>
+          <t xml:space="preserve">2083.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F59"/>
       <c s="8" t="inlineStr" r="G59">
         <is>
-          <t xml:space="preserve">4952.80</t>
+          <t xml:space="preserve">5473.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H59">
         <is>
-          <t xml:space="preserve">2073.25</t>
+          <t xml:space="preserve">1893.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I59">
         <is>
-          <t xml:space="preserve">2073.25</t>
+          <t xml:space="preserve">1893.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J59">
@@ -2930,12 +2930,12 @@
       </c>
       <c s="8" t="inlineStr" r="K59">
         <is>
-          <t xml:space="preserve">2073.25</t>
+          <t xml:space="preserve">1893.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L59">
         <is>
-          <t xml:space="preserve">3048.84</t>
+          <t xml:space="preserve">2819.70</t>
         </is>
       </c>
     </row>
@@ -2954,23 +2954,23 @@
       </c>
       <c s="8" t="inlineStr" r="E60">
         <is>
-          <t xml:space="preserve">2716.70</t>
+          <t xml:space="preserve">1947.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F60"/>
       <c s="8" t="inlineStr" r="G60">
         <is>
-          <t xml:space="preserve">5588.20</t>
+          <t xml:space="preserve">6349.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">2404.70</t>
+          <t xml:space="preserve">1781.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I60">
         <is>
-          <t xml:space="preserve">2404.70</t>
+          <t xml:space="preserve">1781.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J60">
@@ -2980,12 +2980,12 @@
       </c>
       <c s="8" t="inlineStr" r="K60">
         <is>
-          <t xml:space="preserve">2404.70</t>
+          <t xml:space="preserve">1781.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L60">
         <is>
-          <t xml:space="preserve">2871.83</t>
+          <t xml:space="preserve">2551.53</t>
         </is>
       </c>
     </row>
@@ -3000,23 +3000,23 @@
       </c>
       <c s="8" t="inlineStr" r="E61">
         <is>
-          <t xml:space="preserve">2824.30</t>
+          <t xml:space="preserve">1874.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F61"/>
       <c s="8" t="inlineStr" r="G61">
         <is>
-          <t xml:space="preserve">5899.00</t>
+          <t xml:space="preserve">6559.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H61">
         <is>
-          <t xml:space="preserve">2493.50</t>
+          <t xml:space="preserve">1708.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I61">
         <is>
-          <t xml:space="preserve">2493.50</t>
+          <t xml:space="preserve">1708.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J61">
@@ -3026,12 +3026,12 @@
       </c>
       <c s="8" t="inlineStr" r="K61">
         <is>
-          <t xml:space="preserve">2493.50</t>
+          <t xml:space="preserve">1708.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L61">
         <is>
-          <t xml:space="preserve">2916.39</t>
+          <t xml:space="preserve">2574.11</t>
         </is>
       </c>
     </row>
@@ -3048,23 +3048,23 @@
       </c>
       <c s="8" t="inlineStr" r="E62">
         <is>
-          <t xml:space="preserve">2947.20</t>
+          <t xml:space="preserve">2539.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F62"/>
       <c s="8" t="inlineStr" r="G62">
         <is>
-          <t xml:space="preserve">5607.10</t>
+          <t xml:space="preserve">6583.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H62">
         <is>
-          <t xml:space="preserve">2621.36</t>
+          <t xml:space="preserve">2361.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I62">
         <is>
-          <t xml:space="preserve">2621.36</t>
+          <t xml:space="preserve">2361.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J62">
@@ -3074,12 +3074,12 @@
       </c>
       <c s="8" t="inlineStr" r="K62">
         <is>
-          <t xml:space="preserve">2621.36</t>
+          <t xml:space="preserve">2361.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L62">
         <is>
-          <t xml:space="preserve">2891.94</t>
+          <t xml:space="preserve">2551.91</t>
         </is>
       </c>
     </row>
@@ -3094,23 +3094,23 @@
       </c>
       <c s="8" t="inlineStr" r="E63">
         <is>
-          <t xml:space="preserve">3020.60</t>
+          <t xml:space="preserve">2535.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F63"/>
       <c s="8" t="inlineStr" r="G63">
         <is>
-          <t xml:space="preserve">5301.90</t>
+          <t xml:space="preserve">6509.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">2742.30</t>
+          <t xml:space="preserve">2357.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I63">
         <is>
-          <t xml:space="preserve">2742.30</t>
+          <t xml:space="preserve">2357.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J63">
@@ -3120,12 +3120,12 @@
       </c>
       <c s="8" t="inlineStr" r="K63">
         <is>
-          <t xml:space="preserve">2742.30</t>
+          <t xml:space="preserve">2357.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L63">
         <is>
-          <t xml:space="preserve">2831.54</t>
+          <t xml:space="preserve">2551.90</t>
         </is>
       </c>
     </row>
@@ -3144,23 +3144,23 @@
       </c>
       <c s="8" t="inlineStr" r="E64">
         <is>
-          <t xml:space="preserve">3308.30</t>
+          <t xml:space="preserve">2888.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F64"/>
       <c s="8" t="inlineStr" r="G64">
         <is>
-          <t xml:space="preserve">5384.60</t>
+          <t xml:space="preserve">6131.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">2666.80</t>
+          <t xml:space="preserve">2686.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I64">
         <is>
-          <t xml:space="preserve">2666.80</t>
+          <t xml:space="preserve">2686.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J64">
@@ -3170,12 +3170,12 @@
       </c>
       <c s="8" t="inlineStr" r="K64">
         <is>
-          <t xml:space="preserve">2666.80</t>
+          <t xml:space="preserve">2686.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L64">
         <is>
-          <t xml:space="preserve">2969.03</t>
+          <t xml:space="preserve">2796.60</t>
         </is>
       </c>
     </row>
@@ -3190,23 +3190,23 @@
       </c>
       <c s="8" t="inlineStr" r="E65">
         <is>
-          <t xml:space="preserve">3352.90</t>
+          <t xml:space="preserve">2774.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F65"/>
       <c s="8" t="inlineStr" r="G65">
         <is>
-          <t xml:space="preserve">4654.40</t>
+          <t xml:space="preserve">5547.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H65">
         <is>
-          <t xml:space="preserve">2714.47</t>
+          <t xml:space="preserve">2518.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I65">
         <is>
-          <t xml:space="preserve">2714.47</t>
+          <t xml:space="preserve">2518.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J65">
@@ -3216,12 +3216,12 @@
       </c>
       <c s="8" t="inlineStr" r="K65">
         <is>
-          <t xml:space="preserve">2714.47</t>
+          <t xml:space="preserve">2518.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L65">
         <is>
-          <t xml:space="preserve">3050.14</t>
+          <t xml:space="preserve">3166.72</t>
         </is>
       </c>
     </row>
@@ -3238,23 +3238,23 @@
       </c>
       <c s="8" t="inlineStr" r="E66">
         <is>
-          <t xml:space="preserve">2866.90</t>
+          <t xml:space="preserve">3345.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F66"/>
       <c s="8" t="inlineStr" r="G66">
         <is>
-          <t xml:space="preserve">4287.00</t>
+          <t xml:space="preserve">6598.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">2214.11</t>
+          <t xml:space="preserve">3113.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I66">
         <is>
-          <t xml:space="preserve">2214.11</t>
+          <t xml:space="preserve">3113.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J66">
@@ -3264,12 +3264,12 @@
       </c>
       <c s="8" t="inlineStr" r="K66">
         <is>
-          <t xml:space="preserve">2214.11</t>
+          <t xml:space="preserve">3113.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L66">
         <is>
-          <t xml:space="preserve">2999.39</t>
+          <t xml:space="preserve">2819.52</t>
         </is>
       </c>
     </row>
@@ -3284,23 +3284,23 @@
       </c>
       <c s="8" t="inlineStr" r="E67">
         <is>
-          <t xml:space="preserve">2946.90</t>
+          <t xml:space="preserve">3130.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F67"/>
       <c s="8" t="inlineStr" r="G67">
         <is>
-          <t xml:space="preserve">3930.90</t>
+          <t xml:space="preserve">6654.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H67">
         <is>
-          <t xml:space="preserve">2060.10</t>
+          <t xml:space="preserve">2903.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I67">
         <is>
-          <t xml:space="preserve">2060.10</t>
+          <t xml:space="preserve">2903.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J67">
@@ -3310,12 +3310,12 @@
       </c>
       <c s="8" t="inlineStr" r="K67">
         <is>
-          <t xml:space="preserve">2060.10</t>
+          <t xml:space="preserve">2903.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L67">
         <is>
-          <t xml:space="preserve">3200.46</t>
+          <t xml:space="preserve">2789.45</t>
         </is>
       </c>
     </row>
@@ -3334,23 +3334,23 @@
       </c>
       <c s="8" t="inlineStr" r="E68">
         <is>
-          <t xml:space="preserve">2546.00</t>
+          <t xml:space="preserve">2985.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F68"/>
       <c s="8" t="inlineStr" r="G68">
         <is>
-          <t xml:space="preserve">3956.40</t>
+          <t xml:space="preserve">5499.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">2165.40</t>
+          <t xml:space="preserve">2626.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I68">
         <is>
-          <t xml:space="preserve">2165.40</t>
+          <t xml:space="preserve">2626.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J68">
@@ -3360,12 +3360,12 @@
       </c>
       <c s="8" t="inlineStr" r="K68">
         <is>
-          <t xml:space="preserve">2165.40</t>
+          <t xml:space="preserve">2626.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L68">
         <is>
-          <t xml:space="preserve">2950.74</t>
+          <t xml:space="preserve">2993.63</t>
         </is>
       </c>
     </row>
@@ -3380,23 +3380,23 @@
       </c>
       <c s="8" t="inlineStr" r="E69">
         <is>
-          <t xml:space="preserve">3351.90</t>
+          <t xml:space="preserve">2765.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F69"/>
       <c s="8" t="inlineStr" r="G69">
         <is>
-          <t xml:space="preserve">3906.50</t>
+          <t xml:space="preserve">5536.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H69">
         <is>
-          <t xml:space="preserve">2333.85</t>
+          <t xml:space="preserve">2406.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I69">
         <is>
-          <t xml:space="preserve">2333.85</t>
+          <t xml:space="preserve">2406.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J69">
@@ -3406,12 +3406,12 @@
       </c>
       <c s="8" t="inlineStr" r="K69">
         <is>
-          <t xml:space="preserve">2333.85</t>
+          <t xml:space="preserve">2406.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L69">
         <is>
-          <t xml:space="preserve">3500.05</t>
+          <t xml:space="preserve">2969.65</t>
         </is>
       </c>
     </row>
@@ -3428,23 +3428,23 @@
       </c>
       <c s="8" t="inlineStr" r="E70">
         <is>
-          <t xml:space="preserve">3826.10</t>
+          <t xml:space="preserve">2876.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F70"/>
       <c s="8" t="inlineStr" r="G70">
         <is>
-          <t xml:space="preserve">4182.40</t>
+          <t xml:space="preserve">5114.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">2834.63</t>
+          <t xml:space="preserve">2517.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I70">
         <is>
-          <t xml:space="preserve">2834.63</t>
+          <t xml:space="preserve">2517.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J70">
@@ -3454,12 +3454,12 @@
       </c>
       <c s="8" t="inlineStr" r="K70">
         <is>
-          <t xml:space="preserve">2834.63</t>
+          <t xml:space="preserve">2517.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L70">
         <is>
-          <t xml:space="preserve">3515.49</t>
+          <t xml:space="preserve">2969.27</t>
         </is>
       </c>
     </row>
@@ -3474,23 +3474,23 @@
       </c>
       <c s="8" t="inlineStr" r="E71">
         <is>
-          <t xml:space="preserve">3931.00</t>
+          <t xml:space="preserve">2976.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F71"/>
       <c s="8" t="inlineStr" r="G71">
         <is>
-          <t xml:space="preserve">4049.10</t>
+          <t xml:space="preserve">5020.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">2922.05</t>
+          <t xml:space="preserve">2608.54</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I71">
         <is>
-          <t xml:space="preserve">2922.05</t>
+          <t xml:space="preserve">2608.54</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J71">
@@ -3500,12 +3500,12 @@
       </c>
       <c s="8" t="inlineStr" r="K71">
         <is>
-          <t xml:space="preserve">2922.05</t>
+          <t xml:space="preserve">2608.54</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L71">
         <is>
-          <t xml:space="preserve">3565.63</t>
+          <t xml:space="preserve">3000.05</t>
         </is>
       </c>
     </row>
@@ -3524,23 +3524,23 @@
       </c>
       <c s="8" t="inlineStr" r="E72">
         <is>
-          <t xml:space="preserve">4087.50</t>
+          <t xml:space="preserve">3530.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F72"/>
       <c s="8" t="inlineStr" r="G72">
         <is>
-          <t xml:space="preserve">3972.50</t>
+          <t xml:space="preserve">5076.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">3212.87</t>
+          <t xml:space="preserve">3017.38</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I72">
         <is>
-          <t xml:space="preserve">3212.87</t>
+          <t xml:space="preserve">3017.38</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J72">
@@ -3550,12 +3550,12 @@
       </c>
       <c s="8" t="inlineStr" r="K72">
         <is>
-          <t xml:space="preserve">3212.87</t>
+          <t xml:space="preserve">3017.38</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L72">
         <is>
-          <t xml:space="preserve">3657.12</t>
+          <t xml:space="preserve">3168.66</t>
         </is>
       </c>
     </row>
@@ -3570,23 +3570,23 @@
       </c>
       <c s="8" t="inlineStr" r="E73">
         <is>
-          <t xml:space="preserve">3992.40</t>
+          <t xml:space="preserve">3344.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F73"/>
       <c s="8" t="inlineStr" r="G73">
         <is>
-          <t xml:space="preserve">3736.30</t>
+          <t xml:space="preserve">4838.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">3094.96</t>
+          <t xml:space="preserve">2831.38</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I73">
         <is>
-          <t xml:space="preserve">3094.96</t>
+          <t xml:space="preserve">2831.38</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J73">
@@ -3596,12 +3596,12 @@
       </c>
       <c s="8" t="inlineStr" r="K73">
         <is>
-          <t xml:space="preserve">3094.96</t>
+          <t xml:space="preserve">2831.38</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L73">
         <is>
-          <t xml:space="preserve">3657.94</t>
+          <t xml:space="preserve">3168.66</t>
         </is>
       </c>
     </row>
@@ -3618,23 +3618,23 @@
       </c>
       <c s="8" t="inlineStr" r="E74">
         <is>
-          <t xml:space="preserve">4144.20</t>
+          <t xml:space="preserve">3877.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F74"/>
       <c s="8" t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">3332.70</t>
+          <t xml:space="preserve">5460.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">2777.00</t>
+          <t xml:space="preserve">3339.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I74">
         <is>
-          <t xml:space="preserve">2777.00</t>
+          <t xml:space="preserve">3339.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J74">
@@ -3644,12 +3644,12 @@
       </c>
       <c s="8" t="inlineStr" r="K74">
         <is>
-          <t xml:space="preserve">2777.00</t>
+          <t xml:space="preserve">3339.97</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L74">
         <is>
-          <t xml:space="preserve">4307.76</t>
+          <t xml:space="preserve">3099.32</t>
         </is>
       </c>
     </row>
@@ -3664,23 +3664,23 @@
       </c>
       <c s="8" t="inlineStr" r="E75">
         <is>
-          <t xml:space="preserve">4320.90</t>
+          <t xml:space="preserve">3352.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F75"/>
       <c s="8" t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">3113.50</t>
+          <t xml:space="preserve">5274.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">2830.84</t>
+          <t xml:space="preserve">2822.48</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I75">
         <is>
-          <t xml:space="preserve">2830.85</t>
+          <t xml:space="preserve">2822.48</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J75">
@@ -3690,12 +3690,12 @@
       </c>
       <c s="8" t="inlineStr" r="K75">
         <is>
-          <t xml:space="preserve">2830.85</t>
+          <t xml:space="preserve">2822.48</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L75">
         <is>
-          <t xml:space="preserve">4999.06</t>
+          <t xml:space="preserve">3069.28</t>
         </is>
       </c>
     </row>
@@ -3714,23 +3714,23 @@
       </c>
       <c s="8" t="inlineStr" r="E76">
         <is>
-          <t xml:space="preserve">3519.90</t>
+          <t xml:space="preserve">2944.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F76"/>
       <c s="8" t="inlineStr" r="G76">
         <is>
-          <t xml:space="preserve">3748.40</t>
+          <t xml:space="preserve">6389.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">2766.14</t>
+          <t xml:space="preserve">2736.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I76">
         <is>
-          <t xml:space="preserve">2766.14</t>
+          <t xml:space="preserve">2736.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J76">
@@ -3740,12 +3740,12 @@
       </c>
       <c s="8" t="inlineStr" r="K76">
         <is>
-          <t xml:space="preserve">2766.14</t>
+          <t xml:space="preserve">2736.97</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L76">
         <is>
-          <t xml:space="preserve">3500.87</t>
+          <t xml:space="preserve">2799.09</t>
         </is>
       </c>
     </row>
@@ -3760,23 +3760,23 @@
       </c>
       <c s="8" t="inlineStr" r="E77">
         <is>
-          <t xml:space="preserve">3348.50</t>
+          <t xml:space="preserve">3061.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F77"/>
       <c s="8" t="inlineStr" r="G77">
         <is>
-          <t xml:space="preserve">3252.20</t>
+          <t xml:space="preserve">6032.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H77">
         <is>
-          <t xml:space="preserve">2724.98</t>
+          <t xml:space="preserve">2699.83</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I77">
         <is>
-          <t xml:space="preserve">2724.98</t>
+          <t xml:space="preserve">2699.83</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J77">
@@ -3786,12 +3786,12 @@
       </c>
       <c s="8" t="inlineStr" r="K77">
         <is>
-          <t xml:space="preserve">2724.98</t>
+          <t xml:space="preserve">2699.83</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L77">
         <is>
-          <t xml:space="preserve">3422.45</t>
+          <t xml:space="preserve">2993.87</t>
         </is>
       </c>
     </row>
@@ -3808,23 +3808,23 @@
       </c>
       <c s="8" t="inlineStr" r="E78">
         <is>
-          <t xml:space="preserve">3069.90</t>
+          <t xml:space="preserve">3099.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F78"/>
       <c s="8" t="inlineStr" r="G78">
         <is>
-          <t xml:space="preserve">3293.60</t>
+          <t xml:space="preserve">5516.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H78">
         <is>
-          <t xml:space="preserve">2532.76</t>
+          <t xml:space="preserve">2633.87</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I78">
         <is>
-          <t xml:space="preserve">2532.76</t>
+          <t xml:space="preserve">2633.87</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J78">
@@ -3834,12 +3834,12 @@
       </c>
       <c s="8" t="inlineStr" r="K78">
         <is>
-          <t xml:space="preserve">2532.76</t>
+          <t xml:space="preserve">2633.87</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L78">
         <is>
-          <t xml:space="preserve">3422.83</t>
+          <t xml:space="preserve">3009.30</t>
         </is>
       </c>
     </row>
@@ -3854,23 +3854,23 @@
       </c>
       <c s="8" t="inlineStr" r="E79">
         <is>
-          <t xml:space="preserve">2962.20</t>
+          <t xml:space="preserve">3175.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F79"/>
       <c s="8" t="inlineStr" r="G79">
         <is>
-          <t xml:space="preserve">3134.30</t>
+          <t xml:space="preserve">5790.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H79">
         <is>
-          <t xml:space="preserve">2438.02</t>
+          <t xml:space="preserve">2760.54</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I79">
         <is>
-          <t xml:space="preserve">2438.03</t>
+          <t xml:space="preserve">2760.54</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J79">
@@ -3880,12 +3880,12 @@
       </c>
       <c s="8" t="inlineStr" r="K79">
         <is>
-          <t xml:space="preserve">2438.03</t>
+          <t xml:space="preserve">2760.54</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L79">
         <is>
-          <t xml:space="preserve">3369.59</t>
+          <t xml:space="preserve">2999.04</t>
         </is>
       </c>
     </row>
@@ -3904,23 +3904,23 @@
       </c>
       <c s="8" t="inlineStr" r="E80">
         <is>
-          <t xml:space="preserve">2891.20</t>
+          <t xml:space="preserve">3062.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F80"/>
       <c s="8" t="inlineStr" r="G80">
         <is>
-          <t xml:space="preserve">3463.20</t>
+          <t xml:space="preserve">6537.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H80">
         <is>
-          <t xml:space="preserve">2422.60</t>
+          <t xml:space="preserve">2799.05</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I80">
         <is>
-          <t xml:space="preserve">2422.60</t>
+          <t xml:space="preserve">2799.05</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J80">
@@ -3930,12 +3930,12 @@
       </c>
       <c s="8" t="inlineStr" r="K80">
         <is>
-          <t xml:space="preserve">2422.60</t>
+          <t xml:space="preserve">2799.05</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L80">
         <is>
-          <t xml:space="preserve">3422.08</t>
+          <t xml:space="preserve">2959.55</t>
         </is>
       </c>
     </row>
@@ -3950,23 +3950,23 @@
       </c>
       <c s="8" t="inlineStr" r="E81">
         <is>
-          <t xml:space="preserve">2943.00</t>
+          <t xml:space="preserve">3603.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F81"/>
       <c s="8" t="inlineStr" r="G81">
         <is>
-          <t xml:space="preserve">3384.80</t>
+          <t xml:space="preserve">6259.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H81">
         <is>
-          <t xml:space="preserve">2467.56</t>
+          <t xml:space="preserve">3340.24</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I81">
         <is>
-          <t xml:space="preserve">2467.55</t>
+          <t xml:space="preserve">3340.24</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J81">
@@ -3976,12 +3976,12 @@
       </c>
       <c s="8" t="inlineStr" r="K81">
         <is>
-          <t xml:space="preserve">2467.55</t>
+          <t xml:space="preserve">3340.24</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L81">
         <is>
-          <t xml:space="preserve">3450.05</t>
+          <t xml:space="preserve">2959.93</t>
         </is>
       </c>
     </row>
@@ -3998,23 +3998,23 @@
       </c>
       <c s="8" t="inlineStr" r="E82">
         <is>
-          <t xml:space="preserve">3373.80</t>
+          <t xml:space="preserve">3778.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F82"/>
       <c s="8" t="inlineStr" r="G82">
         <is>
-          <t xml:space="preserve">2463.00</t>
+          <t xml:space="preserve">4834.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H82">
         <is>
-          <t xml:space="preserve">2012.20</t>
+          <t xml:space="preserve">3348.16</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I82">
         <is>
-          <t xml:space="preserve">2012.20</t>
+          <t xml:space="preserve">3348.15</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J82">
@@ -4024,12 +4024,12 @@
       </c>
       <c s="8" t="inlineStr" r="K82">
         <is>
-          <t xml:space="preserve">2012.20</t>
+          <t xml:space="preserve">3348.15</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L82">
         <is>
-          <t xml:space="preserve">5950.23</t>
+          <t xml:space="preserve">3548.19</t>
         </is>
       </c>
     </row>
@@ -4044,23 +4044,23 @@
       </c>
       <c s="8" t="inlineStr" r="E83">
         <is>
-          <t xml:space="preserve">3578.00</t>
+          <t xml:space="preserve">3305.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F83"/>
       <c s="8" t="inlineStr" r="G83">
         <is>
-          <t xml:space="preserve">2002.20</t>
+          <t xml:space="preserve">4565.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H83">
         <is>
-          <t xml:space="preserve">1951.80</t>
+          <t xml:space="preserve">2978.65</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I83">
         <is>
-          <t xml:space="preserve">1951.80</t>
+          <t xml:space="preserve">2978.65</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J83">
@@ -4070,12 +4070,12 @@
       </c>
       <c s="8" t="inlineStr" r="K83">
         <is>
-          <t xml:space="preserve">1951.80</t>
+          <t xml:space="preserve">2978.65</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L83">
         <is>
-          <t xml:space="preserve">5999.97</t>
+          <t xml:space="preserve">3420.80</t>
         </is>
       </c>
     </row>
@@ -4094,23 +4094,23 @@
       </c>
       <c s="8" t="inlineStr" r="E84">
         <is>
-          <t xml:space="preserve">3750.60</t>
+          <t xml:space="preserve">3804.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F84"/>
       <c s="8" t="inlineStr" r="G84">
         <is>
-          <t xml:space="preserve">2033.20</t>
+          <t xml:space="preserve">4931.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H84">
         <is>
-          <t xml:space="preserve">1982.40</t>
+          <t xml:space="preserve">3356.05</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I84">
         <is>
-          <t xml:space="preserve">1982.40</t>
+          <t xml:space="preserve">3356.05</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J84">
@@ -4120,12 +4120,12 @@
       </c>
       <c s="8" t="inlineStr" r="K84">
         <is>
-          <t xml:space="preserve">1982.40</t>
+          <t xml:space="preserve">3356.05</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L84">
         <is>
-          <t xml:space="preserve">6500.10</t>
+          <t xml:space="preserve">3599.01</t>
         </is>
       </c>
     </row>
@@ -4140,23 +4140,23 @@
       </c>
       <c s="8" t="inlineStr" r="E85">
         <is>
-          <t xml:space="preserve">4097.90</t>
+          <t xml:space="preserve">4201.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F85"/>
       <c s="8" t="inlineStr" r="G85">
         <is>
-          <t xml:space="preserve">2035.60</t>
+          <t xml:space="preserve">4800.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H85">
         <is>
-          <t xml:space="preserve">2004.80</t>
+          <t xml:space="preserve">3638.85</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I85">
         <is>
-          <t xml:space="preserve">2004.80</t>
+          <t xml:space="preserve">3638.85</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J85">
@@ -4166,12 +4166,12 @@
       </c>
       <c s="8" t="inlineStr" r="K85">
         <is>
-          <t xml:space="preserve">2004.80</t>
+          <t xml:space="preserve">3638.85</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L85">
         <is>
-          <t xml:space="preserve">6500.58</t>
+          <t xml:space="preserve">3919.70</t>
         </is>
       </c>
     </row>
@@ -4188,23 +4188,23 @@
       </c>
       <c s="8" t="inlineStr" r="E86">
         <is>
-          <t xml:space="preserve">4286.50</t>
+          <t xml:space="preserve">3949.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F86"/>
       <c s="8" t="inlineStr" r="G86">
         <is>
-          <t xml:space="preserve">2427.90</t>
+          <t xml:space="preserve">5132.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H86">
         <is>
-          <t xml:space="preserve">2397.10</t>
+          <t xml:space="preserve">3601.27</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I86">
         <is>
-          <t xml:space="preserve">2397.10</t>
+          <t xml:space="preserve">3601.27</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J86">
@@ -4214,12 +4214,12 @@
       </c>
       <c s="8" t="inlineStr" r="K86">
         <is>
-          <t xml:space="preserve">2397.10</t>
+          <t xml:space="preserve">3601.27</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L86">
         <is>
-          <t xml:space="preserve">6500.59</t>
+          <t xml:space="preserve">3422.50</t>
         </is>
       </c>
     </row>
@@ -4234,23 +4234,23 @@
       </c>
       <c s="8" t="inlineStr" r="E87">
         <is>
-          <t xml:space="preserve">4159.00</t>
+          <t xml:space="preserve">3997.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F87"/>
       <c s="8" t="inlineStr" r="G87">
         <is>
-          <t xml:space="preserve">2570.30</t>
+          <t xml:space="preserve">5448.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H87">
         <is>
-          <t xml:space="preserve">2539.50</t>
+          <t xml:space="preserve">3700.65</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I87">
         <is>
-          <t xml:space="preserve">2539.50</t>
+          <t xml:space="preserve">3700.65</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J87">
@@ -4260,12 +4260,12 @@
       </c>
       <c s="8" t="inlineStr" r="K87">
         <is>
-          <t xml:space="preserve">2539.50</t>
+          <t xml:space="preserve">3700.65</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L87">
         <is>
-          <t xml:space="preserve">6500.67</t>
+          <t xml:space="preserve">3289.30</t>
         </is>
       </c>
     </row>
@@ -4284,23 +4284,23 @@
       </c>
       <c s="8" t="inlineStr" r="E88">
         <is>
-          <t xml:space="preserve">4186.30</t>
+          <t xml:space="preserve">4320.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F88"/>
       <c s="8" t="inlineStr" r="G88">
         <is>
-          <t xml:space="preserve">2313.50</t>
+          <t xml:space="preserve">5495.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H88">
         <is>
-          <t xml:space="preserve">2243.14</t>
+          <t xml:space="preserve">3949.96</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I88">
         <is>
-          <t xml:space="preserve">2243.14</t>
+          <t xml:space="preserve">3949.96</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J88">
@@ -4310,12 +4310,12 @@
       </c>
       <c s="8" t="inlineStr" r="K88">
         <is>
-          <t xml:space="preserve">2243.14</t>
+          <t xml:space="preserve">3949.96</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L88">
         <is>
-          <t xml:space="preserve">5989.57</t>
+          <t xml:space="preserve">3488.96</t>
         </is>
       </c>
     </row>
@@ -4330,23 +4330,23 @@
       </c>
       <c s="8" t="inlineStr" r="E89">
         <is>
-          <t xml:space="preserve">3880.80</t>
+          <t xml:space="preserve">4254.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F89"/>
       <c s="8" t="inlineStr" r="G89">
         <is>
-          <t xml:space="preserve">2364.00</t>
+          <t xml:space="preserve">5510.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H89">
         <is>
-          <t xml:space="preserve">2333.20</t>
+          <t xml:space="preserve">3901.42</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I89">
         <is>
-          <t xml:space="preserve">2333.20</t>
+          <t xml:space="preserve">3901.42</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J89">
@@ -4356,12 +4356,12 @@
       </c>
       <c s="8" t="inlineStr" r="K89">
         <is>
-          <t xml:space="preserve">2333.20</t>
+          <t xml:space="preserve">3901.42</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L89">
         <is>
-          <t xml:space="preserve">6000.06</t>
+          <t xml:space="preserve">3450.63</t>
         </is>
       </c>
     </row>
@@ -4378,23 +4378,23 @@
       </c>
       <c s="8" t="inlineStr" r="E90">
         <is>
-          <t xml:space="preserve">4614.00</t>
+          <t xml:space="preserve">4551.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F90"/>
       <c s="8" t="inlineStr" r="G90">
         <is>
-          <t xml:space="preserve">2055.90</t>
+          <t xml:space="preserve">3818.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H90">
         <is>
-          <t xml:space="preserve">2033.26</t>
+          <t xml:space="preserve">3247.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I90">
         <is>
-          <t xml:space="preserve">2033.26</t>
+          <t xml:space="preserve">3247.01</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J90">
@@ -4404,12 +4404,12 @@
       </c>
       <c s="8" t="inlineStr" r="K90">
         <is>
-          <t xml:space="preserve">2033.26</t>
+          <t xml:space="preserve">3247.01</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L90">
         <is>
-          <t xml:space="preserve">8239.27</t>
+          <t xml:space="preserve">4500.53</t>
         </is>
       </c>
     </row>
@@ -4424,23 +4424,23 @@
       </c>
       <c s="8" t="inlineStr" r="E91">
         <is>
-          <t xml:space="preserve">4936.00</t>
+          <t xml:space="preserve">4450.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F91"/>
       <c s="8" t="inlineStr" r="G91">
         <is>
-          <t xml:space="preserve">2121.40</t>
+          <t xml:space="preserve">3533.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H91">
         <is>
-          <t xml:space="preserve">2090.60</t>
+          <t xml:space="preserve">3211.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I91">
         <is>
-          <t xml:space="preserve">2090.60</t>
+          <t xml:space="preserve">3211.51</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J91">
@@ -4450,12 +4450,12 @@
       </c>
       <c s="8" t="inlineStr" r="K91">
         <is>
-          <t xml:space="preserve">2090.60</t>
+          <t xml:space="preserve">3211.51</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L91">
         <is>
-          <t xml:space="preserve">6850.84</t>
+          <t xml:space="preserve">4500.52</t>
         </is>
       </c>
     </row>
@@ -4474,23 +4474,23 @@
       </c>
       <c s="8" t="inlineStr" r="E92">
         <is>
-          <t xml:space="preserve">5146.50</t>
+          <t xml:space="preserve">4809.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F92"/>
       <c s="8" t="inlineStr" r="G92">
         <is>
-          <t xml:space="preserve">2471.80</t>
+          <t xml:space="preserve">4228.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H92">
         <is>
-          <t xml:space="preserve">2442.80</t>
+          <t xml:space="preserve">3959.99</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I92">
         <is>
-          <t xml:space="preserve">2442.80</t>
+          <t xml:space="preserve">3959.98</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J92">
@@ -4500,12 +4500,12 @@
       </c>
       <c s="8" t="inlineStr" r="K92">
         <is>
-          <t xml:space="preserve">2442.80</t>
+          <t xml:space="preserve">3959.98</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L92">
         <is>
-          <t xml:space="preserve">6500.61</t>
+          <t xml:space="preserve">4111.01</t>
         </is>
       </c>
     </row>
@@ -4520,23 +4520,23 @@
       </c>
       <c s="8" t="inlineStr" r="E93">
         <is>
-          <t xml:space="preserve">4985.20</t>
+          <t xml:space="preserve">4467.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F93"/>
       <c s="8" t="inlineStr" r="G93">
         <is>
-          <t xml:space="preserve">2566.00</t>
+          <t xml:space="preserve">4696.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H93">
         <is>
-          <t xml:space="preserve">2537.00</t>
+          <t xml:space="preserve">3957.09</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I93">
         <is>
-          <t xml:space="preserve">2537.00</t>
+          <t xml:space="preserve">3957.09</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J93">
@@ -4546,12 +4546,12 @@
       </c>
       <c s="8" t="inlineStr" r="K93">
         <is>
-          <t xml:space="preserve">2537.00</t>
+          <t xml:space="preserve">3957.09</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L93">
         <is>
-          <t xml:space="preserve">6500.45</t>
+          <t xml:space="preserve">3527.64</t>
         </is>
       </c>
     </row>
@@ -4568,23 +4568,23 @@
       </c>
       <c s="8" t="inlineStr" r="E94">
         <is>
-          <t xml:space="preserve">4905.60</t>
+          <t xml:space="preserve">3778.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F94"/>
       <c s="8" t="inlineStr" r="G94">
         <is>
-          <t xml:space="preserve">2541.00</t>
+          <t xml:space="preserve">5051.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H94">
         <is>
-          <t xml:space="preserve">2512.00</t>
+          <t xml:space="preserve">3563.59</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I94">
         <is>
-          <t xml:space="preserve">2512.00</t>
+          <t xml:space="preserve">3563.59</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J94">
@@ -4594,12 +4594,12 @@
       </c>
       <c s="8" t="inlineStr" r="K94">
         <is>
-          <t xml:space="preserve">2512.00</t>
+          <t xml:space="preserve">3563.59</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L94">
         <is>
-          <t xml:space="preserve">6500.55</t>
+          <t xml:space="preserve">3185.57</t>
         </is>
       </c>
     </row>
@@ -4614,23 +4614,23 @@
       </c>
       <c s="8" t="inlineStr" r="E95">
         <is>
-          <t xml:space="preserve">4575.30</t>
+          <t xml:space="preserve">3990.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F95"/>
       <c s="8" t="inlineStr" r="G95">
         <is>
-          <t xml:space="preserve">2757.80</t>
+          <t xml:space="preserve">5084.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H95">
         <is>
-          <t xml:space="preserve">2728.80</t>
+          <t xml:space="preserve">3743.25</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I95">
         <is>
-          <t xml:space="preserve">2728.80</t>
+          <t xml:space="preserve">3743.25</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J95">
@@ -4640,12 +4640,12 @@
       </c>
       <c s="8" t="inlineStr" r="K95">
         <is>
-          <t xml:space="preserve">2728.80</t>
+          <t xml:space="preserve">3743.25</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L95">
         <is>
-          <t xml:space="preserve">6500.18</t>
+          <t xml:space="preserve">3376.53</t>
         </is>
       </c>
     </row>
@@ -4664,23 +4664,23 @@
       </c>
       <c s="8" t="inlineStr" r="E96">
         <is>
-          <t xml:space="preserve">4431.60</t>
+          <t xml:space="preserve">4385.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F96"/>
       <c s="8" t="inlineStr" r="G96">
         <is>
-          <t xml:space="preserve">2973.20</t>
+          <t xml:space="preserve">4065.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H96">
         <is>
-          <t xml:space="preserve">2444.50</t>
+          <t xml:space="preserve">3536.32</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I96">
         <is>
-          <t xml:space="preserve">2444.50</t>
+          <t xml:space="preserve">3536.32</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J96">
@@ -4690,12 +4690,12 @@
       </c>
       <c s="8" t="inlineStr" r="K96">
         <is>
-          <t xml:space="preserve">2444.50</t>
+          <t xml:space="preserve">3536.32</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L96">
         <is>
-          <t xml:space="preserve">4527.85</t>
+          <t xml:space="preserve">3898.27</t>
         </is>
       </c>
     </row>
@@ -4710,23 +4710,23 @@
       </c>
       <c s="8" t="inlineStr" r="E97">
         <is>
-          <t xml:space="preserve">4790.00</t>
+          <t xml:space="preserve">4289.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F97"/>
       <c s="8" t="inlineStr" r="G97">
         <is>
-          <t xml:space="preserve">2974.60</t>
+          <t xml:space="preserve">3839.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H97">
         <is>
-          <t xml:space="preserve">2798.90</t>
+          <t xml:space="preserve">3458.91</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I97">
         <is>
-          <t xml:space="preserve">2798.90</t>
+          <t xml:space="preserve">3458.91</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J97">
@@ -4736,12 +4736,12 @@
       </c>
       <c s="8" t="inlineStr" r="K97">
         <is>
-          <t xml:space="preserve">2798.90</t>
+          <t xml:space="preserve">3458.91</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L97">
         <is>
-          <t xml:space="preserve">5000.18</t>
+          <t xml:space="preserve">3900.11</t>
         </is>
       </c>
     </row>
@@ -4758,23 +4758,23 @@
       </c>
       <c s="8" t="inlineStr" r="E98">
         <is>
-          <t xml:space="preserve">4584.30</t>
+          <t xml:space="preserve">4006.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F98"/>
       <c s="8" t="inlineStr" r="G98">
         <is>
-          <t xml:space="preserve">2982.60</t>
+          <t xml:space="preserve">3737.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H98">
         <is>
-          <t xml:space="preserve">2347.01</t>
+          <t xml:space="preserve">3131.82</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I98">
         <is>
-          <t xml:space="preserve">2347.01</t>
+          <t xml:space="preserve">3131.82</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J98">
@@ -4784,12 +4784,12 @@
       </c>
       <c s="8" t="inlineStr" r="K98">
         <is>
-          <t xml:space="preserve">2347.01</t>
+          <t xml:space="preserve">3131.82</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L98">
         <is>
-          <t xml:space="preserve">4527.66</t>
+          <t xml:space="preserve">3773.55</t>
         </is>
       </c>
     </row>
@@ -4804,23 +4804,23 @@
       </c>
       <c s="8" t="inlineStr" r="E99">
         <is>
-          <t xml:space="preserve">4675.00</t>
+          <t xml:space="preserve">3955.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F99"/>
       <c s="8" t="inlineStr" r="G99">
         <is>
-          <t xml:space="preserve">2880.40</t>
+          <t xml:space="preserve">3592.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H99">
         <is>
-          <t xml:space="preserve">2424.72</t>
+          <t xml:space="preserve">3059.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I99">
         <is>
-          <t xml:space="preserve">2424.72</t>
+          <t xml:space="preserve">3059.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J99">
@@ -4830,12 +4830,12 @@
       </c>
       <c s="8" t="inlineStr" r="K99">
         <is>
-          <t xml:space="preserve">2424.72</t>
+          <t xml:space="preserve">3059.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L99">
         <is>
-          <t xml:space="preserve">4999.25</t>
+          <t xml:space="preserve">3898.27</t>
         </is>
       </c>
     </row>
@@ -4854,23 +4854,23 @@
       </c>
       <c s="8" t="inlineStr" r="E100">
         <is>
-          <t xml:space="preserve">5290.00</t>
+          <t xml:space="preserve">4059.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F100"/>
       <c s="8" t="inlineStr" r="G100">
         <is>
-          <t xml:space="preserve">2261.00</t>
+          <t xml:space="preserve">4391.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H100">
         <is>
-          <t xml:space="preserve">2232.00</t>
+          <t xml:space="preserve">3335.41</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I100">
         <is>
-          <t xml:space="preserve">2232.00</t>
+          <t xml:space="preserve">3335.41</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J100">
@@ -4880,12 +4880,12 @@
       </c>
       <c s="8" t="inlineStr" r="K100">
         <is>
-          <t xml:space="preserve">2232.00</t>
+          <t xml:space="preserve">3335.41</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L100">
         <is>
-          <t xml:space="preserve">6500.48</t>
+          <t xml:space="preserve">3488.34</t>
         </is>
       </c>
     </row>
@@ -4900,23 +4900,23 @@
       </c>
       <c s="8" t="inlineStr" r="E101">
         <is>
-          <t xml:space="preserve">5482.40</t>
+          <t xml:space="preserve">4001.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F101"/>
       <c s="8" t="inlineStr" r="G101">
         <is>
-          <t xml:space="preserve">2067.20</t>
+          <t xml:space="preserve">4160.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H101">
         <is>
-          <t xml:space="preserve">2038.20</t>
+          <t xml:space="preserve">3221.41</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I101">
         <is>
-          <t xml:space="preserve">2038.20</t>
+          <t xml:space="preserve">3221.41</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J101">
@@ -4926,12 +4926,12 @@
       </c>
       <c s="8" t="inlineStr" r="K101">
         <is>
-          <t xml:space="preserve">2038.20</t>
+          <t xml:space="preserve">3221.41</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L101">
         <is>
-          <t xml:space="preserve">6500.79</t>
+          <t xml:space="preserve">3599.07</t>
         </is>
       </c>
     </row>
@@ -4948,23 +4948,23 @@
       </c>
       <c s="8" t="inlineStr" r="E102">
         <is>
-          <t xml:space="preserve">5566.20</t>
+          <t xml:space="preserve">3877.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F102"/>
       <c s="8" t="inlineStr" r="G102">
         <is>
-          <t xml:space="preserve">2247.90</t>
+          <t xml:space="preserve">4134.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H102">
         <is>
-          <t xml:space="preserve">2218.90</t>
+          <t xml:space="preserve">3231.99</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I102">
         <is>
-          <t xml:space="preserve">2218.90</t>
+          <t xml:space="preserve">3231.99</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J102">
@@ -4974,12 +4974,12 @@
       </c>
       <c s="8" t="inlineStr" r="K102">
         <is>
-          <t xml:space="preserve">2218.90</t>
+          <t xml:space="preserve">3231.99</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L102">
         <is>
-          <t xml:space="preserve">6500.94</t>
+          <t xml:space="preserve">3424.87</t>
         </is>
       </c>
     </row>
@@ -4994,23 +4994,23 @@
       </c>
       <c s="8" t="inlineStr" r="E103">
         <is>
-          <t xml:space="preserve">5273.50</t>
+          <t xml:space="preserve">3822.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F103"/>
       <c s="8" t="inlineStr" r="G103">
         <is>
-          <t xml:space="preserve">2203.30</t>
+          <t xml:space="preserve">4158.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H103">
         <is>
-          <t xml:space="preserve">2174.30</t>
+          <t xml:space="preserve">3142.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I103">
         <is>
-          <t xml:space="preserve">2174.30</t>
+          <t xml:space="preserve">3142.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J103">
@@ -5020,12 +5020,12 @@
       </c>
       <c s="8" t="inlineStr" r="K103">
         <is>
-          <t xml:space="preserve">2174.30</t>
+          <t xml:space="preserve">3142.31</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L103">
         <is>
-          <t xml:space="preserve">6500.64</t>
+          <t xml:space="preserve">3400.34</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
     <row r="107" ht="14.4" customHeight="0">
       <c s="5" t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">05-04-2021</t>
+          <t xml:space="preserve">14-04-2021</t>
         </is>
       </c>
       <c s="16" t="inlineStr" r="B107">
@@ -5115,23 +5115,23 @@
       <c s="4" t="str" r="D107"/>
       <c s="17" t="inlineStr" r="E107">
         <is>
-          <t xml:space="preserve">75175.50</t>
+          <t xml:space="preserve">61866.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F107"/>
       <c s="17" t="inlineStr" r="G107">
         <is>
-          <t xml:space="preserve">86172.70</t>
+          <t xml:space="preserve">111318.55</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H107">
         <is>
-          <t xml:space="preserve">50872.73</t>
+          <t xml:space="preserve">51586.58</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I107">
         <is>
-          <t xml:space="preserve">50872.73</t>
+          <t xml:space="preserve">51586.58</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J107">
@@ -5141,7 +5141,7 @@
       </c>
       <c s="17" t="inlineStr" r="K107">
         <is>
-          <t xml:space="preserve">50872.73</t>
+          <t xml:space="preserve">51586.58</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L107">
@@ -5161,23 +5161,23 @@
       <c s="4" t="str" r="D108"/>
       <c s="17" t="inlineStr" r="E108">
         <is>
-          <t xml:space="preserve">5566.20</t>
+          <t xml:space="preserve">4809.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F108"/>
       <c s="17" t="inlineStr" r="G108">
         <is>
-          <t xml:space="preserve">5899.00</t>
+          <t xml:space="preserve">6654.10</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H108">
         <is>
-          <t xml:space="preserve">3212.87</t>
+          <t xml:space="preserve">3959.99</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I108">
         <is>
-          <t xml:space="preserve">3212.87</t>
+          <t xml:space="preserve">3959.98</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J108">
@@ -5187,12 +5187,12 @@
       </c>
       <c s="17" t="inlineStr" r="K108">
         <is>
-          <t xml:space="preserve">3212.87</t>
+          <t xml:space="preserve">3959.98</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L108">
         <is>
-          <t xml:space="preserve">8239.27</t>
+          <t xml:space="preserve">4998.45</t>
         </is>
       </c>
     </row>
@@ -5207,23 +5207,23 @@
       <c s="4" t="str" r="D109"/>
       <c s="17" t="inlineStr" r="E109">
         <is>
-          <t xml:space="preserve">1891.30</t>
+          <t xml:space="preserve">531.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F109"/>
       <c s="17" t="inlineStr" r="G109">
         <is>
-          <t xml:space="preserve">2002.20</t>
+          <t xml:space="preserve">2254.80</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H109">
         <is>
-          <t xml:space="preserve">1281.93</t>
+          <t xml:space="preserve">531.60</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I109">
         <is>
-          <t xml:space="preserve">1281.93</t>
+          <t xml:space="preserve">531.60</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J109">
@@ -5233,12 +5233,12 @@
       </c>
       <c s="17" t="inlineStr" r="K109">
         <is>
-          <t xml:space="preserve">1281.93</t>
+          <t xml:space="preserve">531.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L109">
         <is>
-          <t xml:space="preserve">2464.12</t>
+          <t xml:space="preserve">1499.51</t>
         </is>
       </c>
     </row>
@@ -5253,23 +5253,23 @@
       <c s="4" t="str" r="D110"/>
       <c s="17" t="inlineStr" r="E110">
         <is>
-          <t xml:space="preserve">3132.31</t>
+          <t xml:space="preserve">2577.77</t>
         </is>
       </c>
       <c s="4" t="str" r="F110"/>
       <c s="17" t="inlineStr" r="G110">
         <is>
-          <t xml:space="preserve">3590.53</t>
+          <t xml:space="preserve">4638.27</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H110">
         <is>
-          <t xml:space="preserve">2119.70</t>
+          <t xml:space="preserve">2149.44</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I110">
         <is>
-          <t xml:space="preserve">2119.70</t>
+          <t xml:space="preserve">2149.44</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J110">
@@ -5279,12 +5279,12 @@
       </c>
       <c s="17" t="inlineStr" r="K110">
         <is>
-          <t xml:space="preserve">2119.70</t>
+          <t xml:space="preserve">2149.44</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L110">
         <is>
-          <t xml:space="preserve">3826.93</t>
+          <t xml:space="preserve">3017.06</t>
         </is>
       </c>
     </row>

--- a/Dumps/iexRtmFile/MarketMinute.xlsx
+++ b/Dumps/iexRtmFile/MarketMinute.xlsx
@@ -378,7 +378,7 @@
     <row r="4" ht="14.4" customHeight="1">
       <c s="2" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Date: 14-04-2021</t>
+          <t xml:space="preserve">Date: 19-04-2021</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
     <row r="8" ht="13.2" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">14-04-2021</t>
+          <t xml:space="preserve">19-04-2021</t>
         </is>
       </c>
       <c s="6" r="B8">
@@ -484,23 +484,23 @@
       </c>
       <c s="8" t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">2684.00</t>
+          <t xml:space="preserve">2880.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F8"/>
       <c s="8" t="inlineStr" r="G8">
         <is>
-          <t xml:space="preserve">2300.10</t>
+          <t xml:space="preserve">2568.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">1969.00</t>
+          <t xml:space="preserve">1527.06</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">1969.00</t>
+          <t xml:space="preserve">1527.06</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J8">
@@ -510,12 +510,12 @@
       </c>
       <c s="8" t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">1969.00</t>
+          <t xml:space="preserve">1527.06</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L8">
         <is>
-          <t xml:space="preserve">3999.82</t>
+          <t xml:space="preserve">3300.30</t>
         </is>
       </c>
     </row>
@@ -530,23 +530,23 @@
       </c>
       <c s="8" t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">2952.00</t>
+          <t xml:space="preserve">2886.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F9"/>
       <c s="8" t="inlineStr" r="G9">
         <is>
-          <t xml:space="preserve">2254.80</t>
+          <t xml:space="preserve">2543.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">2115.80</t>
+          <t xml:space="preserve">1537.05</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">2115.80</t>
+          <t xml:space="preserve">1537.05</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J9">
@@ -556,12 +556,12 @@
       </c>
       <c s="8" t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">2115.80</t>
+          <t xml:space="preserve">1537.05</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L9">
         <is>
-          <t xml:space="preserve">4998.45</t>
+          <t xml:space="preserve">3300.27</t>
         </is>
       </c>
     </row>
@@ -578,23 +578,23 @@
       </c>
       <c s="8" t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">2739.20</t>
+          <t xml:space="preserve">2722.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F10"/>
       <c s="8" t="inlineStr" r="G10">
         <is>
-          <t xml:space="preserve">3097.40</t>
+          <t xml:space="preserve">2802.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">2142.00</t>
+          <t xml:space="preserve">1483.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">2142.00</t>
+          <t xml:space="preserve">1483.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J10">
@@ -604,12 +604,12 @@
       </c>
       <c s="8" t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">2142.00</t>
+          <t xml:space="preserve">1483.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L10">
         <is>
-          <t xml:space="preserve">3529.51</t>
+          <t xml:space="preserve">3239.52</t>
         </is>
       </c>
     </row>
@@ -624,23 +624,23 @@
       </c>
       <c s="8" t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">2200.10</t>
+          <t xml:space="preserve">2686.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F11"/>
       <c s="8" t="inlineStr" r="G11">
         <is>
-          <t xml:space="preserve">3216.20</t>
+          <t xml:space="preserve">2996.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">1630.70</t>
+          <t xml:space="preserve">1456.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">1630.70</t>
+          <t xml:space="preserve">1456.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J11">
@@ -650,12 +650,12 @@
       </c>
       <c s="8" t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">1630.70</t>
+          <t xml:space="preserve">1456.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L11">
         <is>
-          <t xml:space="preserve">3496.13</t>
+          <t xml:space="preserve">3100.29</t>
         </is>
       </c>
     </row>
@@ -674,23 +674,23 @@
       </c>
       <c s="8" t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">2571.00</t>
+          <t xml:space="preserve">2650.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F12"/>
       <c s="8" t="inlineStr" r="G12">
         <is>
-          <t xml:space="preserve">3272.50</t>
+          <t xml:space="preserve">2904.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">2116.10</t>
+          <t xml:space="preserve">1653.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">2116.10</t>
+          <t xml:space="preserve">1653.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J12">
@@ -700,12 +700,12 @@
       </c>
       <c s="8" t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">2116.10</t>
+          <t xml:space="preserve">1653.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L12">
         <is>
-          <t xml:space="preserve">3098.34</t>
+          <t xml:space="preserve">2969.42</t>
         </is>
       </c>
     </row>
@@ -720,23 +720,23 @@
       </c>
       <c s="8" t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">2779.00</t>
+          <t xml:space="preserve">2344.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F13"/>
       <c s="8" t="inlineStr" r="G13">
         <is>
-          <t xml:space="preserve">3380.40</t>
+          <t xml:space="preserve">2868.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">2324.10</t>
+          <t xml:space="preserve">1624.72</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">2324.10</t>
+          <t xml:space="preserve">1624.72</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J13">
@@ -746,12 +746,12 @@
       </c>
       <c s="8" t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">2324.10</t>
+          <t xml:space="preserve">1624.72</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L13">
         <is>
-          <t xml:space="preserve">3098.78</t>
+          <t xml:space="preserve">2952.75</t>
         </is>
       </c>
     </row>
@@ -768,23 +768,23 @@
       </c>
       <c s="8" t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">2069.00</t>
+          <t xml:space="preserve">2265.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F14"/>
       <c s="8" t="inlineStr" r="G14">
         <is>
-          <t xml:space="preserve">2883.50</t>
+          <t xml:space="preserve">2859.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">1595.60</t>
+          <t xml:space="preserve">1390.42</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">1595.60</t>
+          <t xml:space="preserve">1390.42</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J14">
@@ -794,12 +794,12 @@
       </c>
       <c s="8" t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">1595.60</t>
+          <t xml:space="preserve">1390.42</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L14">
         <is>
-          <t xml:space="preserve">3081.54</t>
+          <t xml:space="preserve">2908.03</t>
         </is>
       </c>
     </row>
@@ -814,23 +814,23 @@
       </c>
       <c s="8" t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">2008.00</t>
+          <t xml:space="preserve">1998.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F15"/>
       <c s="8" t="inlineStr" r="G15">
         <is>
-          <t xml:space="preserve">2932.40</t>
+          <t xml:space="preserve">2833.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">1512.47</t>
+          <t xml:space="preserve">1311.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">1512.47</t>
+          <t xml:space="preserve">1311.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J15">
@@ -840,12 +840,12 @@
       </c>
       <c s="8" t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">1512.47</t>
+          <t xml:space="preserve">1311.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L15">
         <is>
-          <t xml:space="preserve">3200.17</t>
+          <t xml:space="preserve">2849.51</t>
         </is>
       </c>
     </row>
@@ -864,23 +864,23 @@
       </c>
       <c s="8" t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">1890.70</t>
+          <t xml:space="preserve">1620.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F16"/>
       <c s="8" t="inlineStr" r="G16">
         <is>
-          <t xml:space="preserve">3549.20</t>
+          <t xml:space="preserve">2552.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">1477.40</t>
+          <t xml:space="preserve">901.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">1477.40</t>
+          <t xml:space="preserve">901.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J16">
@@ -890,12 +890,12 @@
       </c>
       <c s="8" t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">1477.40</t>
+          <t xml:space="preserve">901.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L16">
         <is>
-          <t xml:space="preserve">2959.44</t>
+          <t xml:space="preserve">2749.69</t>
         </is>
       </c>
     </row>
@@ -910,23 +910,23 @@
       </c>
       <c s="8" t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">1943.70</t>
+          <t xml:space="preserve">1639.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F17"/>
       <c s="8" t="inlineStr" r="G17">
         <is>
-          <t xml:space="preserve">3609.60</t>
+          <t xml:space="preserve">2443.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">1530.40</t>
+          <t xml:space="preserve">920.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">1530.40</t>
+          <t xml:space="preserve">920.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J17">
@@ -936,12 +936,12 @@
       </c>
       <c s="8" t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">1530.40</t>
+          <t xml:space="preserve">920.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L17">
         <is>
-          <t xml:space="preserve">2959.64</t>
+          <t xml:space="preserve">2796.90</t>
         </is>
       </c>
     </row>
@@ -958,23 +958,23 @@
       </c>
       <c s="8" t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">2006.70</t>
+          <t xml:space="preserve">2045.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F18"/>
       <c s="8" t="inlineStr" r="G18">
         <is>
-          <t xml:space="preserve">4386.90</t>
+          <t xml:space="preserve">2455.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">1488.46</t>
+          <t xml:space="preserve">851.78</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">1488.46</t>
+          <t xml:space="preserve">851.78</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J18">
@@ -984,12 +984,12 @@
       </c>
       <c s="8" t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">1488.46</t>
+          <t xml:space="preserve">851.78</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L18">
         <is>
-          <t xml:space="preserve">2959.23</t>
+          <t xml:space="preserve">2849.65</t>
         </is>
       </c>
     </row>
@@ -1004,23 +1004,23 @@
       </c>
       <c s="8" t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">1900.70</t>
+          <t xml:space="preserve">2092.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F19"/>
       <c s="8" t="inlineStr" r="G19">
         <is>
-          <t xml:space="preserve">4567.50</t>
+          <t xml:space="preserve">2632.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">1382.48</t>
+          <t xml:space="preserve">851.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">1382.48</t>
+          <t xml:space="preserve">851.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J19">
@@ -1030,12 +1030,12 @@
       </c>
       <c s="8" t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">1382.48</t>
+          <t xml:space="preserve">851.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L19">
         <is>
-          <t xml:space="preserve">2959.09</t>
+          <t xml:space="preserve">2852.03</t>
         </is>
       </c>
     </row>
@@ -1054,23 +1054,23 @@
       </c>
       <c s="8" t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">2022.80</t>
+          <t xml:space="preserve">2119.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F20"/>
       <c s="8" t="inlineStr" r="G20">
         <is>
-          <t xml:space="preserve">4727.40</t>
+          <t xml:space="preserve">3368.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">1512.70</t>
+          <t xml:space="preserve">1043.86</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">1512.70</t>
+          <t xml:space="preserve">1043.85</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J20">
@@ -1080,12 +1080,12 @@
       </c>
       <c s="8" t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">1512.70</t>
+          <t xml:space="preserve">1043.85</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L20">
         <is>
-          <t xml:space="preserve">2887.20</t>
+          <t xml:space="preserve">2800.62</t>
         </is>
       </c>
     </row>
@@ -1100,23 +1100,23 @@
       </c>
       <c s="8" t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">2131.70</t>
+          <t xml:space="preserve">1959.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F21"/>
       <c s="8" t="inlineStr" r="G21">
         <is>
-          <t xml:space="preserve">4494.30</t>
+          <t xml:space="preserve">3328.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">1614.26</t>
+          <t xml:space="preserve">1121.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">1614.26</t>
+          <t xml:space="preserve">1121.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J21">
@@ -1126,12 +1126,12 @@
       </c>
       <c s="8" t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">1614.26</t>
+          <t xml:space="preserve">1121.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L21">
         <is>
-          <t xml:space="preserve">2949.66</t>
+          <t xml:space="preserve">2909.14</t>
         </is>
       </c>
     </row>
@@ -1148,23 +1148,23 @@
       </c>
       <c s="8" t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">2070.40</t>
+          <t xml:space="preserve">1610.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F22"/>
       <c s="8" t="inlineStr" r="G22">
         <is>
-          <t xml:space="preserve">4281.70</t>
+          <t xml:space="preserve">3716.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">1552.95</t>
+          <t xml:space="preserve">1091.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">1552.95</t>
+          <t xml:space="preserve">1091.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J22">
@@ -1174,12 +1174,12 @@
       </c>
       <c s="8" t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">1552.95</t>
+          <t xml:space="preserve">1091.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L22">
         <is>
-          <t xml:space="preserve">2949.78</t>
+          <t xml:space="preserve">2772.10</t>
         </is>
       </c>
     </row>
@@ -1194,23 +1194,23 @@
       </c>
       <c s="8" t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">2132.40</t>
+          <t xml:space="preserve">1600.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F23"/>
       <c s="8" t="inlineStr" r="G23">
         <is>
-          <t xml:space="preserve">4174.10</t>
+          <t xml:space="preserve">3777.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">1613.31</t>
+          <t xml:space="preserve">1081.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I23">
         <is>
-          <t xml:space="preserve">1613.31</t>
+          <t xml:space="preserve">1081.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J23">
@@ -1220,12 +1220,12 @@
       </c>
       <c s="8" t="inlineStr" r="K23">
         <is>
-          <t xml:space="preserve">1613.31</t>
+          <t xml:space="preserve">1081.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L23">
         <is>
-          <t xml:space="preserve">2969.44</t>
+          <t xml:space="preserve">2749.53</t>
         </is>
       </c>
     </row>
@@ -1244,23 +1244,23 @@
       </c>
       <c s="8" t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">1822.00</t>
+          <t xml:space="preserve">2006.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F24"/>
       <c s="8" t="inlineStr" r="G24">
         <is>
-          <t xml:space="preserve">4068.70</t>
+          <t xml:space="preserve">3054.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">1435.34</t>
+          <t xml:space="preserve">1233.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">1435.34</t>
+          <t xml:space="preserve">1233.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J24">
@@ -1270,12 +1270,12 @@
       </c>
       <c s="8" t="inlineStr" r="K24">
         <is>
-          <t xml:space="preserve">1435.34</t>
+          <t xml:space="preserve">1233.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L24">
         <is>
-          <t xml:space="preserve">2599.92</t>
+          <t xml:space="preserve">2990.29</t>
         </is>
       </c>
     </row>
@@ -1290,23 +1290,23 @@
       </c>
       <c s="8" t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">1837.00</t>
+          <t xml:space="preserve">2026.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F25"/>
       <c s="8" t="inlineStr" r="G25">
         <is>
-          <t xml:space="preserve">3781.10</t>
+          <t xml:space="preserve">2917.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">1379.50</t>
+          <t xml:space="preserve">1254.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I25">
         <is>
-          <t xml:space="preserve">1379.50</t>
+          <t xml:space="preserve">1254.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J25">
@@ -1316,12 +1316,12 @@
       </c>
       <c s="8" t="inlineStr" r="K25">
         <is>
-          <t xml:space="preserve">1379.50</t>
+          <t xml:space="preserve">1254.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L25">
         <is>
-          <t xml:space="preserve">2800.45</t>
+          <t xml:space="preserve">2990.92</t>
         </is>
       </c>
     </row>
@@ -1338,23 +1338,23 @@
       </c>
       <c s="8" t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">2093.20</t>
+          <t xml:space="preserve">2272.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F26"/>
       <c s="8" t="inlineStr" r="G26">
         <is>
-          <t xml:space="preserve">3703.30</t>
+          <t xml:space="preserve">2932.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">1414.50</t>
+          <t xml:space="preserve">1548.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">1414.50</t>
+          <t xml:space="preserve">1548.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J26">
@@ -1364,12 +1364,12 @@
       </c>
       <c s="8" t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">1414.50</t>
+          <t xml:space="preserve">1548.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L26">
         <is>
-          <t xml:space="preserve">2749.35</t>
+          <t xml:space="preserve">3215.05</t>
         </is>
       </c>
     </row>
@@ -1384,23 +1384,23 @@
       </c>
       <c s="8" t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">1942.30</t>
+          <t xml:space="preserve">2348.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F27"/>
       <c s="8" t="inlineStr" r="G27">
         <is>
-          <t xml:space="preserve">3771.20</t>
+          <t xml:space="preserve">2843.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">1363.34</t>
+          <t xml:space="preserve">1469.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I27">
         <is>
-          <t xml:space="preserve">1363.34</t>
+          <t xml:space="preserve">1469.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J27">
@@ -1410,12 +1410,12 @@
       </c>
       <c s="8" t="inlineStr" r="K27">
         <is>
-          <t xml:space="preserve">1363.34</t>
+          <t xml:space="preserve">1469.93</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L27">
         <is>
-          <t xml:space="preserve">2398.83</t>
+          <t xml:space="preserve">3250.62</t>
         </is>
       </c>
     </row>
@@ -1434,23 +1434,23 @@
       </c>
       <c s="8" t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">1852.10</t>
+          <t xml:space="preserve">1895.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F28"/>
       <c s="8" t="inlineStr" r="G28">
         <is>
-          <t xml:space="preserve">3793.20</t>
+          <t xml:space="preserve">2665.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">1336.00</t>
+          <t xml:space="preserve">1228.72</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I28">
         <is>
-          <t xml:space="preserve">1336.00</t>
+          <t xml:space="preserve">1228.72</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J28">
@@ -1460,12 +1460,12 @@
       </c>
       <c s="8" t="inlineStr" r="K28">
         <is>
-          <t xml:space="preserve">1336.00</t>
+          <t xml:space="preserve">1228.72</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L28">
         <is>
-          <t xml:space="preserve">2500.54</t>
+          <t xml:space="preserve">3300.42</t>
         </is>
       </c>
     </row>
@@ -1480,23 +1480,23 @@
       </c>
       <c s="8" t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">1832.10</t>
+          <t xml:space="preserve">1868.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F29"/>
       <c s="8" t="inlineStr" r="G29">
         <is>
-          <t xml:space="preserve">3618.70</t>
+          <t xml:space="preserve">2406.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">1264.00</t>
+          <t xml:space="preserve">1192.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">1264.00</t>
+          <t xml:space="preserve">1192.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J29">
@@ -1506,12 +1506,12 @@
       </c>
       <c s="8" t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">1264.00</t>
+          <t xml:space="preserve">1192.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L29">
         <is>
-          <t xml:space="preserve">2500.82</t>
+          <t xml:space="preserve">3313.96</t>
         </is>
       </c>
     </row>
@@ -1528,23 +1528,23 @@
       </c>
       <c s="8" t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">2111.10</t>
+          <t xml:space="preserve">2065.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F30"/>
       <c s="8" t="inlineStr" r="G30">
         <is>
-          <t xml:space="preserve">4459.10</t>
+          <t xml:space="preserve">3084.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">1667.00</t>
+          <t xml:space="preserve">1602.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">1667.00</t>
+          <t xml:space="preserve">1602.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J30">
@@ -1554,12 +1554,12 @@
       </c>
       <c s="8" t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">1667.00</t>
+          <t xml:space="preserve">1602.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L30">
         <is>
-          <t xml:space="preserve">2749.01</t>
+          <t xml:space="preserve">3271.66</t>
         </is>
       </c>
     </row>
@@ -1574,23 +1574,23 @@
       </c>
       <c s="8" t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">1920.50</t>
+          <t xml:space="preserve">2043.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F31"/>
       <c s="8" t="inlineStr" r="G31">
         <is>
-          <t xml:space="preserve">4973.80</t>
+          <t xml:space="preserve">3123.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">1520.12</t>
+          <t xml:space="preserve">1534.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I31">
         <is>
-          <t xml:space="preserve">1520.12</t>
+          <t xml:space="preserve">1534.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J31">
@@ -1600,12 +1600,12 @@
       </c>
       <c s="8" t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">1520.12</t>
+          <t xml:space="preserve">1534.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L31">
         <is>
-          <t xml:space="preserve">2574.53</t>
+          <t xml:space="preserve">3245.44</t>
         </is>
       </c>
     </row>
@@ -1624,23 +1624,23 @@
       </c>
       <c s="8" t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">1530.00</t>
+          <t xml:space="preserve">2165.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F32"/>
       <c s="8" t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">3914.30</t>
+          <t xml:space="preserve">3492.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">1379.70</t>
+          <t xml:space="preserve">1893.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">1379.70</t>
+          <t xml:space="preserve">1893.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J32">
@@ -1650,12 +1650,12 @@
       </c>
       <c s="8" t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">1379.70</t>
+          <t xml:space="preserve">1893.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L32">
         <is>
-          <t xml:space="preserve">2500.27</t>
+          <t xml:space="preserve">2999.43</t>
         </is>
       </c>
     </row>
@@ -1670,23 +1670,23 @@
       </c>
       <c s="8" t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">1415.00</t>
+          <t xml:space="preserve">2168.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F33"/>
       <c s="8" t="inlineStr" r="G33">
         <is>
-          <t xml:space="preserve">4379.30</t>
+          <t xml:space="preserve">3421.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">1307.40</t>
+          <t xml:space="preserve">1895.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I33">
         <is>
-          <t xml:space="preserve">1307.40</t>
+          <t xml:space="preserve">1895.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J33">
@@ -1696,12 +1696,12 @@
       </c>
       <c s="8" t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">1307.40</t>
+          <t xml:space="preserve">1895.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L33">
         <is>
-          <t xml:space="preserve">2199.50</t>
+          <t xml:space="preserve">2999.60</t>
         </is>
       </c>
     </row>
@@ -1718,23 +1718,23 @@
       </c>
       <c s="8" t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">1549.40</t>
+          <t xml:space="preserve">2700.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F34"/>
       <c s="8" t="inlineStr" r="G34">
         <is>
-          <t xml:space="preserve">4650.70</t>
+          <t xml:space="preserve">3283.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H34">
         <is>
-          <t xml:space="preserve">1395.34</t>
+          <t xml:space="preserve">2136.65</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I34">
         <is>
-          <t xml:space="preserve">1395.34</t>
+          <t xml:space="preserve">2136.65</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J34">
@@ -1744,12 +1744,12 @@
       </c>
       <c s="8" t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">1395.34</t>
+          <t xml:space="preserve">2136.65</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L34">
         <is>
-          <t xml:space="preserve">1998.41</t>
+          <t xml:space="preserve">3300.99</t>
         </is>
       </c>
     </row>
@@ -1764,23 +1764,23 @@
       </c>
       <c s="8" t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">1965.30</t>
+          <t xml:space="preserve">2725.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F35"/>
       <c s="8" t="inlineStr" r="G35">
         <is>
-          <t xml:space="preserve">4617.30</t>
+          <t xml:space="preserve">3195.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">1782.70</t>
+          <t xml:space="preserve">2106.11</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">1782.70</t>
+          <t xml:space="preserve">2106.11</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J35">
@@ -1790,12 +1790,12 @@
       </c>
       <c s="8" t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">1782.70</t>
+          <t xml:space="preserve">2106.11</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L35">
         <is>
-          <t xml:space="preserve">2114.00</t>
+          <t xml:space="preserve">3400.25</t>
         </is>
       </c>
     </row>
@@ -1814,23 +1814,23 @@
       </c>
       <c s="8" t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">1540.50</t>
+          <t xml:space="preserve">2421.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F36"/>
       <c s="8" t="inlineStr" r="G36">
         <is>
-          <t xml:space="preserve">3910.90</t>
+          <t xml:space="preserve">3355.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">1178.30</t>
+          <t xml:space="preserve">2131.23</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I36">
         <is>
-          <t xml:space="preserve">1178.30</t>
+          <t xml:space="preserve">2131.23</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J36">
@@ -1840,12 +1840,12 @@
       </c>
       <c s="8" t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">1178.30</t>
+          <t xml:space="preserve">2131.23</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L36">
         <is>
-          <t xml:space="preserve">2700.93</t>
+          <t xml:space="preserve">3000.17</t>
         </is>
       </c>
     </row>
@@ -1860,23 +1860,23 @@
       </c>
       <c s="8" t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">1340.10</t>
+          <t xml:space="preserve">2492.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F37"/>
       <c s="8" t="inlineStr" r="G37">
         <is>
-          <t xml:space="preserve">3955.50</t>
+          <t xml:space="preserve">3316.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">1186.01</t>
+          <t xml:space="preserve">2179.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I37">
         <is>
-          <t xml:space="preserve">1186.01</t>
+          <t xml:space="preserve">2179.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J37">
@@ -1886,12 +1886,12 @@
       </c>
       <c s="8" t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">1186.01</t>
+          <t xml:space="preserve">2179.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L37">
         <is>
-          <t xml:space="preserve">1999.78</t>
+          <t xml:space="preserve">3300.17</t>
         </is>
       </c>
     </row>
@@ -1908,23 +1908,23 @@
       </c>
       <c s="8" t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">1562.00</t>
+          <t xml:space="preserve">2722.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F38"/>
       <c s="8" t="inlineStr" r="G38">
         <is>
-          <t xml:space="preserve">4042.70</t>
+          <t xml:space="preserve">3575.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">996.30</t>
+          <t xml:space="preserve">2316.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I38">
         <is>
-          <t xml:space="preserve">996.30</t>
+          <t xml:space="preserve">2316.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J38">
@@ -1934,12 +1934,12 @@
       </c>
       <c s="8" t="inlineStr" r="K38">
         <is>
-          <t xml:space="preserve">996.30</t>
+          <t xml:space="preserve">2316.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L38">
         <is>
-          <t xml:space="preserve">2800.31</t>
+          <t xml:space="preserve">3376.09</t>
         </is>
       </c>
     </row>
@@ -1954,23 +1954,23 @@
       </c>
       <c s="8" t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">1471.70</t>
+          <t xml:space="preserve">2562.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F39"/>
       <c s="8" t="inlineStr" r="G39">
         <is>
-          <t xml:space="preserve">3966.30</t>
+          <t xml:space="preserve">3812.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">746.20</t>
+          <t xml:space="preserve">2267.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I39">
         <is>
-          <t xml:space="preserve">746.20</t>
+          <t xml:space="preserve">2267.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J39">
@@ -1980,12 +1980,12 @@
       </c>
       <c s="8" t="inlineStr" r="K39">
         <is>
-          <t xml:space="preserve">746.20</t>
+          <t xml:space="preserve">2267.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L39">
         <is>
-          <t xml:space="preserve">2931.60</t>
+          <t xml:space="preserve">3185.82</t>
         </is>
       </c>
     </row>
@@ -2004,23 +2004,23 @@
       </c>
       <c s="8" t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">590.60</t>
+          <t xml:space="preserve">2260.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F40"/>
       <c s="8" t="inlineStr" r="G40">
         <is>
-          <t xml:space="preserve">4689.70</t>
+          <t xml:space="preserve">3935.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">590.60</t>
+          <t xml:space="preserve">1997.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I40">
         <is>
-          <t xml:space="preserve">590.60</t>
+          <t xml:space="preserve">1997.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J40">
@@ -2030,12 +2030,12 @@
       </c>
       <c s="8" t="inlineStr" r="K40">
         <is>
-          <t xml:space="preserve">590.60</t>
+          <t xml:space="preserve">1997.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L40">
         <is>
-          <t xml:space="preserve">1499.85</t>
+          <t xml:space="preserve">2849.80</t>
         </is>
       </c>
     </row>
@@ -2050,23 +2050,23 @@
       </c>
       <c s="8" t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">531.60</t>
+          <t xml:space="preserve">2255.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F41"/>
       <c s="8" t="inlineStr" r="G41">
         <is>
-          <t xml:space="preserve">4734.80</t>
+          <t xml:space="preserve">3674.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">531.60</t>
+          <t xml:space="preserve">2064.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I41">
         <is>
-          <t xml:space="preserve">531.60</t>
+          <t xml:space="preserve">2064.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J41">
@@ -2076,12 +2076,12 @@
       </c>
       <c s="8" t="inlineStr" r="K41">
         <is>
-          <t xml:space="preserve">531.60</t>
+          <t xml:space="preserve">2064.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L41">
         <is>
-          <t xml:space="preserve">1499.51</t>
+          <t xml:space="preserve">3186.85</t>
         </is>
       </c>
     </row>
@@ -2098,23 +2098,23 @@
       </c>
       <c s="8" t="inlineStr" r="E42">
         <is>
-          <t xml:space="preserve">865.90</t>
+          <t xml:space="preserve">2497.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F42"/>
       <c s="8" t="inlineStr" r="G42">
         <is>
-          <t xml:space="preserve">4427.20</t>
+          <t xml:space="preserve">3186.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H42">
         <is>
-          <t xml:space="preserve">761.80</t>
+          <t xml:space="preserve">1871.53</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I42">
         <is>
-          <t xml:space="preserve">761.80</t>
+          <t xml:space="preserve">1871.53</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J42">
@@ -2124,12 +2124,12 @@
       </c>
       <c s="8" t="inlineStr" r="K42">
         <is>
-          <t xml:space="preserve">761.80</t>
+          <t xml:space="preserve">1871.53</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L42">
         <is>
-          <t xml:space="preserve">1999.44</t>
+          <t xml:space="preserve">3250.51</t>
         </is>
       </c>
     </row>
@@ -2144,23 +2144,23 @@
       </c>
       <c s="8" t="inlineStr" r="E43">
         <is>
-          <t xml:space="preserve">936.40</t>
+          <t xml:space="preserve">2455.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F43"/>
       <c s="8" t="inlineStr" r="G43">
         <is>
-          <t xml:space="preserve">4008.80</t>
+          <t xml:space="preserve">3098.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H43">
         <is>
-          <t xml:space="preserve">687.60</t>
+          <t xml:space="preserve">1816.13</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I43">
         <is>
-          <t xml:space="preserve">687.60</t>
+          <t xml:space="preserve">1816.13</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J43">
@@ -2170,12 +2170,12 @@
       </c>
       <c s="8" t="inlineStr" r="K43">
         <is>
-          <t xml:space="preserve">687.60</t>
+          <t xml:space="preserve">1816.13</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L43">
         <is>
-          <t xml:space="preserve">2800.14</t>
+          <t xml:space="preserve">3250.57</t>
         </is>
       </c>
     </row>
@@ -2194,23 +2194,23 @@
       </c>
       <c s="8" t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">989.80</t>
+          <t xml:space="preserve">1872.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F44"/>
       <c s="8" t="inlineStr" r="G44">
         <is>
-          <t xml:space="preserve">3973.30</t>
+          <t xml:space="preserve">2991.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H44">
         <is>
-          <t xml:space="preserve">732.70</t>
+          <t xml:space="preserve">1553.16</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I44">
         <is>
-          <t xml:space="preserve">732.70</t>
+          <t xml:space="preserve">1553.16</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J44">
@@ -2220,12 +2220,12 @@
       </c>
       <c s="8" t="inlineStr" r="K44">
         <is>
-          <t xml:space="preserve">732.70</t>
+          <t xml:space="preserve">1553.16</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L44">
         <is>
-          <t xml:space="preserve">2150.57</t>
+          <t xml:space="preserve">2950.48</t>
         </is>
       </c>
     </row>
@@ -2240,23 +2240,23 @@
       </c>
       <c s="8" t="inlineStr" r="E45">
         <is>
-          <t xml:space="preserve">1100.70</t>
+          <t xml:space="preserve">1658.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F45"/>
       <c s="8" t="inlineStr" r="G45">
         <is>
-          <t xml:space="preserve">4172.20</t>
+          <t xml:space="preserve">3012.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">619.70</t>
+          <t xml:space="preserve">1454.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I45">
         <is>
-          <t xml:space="preserve">619.70</t>
+          <t xml:space="preserve">1454.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J45">
@@ -2266,12 +2266,12 @@
       </c>
       <c s="8" t="inlineStr" r="K45">
         <is>
-          <t xml:space="preserve">619.70</t>
+          <t xml:space="preserve">1454.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L45">
         <is>
-          <t xml:space="preserve">2910.88</t>
+          <t xml:space="preserve">2797.65</t>
         </is>
       </c>
     </row>
@@ -2288,23 +2288,23 @@
       </c>
       <c s="8" t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">1482.40</t>
+          <t xml:space="preserve">1191.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F46"/>
       <c s="8" t="inlineStr" r="G46">
         <is>
-          <t xml:space="preserve">4524.90</t>
+          <t xml:space="preserve">2851.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">1146.30</t>
+          <t xml:space="preserve">1081.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I46">
         <is>
-          <t xml:space="preserve">1146.30</t>
+          <t xml:space="preserve">1081.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J46">
@@ -2314,12 +2314,12 @@
       </c>
       <c s="8" t="inlineStr" r="K46">
         <is>
-          <t xml:space="preserve">1146.30</t>
+          <t xml:space="preserve">1081.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L46">
         <is>
-          <t xml:space="preserve">2910.28</t>
+          <t xml:space="preserve">1999.93</t>
         </is>
       </c>
     </row>
@@ -2334,23 +2334,23 @@
       </c>
       <c s="8" t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">1222.70</t>
+          <t xml:space="preserve">1320.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F47"/>
       <c s="8" t="inlineStr" r="G47">
         <is>
-          <t xml:space="preserve">4520.50</t>
+          <t xml:space="preserve">2883.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">950.20</t>
+          <t xml:space="preserve">1193.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I47">
         <is>
-          <t xml:space="preserve">950.20</t>
+          <t xml:space="preserve">1193.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J47">
@@ -2360,12 +2360,12 @@
       </c>
       <c s="8" t="inlineStr" r="K47">
         <is>
-          <t xml:space="preserve">950.20</t>
+          <t xml:space="preserve">1193.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L47">
         <is>
-          <t xml:space="preserve">2794.00</t>
+          <t xml:space="preserve">2300.81</t>
         </is>
       </c>
     </row>
@@ -2384,23 +2384,23 @@
       </c>
       <c s="8" t="inlineStr" r="E48">
         <is>
-          <t xml:space="preserve">1223.90</t>
+          <t xml:space="preserve">2454.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F48"/>
       <c s="8" t="inlineStr" r="G48">
         <is>
-          <t xml:space="preserve">4273.70</t>
+          <t xml:space="preserve">2649.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H48">
         <is>
-          <t xml:space="preserve">817.40</t>
+          <t xml:space="preserve">1586.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I48">
         <is>
-          <t xml:space="preserve">817.40</t>
+          <t xml:space="preserve">1586.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J48">
@@ -2410,12 +2410,12 @@
       </c>
       <c s="8" t="inlineStr" r="K48">
         <is>
-          <t xml:space="preserve">817.40</t>
+          <t xml:space="preserve">1586.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L48">
         <is>
-          <t xml:space="preserve">2819.59</t>
+          <t xml:space="preserve">3424.22</t>
         </is>
       </c>
     </row>
@@ -2430,23 +2430,23 @@
       </c>
       <c s="8" t="inlineStr" r="E49">
         <is>
-          <t xml:space="preserve">1331.90</t>
+          <t xml:space="preserve">2514.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F49"/>
       <c s="8" t="inlineStr" r="G49">
         <is>
-          <t xml:space="preserve">4424.90</t>
+          <t xml:space="preserve">2364.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H49">
         <is>
-          <t xml:space="preserve">925.40</t>
+          <t xml:space="preserve">1286.59</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I49">
         <is>
-          <t xml:space="preserve">925.40</t>
+          <t xml:space="preserve">1286.59</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J49">
@@ -2456,12 +2456,12 @@
       </c>
       <c s="8" t="inlineStr" r="K49">
         <is>
-          <t xml:space="preserve">925.40</t>
+          <t xml:space="preserve">1286.59</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L49">
         <is>
-          <t xml:space="preserve">2820.00</t>
+          <t xml:space="preserve">3506.36</t>
         </is>
       </c>
     </row>
@@ -2478,23 +2478,23 @@
       </c>
       <c s="8" t="inlineStr" r="E50">
         <is>
-          <t xml:space="preserve">1606.00</t>
+          <t xml:space="preserve">2424.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F50"/>
       <c s="8" t="inlineStr" r="G50">
         <is>
-          <t xml:space="preserve">4596.90</t>
+          <t xml:space="preserve">2766.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H50">
         <is>
-          <t xml:space="preserve">1204.40</t>
+          <t xml:space="preserve">1479.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I50">
         <is>
-          <t xml:space="preserve">1204.40</t>
+          <t xml:space="preserve">1479.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J50">
@@ -2504,12 +2504,12 @@
       </c>
       <c s="8" t="inlineStr" r="K50">
         <is>
-          <t xml:space="preserve">1204.40</t>
+          <t xml:space="preserve">1479.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L50">
         <is>
-          <t xml:space="preserve">2863.20</t>
+          <t xml:space="preserve">3500.69</t>
         </is>
       </c>
     </row>
@@ -2524,23 +2524,23 @@
       </c>
       <c s="8" t="inlineStr" r="E51">
         <is>
-          <t xml:space="preserve">1661.70</t>
+          <t xml:space="preserve">2318.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F51"/>
       <c s="8" t="inlineStr" r="G51">
         <is>
-          <t xml:space="preserve">4552.80</t>
+          <t xml:space="preserve">2806.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">1209.97</t>
+          <t xml:space="preserve">1514.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I51">
         <is>
-          <t xml:space="preserve">1209.97</t>
+          <t xml:space="preserve">1514.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J51">
@@ -2550,12 +2550,12 @@
       </c>
       <c s="8" t="inlineStr" r="K51">
         <is>
-          <t xml:space="preserve">1209.97</t>
+          <t xml:space="preserve">1514.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L51">
         <is>
-          <t xml:space="preserve">2960.35</t>
+          <t xml:space="preserve">3500.05</t>
         </is>
       </c>
     </row>
@@ -2574,23 +2574,23 @@
       </c>
       <c s="8" t="inlineStr" r="E52">
         <is>
-          <t xml:space="preserve">1562.50</t>
+          <t xml:space="preserve">2669.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F52"/>
       <c s="8" t="inlineStr" r="G52">
         <is>
-          <t xml:space="preserve">4448.10</t>
+          <t xml:space="preserve">2670.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H52">
         <is>
-          <t xml:space="preserve">1213.60</t>
+          <t xml:space="preserve">1626.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I52">
         <is>
-          <t xml:space="preserve">1213.60</t>
+          <t xml:space="preserve">1626.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J52">
@@ -2600,12 +2600,12 @@
       </c>
       <c s="8" t="inlineStr" r="K52">
         <is>
-          <t xml:space="preserve">1213.60</t>
+          <t xml:space="preserve">1626.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L52">
         <is>
-          <t xml:space="preserve">2969.51</t>
+          <t xml:space="preserve">3550.18</t>
         </is>
       </c>
     </row>
@@ -2620,23 +2620,23 @@
       </c>
       <c s="8" t="inlineStr" r="E53">
         <is>
-          <t xml:space="preserve">1341.50</t>
+          <t xml:space="preserve">2859.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F53"/>
       <c s="8" t="inlineStr" r="G53">
         <is>
-          <t xml:space="preserve">4397.70</t>
+          <t xml:space="preserve">2850.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H53">
         <is>
-          <t xml:space="preserve">1035.00</t>
+          <t xml:space="preserve">1789.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I53">
         <is>
-          <t xml:space="preserve">1035.00</t>
+          <t xml:space="preserve">1789.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J53">
@@ -2646,12 +2646,12 @@
       </c>
       <c s="8" t="inlineStr" r="K53">
         <is>
-          <t xml:space="preserve">1035.00</t>
+          <t xml:space="preserve">1789.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L53">
         <is>
-          <t xml:space="preserve">2819.42</t>
+          <t xml:space="preserve">3550.26</t>
         </is>
       </c>
     </row>
@@ -2668,23 +2668,23 @@
       </c>
       <c s="8" t="inlineStr" r="E54">
         <is>
-          <t xml:space="preserve">1788.80</t>
+          <t xml:space="preserve">2775.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F54"/>
       <c s="8" t="inlineStr" r="G54">
         <is>
-          <t xml:space="preserve">5445.80</t>
+          <t xml:space="preserve">2680.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">1563.10</t>
+          <t xml:space="preserve">1721.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I54">
         <is>
-          <t xml:space="preserve">1563.10</t>
+          <t xml:space="preserve">1721.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J54">
@@ -2694,12 +2694,12 @@
       </c>
       <c s="8" t="inlineStr" r="K54">
         <is>
-          <t xml:space="preserve">1563.10</t>
+          <t xml:space="preserve">1721.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L54">
         <is>
-          <t xml:space="preserve">2748.92</t>
+          <t xml:space="preserve">3550.79</t>
         </is>
       </c>
     </row>
@@ -2714,23 +2714,23 @@
       </c>
       <c s="8" t="inlineStr" r="E55">
         <is>
-          <t xml:space="preserve">1395.20</t>
+          <t xml:space="preserve">2839.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F55"/>
       <c s="8" t="inlineStr" r="G55">
         <is>
-          <t xml:space="preserve">5400.80</t>
+          <t xml:space="preserve">2597.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">1210.40</t>
+          <t xml:space="preserve">1684.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I55">
         <is>
-          <t xml:space="preserve">1210.40</t>
+          <t xml:space="preserve">1684.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J55">
@@ -2740,12 +2740,12 @@
       </c>
       <c s="8" t="inlineStr" r="K55">
         <is>
-          <t xml:space="preserve">1210.40</t>
+          <t xml:space="preserve">1684.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L55">
         <is>
-          <t xml:space="preserve">2699.86</t>
+          <t xml:space="preserve">3800.77</t>
         </is>
       </c>
     </row>
@@ -2764,23 +2764,23 @@
       </c>
       <c s="8" t="inlineStr" r="E56">
         <is>
-          <t xml:space="preserve">1927.00</t>
+          <t xml:space="preserve">2666.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F56"/>
       <c s="8" t="inlineStr" r="G56">
         <is>
-          <t xml:space="preserve">5321.80</t>
+          <t xml:space="preserve">3531.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H56">
         <is>
-          <t xml:space="preserve">1706.60</t>
+          <t xml:space="preserve">2036.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I56">
         <is>
-          <t xml:space="preserve">1706.60</t>
+          <t xml:space="preserve">2036.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J56">
@@ -2790,12 +2790,12 @@
       </c>
       <c s="8" t="inlineStr" r="K56">
         <is>
-          <t xml:space="preserve">1706.60</t>
+          <t xml:space="preserve">2036.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L56">
         <is>
-          <t xml:space="preserve">2819.08</t>
+          <t xml:space="preserve">3350.86</t>
         </is>
       </c>
     </row>
@@ -2810,23 +2810,23 @@
       </c>
       <c s="8" t="inlineStr" r="E57">
         <is>
-          <t xml:space="preserve">1955.10</t>
+          <t xml:space="preserve">2553.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F57"/>
       <c s="8" t="inlineStr" r="G57">
         <is>
-          <t xml:space="preserve">5272.80</t>
+          <t xml:space="preserve">3727.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">1734.70</t>
+          <t xml:space="preserve">2017.13</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I57">
         <is>
-          <t xml:space="preserve">1734.70</t>
+          <t xml:space="preserve">2017.13</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J57">
@@ -2836,12 +2836,12 @@
       </c>
       <c s="8" t="inlineStr" r="K57">
         <is>
-          <t xml:space="preserve">1734.70</t>
+          <t xml:space="preserve">2017.13</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L57">
         <is>
-          <t xml:space="preserve">2864.60</t>
+          <t xml:space="preserve">3245.39</t>
         </is>
       </c>
     </row>
@@ -2858,23 +2858,23 @@
       </c>
       <c s="8" t="inlineStr" r="E58">
         <is>
-          <t xml:space="preserve">2235.00</t>
+          <t xml:space="preserve">1908.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F58"/>
       <c s="8" t="inlineStr" r="G58">
         <is>
-          <t xml:space="preserve">5389.00</t>
+          <t xml:space="preserve">4727.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">2037.30</t>
+          <t xml:space="preserve">1591.08</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I58">
         <is>
-          <t xml:space="preserve">2037.30</t>
+          <t xml:space="preserve">1591.08</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J58">
@@ -2884,12 +2884,12 @@
       </c>
       <c s="8" t="inlineStr" r="K58">
         <is>
-          <t xml:space="preserve">2037.30</t>
+          <t xml:space="preserve">1591.08</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L58">
         <is>
-          <t xml:space="preserve">2969.31</t>
+          <t xml:space="preserve">2739.48</t>
         </is>
       </c>
     </row>
@@ -2904,23 +2904,23 @@
       </c>
       <c s="8" t="inlineStr" r="E59">
         <is>
-          <t xml:space="preserve">2083.00</t>
+          <t xml:space="preserve">1868.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F59"/>
       <c s="8" t="inlineStr" r="G59">
         <is>
-          <t xml:space="preserve">5473.50</t>
+          <t xml:space="preserve">4917.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H59">
         <is>
-          <t xml:space="preserve">1893.70</t>
+          <t xml:space="preserve">1551.09</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I59">
         <is>
-          <t xml:space="preserve">1893.70</t>
+          <t xml:space="preserve">1551.09</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J59">
@@ -2930,12 +2930,12 @@
       </c>
       <c s="8" t="inlineStr" r="K59">
         <is>
-          <t xml:space="preserve">1893.70</t>
+          <t xml:space="preserve">1551.09</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L59">
         <is>
-          <t xml:space="preserve">2819.70</t>
+          <t xml:space="preserve">2739.27</t>
         </is>
       </c>
     </row>
@@ -2954,23 +2954,23 @@
       </c>
       <c s="8" t="inlineStr" r="E60">
         <is>
-          <t xml:space="preserve">1947.50</t>
+          <t xml:space="preserve">2364.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F60"/>
       <c s="8" t="inlineStr" r="G60">
         <is>
-          <t xml:space="preserve">6349.20</t>
+          <t xml:space="preserve">4343.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">1781.40</t>
+          <t xml:space="preserve">1863.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I60">
         <is>
-          <t xml:space="preserve">1781.40</t>
+          <t xml:space="preserve">1863.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J60">
@@ -2980,12 +2980,12 @@
       </c>
       <c s="8" t="inlineStr" r="K60">
         <is>
-          <t xml:space="preserve">1781.40</t>
+          <t xml:space="preserve">1863.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L60">
         <is>
-          <t xml:space="preserve">2551.53</t>
+          <t xml:space="preserve">2574.10</t>
         </is>
       </c>
     </row>
@@ -3000,23 +3000,23 @@
       </c>
       <c s="8" t="inlineStr" r="E61">
         <is>
-          <t xml:space="preserve">1874.40</t>
+          <t xml:space="preserve">2212.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F61"/>
       <c s="8" t="inlineStr" r="G61">
         <is>
-          <t xml:space="preserve">6559.00</t>
+          <t xml:space="preserve">3978.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H61">
         <is>
-          <t xml:space="preserve">1708.30</t>
+          <t xml:space="preserve">1888.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I61">
         <is>
-          <t xml:space="preserve">1708.30</t>
+          <t xml:space="preserve">1888.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J61">
@@ -3026,12 +3026,12 @@
       </c>
       <c s="8" t="inlineStr" r="K61">
         <is>
-          <t xml:space="preserve">1708.30</t>
+          <t xml:space="preserve">1888.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L61">
         <is>
-          <t xml:space="preserve">2574.11</t>
+          <t xml:space="preserve">2797.49</t>
         </is>
       </c>
     </row>
@@ -3048,23 +3048,23 @@
       </c>
       <c s="8" t="inlineStr" r="E62">
         <is>
-          <t xml:space="preserve">2539.20</t>
+          <t xml:space="preserve">2714.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F62"/>
       <c s="8" t="inlineStr" r="G62">
         <is>
-          <t xml:space="preserve">6583.30</t>
+          <t xml:space="preserve">4088.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H62">
         <is>
-          <t xml:space="preserve">2361.40</t>
+          <t xml:space="preserve">2190.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I62">
         <is>
-          <t xml:space="preserve">2361.40</t>
+          <t xml:space="preserve">2190.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J62">
@@ -3074,12 +3074,12 @@
       </c>
       <c s="8" t="inlineStr" r="K62">
         <is>
-          <t xml:space="preserve">2361.40</t>
+          <t xml:space="preserve">2190.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L62">
         <is>
-          <t xml:space="preserve">2551.91</t>
+          <t xml:space="preserve">2739.87</t>
         </is>
       </c>
     </row>
@@ -3094,23 +3094,23 @@
       </c>
       <c s="8" t="inlineStr" r="E63">
         <is>
-          <t xml:space="preserve">2535.40</t>
+          <t xml:space="preserve">2853.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F63"/>
       <c s="8" t="inlineStr" r="G63">
         <is>
-          <t xml:space="preserve">6509.80</t>
+          <t xml:space="preserve">4055.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">2357.60</t>
+          <t xml:space="preserve">2226.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I63">
         <is>
-          <t xml:space="preserve">2357.60</t>
+          <t xml:space="preserve">2226.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J63">
@@ -3120,12 +3120,12 @@
       </c>
       <c s="8" t="inlineStr" r="K63">
         <is>
-          <t xml:space="preserve">2357.60</t>
+          <t xml:space="preserve">2226.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L63">
         <is>
-          <t xml:space="preserve">2551.90</t>
+          <t xml:space="preserve">2800.96</t>
         </is>
       </c>
     </row>
@@ -3144,23 +3144,23 @@
       </c>
       <c s="8" t="inlineStr" r="E64">
         <is>
-          <t xml:space="preserve">2888.90</t>
+          <t xml:space="preserve">2279.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F64"/>
       <c s="8" t="inlineStr" r="G64">
         <is>
-          <t xml:space="preserve">6131.40</t>
+          <t xml:space="preserve">4569.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">2686.70</t>
+          <t xml:space="preserve">2128.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I64">
         <is>
-          <t xml:space="preserve">2686.70</t>
+          <t xml:space="preserve">2128.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J64">
@@ -3170,12 +3170,12 @@
       </c>
       <c s="8" t="inlineStr" r="K64">
         <is>
-          <t xml:space="preserve">2686.70</t>
+          <t xml:space="preserve">2128.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L64">
         <is>
-          <t xml:space="preserve">2796.60</t>
+          <t xml:space="preserve">2487.36</t>
         </is>
       </c>
     </row>
@@ -3190,23 +3190,23 @@
       </c>
       <c s="8" t="inlineStr" r="E65">
         <is>
-          <t xml:space="preserve">2774.20</t>
+          <t xml:space="preserve">2245.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F65"/>
       <c s="8" t="inlineStr" r="G65">
         <is>
-          <t xml:space="preserve">5547.00</t>
+          <t xml:space="preserve">4126.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H65">
         <is>
-          <t xml:space="preserve">2518.40</t>
+          <t xml:space="preserve">2094.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I65">
         <is>
-          <t xml:space="preserve">2518.40</t>
+          <t xml:space="preserve">2094.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J65">
@@ -3216,12 +3216,12 @@
       </c>
       <c s="8" t="inlineStr" r="K65">
         <is>
-          <t xml:space="preserve">2518.40</t>
+          <t xml:space="preserve">2094.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L65">
         <is>
-          <t xml:space="preserve">3166.72</t>
+          <t xml:space="preserve">2496.38</t>
         </is>
       </c>
     </row>
@@ -3238,23 +3238,23 @@
       </c>
       <c s="8" t="inlineStr" r="E66">
         <is>
-          <t xml:space="preserve">3345.90</t>
+          <t xml:space="preserve">3177.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F66"/>
       <c s="8" t="inlineStr" r="G66">
         <is>
-          <t xml:space="preserve">6598.40</t>
+          <t xml:space="preserve">4269.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">3113.00</t>
+          <t xml:space="preserve">2516.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I66">
         <is>
-          <t xml:space="preserve">3113.00</t>
+          <t xml:space="preserve">2516.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J66">
@@ -3264,12 +3264,12 @@
       </c>
       <c s="8" t="inlineStr" r="K66">
         <is>
-          <t xml:space="preserve">3113.00</t>
+          <t xml:space="preserve">2516.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L66">
         <is>
-          <t xml:space="preserve">2819.52</t>
+          <t xml:space="preserve">2797.94</t>
         </is>
       </c>
     </row>
@@ -3284,23 +3284,23 @@
       </c>
       <c s="8" t="inlineStr" r="E67">
         <is>
-          <t xml:space="preserve">3130.80</t>
+          <t xml:space="preserve">3586.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F67"/>
       <c s="8" t="inlineStr" r="G67">
         <is>
-          <t xml:space="preserve">6654.10</t>
+          <t xml:space="preserve">4026.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H67">
         <is>
-          <t xml:space="preserve">2903.50</t>
+          <t xml:space="preserve">2401.47</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I67">
         <is>
-          <t xml:space="preserve">2903.50</t>
+          <t xml:space="preserve">2401.47</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J67">
@@ -3310,12 +3310,12 @@
       </c>
       <c s="8" t="inlineStr" r="K67">
         <is>
-          <t xml:space="preserve">2903.50</t>
+          <t xml:space="preserve">2401.47</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L67">
         <is>
-          <t xml:space="preserve">2789.45</t>
+          <t xml:space="preserve">2970.69</t>
         </is>
       </c>
     </row>
@@ -3334,23 +3334,23 @@
       </c>
       <c s="8" t="inlineStr" r="E68">
         <is>
-          <t xml:space="preserve">2985.30</t>
+          <t xml:space="preserve">3659.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F68"/>
       <c s="8" t="inlineStr" r="G68">
         <is>
-          <t xml:space="preserve">5499.10</t>
+          <t xml:space="preserve">4525.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">2626.10</t>
+          <t xml:space="preserve">2801.48</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I68">
         <is>
-          <t xml:space="preserve">2626.10</t>
+          <t xml:space="preserve">2801.48</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J68">
@@ -3360,12 +3360,12 @@
       </c>
       <c s="8" t="inlineStr" r="K68">
         <is>
-          <t xml:space="preserve">2626.10</t>
+          <t xml:space="preserve">2801.48</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L68">
         <is>
-          <t xml:space="preserve">2993.63</t>
+          <t xml:space="preserve">3000.54</t>
         </is>
       </c>
     </row>
@@ -3380,23 +3380,23 @@
       </c>
       <c s="8" t="inlineStr" r="E69">
         <is>
-          <t xml:space="preserve">2765.30</t>
+          <t xml:space="preserve">3073.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F69"/>
       <c s="8" t="inlineStr" r="G69">
         <is>
-          <t xml:space="preserve">5536.90</t>
+          <t xml:space="preserve">4459.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H69">
         <is>
-          <t xml:space="preserve">2406.10</t>
+          <t xml:space="preserve">2666.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I69">
         <is>
-          <t xml:space="preserve">2406.10</t>
+          <t xml:space="preserve">2666.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J69">
@@ -3406,12 +3406,12 @@
       </c>
       <c s="8" t="inlineStr" r="K69">
         <is>
-          <t xml:space="preserve">2406.10</t>
+          <t xml:space="preserve">2666.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L69">
         <is>
-          <t xml:space="preserve">2969.65</t>
+          <t xml:space="preserve">2854.11</t>
         </is>
       </c>
     </row>
@@ -3428,23 +3428,23 @@
       </c>
       <c s="8" t="inlineStr" r="E70">
         <is>
-          <t xml:space="preserve">2876.40</t>
+          <t xml:space="preserve">3731.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F70"/>
       <c s="8" t="inlineStr" r="G70">
         <is>
-          <t xml:space="preserve">5114.70</t>
+          <t xml:space="preserve">3891.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">2517.20</t>
+          <t xml:space="preserve">2518.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I70">
         <is>
-          <t xml:space="preserve">2517.20</t>
+          <t xml:space="preserve">2518.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J70">
@@ -3454,12 +3454,12 @@
       </c>
       <c s="8" t="inlineStr" r="K70">
         <is>
-          <t xml:space="preserve">2517.20</t>
+          <t xml:space="preserve">2518.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L70">
         <is>
-          <t xml:space="preserve">2969.27</t>
+          <t xml:space="preserve">3305.97</t>
         </is>
       </c>
     </row>
@@ -3474,23 +3474,23 @@
       </c>
       <c s="8" t="inlineStr" r="E71">
         <is>
-          <t xml:space="preserve">2976.40</t>
+          <t xml:space="preserve">3401.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F71"/>
       <c s="8" t="inlineStr" r="G71">
         <is>
-          <t xml:space="preserve">5020.50</t>
+          <t xml:space="preserve">4083.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">2608.54</t>
+          <t xml:space="preserve">2518.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I71">
         <is>
-          <t xml:space="preserve">2608.54</t>
+          <t xml:space="preserve">2518.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J71">
@@ -3500,12 +3500,12 @@
       </c>
       <c s="8" t="inlineStr" r="K71">
         <is>
-          <t xml:space="preserve">2608.54</t>
+          <t xml:space="preserve">2518.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L71">
         <is>
-          <t xml:space="preserve">3000.05</t>
+          <t xml:space="preserve">3166.16</t>
         </is>
       </c>
     </row>
@@ -3524,23 +3524,23 @@
       </c>
       <c s="8" t="inlineStr" r="E72">
         <is>
-          <t xml:space="preserve">3530.00</t>
+          <t xml:space="preserve">3146.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F72"/>
       <c s="8" t="inlineStr" r="G72">
         <is>
-          <t xml:space="preserve">5076.60</t>
+          <t xml:space="preserve">3618.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">3017.38</t>
+          <t xml:space="preserve">2363.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I72">
         <is>
-          <t xml:space="preserve">3017.38</t>
+          <t xml:space="preserve">2363.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J72">
@@ -3550,12 +3550,12 @@
       </c>
       <c s="8" t="inlineStr" r="K72">
         <is>
-          <t xml:space="preserve">3017.38</t>
+          <t xml:space="preserve">2363.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L72">
         <is>
-          <t xml:space="preserve">3168.66</t>
+          <t xml:space="preserve">3320.60</t>
         </is>
       </c>
     </row>
@@ -3570,23 +3570,23 @@
       </c>
       <c s="8" t="inlineStr" r="E73">
         <is>
-          <t xml:space="preserve">3344.00</t>
+          <t xml:space="preserve">3340.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F73"/>
       <c s="8" t="inlineStr" r="G73">
         <is>
-          <t xml:space="preserve">4838.50</t>
+          <t xml:space="preserve">3401.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">2831.38</t>
+          <t xml:space="preserve">2211.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I73">
         <is>
-          <t xml:space="preserve">2831.38</t>
+          <t xml:space="preserve">2211.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J73">
@@ -3596,12 +3596,12 @@
       </c>
       <c s="8" t="inlineStr" r="K73">
         <is>
-          <t xml:space="preserve">2831.38</t>
+          <t xml:space="preserve">2211.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L73">
         <is>
-          <t xml:space="preserve">3168.66</t>
+          <t xml:space="preserve">3425.90</t>
         </is>
       </c>
     </row>
@@ -3618,23 +3618,23 @@
       </c>
       <c s="8" t="inlineStr" r="E74">
         <is>
-          <t xml:space="preserve">3877.50</t>
+          <t xml:space="preserve">3586.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F74"/>
       <c s="8" t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">5460.10</t>
+          <t xml:space="preserve">3302.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">3339.97</t>
+          <t xml:space="preserve">2199.26</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I74">
         <is>
-          <t xml:space="preserve">3339.97</t>
+          <t xml:space="preserve">2199.26</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J74">
@@ -3644,12 +3644,12 @@
       </c>
       <c s="8" t="inlineStr" r="K74">
         <is>
-          <t xml:space="preserve">3339.97</t>
+          <t xml:space="preserve">2199.26</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L74">
         <is>
-          <t xml:space="preserve">3099.32</t>
+          <t xml:space="preserve">3550.56</t>
         </is>
       </c>
     </row>
@@ -3664,23 +3664,23 @@
       </c>
       <c s="8" t="inlineStr" r="E75">
         <is>
-          <t xml:space="preserve">3352.50</t>
+          <t xml:space="preserve">3631.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F75"/>
       <c s="8" t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">5274.40</t>
+          <t xml:space="preserve">3373.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">2822.48</t>
+          <t xml:space="preserve">2189.81</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I75">
         <is>
-          <t xml:space="preserve">2822.48</t>
+          <t xml:space="preserve">2189.81</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J75">
@@ -3690,12 +3690,12 @@
       </c>
       <c s="8" t="inlineStr" r="K75">
         <is>
-          <t xml:space="preserve">2822.48</t>
+          <t xml:space="preserve">2189.81</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L75">
         <is>
-          <t xml:space="preserve">3069.28</t>
+          <t xml:space="preserve">3500.81</t>
         </is>
       </c>
     </row>
@@ -3714,23 +3714,23 @@
       </c>
       <c s="8" t="inlineStr" r="E76">
         <is>
-          <t xml:space="preserve">2944.80</t>
+          <t xml:space="preserve">2965.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F76"/>
       <c s="8" t="inlineStr" r="G76">
         <is>
-          <t xml:space="preserve">6389.10</t>
+          <t xml:space="preserve">3032.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">2736.97</t>
+          <t xml:space="preserve">1993.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I76">
         <is>
-          <t xml:space="preserve">2736.97</t>
+          <t xml:space="preserve">1993.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J76">
@@ -3740,12 +3740,12 @@
       </c>
       <c s="8" t="inlineStr" r="K76">
         <is>
-          <t xml:space="preserve">2736.97</t>
+          <t xml:space="preserve">1993.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L76">
         <is>
-          <t xml:space="preserve">2799.09</t>
+          <t xml:space="preserve">3502.05</t>
         </is>
       </c>
     </row>
@@ -3760,23 +3760,23 @@
       </c>
       <c s="8" t="inlineStr" r="E77">
         <is>
-          <t xml:space="preserve">3061.20</t>
+          <t xml:space="preserve">2951.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F77"/>
       <c s="8" t="inlineStr" r="G77">
         <is>
-          <t xml:space="preserve">6032.40</t>
+          <t xml:space="preserve">2935.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H77">
         <is>
-          <t xml:space="preserve">2699.83</t>
+          <t xml:space="preserve">1961.11</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I77">
         <is>
-          <t xml:space="preserve">2699.83</t>
+          <t xml:space="preserve">1961.11</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J77">
@@ -3786,12 +3786,12 @@
       </c>
       <c s="8" t="inlineStr" r="K77">
         <is>
-          <t xml:space="preserve">2699.83</t>
+          <t xml:space="preserve">1961.11</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L77">
         <is>
-          <t xml:space="preserve">2993.87</t>
+          <t xml:space="preserve">3549.89</t>
         </is>
       </c>
     </row>
@@ -3808,23 +3808,23 @@
       </c>
       <c s="8" t="inlineStr" r="E78">
         <is>
-          <t xml:space="preserve">3099.20</t>
+          <t xml:space="preserve">2427.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F78"/>
       <c s="8" t="inlineStr" r="G78">
         <is>
-          <t xml:space="preserve">5516.70</t>
+          <t xml:space="preserve">3581.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H78">
         <is>
-          <t xml:space="preserve">2633.87</t>
+          <t xml:space="preserve">1779.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I78">
         <is>
-          <t xml:space="preserve">2633.87</t>
+          <t xml:space="preserve">1779.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J78">
@@ -3834,12 +3834,12 @@
       </c>
       <c s="8" t="inlineStr" r="K78">
         <is>
-          <t xml:space="preserve">2633.87</t>
+          <t xml:space="preserve">1779.64</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L78">
         <is>
-          <t xml:space="preserve">3009.30</t>
+          <t xml:space="preserve">3245.65</t>
         </is>
       </c>
     </row>
@@ -3854,23 +3854,23 @@
       </c>
       <c s="8" t="inlineStr" r="E79">
         <is>
-          <t xml:space="preserve">3175.70</t>
+          <t xml:space="preserve">2475.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F79"/>
       <c s="8" t="inlineStr" r="G79">
         <is>
-          <t xml:space="preserve">5790.80</t>
+          <t xml:space="preserve">3466.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H79">
         <is>
-          <t xml:space="preserve">2760.54</t>
+          <t xml:space="preserve">1827.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I79">
         <is>
-          <t xml:space="preserve">2760.54</t>
+          <t xml:space="preserve">1827.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J79">
@@ -3880,12 +3880,12 @@
       </c>
       <c s="8" t="inlineStr" r="K79">
         <is>
-          <t xml:space="preserve">2760.54</t>
+          <t xml:space="preserve">1827.64</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L79">
         <is>
-          <t xml:space="preserve">2999.04</t>
+          <t xml:space="preserve">3245.88</t>
         </is>
       </c>
     </row>
@@ -3904,23 +3904,23 @@
       </c>
       <c s="8" t="inlineStr" r="E80">
         <is>
-          <t xml:space="preserve">3062.70</t>
+          <t xml:space="preserve">2021.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F80"/>
       <c s="8" t="inlineStr" r="G80">
         <is>
-          <t xml:space="preserve">6537.60</t>
+          <t xml:space="preserve">3413.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H80">
         <is>
-          <t xml:space="preserve">2799.05</t>
+          <t xml:space="preserve">1618.72</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I80">
         <is>
-          <t xml:space="preserve">2799.05</t>
+          <t xml:space="preserve">1618.72</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J80">
@@ -3930,12 +3930,12 @@
       </c>
       <c s="8" t="inlineStr" r="K80">
         <is>
-          <t xml:space="preserve">2799.05</t>
+          <t xml:space="preserve">1618.72</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L80">
         <is>
-          <t xml:space="preserve">2959.55</t>
+          <t xml:space="preserve">3245.42</t>
         </is>
       </c>
     </row>
@@ -3950,23 +3950,23 @@
       </c>
       <c s="8" t="inlineStr" r="E81">
         <is>
-          <t xml:space="preserve">3603.90</t>
+          <t xml:space="preserve">2160.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F81"/>
       <c s="8" t="inlineStr" r="G81">
         <is>
-          <t xml:space="preserve">6259.40</t>
+          <t xml:space="preserve">2721.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H81">
         <is>
-          <t xml:space="preserve">3340.24</t>
+          <t xml:space="preserve">1493.92</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I81">
         <is>
-          <t xml:space="preserve">3340.24</t>
+          <t xml:space="preserve">1493.92</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J81">
@@ -3976,12 +3976,12 @@
       </c>
       <c s="8" t="inlineStr" r="K81">
         <is>
-          <t xml:space="preserve">3340.24</t>
+          <t xml:space="preserve">1493.92</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L81">
         <is>
-          <t xml:space="preserve">2959.93</t>
+          <t xml:space="preserve">3422.91</t>
         </is>
       </c>
     </row>
@@ -3998,23 +3998,23 @@
       </c>
       <c s="8" t="inlineStr" r="E82">
         <is>
-          <t xml:space="preserve">3778.50</t>
+          <t xml:space="preserve">2190.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F82"/>
       <c s="8" t="inlineStr" r="G82">
         <is>
-          <t xml:space="preserve">4834.20</t>
+          <t xml:space="preserve">2210.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H82">
         <is>
-          <t xml:space="preserve">3348.16</t>
+          <t xml:space="preserve">1275.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I82">
         <is>
-          <t xml:space="preserve">3348.15</t>
+          <t xml:space="preserve">1275.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J82">
@@ -4024,12 +4024,12 @@
       </c>
       <c s="8" t="inlineStr" r="K82">
         <is>
-          <t xml:space="preserve">3348.15</t>
+          <t xml:space="preserve">1275.64</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L82">
         <is>
-          <t xml:space="preserve">3548.19</t>
+          <t xml:space="preserve">4075.33</t>
         </is>
       </c>
     </row>
@@ -4044,23 +4044,23 @@
       </c>
       <c s="8" t="inlineStr" r="E83">
         <is>
-          <t xml:space="preserve">3305.10</t>
+          <t xml:space="preserve">2436.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F83"/>
       <c s="8" t="inlineStr" r="G83">
         <is>
-          <t xml:space="preserve">4565.90</t>
+          <t xml:space="preserve">2077.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H83">
         <is>
-          <t xml:space="preserve">2978.65</t>
+          <t xml:space="preserve">1241.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I83">
         <is>
-          <t xml:space="preserve">2978.65</t>
+          <t xml:space="preserve">1241.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J83">
@@ -4070,12 +4070,12 @@
       </c>
       <c s="8" t="inlineStr" r="K83">
         <is>
-          <t xml:space="preserve">2978.65</t>
+          <t xml:space="preserve">1241.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L83">
         <is>
-          <t xml:space="preserve">3420.80</t>
+          <t xml:space="preserve">4619.18</t>
         </is>
       </c>
     </row>
@@ -4094,23 +4094,23 @@
       </c>
       <c s="8" t="inlineStr" r="E84">
         <is>
-          <t xml:space="preserve">3804.00</t>
+          <t xml:space="preserve">2244.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F84"/>
       <c s="8" t="inlineStr" r="G84">
         <is>
-          <t xml:space="preserve">4931.60</t>
+          <t xml:space="preserve">1681.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H84">
         <is>
-          <t xml:space="preserve">3356.05</t>
+          <t xml:space="preserve">1037.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I84">
         <is>
-          <t xml:space="preserve">3356.05</t>
+          <t xml:space="preserve">1037.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J84">
@@ -4120,12 +4120,12 @@
       </c>
       <c s="8" t="inlineStr" r="K84">
         <is>
-          <t xml:space="preserve">3356.05</t>
+          <t xml:space="preserve">1037.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L84">
         <is>
-          <t xml:space="preserve">3599.01</t>
+          <t xml:space="preserve">4619.60</t>
         </is>
       </c>
     </row>
@@ -4140,23 +4140,23 @@
       </c>
       <c s="8" t="inlineStr" r="E85">
         <is>
-          <t xml:space="preserve">4201.70</t>
+          <t xml:space="preserve">2516.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F85"/>
       <c s="8" t="inlineStr" r="G85">
         <is>
-          <t xml:space="preserve">4800.40</t>
+          <t xml:space="preserve">1636.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H85">
         <is>
-          <t xml:space="preserve">3638.85</t>
+          <t xml:space="preserve">1279.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I85">
         <is>
-          <t xml:space="preserve">3638.85</t>
+          <t xml:space="preserve">1279.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J85">
@@ -4166,12 +4166,12 @@
       </c>
       <c s="8" t="inlineStr" r="K85">
         <is>
-          <t xml:space="preserve">3638.85</t>
+          <t xml:space="preserve">1279.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L85">
         <is>
-          <t xml:space="preserve">3919.70</t>
+          <t xml:space="preserve">4999.44</t>
         </is>
       </c>
     </row>
@@ -4188,23 +4188,23 @@
       </c>
       <c s="8" t="inlineStr" r="E86">
         <is>
-          <t xml:space="preserve">3949.80</t>
+          <t xml:space="preserve">2503.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F86"/>
       <c s="8" t="inlineStr" r="G86">
         <is>
-          <t xml:space="preserve">5132.70</t>
+          <t xml:space="preserve">1871.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H86">
         <is>
-          <t xml:space="preserve">3601.27</t>
+          <t xml:space="preserve">1003.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I86">
         <is>
-          <t xml:space="preserve">3601.27</t>
+          <t xml:space="preserve">1003.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J86">
@@ -4214,12 +4214,12 @@
       </c>
       <c s="8" t="inlineStr" r="K86">
         <is>
-          <t xml:space="preserve">3601.27</t>
+          <t xml:space="preserve">1003.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L86">
         <is>
-          <t xml:space="preserve">3422.50</t>
+          <t xml:space="preserve">4500.97</t>
         </is>
       </c>
     </row>
@@ -4234,23 +4234,23 @@
       </c>
       <c s="8" t="inlineStr" r="E87">
         <is>
-          <t xml:space="preserve">3997.80</t>
+          <t xml:space="preserve">2396.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F87"/>
       <c s="8" t="inlineStr" r="G87">
         <is>
-          <t xml:space="preserve">5448.70</t>
+          <t xml:space="preserve">1870.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H87">
         <is>
-          <t xml:space="preserve">3700.65</t>
+          <t xml:space="preserve">1002.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I87">
         <is>
-          <t xml:space="preserve">3700.65</t>
+          <t xml:space="preserve">1002.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J87">
@@ -4260,12 +4260,12 @@
       </c>
       <c s="8" t="inlineStr" r="K87">
         <is>
-          <t xml:space="preserve">3700.65</t>
+          <t xml:space="preserve">1002.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L87">
         <is>
-          <t xml:space="preserve">3289.30</t>
+          <t xml:space="preserve">3920.67</t>
         </is>
       </c>
     </row>
@@ -4284,23 +4284,23 @@
       </c>
       <c s="8" t="inlineStr" r="E88">
         <is>
-          <t xml:space="preserve">4320.60</t>
+          <t xml:space="preserve">2003.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F88"/>
       <c s="8" t="inlineStr" r="G88">
         <is>
-          <t xml:space="preserve">5495.50</t>
+          <t xml:space="preserve">1822.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H88">
         <is>
-          <t xml:space="preserve">3949.96</t>
+          <t xml:space="preserve">907.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I88">
         <is>
-          <t xml:space="preserve">3949.96</t>
+          <t xml:space="preserve">907.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J88">
@@ -4310,12 +4310,12 @@
       </c>
       <c s="8" t="inlineStr" r="K88">
         <is>
-          <t xml:space="preserve">3949.96</t>
+          <t xml:space="preserve">907.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L88">
         <is>
-          <t xml:space="preserve">3488.96</t>
+          <t xml:space="preserve">3718.86</t>
         </is>
       </c>
     </row>
@@ -4330,23 +4330,23 @@
       </c>
       <c s="8" t="inlineStr" r="E89">
         <is>
-          <t xml:space="preserve">4254.40</t>
+          <t xml:space="preserve">1953.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F89"/>
       <c s="8" t="inlineStr" r="G89">
         <is>
-          <t xml:space="preserve">5510.70</t>
+          <t xml:space="preserve">1848.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H89">
         <is>
-          <t xml:space="preserve">3901.42</t>
+          <t xml:space="preserve">863.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I89">
         <is>
-          <t xml:space="preserve">3901.42</t>
+          <t xml:space="preserve">863.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J89">
@@ -4356,12 +4356,12 @@
       </c>
       <c s="8" t="inlineStr" r="K89">
         <is>
-          <t xml:space="preserve">3901.42</t>
+          <t xml:space="preserve">863.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L89">
         <is>
-          <t xml:space="preserve">3450.63</t>
+          <t xml:space="preserve">3718.88</t>
         </is>
       </c>
     </row>
@@ -4378,23 +4378,23 @@
       </c>
       <c s="8" t="inlineStr" r="E90">
         <is>
-          <t xml:space="preserve">4551.30</t>
+          <t xml:space="preserve">2365.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F90"/>
       <c s="8" t="inlineStr" r="G90">
         <is>
-          <t xml:space="preserve">3818.80</t>
+          <t xml:space="preserve">1836.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H90">
         <is>
-          <t xml:space="preserve">3247.00</t>
+          <t xml:space="preserve">1053.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I90">
         <is>
-          <t xml:space="preserve">3247.01</t>
+          <t xml:space="preserve">1053.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J90">
@@ -4404,12 +4404,12 @@
       </c>
       <c s="8" t="inlineStr" r="K90">
         <is>
-          <t xml:space="preserve">3247.01</t>
+          <t xml:space="preserve">1053.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L90">
         <is>
-          <t xml:space="preserve">4500.53</t>
+          <t xml:space="preserve">4619.22</t>
         </is>
       </c>
     </row>
@@ -4424,23 +4424,23 @@
       </c>
       <c s="8" t="inlineStr" r="E91">
         <is>
-          <t xml:space="preserve">4450.20</t>
+          <t xml:space="preserve">2493.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F91"/>
       <c s="8" t="inlineStr" r="G91">
         <is>
-          <t xml:space="preserve">3533.40</t>
+          <t xml:space="preserve">1789.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H91">
         <is>
-          <t xml:space="preserve">3211.50</t>
+          <t xml:space="preserve">1176.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I91">
         <is>
-          <t xml:space="preserve">3211.51</t>
+          <t xml:space="preserve">1176.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J91">
@@ -4450,12 +4450,12 @@
       </c>
       <c s="8" t="inlineStr" r="K91">
         <is>
-          <t xml:space="preserve">3211.51</t>
+          <t xml:space="preserve">1176.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L91">
         <is>
-          <t xml:space="preserve">4500.52</t>
+          <t xml:space="preserve">4619.71</t>
         </is>
       </c>
     </row>
@@ -4474,23 +4474,23 @@
       </c>
       <c s="8" t="inlineStr" r="E92">
         <is>
-          <t xml:space="preserve">4809.10</t>
+          <t xml:space="preserve">2629.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F92"/>
       <c s="8" t="inlineStr" r="G92">
         <is>
-          <t xml:space="preserve">4228.60</t>
+          <t xml:space="preserve">2247.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H92">
         <is>
-          <t xml:space="preserve">3959.99</t>
+          <t xml:space="preserve">1396.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I92">
         <is>
-          <t xml:space="preserve">3959.98</t>
+          <t xml:space="preserve">1396.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J92">
@@ -4500,12 +4500,12 @@
       </c>
       <c s="8" t="inlineStr" r="K92">
         <is>
-          <t xml:space="preserve">3959.98</t>
+          <t xml:space="preserve">1396.64</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L92">
         <is>
-          <t xml:space="preserve">4111.01</t>
+          <t xml:space="preserve">3922.79</t>
         </is>
       </c>
     </row>
@@ -4520,23 +4520,23 @@
       </c>
       <c s="8" t="inlineStr" r="E93">
         <is>
-          <t xml:space="preserve">4467.20</t>
+          <t xml:space="preserve">2744.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F93"/>
       <c s="8" t="inlineStr" r="G93">
         <is>
-          <t xml:space="preserve">4696.80</t>
+          <t xml:space="preserve">2029.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H93">
         <is>
-          <t xml:space="preserve">3957.09</t>
+          <t xml:space="preserve">1524.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I93">
         <is>
-          <t xml:space="preserve">3957.09</t>
+          <t xml:space="preserve">1524.34</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J93">
@@ -4546,12 +4546,12 @@
       </c>
       <c s="8" t="inlineStr" r="K93">
         <is>
-          <t xml:space="preserve">3957.09</t>
+          <t xml:space="preserve">1524.34</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L93">
         <is>
-          <t xml:space="preserve">3527.64</t>
+          <t xml:space="preserve">3902.81</t>
         </is>
       </c>
     </row>
@@ -4568,23 +4568,23 @@
       </c>
       <c s="8" t="inlineStr" r="E94">
         <is>
-          <t xml:space="preserve">3778.10</t>
+          <t xml:space="preserve">2648.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F94"/>
       <c s="8" t="inlineStr" r="G94">
         <is>
-          <t xml:space="preserve">5051.40</t>
+          <t xml:space="preserve">1971.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H94">
         <is>
-          <t xml:space="preserve">3563.59</t>
+          <t xml:space="preserve">1467.15</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I94">
         <is>
-          <t xml:space="preserve">3563.59</t>
+          <t xml:space="preserve">1467.15</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J94">
@@ -4594,12 +4594,12 @@
       </c>
       <c s="8" t="inlineStr" r="K94">
         <is>
-          <t xml:space="preserve">3563.59</t>
+          <t xml:space="preserve">1467.15</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L94">
         <is>
-          <t xml:space="preserve">3185.57</t>
+          <t xml:space="preserve">4111.02</t>
         </is>
       </c>
     </row>
@@ -4614,23 +4614,23 @@
       </c>
       <c s="8" t="inlineStr" r="E95">
         <is>
-          <t xml:space="preserve">3990.10</t>
+          <t xml:space="preserve">2625.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F95"/>
       <c s="8" t="inlineStr" r="G95">
         <is>
-          <t xml:space="preserve">5084.70</t>
+          <t xml:space="preserve">2059.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H95">
         <is>
-          <t xml:space="preserve">3743.25</t>
+          <t xml:space="preserve">1543.63</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I95">
         <is>
-          <t xml:space="preserve">3743.25</t>
+          <t xml:space="preserve">1543.63</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J95">
@@ -4640,12 +4640,12 @@
       </c>
       <c s="8" t="inlineStr" r="K95">
         <is>
-          <t xml:space="preserve">3743.25</t>
+          <t xml:space="preserve">1543.63</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L95">
         <is>
-          <t xml:space="preserve">3376.53</t>
+          <t xml:space="preserve">3900.69</t>
         </is>
       </c>
     </row>
@@ -4664,23 +4664,23 @@
       </c>
       <c s="8" t="inlineStr" r="E96">
         <is>
-          <t xml:space="preserve">4385.40</t>
+          <t xml:space="preserve">3282.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F96"/>
       <c s="8" t="inlineStr" r="G96">
         <is>
-          <t xml:space="preserve">4065.30</t>
+          <t xml:space="preserve">1479.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H96">
         <is>
-          <t xml:space="preserve">3536.32</t>
+          <t xml:space="preserve">1201.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I96">
         <is>
-          <t xml:space="preserve">3536.32</t>
+          <t xml:space="preserve">1201.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J96">
@@ -4690,12 +4690,12 @@
       </c>
       <c s="8" t="inlineStr" r="K96">
         <is>
-          <t xml:space="preserve">3536.32</t>
+          <t xml:space="preserve">1201.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L96">
         <is>
-          <t xml:space="preserve">3898.27</t>
+          <t xml:space="preserve">5359.14</t>
         </is>
       </c>
     </row>
@@ -4710,23 +4710,23 @@
       </c>
       <c s="8" t="inlineStr" r="E97">
         <is>
-          <t xml:space="preserve">4289.80</t>
+          <t xml:space="preserve">3586.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F97"/>
       <c s="8" t="inlineStr" r="G97">
         <is>
-          <t xml:space="preserve">3839.50</t>
+          <t xml:space="preserve">1343.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H97">
         <is>
-          <t xml:space="preserve">3458.91</t>
+          <t xml:space="preserve">1176.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I97">
         <is>
-          <t xml:space="preserve">3458.91</t>
+          <t xml:space="preserve">1176.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J97">
@@ -4736,12 +4736,12 @@
       </c>
       <c s="8" t="inlineStr" r="K97">
         <is>
-          <t xml:space="preserve">3458.91</t>
+          <t xml:space="preserve">1176.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L97">
         <is>
-          <t xml:space="preserve">3900.11</t>
+          <t xml:space="preserve">5989.41</t>
         </is>
       </c>
     </row>
@@ -4758,23 +4758,23 @@
       </c>
       <c s="8" t="inlineStr" r="E98">
         <is>
-          <t xml:space="preserve">4006.40</t>
+          <t xml:space="preserve">3324.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F98"/>
       <c s="8" t="inlineStr" r="G98">
         <is>
-          <t xml:space="preserve">3737.40</t>
+          <t xml:space="preserve">1553.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H98">
         <is>
-          <t xml:space="preserve">3131.82</t>
+          <t xml:space="preserve">1440.17</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I98">
         <is>
-          <t xml:space="preserve">3131.82</t>
+          <t xml:space="preserve">1440.17</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J98">
@@ -4784,12 +4784,12 @@
       </c>
       <c s="8" t="inlineStr" r="K98">
         <is>
-          <t xml:space="preserve">3131.82</t>
+          <t xml:space="preserve">1440.17</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L98">
         <is>
-          <t xml:space="preserve">3773.55</t>
+          <t xml:space="preserve">6000.51</t>
         </is>
       </c>
     </row>
@@ -4804,23 +4804,23 @@
       </c>
       <c s="8" t="inlineStr" r="E99">
         <is>
-          <t xml:space="preserve">3955.70</t>
+          <t xml:space="preserve">3081.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F99"/>
       <c s="8" t="inlineStr" r="G99">
         <is>
-          <t xml:space="preserve">3592.10</t>
+          <t xml:space="preserve">1529.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H99">
         <is>
-          <t xml:space="preserve">3059.20</t>
+          <t xml:space="preserve">1416.47</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I99">
         <is>
-          <t xml:space="preserve">3059.20</t>
+          <t xml:space="preserve">1416.47</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J99">
@@ -4830,12 +4830,12 @@
       </c>
       <c s="8" t="inlineStr" r="K99">
         <is>
-          <t xml:space="preserve">3059.20</t>
+          <t xml:space="preserve">1416.47</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L99">
         <is>
-          <t xml:space="preserve">3898.27</t>
+          <t xml:space="preserve">6000.15</t>
         </is>
       </c>
     </row>
@@ -4854,23 +4854,23 @@
       </c>
       <c s="8" t="inlineStr" r="E100">
         <is>
-          <t xml:space="preserve">4059.80</t>
+          <t xml:space="preserve">3926.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F100"/>
       <c s="8" t="inlineStr" r="G100">
         <is>
-          <t xml:space="preserve">4391.40</t>
+          <t xml:space="preserve">1346.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H100">
         <is>
-          <t xml:space="preserve">3335.41</t>
+          <t xml:space="preserve">1326.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I100">
         <is>
-          <t xml:space="preserve">3335.41</t>
+          <t xml:space="preserve">1326.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J100">
@@ -4880,12 +4880,12 @@
       </c>
       <c s="8" t="inlineStr" r="K100">
         <is>
-          <t xml:space="preserve">3335.41</t>
+          <t xml:space="preserve">1326.60</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L100">
         <is>
-          <t xml:space="preserve">3488.34</t>
+          <t xml:space="preserve">6500.08</t>
         </is>
       </c>
     </row>
@@ -4900,23 +4900,23 @@
       </c>
       <c s="8" t="inlineStr" r="E101">
         <is>
-          <t xml:space="preserve">4001.80</t>
+          <t xml:space="preserve">3834.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F101"/>
       <c s="8" t="inlineStr" r="G101">
         <is>
-          <t xml:space="preserve">4160.40</t>
+          <t xml:space="preserve">1175.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H101">
         <is>
-          <t xml:space="preserve">3221.41</t>
+          <t xml:space="preserve">1155.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I101">
         <is>
-          <t xml:space="preserve">3221.41</t>
+          <t xml:space="preserve">1155.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J101">
@@ -4926,12 +4926,12 @@
       </c>
       <c s="8" t="inlineStr" r="K101">
         <is>
-          <t xml:space="preserve">3221.41</t>
+          <t xml:space="preserve">1155.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L101">
         <is>
-          <t xml:space="preserve">3599.07</t>
+          <t xml:space="preserve">7000.42</t>
         </is>
       </c>
     </row>
@@ -4948,23 +4948,23 @@
       </c>
       <c s="8" t="inlineStr" r="E102">
         <is>
-          <t xml:space="preserve">3877.80</t>
+          <t xml:space="preserve">3288.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F102"/>
       <c s="8" t="inlineStr" r="G102">
         <is>
-          <t xml:space="preserve">4134.40</t>
+          <t xml:space="preserve">1439.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H102">
         <is>
-          <t xml:space="preserve">3231.99</t>
+          <t xml:space="preserve">1313.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I102">
         <is>
-          <t xml:space="preserve">3231.99</t>
+          <t xml:space="preserve">1313.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J102">
@@ -4974,12 +4974,12 @@
       </c>
       <c s="8" t="inlineStr" r="K102">
         <is>
-          <t xml:space="preserve">3231.99</t>
+          <t xml:space="preserve">1313.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L102">
         <is>
-          <t xml:space="preserve">3424.87</t>
+          <t xml:space="preserve">5989.92</t>
         </is>
       </c>
     </row>
@@ -4994,23 +4994,23 @@
       </c>
       <c s="8" t="inlineStr" r="E103">
         <is>
-          <t xml:space="preserve">3822.80</t>
+          <t xml:space="preserve">3168.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F103"/>
       <c s="8" t="inlineStr" r="G103">
         <is>
-          <t xml:space="preserve">4158.00</t>
+          <t xml:space="preserve">1474.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H103">
         <is>
-          <t xml:space="preserve">3142.31</t>
+          <t xml:space="preserve">1259.53</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I103">
         <is>
-          <t xml:space="preserve">3142.31</t>
+          <t xml:space="preserve">1259.53</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J103">
@@ -5020,12 +5020,12 @@
       </c>
       <c s="8" t="inlineStr" r="K103">
         <is>
-          <t xml:space="preserve">3142.31</t>
+          <t xml:space="preserve">1259.53</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L103">
         <is>
-          <t xml:space="preserve">3400.34</t>
+          <t xml:space="preserve">5500.87</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
     <row r="107" ht="14.4" customHeight="0">
       <c s="5" t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">14-04-2021</t>
+          <t xml:space="preserve">19-04-2021</t>
         </is>
       </c>
       <c s="16" t="inlineStr" r="B107">
@@ -5115,23 +5115,23 @@
       <c s="4" t="str" r="D107"/>
       <c s="17" t="inlineStr" r="E107">
         <is>
-          <t xml:space="preserve">61866.50</t>
+          <t xml:space="preserve">60554.95</t>
         </is>
       </c>
       <c s="4" t="str" r="F107"/>
       <c s="17" t="inlineStr" r="G107">
         <is>
-          <t xml:space="preserve">111318.55</t>
+          <t xml:space="preserve">70652.70</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H107">
         <is>
-          <t xml:space="preserve">51586.58</t>
+          <t xml:space="preserve">38817.12</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I107">
         <is>
-          <t xml:space="preserve">51586.58</t>
+          <t xml:space="preserve">38817.11</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J107">
@@ -5141,7 +5141,7 @@
       </c>
       <c s="17" t="inlineStr" r="K107">
         <is>
-          <t xml:space="preserve">51586.58</t>
+          <t xml:space="preserve">38817.11</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L107">
@@ -5161,23 +5161,23 @@
       <c s="4" t="str" r="D108"/>
       <c s="17" t="inlineStr" r="E108">
         <is>
-          <t xml:space="preserve">4809.10</t>
+          <t xml:space="preserve">3926.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F108"/>
       <c s="17" t="inlineStr" r="G108">
         <is>
-          <t xml:space="preserve">6654.10</t>
+          <t xml:space="preserve">4917.10</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H108">
         <is>
-          <t xml:space="preserve">3959.99</t>
+          <t xml:space="preserve">2801.48</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I108">
         <is>
-          <t xml:space="preserve">3959.98</t>
+          <t xml:space="preserve">2801.48</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J108">
@@ -5187,12 +5187,12 @@
       </c>
       <c s="17" t="inlineStr" r="K108">
         <is>
-          <t xml:space="preserve">3959.98</t>
+          <t xml:space="preserve">2801.48</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L108">
         <is>
-          <t xml:space="preserve">4998.45</t>
+          <t xml:space="preserve">7000.42</t>
         </is>
       </c>
     </row>
@@ -5207,23 +5207,23 @@
       <c s="4" t="str" r="D109"/>
       <c s="17" t="inlineStr" r="E109">
         <is>
-          <t xml:space="preserve">531.60</t>
+          <t xml:space="preserve">1191.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F109"/>
       <c s="17" t="inlineStr" r="G109">
         <is>
-          <t xml:space="preserve">2254.80</t>
+          <t xml:space="preserve">1175.20</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H109">
         <is>
-          <t xml:space="preserve">531.60</t>
+          <t xml:space="preserve">851.70</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I109">
         <is>
-          <t xml:space="preserve">531.60</t>
+          <t xml:space="preserve">851.70</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J109">
@@ -5233,12 +5233,12 @@
       </c>
       <c s="17" t="inlineStr" r="K109">
         <is>
-          <t xml:space="preserve">531.60</t>
+          <t xml:space="preserve">851.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L109">
         <is>
-          <t xml:space="preserve">1499.51</t>
+          <t xml:space="preserve">1999.93</t>
         </is>
       </c>
     </row>
@@ -5253,23 +5253,23 @@
       <c s="4" t="str" r="D110"/>
       <c s="17" t="inlineStr" r="E110">
         <is>
-          <t xml:space="preserve">2577.77</t>
+          <t xml:space="preserve">2523.12</t>
         </is>
       </c>
       <c s="4" t="str" r="F110"/>
       <c s="17" t="inlineStr" r="G110">
         <is>
-          <t xml:space="preserve">4638.27</t>
+          <t xml:space="preserve">2943.86</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H110">
         <is>
-          <t xml:space="preserve">2149.44</t>
+          <t xml:space="preserve">1617.38</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I110">
         <is>
-          <t xml:space="preserve">2149.44</t>
+          <t xml:space="preserve">1617.38</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J110">
@@ -5279,12 +5279,12 @@
       </c>
       <c s="17" t="inlineStr" r="K110">
         <is>
-          <t xml:space="preserve">2149.44</t>
+          <t xml:space="preserve">1617.38</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L110">
         <is>
-          <t xml:space="preserve">3017.06</t>
+          <t xml:space="preserve">3509.13</t>
         </is>
       </c>
     </row>

--- a/Dumps/iexRtmFile/MarketMinute.xlsx
+++ b/Dumps/iexRtmFile/MarketMinute.xlsx
@@ -378,7 +378,7 @@
     <row r="4" ht="14.4" customHeight="1">
       <c s="2" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Date: 19-04-2021</t>
+          <t xml:space="preserve">Date: 20-04-2021</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
     <row r="8" ht="13.2" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">19-04-2021</t>
+          <t xml:space="preserve">20-04-2021</t>
         </is>
       </c>
       <c s="6" r="B8">
@@ -484,23 +484,23 @@
       </c>
       <c s="8" t="inlineStr" r="E8">
         <is>
-          <t xml:space="preserve">2880.10</t>
+          <t xml:space="preserve">2716.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F8"/>
       <c s="8" t="inlineStr" r="G8">
         <is>
-          <t xml:space="preserve">2568.80</t>
+          <t xml:space="preserve">1321.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H8">
         <is>
-          <t xml:space="preserve">1527.06</t>
+          <t xml:space="preserve">1104.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I8">
         <is>
-          <t xml:space="preserve">1527.06</t>
+          <t xml:space="preserve">1104.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J8">
@@ -510,12 +510,12 @@
       </c>
       <c s="8" t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">1527.06</t>
+          <t xml:space="preserve">1104.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L8">
         <is>
-          <t xml:space="preserve">3300.30</t>
+          <t xml:space="preserve">4500.41</t>
         </is>
       </c>
     </row>
@@ -530,23 +530,23 @@
       </c>
       <c s="8" t="inlineStr" r="E9">
         <is>
-          <t xml:space="preserve">2886.70</t>
+          <t xml:space="preserve">2716.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F9"/>
       <c s="8" t="inlineStr" r="G9">
         <is>
-          <t xml:space="preserve">2543.80</t>
+          <t xml:space="preserve">1145.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H9">
         <is>
-          <t xml:space="preserve">1537.05</t>
+          <t xml:space="preserve">983.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I9">
         <is>
-          <t xml:space="preserve">1537.05</t>
+          <t xml:space="preserve">983.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J9">
@@ -556,12 +556,12 @@
       </c>
       <c s="8" t="inlineStr" r="K9">
         <is>
-          <t xml:space="preserve">1537.05</t>
+          <t xml:space="preserve">983.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L9">
         <is>
-          <t xml:space="preserve">3300.27</t>
+          <t xml:space="preserve">5359.65</t>
         </is>
       </c>
     </row>
@@ -578,23 +578,23 @@
       </c>
       <c s="8" t="inlineStr" r="E10">
         <is>
-          <t xml:space="preserve">2722.20</t>
+          <t xml:space="preserve">3266.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F10"/>
       <c s="8" t="inlineStr" r="G10">
         <is>
-          <t xml:space="preserve">2802.00</t>
+          <t xml:space="preserve">1236.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H10">
         <is>
-          <t xml:space="preserve">1483.80</t>
+          <t xml:space="preserve">1217.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I10">
         <is>
-          <t xml:space="preserve">1483.80</t>
+          <t xml:space="preserve">1217.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J10">
@@ -604,12 +604,12 @@
       </c>
       <c s="8" t="inlineStr" r="K10">
         <is>
-          <t xml:space="preserve">1483.80</t>
+          <t xml:space="preserve">1217.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L10">
         <is>
-          <t xml:space="preserve">3239.52</t>
+          <t xml:space="preserve">6000.00</t>
         </is>
       </c>
     </row>
@@ -624,23 +624,23 @@
       </c>
       <c s="8" t="inlineStr" r="E11">
         <is>
-          <t xml:space="preserve">2686.70</t>
+          <t xml:space="preserve">3371.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F11"/>
       <c s="8" t="inlineStr" r="G11">
         <is>
-          <t xml:space="preserve">2996.20</t>
+          <t xml:space="preserve">1655.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H11">
         <is>
-          <t xml:space="preserve">1456.20</t>
+          <t xml:space="preserve">1488.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I11">
         <is>
-          <t xml:space="preserve">1456.20</t>
+          <t xml:space="preserve">1488.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J11">
@@ -650,12 +650,12 @@
       </c>
       <c s="8" t="inlineStr" r="K11">
         <is>
-          <t xml:space="preserve">1456.20</t>
+          <t xml:space="preserve">1488.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L11">
         <is>
-          <t xml:space="preserve">3100.29</t>
+          <t xml:space="preserve">5359.44</t>
         </is>
       </c>
     </row>
@@ -674,23 +674,23 @@
       </c>
       <c s="8" t="inlineStr" r="E12">
         <is>
-          <t xml:space="preserve">2650.40</t>
+          <t xml:space="preserve">3870.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F12"/>
       <c s="8" t="inlineStr" r="G12">
         <is>
-          <t xml:space="preserve">2904.10</t>
+          <t xml:space="preserve">1983.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H12">
         <is>
-          <t xml:space="preserve">1653.30</t>
+          <t xml:space="preserve">1863.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I12">
         <is>
-          <t xml:space="preserve">1653.30</t>
+          <t xml:space="preserve">1863.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J12">
@@ -700,12 +700,12 @@
       </c>
       <c s="8" t="inlineStr" r="K12">
         <is>
-          <t xml:space="preserve">1653.30</t>
+          <t xml:space="preserve">1863.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L12">
         <is>
-          <t xml:space="preserve">2969.42</t>
+          <t xml:space="preserve">5502.03</t>
         </is>
       </c>
     </row>
@@ -720,23 +720,23 @@
       </c>
       <c s="8" t="inlineStr" r="E13">
         <is>
-          <t xml:space="preserve">2344.00</t>
+          <t xml:space="preserve">3725.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F13"/>
       <c s="8" t="inlineStr" r="G13">
         <is>
-          <t xml:space="preserve">2868.90</t>
+          <t xml:space="preserve">2251.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H13">
         <is>
-          <t xml:space="preserve">1624.72</t>
+          <t xml:space="preserve">2028.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I13">
         <is>
-          <t xml:space="preserve">1624.72</t>
+          <t xml:space="preserve">2028.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J13">
@@ -746,12 +746,12 @@
       </c>
       <c s="8" t="inlineStr" r="K13">
         <is>
-          <t xml:space="preserve">1624.72</t>
+          <t xml:space="preserve">2028.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L13">
         <is>
-          <t xml:space="preserve">2952.75</t>
+          <t xml:space="preserve">4650.95</t>
         </is>
       </c>
     </row>
@@ -768,23 +768,23 @@
       </c>
       <c s="8" t="inlineStr" r="E14">
         <is>
-          <t xml:space="preserve">2265.90</t>
+          <t xml:space="preserve">3661.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F14"/>
       <c s="8" t="inlineStr" r="G14">
         <is>
-          <t xml:space="preserve">2859.80</t>
+          <t xml:space="preserve">2208.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H14">
         <is>
-          <t xml:space="preserve">1390.42</t>
+          <t xml:space="preserve">2089.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I14">
         <is>
-          <t xml:space="preserve">1390.42</t>
+          <t xml:space="preserve">2089.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J14">
@@ -794,12 +794,12 @@
       </c>
       <c s="8" t="inlineStr" r="K14">
         <is>
-          <t xml:space="preserve">1390.42</t>
+          <t xml:space="preserve">2089.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L14">
         <is>
-          <t xml:space="preserve">2908.03</t>
+          <t xml:space="preserve">5501.74</t>
         </is>
       </c>
     </row>
@@ -814,23 +814,23 @@
       </c>
       <c s="8" t="inlineStr" r="E15">
         <is>
-          <t xml:space="preserve">1998.80</t>
+          <t xml:space="preserve">3175.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F15"/>
       <c s="8" t="inlineStr" r="G15">
         <is>
-          <t xml:space="preserve">2833.80</t>
+          <t xml:space="preserve">2235.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H15">
         <is>
-          <t xml:space="preserve">1311.00</t>
+          <t xml:space="preserve">1919.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I15">
         <is>
-          <t xml:space="preserve">1311.00</t>
+          <t xml:space="preserve">1919.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J15">
@@ -840,12 +840,12 @@
       </c>
       <c s="8" t="inlineStr" r="K15">
         <is>
-          <t xml:space="preserve">1311.00</t>
+          <t xml:space="preserve">1919.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L15">
         <is>
-          <t xml:space="preserve">2849.51</t>
+          <t xml:space="preserve">4650.74</t>
         </is>
       </c>
     </row>
@@ -864,23 +864,23 @@
       </c>
       <c s="8" t="inlineStr" r="E16">
         <is>
-          <t xml:space="preserve">1620.40</t>
+          <t xml:space="preserve">3459.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F16"/>
       <c s="8" t="inlineStr" r="G16">
         <is>
-          <t xml:space="preserve">2552.20</t>
+          <t xml:space="preserve">2398.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H16">
         <is>
-          <t xml:space="preserve">901.30</t>
+          <t xml:space="preserve">2182.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I16">
         <is>
-          <t xml:space="preserve">901.30</t>
+          <t xml:space="preserve">2182.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J16">
@@ -890,12 +890,12 @@
       </c>
       <c s="8" t="inlineStr" r="K16">
         <is>
-          <t xml:space="preserve">901.30</t>
+          <t xml:space="preserve">2182.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L16">
         <is>
-          <t xml:space="preserve">2749.69</t>
+          <t xml:space="preserve">4979.83</t>
         </is>
       </c>
     </row>
@@ -910,23 +910,23 @@
       </c>
       <c s="8" t="inlineStr" r="E17">
         <is>
-          <t xml:space="preserve">1639.80</t>
+          <t xml:space="preserve">3232.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F17"/>
       <c s="8" t="inlineStr" r="G17">
         <is>
-          <t xml:space="preserve">2443.50</t>
+          <t xml:space="preserve">2140.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H17">
         <is>
-          <t xml:space="preserve">920.70</t>
+          <t xml:space="preserve">1932.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I17">
         <is>
-          <t xml:space="preserve">920.70</t>
+          <t xml:space="preserve">1932.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J17">
@@ -936,12 +936,12 @@
       </c>
       <c s="8" t="inlineStr" r="K17">
         <is>
-          <t xml:space="preserve">920.70</t>
+          <t xml:space="preserve">1932.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L17">
         <is>
-          <t xml:space="preserve">2796.90</t>
+          <t xml:space="preserve">4999.98</t>
         </is>
       </c>
     </row>
@@ -958,23 +958,23 @@
       </c>
       <c s="8" t="inlineStr" r="E18">
         <is>
-          <t xml:space="preserve">2045.10</t>
+          <t xml:space="preserve">3298.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F18"/>
       <c s="8" t="inlineStr" r="G18">
         <is>
-          <t xml:space="preserve">2455.90</t>
+          <t xml:space="preserve">2358.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H18">
         <is>
-          <t xml:space="preserve">851.78</t>
+          <t xml:space="preserve">2015.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I18">
         <is>
-          <t xml:space="preserve">851.78</t>
+          <t xml:space="preserve">2015.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J18">
@@ -984,12 +984,12 @@
       </c>
       <c s="8" t="inlineStr" r="K18">
         <is>
-          <t xml:space="preserve">851.78</t>
+          <t xml:space="preserve">2015.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L18">
         <is>
-          <t xml:space="preserve">2849.65</t>
+          <t xml:space="preserve">4650.73</t>
         </is>
       </c>
     </row>
@@ -1004,23 +1004,23 @@
       </c>
       <c s="8" t="inlineStr" r="E19">
         <is>
-          <t xml:space="preserve">2092.30</t>
+          <t xml:space="preserve">3242.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F19"/>
       <c s="8" t="inlineStr" r="G19">
         <is>
-          <t xml:space="preserve">2632.20</t>
+          <t xml:space="preserve">2449.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H19">
         <is>
-          <t xml:space="preserve">851.70</t>
+          <t xml:space="preserve">1995.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I19">
         <is>
-          <t xml:space="preserve">851.70</t>
+          <t xml:space="preserve">1995.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J19">
@@ -1030,12 +1030,12 @@
       </c>
       <c s="8" t="inlineStr" r="K19">
         <is>
-          <t xml:space="preserve">851.70</t>
+          <t xml:space="preserve">1995.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L19">
         <is>
-          <t xml:space="preserve">2852.03</t>
+          <t xml:space="preserve">4650.39</t>
         </is>
       </c>
     </row>
@@ -1054,23 +1054,23 @@
       </c>
       <c s="8" t="inlineStr" r="E20">
         <is>
-          <t xml:space="preserve">2119.10</t>
+          <t xml:space="preserve">3051.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F20"/>
       <c s="8" t="inlineStr" r="G20">
         <is>
-          <t xml:space="preserve">3368.70</t>
+          <t xml:space="preserve">2746.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H20">
         <is>
-          <t xml:space="preserve">1043.86</t>
+          <t xml:space="preserve">1810.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I20">
         <is>
-          <t xml:space="preserve">1043.85</t>
+          <t xml:space="preserve">1810.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J20">
@@ -1080,12 +1080,12 @@
       </c>
       <c s="8" t="inlineStr" r="K20">
         <is>
-          <t xml:space="preserve">1043.85</t>
+          <t xml:space="preserve">1810.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L20">
         <is>
-          <t xml:space="preserve">2800.62</t>
+          <t xml:space="preserve">4079.40</t>
         </is>
       </c>
     </row>
@@ -1100,23 +1100,23 @@
       </c>
       <c s="8" t="inlineStr" r="E21">
         <is>
-          <t xml:space="preserve">1959.20</t>
+          <t xml:space="preserve">2974.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F21"/>
       <c s="8" t="inlineStr" r="G21">
         <is>
-          <t xml:space="preserve">3328.70</t>
+          <t xml:space="preserve">2645.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H21">
         <is>
-          <t xml:space="preserve">1121.90</t>
+          <t xml:space="preserve">1733.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I21">
         <is>
-          <t xml:space="preserve">1121.90</t>
+          <t xml:space="preserve">1733.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J21">
@@ -1126,12 +1126,12 @@
       </c>
       <c s="8" t="inlineStr" r="K21">
         <is>
-          <t xml:space="preserve">1121.90</t>
+          <t xml:space="preserve">1733.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L21">
         <is>
-          <t xml:space="preserve">2909.14</t>
+          <t xml:space="preserve">4165.10</t>
         </is>
       </c>
     </row>
@@ -1148,23 +1148,23 @@
       </c>
       <c s="8" t="inlineStr" r="E22">
         <is>
-          <t xml:space="preserve">1610.30</t>
+          <t xml:space="preserve">2711.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F22"/>
       <c s="8" t="inlineStr" r="G22">
         <is>
-          <t xml:space="preserve">3716.40</t>
+          <t xml:space="preserve">2664.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H22">
         <is>
-          <t xml:space="preserve">1091.20</t>
+          <t xml:space="preserve">1581.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I22">
         <is>
-          <t xml:space="preserve">1091.20</t>
+          <t xml:space="preserve">1581.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J22">
@@ -1174,12 +1174,12 @@
       </c>
       <c s="8" t="inlineStr" r="K22">
         <is>
-          <t xml:space="preserve">1091.20</t>
+          <t xml:space="preserve">1581.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L22">
         <is>
-          <t xml:space="preserve">2772.10</t>
+          <t xml:space="preserve">3599.36</t>
         </is>
       </c>
     </row>
@@ -1194,23 +1194,23 @@
       </c>
       <c s="8" t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">1600.20</t>
+          <t xml:space="preserve">2801.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F23"/>
       <c s="8" t="inlineStr" r="G23">
         <is>
-          <t xml:space="preserve">3777.20</t>
+          <t xml:space="preserve">2881.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H23">
         <is>
-          <t xml:space="preserve">1081.10</t>
+          <t xml:space="preserve">1795.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I23">
         <is>
-          <t xml:space="preserve">1081.10</t>
+          <t xml:space="preserve">1795.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J23">
@@ -1220,12 +1220,12 @@
       </c>
       <c s="8" t="inlineStr" r="K23">
         <is>
-          <t xml:space="preserve">1081.10</t>
+          <t xml:space="preserve">1795.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L23">
         <is>
-          <t xml:space="preserve">2749.53</t>
+          <t xml:space="preserve">3450.42</t>
         </is>
       </c>
     </row>
@@ -1244,23 +1244,23 @@
       </c>
       <c s="8" t="inlineStr" r="E24">
         <is>
-          <t xml:space="preserve">2006.40</t>
+          <t xml:space="preserve">3111.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F24"/>
       <c s="8" t="inlineStr" r="G24">
         <is>
-          <t xml:space="preserve">3054.70</t>
+          <t xml:space="preserve">2868.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H24">
         <is>
-          <t xml:space="preserve">1233.80</t>
+          <t xml:space="preserve">1955.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I24">
         <is>
-          <t xml:space="preserve">1233.80</t>
+          <t xml:space="preserve">1955.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J24">
@@ -1270,12 +1270,12 @@
       </c>
       <c s="8" t="inlineStr" r="K24">
         <is>
-          <t xml:space="preserve">1233.80</t>
+          <t xml:space="preserve">1955.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L24">
         <is>
-          <t xml:space="preserve">2990.29</t>
+          <t xml:space="preserve">3646.24</t>
         </is>
       </c>
     </row>
@@ -1290,23 +1290,23 @@
       </c>
       <c s="8" t="inlineStr" r="E25">
         <is>
-          <t xml:space="preserve">2026.70</t>
+          <t xml:space="preserve">2906.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F25"/>
       <c s="8" t="inlineStr" r="G25">
         <is>
-          <t xml:space="preserve">2917.50</t>
+          <t xml:space="preserve">2800.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H25">
         <is>
-          <t xml:space="preserve">1254.10</t>
+          <t xml:space="preserve">1875.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I25">
         <is>
-          <t xml:space="preserve">1254.10</t>
+          <t xml:space="preserve">1875.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J25">
@@ -1316,12 +1316,12 @@
       </c>
       <c s="8" t="inlineStr" r="K25">
         <is>
-          <t xml:space="preserve">1254.10</t>
+          <t xml:space="preserve">1875.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L25">
         <is>
-          <t xml:space="preserve">2990.92</t>
+          <t xml:space="preserve">3450.55</t>
         </is>
       </c>
     </row>
@@ -1338,23 +1338,23 @@
       </c>
       <c s="8" t="inlineStr" r="E26">
         <is>
-          <t xml:space="preserve">2272.10</t>
+          <t xml:space="preserve">2596.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F26"/>
       <c s="8" t="inlineStr" r="G26">
         <is>
-          <t xml:space="preserve">2932.80</t>
+          <t xml:space="preserve">2829.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H26">
         <is>
-          <t xml:space="preserve">1548.10</t>
+          <t xml:space="preserve">1745.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I26">
         <is>
-          <t xml:space="preserve">1548.10</t>
+          <t xml:space="preserve">1745.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J26">
@@ -1364,12 +1364,12 @@
       </c>
       <c s="8" t="inlineStr" r="K26">
         <is>
-          <t xml:space="preserve">1548.10</t>
+          <t xml:space="preserve">1745.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L26">
         <is>
-          <t xml:space="preserve">3215.05</t>
+          <t xml:space="preserve">3400.60</t>
         </is>
       </c>
     </row>
@@ -1384,23 +1384,23 @@
       </c>
       <c s="8" t="inlineStr" r="E27">
         <is>
-          <t xml:space="preserve">2348.30</t>
+          <t xml:space="preserve">2650.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F27"/>
       <c s="8" t="inlineStr" r="G27">
         <is>
-          <t xml:space="preserve">2843.80</t>
+          <t xml:space="preserve">2640.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H27">
         <is>
-          <t xml:space="preserve">1469.93</t>
+          <t xml:space="preserve">1685.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I27">
         <is>
-          <t xml:space="preserve">1469.93</t>
+          <t xml:space="preserve">1685.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J27">
@@ -1410,12 +1410,12 @@
       </c>
       <c s="8" t="inlineStr" r="K27">
         <is>
-          <t xml:space="preserve">1469.93</t>
+          <t xml:space="preserve">1685.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L27">
         <is>
-          <t xml:space="preserve">3250.62</t>
+          <t xml:space="preserve">3450.34</t>
         </is>
       </c>
     </row>
@@ -1434,23 +1434,23 @@
       </c>
       <c s="8" t="inlineStr" r="E28">
         <is>
-          <t xml:space="preserve">1895.20</t>
+          <t xml:space="preserve">2777.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F28"/>
       <c s="8" t="inlineStr" r="G28">
         <is>
-          <t xml:space="preserve">2665.50</t>
+          <t xml:space="preserve">2510.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H28">
         <is>
-          <t xml:space="preserve">1228.72</t>
+          <t xml:space="preserve">1681.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I28">
         <is>
-          <t xml:space="preserve">1228.72</t>
+          <t xml:space="preserve">1681.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J28">
@@ -1460,12 +1460,12 @@
       </c>
       <c s="8" t="inlineStr" r="K28">
         <is>
-          <t xml:space="preserve">1228.72</t>
+          <t xml:space="preserve">1681.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L28">
         <is>
-          <t xml:space="preserve">3300.42</t>
+          <t xml:space="preserve">3500.20</t>
         </is>
       </c>
     </row>
@@ -1480,23 +1480,23 @@
       </c>
       <c s="8" t="inlineStr" r="E29">
         <is>
-          <t xml:space="preserve">1868.90</t>
+          <t xml:space="preserve">2808.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F29"/>
       <c s="8" t="inlineStr" r="G29">
         <is>
-          <t xml:space="preserve">2406.00</t>
+          <t xml:space="preserve">2684.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H29">
         <is>
-          <t xml:space="preserve">1192.80</t>
+          <t xml:space="preserve">1778.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I29">
         <is>
-          <t xml:space="preserve">1192.80</t>
+          <t xml:space="preserve">1778.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J29">
@@ -1506,12 +1506,12 @@
       </c>
       <c s="8" t="inlineStr" r="K29">
         <is>
-          <t xml:space="preserve">1192.80</t>
+          <t xml:space="preserve">1778.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L29">
         <is>
-          <t xml:space="preserve">3313.96</t>
+          <t xml:space="preserve">3354.98</t>
         </is>
       </c>
     </row>
@@ -1528,23 +1528,23 @@
       </c>
       <c s="8" t="inlineStr" r="E30">
         <is>
-          <t xml:space="preserve">2065.20</t>
+          <t xml:space="preserve">3097.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F30"/>
       <c s="8" t="inlineStr" r="G30">
         <is>
-          <t xml:space="preserve">3084.70</t>
+          <t xml:space="preserve">3167.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H30">
         <is>
-          <t xml:space="preserve">1602.60</t>
+          <t xml:space="preserve">2005.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I30">
         <is>
-          <t xml:space="preserve">1602.60</t>
+          <t xml:space="preserve">2005.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J30">
@@ -1554,12 +1554,12 @@
       </c>
       <c s="8" t="inlineStr" r="K30">
         <is>
-          <t xml:space="preserve">1602.60</t>
+          <t xml:space="preserve">2005.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L30">
         <is>
-          <t xml:space="preserve">3271.66</t>
+          <t xml:space="preserve">3500.26</t>
         </is>
       </c>
     </row>
@@ -1574,23 +1574,23 @@
       </c>
       <c s="8" t="inlineStr" r="E31">
         <is>
-          <t xml:space="preserve">2043.90</t>
+          <t xml:space="preserve">3259.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F31"/>
       <c s="8" t="inlineStr" r="G31">
         <is>
-          <t xml:space="preserve">3123.40</t>
+          <t xml:space="preserve">3020.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H31">
         <is>
-          <t xml:space="preserve">1534.70</t>
+          <t xml:space="preserve">1928.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I31">
         <is>
-          <t xml:space="preserve">1534.70</t>
+          <t xml:space="preserve">1928.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J31">
@@ -1600,12 +1600,12 @@
       </c>
       <c s="8" t="inlineStr" r="K31">
         <is>
-          <t xml:space="preserve">1534.70</t>
+          <t xml:space="preserve">1928.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L31">
         <is>
-          <t xml:space="preserve">3245.44</t>
+          <t xml:space="preserve">3500.99</t>
         </is>
       </c>
     </row>
@@ -1624,23 +1624,23 @@
       </c>
       <c s="8" t="inlineStr" r="E32">
         <is>
-          <t xml:space="preserve">2165.50</t>
+          <t xml:space="preserve">3839.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F32"/>
       <c s="8" t="inlineStr" r="G32">
         <is>
-          <t xml:space="preserve">3492.40</t>
+          <t xml:space="preserve">3636.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H32">
         <is>
-          <t xml:space="preserve">1893.10</t>
+          <t xml:space="preserve">2808.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I32">
         <is>
-          <t xml:space="preserve">1893.10</t>
+          <t xml:space="preserve">2808.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J32">
@@ -1650,12 +1650,12 @@
       </c>
       <c s="8" t="inlineStr" r="K32">
         <is>
-          <t xml:space="preserve">1893.10</t>
+          <t xml:space="preserve">2808.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L32">
         <is>
-          <t xml:space="preserve">2999.43</t>
+          <t xml:space="preserve">3661.77</t>
         </is>
       </c>
     </row>
@@ -1670,23 +1670,23 @@
       </c>
       <c s="8" t="inlineStr" r="E33">
         <is>
-          <t xml:space="preserve">2168.00</t>
+          <t xml:space="preserve">4027.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F33"/>
       <c s="8" t="inlineStr" r="G33">
         <is>
-          <t xml:space="preserve">3421.50</t>
+          <t xml:space="preserve">3652.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H33">
         <is>
-          <t xml:space="preserve">1895.60</t>
+          <t xml:space="preserve">2818.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I33">
         <is>
-          <t xml:space="preserve">1895.60</t>
+          <t xml:space="preserve">2818.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J33">
@@ -1696,12 +1696,12 @@
       </c>
       <c s="8" t="inlineStr" r="K33">
         <is>
-          <t xml:space="preserve">1895.60</t>
+          <t xml:space="preserve">2818.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L33">
         <is>
-          <t xml:space="preserve">2999.60</t>
+          <t xml:space="preserve">3700.90</t>
         </is>
       </c>
     </row>
@@ -1718,23 +1718,23 @@
       </c>
       <c s="8" t="inlineStr" r="E34">
         <is>
-          <t xml:space="preserve">2700.00</t>
+          <t xml:space="preserve">3863.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F34"/>
       <c s="8" t="inlineStr" r="G34">
         <is>
-          <t xml:space="preserve">3283.70</t>
+          <t xml:space="preserve">3107.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H34">
         <is>
-          <t xml:space="preserve">2136.65</t>
+          <t xml:space="preserve">2330.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I34">
         <is>
-          <t xml:space="preserve">2136.65</t>
+          <t xml:space="preserve">2330.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J34">
@@ -1744,12 +1744,12 @@
       </c>
       <c s="8" t="inlineStr" r="K34">
         <is>
-          <t xml:space="preserve">2136.65</t>
+          <t xml:space="preserve">2330.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L34">
         <is>
-          <t xml:space="preserve">3300.99</t>
+          <t xml:space="preserve">3898.11</t>
         </is>
       </c>
     </row>
@@ -1764,23 +1764,23 @@
       </c>
       <c s="8" t="inlineStr" r="E35">
         <is>
-          <t xml:space="preserve">2725.40</t>
+          <t xml:space="preserve">4066.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F35"/>
       <c s="8" t="inlineStr" r="G35">
         <is>
-          <t xml:space="preserve">3195.60</t>
+          <t xml:space="preserve">2985.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H35">
         <is>
-          <t xml:space="preserve">2106.11</t>
+          <t xml:space="preserve">2274.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I35">
         <is>
-          <t xml:space="preserve">2106.11</t>
+          <t xml:space="preserve">2274.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J35">
@@ -1790,12 +1790,12 @@
       </c>
       <c s="8" t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">2106.11</t>
+          <t xml:space="preserve">2274.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L35">
         <is>
-          <t xml:space="preserve">3400.25</t>
+          <t xml:space="preserve">3995.39</t>
         </is>
       </c>
     </row>
@@ -1814,23 +1814,23 @@
       </c>
       <c s="8" t="inlineStr" r="E36">
         <is>
-          <t xml:space="preserve">2421.80</t>
+          <t xml:space="preserve">4235.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F36"/>
       <c s="8" t="inlineStr" r="G36">
         <is>
-          <t xml:space="preserve">3355.50</t>
+          <t xml:space="preserve">3353.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H36">
         <is>
-          <t xml:space="preserve">2131.23</t>
+          <t xml:space="preserve">2687.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I36">
         <is>
-          <t xml:space="preserve">2131.23</t>
+          <t xml:space="preserve">2687.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J36">
@@ -1840,12 +1840,12 @@
       </c>
       <c s="8" t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">2131.23</t>
+          <t xml:space="preserve">2687.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L36">
         <is>
-          <t xml:space="preserve">3000.17</t>
+          <t xml:space="preserve">3931.11</t>
         </is>
       </c>
     </row>
@@ -1860,23 +1860,23 @@
       </c>
       <c s="8" t="inlineStr" r="E37">
         <is>
-          <t xml:space="preserve">2492.50</t>
+          <t xml:space="preserve">4248.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F37"/>
       <c s="8" t="inlineStr" r="G37">
         <is>
-          <t xml:space="preserve">3316.50</t>
+          <t xml:space="preserve">3533.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H37">
         <is>
-          <t xml:space="preserve">2179.31</t>
+          <t xml:space="preserve">2811.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I37">
         <is>
-          <t xml:space="preserve">2179.30</t>
+          <t xml:space="preserve">2811.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J37">
@@ -1886,12 +1886,12 @@
       </c>
       <c s="8" t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">2179.30</t>
+          <t xml:space="preserve">2811.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L37">
         <is>
-          <t xml:space="preserve">3300.17</t>
+          <t xml:space="preserve">3870.15</t>
         </is>
       </c>
     </row>
@@ -1908,23 +1908,23 @@
       </c>
       <c s="8" t="inlineStr" r="E38">
         <is>
-          <t xml:space="preserve">2722.80</t>
+          <t xml:space="preserve">3979.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F38"/>
       <c s="8" t="inlineStr" r="G38">
         <is>
-          <t xml:space="preserve">3575.50</t>
+          <t xml:space="preserve">3569.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H38">
         <is>
-          <t xml:space="preserve">2316.80</t>
+          <t xml:space="preserve">2849.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I38">
         <is>
-          <t xml:space="preserve">2316.80</t>
+          <t xml:space="preserve">2849.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J38">
@@ -1934,12 +1934,12 @@
       </c>
       <c s="8" t="inlineStr" r="K38">
         <is>
-          <t xml:space="preserve">2316.80</t>
+          <t xml:space="preserve">2849.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L38">
         <is>
-          <t xml:space="preserve">3376.09</t>
+          <t xml:space="preserve">3800.08</t>
         </is>
       </c>
     </row>
@@ -1954,23 +1954,23 @@
       </c>
       <c s="8" t="inlineStr" r="E39">
         <is>
-          <t xml:space="preserve">2562.70</t>
+          <t xml:space="preserve">3897.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F39"/>
       <c s="8" t="inlineStr" r="G39">
         <is>
-          <t xml:space="preserve">3812.30</t>
+          <t xml:space="preserve">3620.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H39">
         <is>
-          <t xml:space="preserve">2267.50</t>
+          <t xml:space="preserve">2915.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I39">
         <is>
-          <t xml:space="preserve">2267.50</t>
+          <t xml:space="preserve">2915.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J39">
@@ -1980,12 +1980,12 @@
       </c>
       <c s="8" t="inlineStr" r="K39">
         <is>
-          <t xml:space="preserve">2267.50</t>
+          <t xml:space="preserve">2915.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L39">
         <is>
-          <t xml:space="preserve">3185.82</t>
+          <t xml:space="preserve">3723.27</t>
         </is>
       </c>
     </row>
@@ -2004,23 +2004,23 @@
       </c>
       <c s="8" t="inlineStr" r="E40">
         <is>
-          <t xml:space="preserve">2260.80</t>
+          <t xml:space="preserve">3210.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F40"/>
       <c s="8" t="inlineStr" r="G40">
         <is>
-          <t xml:space="preserve">3935.50</t>
+          <t xml:space="preserve">3558.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H40">
         <is>
-          <t xml:space="preserve">1997.60</t>
+          <t xml:space="preserve">2580.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I40">
         <is>
-          <t xml:space="preserve">1997.60</t>
+          <t xml:space="preserve">2580.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J40">
@@ -2030,12 +2030,12 @@
       </c>
       <c s="8" t="inlineStr" r="K40">
         <is>
-          <t xml:space="preserve">1997.60</t>
+          <t xml:space="preserve">2580.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L40">
         <is>
-          <t xml:space="preserve">2849.80</t>
+          <t xml:space="preserve">3500.13</t>
         </is>
       </c>
     </row>
@@ -2050,23 +2050,23 @@
       </c>
       <c s="8" t="inlineStr" r="E41">
         <is>
-          <t xml:space="preserve">2255.10</t>
+          <t xml:space="preserve">3319.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F41"/>
       <c s="8" t="inlineStr" r="G41">
         <is>
-          <t xml:space="preserve">3674.80</t>
+          <t xml:space="preserve">3218.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H41">
         <is>
-          <t xml:space="preserve">2064.00</t>
+          <t xml:space="preserve">2522.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I41">
         <is>
-          <t xml:space="preserve">2064.00</t>
+          <t xml:space="preserve">2522.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J41">
@@ -2076,12 +2076,12 @@
       </c>
       <c s="8" t="inlineStr" r="K41">
         <is>
-          <t xml:space="preserve">2064.00</t>
+          <t xml:space="preserve">2522.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L41">
         <is>
-          <t xml:space="preserve">3186.85</t>
+          <t xml:space="preserve">3600.07</t>
         </is>
       </c>
     </row>
@@ -2098,23 +2098,23 @@
       </c>
       <c s="8" t="inlineStr" r="E42">
         <is>
-          <t xml:space="preserve">2497.10</t>
+          <t xml:space="preserve">3094.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F42"/>
       <c s="8" t="inlineStr" r="G42">
         <is>
-          <t xml:space="preserve">3186.70</t>
+          <t xml:space="preserve">3450.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H42">
         <is>
-          <t xml:space="preserve">1871.53</t>
+          <t xml:space="preserve">2435.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I42">
         <is>
-          <t xml:space="preserve">1871.53</t>
+          <t xml:space="preserve">2435.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J42">
@@ -2124,12 +2124,12 @@
       </c>
       <c s="8" t="inlineStr" r="K42">
         <is>
-          <t xml:space="preserve">1871.53</t>
+          <t xml:space="preserve">2435.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L42">
         <is>
-          <t xml:space="preserve">3250.51</t>
+          <t xml:space="preserve">3581.86</t>
         </is>
       </c>
     </row>
@@ -2144,23 +2144,23 @@
       </c>
       <c s="8" t="inlineStr" r="E43">
         <is>
-          <t xml:space="preserve">2455.40</t>
+          <t xml:space="preserve">2928.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F43"/>
       <c s="8" t="inlineStr" r="G43">
         <is>
-          <t xml:space="preserve">3098.20</t>
+          <t xml:space="preserve">3293.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H43">
         <is>
-          <t xml:space="preserve">1816.13</t>
+          <t xml:space="preserve">2277.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I43">
         <is>
-          <t xml:space="preserve">1816.13</t>
+          <t xml:space="preserve">2277.93</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J43">
@@ -2170,12 +2170,12 @@
       </c>
       <c s="8" t="inlineStr" r="K43">
         <is>
-          <t xml:space="preserve">1816.13</t>
+          <t xml:space="preserve">2277.93</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L43">
         <is>
-          <t xml:space="preserve">3250.57</t>
+          <t xml:space="preserve">3549.97</t>
         </is>
       </c>
     </row>
@@ -2194,23 +2194,23 @@
       </c>
       <c s="8" t="inlineStr" r="E44">
         <is>
-          <t xml:space="preserve">1872.80</t>
+          <t xml:space="preserve">3262.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F44"/>
       <c s="8" t="inlineStr" r="G44">
         <is>
-          <t xml:space="preserve">2991.70</t>
+          <t xml:space="preserve">2735.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H44">
         <is>
-          <t xml:space="preserve">1553.16</t>
+          <t xml:space="preserve">2001.32</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I44">
         <is>
-          <t xml:space="preserve">1553.16</t>
+          <t xml:space="preserve">2001.32</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J44">
@@ -2220,12 +2220,12 @@
       </c>
       <c s="8" t="inlineStr" r="K44">
         <is>
-          <t xml:space="preserve">1553.16</t>
+          <t xml:space="preserve">2001.32</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L44">
         <is>
-          <t xml:space="preserve">2950.48</t>
+          <t xml:space="preserve">3898.20</t>
         </is>
       </c>
     </row>
@@ -2240,23 +2240,23 @@
       </c>
       <c s="8" t="inlineStr" r="E45">
         <is>
-          <t xml:space="preserve">1658.70</t>
+          <t xml:space="preserve">3135.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F45"/>
       <c s="8" t="inlineStr" r="G45">
         <is>
-          <t xml:space="preserve">3012.50</t>
+          <t xml:space="preserve">2537.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H45">
         <is>
-          <t xml:space="preserve">1454.60</t>
+          <t xml:space="preserve">1821.17</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I45">
         <is>
-          <t xml:space="preserve">1454.60</t>
+          <t xml:space="preserve">1821.17</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J45">
@@ -2266,12 +2266,12 @@
       </c>
       <c s="8" t="inlineStr" r="K45">
         <is>
-          <t xml:space="preserve">1454.60</t>
+          <t xml:space="preserve">1821.17</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L45">
         <is>
-          <t xml:space="preserve">2797.65</t>
+          <t xml:space="preserve">3898.40</t>
         </is>
       </c>
     </row>
@@ -2288,23 +2288,23 @@
       </c>
       <c s="8" t="inlineStr" r="E46">
         <is>
-          <t xml:space="preserve">1191.30</t>
+          <t xml:space="preserve">2893.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F46"/>
       <c s="8" t="inlineStr" r="G46">
         <is>
-          <t xml:space="preserve">2851.60</t>
+          <t xml:space="preserve">3171.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H46">
         <is>
-          <t xml:space="preserve">1081.70</t>
+          <t xml:space="preserve">2205.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I46">
         <is>
-          <t xml:space="preserve">1081.70</t>
+          <t xml:space="preserve">2205.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J46">
@@ -2314,12 +2314,12 @@
       </c>
       <c s="8" t="inlineStr" r="K46">
         <is>
-          <t xml:space="preserve">1081.70</t>
+          <t xml:space="preserve">2205.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L46">
         <is>
-          <t xml:space="preserve">1999.93</t>
+          <t xml:space="preserve">3549.93</t>
         </is>
       </c>
     </row>
@@ -2334,23 +2334,23 @@
       </c>
       <c s="8" t="inlineStr" r="E47">
         <is>
-          <t xml:space="preserve">1320.00</t>
+          <t xml:space="preserve">3009.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F47"/>
       <c s="8" t="inlineStr" r="G47">
         <is>
-          <t xml:space="preserve">2883.20</t>
+          <t xml:space="preserve">3193.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H47">
         <is>
-          <t xml:space="preserve">1193.80</t>
+          <t xml:space="preserve">2246.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I47">
         <is>
-          <t xml:space="preserve">1193.80</t>
+          <t xml:space="preserve">2246.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J47">
@@ -2360,12 +2360,12 @@
       </c>
       <c s="8" t="inlineStr" r="K47">
         <is>
-          <t xml:space="preserve">1193.80</t>
+          <t xml:space="preserve">2246.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L47">
         <is>
-          <t xml:space="preserve">2300.81</t>
+          <t xml:space="preserve">3550.99</t>
         </is>
       </c>
     </row>
@@ -2384,23 +2384,23 @@
       </c>
       <c s="8" t="inlineStr" r="E48">
         <is>
-          <t xml:space="preserve">2454.50</t>
+          <t xml:space="preserve">1735.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F48"/>
       <c s="8" t="inlineStr" r="G48">
         <is>
-          <t xml:space="preserve">2649.00</t>
+          <t xml:space="preserve">3559.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H48">
         <is>
-          <t xml:space="preserve">1586.40</t>
+          <t xml:space="preserve">1395.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I48">
         <is>
-          <t xml:space="preserve">1586.40</t>
+          <t xml:space="preserve">1395.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J48">
@@ -2410,12 +2410,12 @@
       </c>
       <c s="8" t="inlineStr" r="K48">
         <is>
-          <t xml:space="preserve">1586.40</t>
+          <t xml:space="preserve">1395.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L48">
         <is>
-          <t xml:space="preserve">3424.22</t>
+          <t xml:space="preserve">2989.61</t>
         </is>
       </c>
     </row>
@@ -2430,23 +2430,23 @@
       </c>
       <c s="8" t="inlineStr" r="E49">
         <is>
-          <t xml:space="preserve">2514.90</t>
+          <t xml:space="preserve">1900.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F49"/>
       <c s="8" t="inlineStr" r="G49">
         <is>
-          <t xml:space="preserve">2364.10</t>
+          <t xml:space="preserve">3476.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H49">
         <is>
-          <t xml:space="preserve">1286.59</t>
+          <t xml:space="preserve">1365.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I49">
         <is>
-          <t xml:space="preserve">1286.59</t>
+          <t xml:space="preserve">1365.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J49">
@@ -2456,12 +2456,12 @@
       </c>
       <c s="8" t="inlineStr" r="K49">
         <is>
-          <t xml:space="preserve">1286.59</t>
+          <t xml:space="preserve">1365.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L49">
         <is>
-          <t xml:space="preserve">3506.36</t>
+          <t xml:space="preserve">3215.97</t>
         </is>
       </c>
     </row>
@@ -2478,23 +2478,23 @@
       </c>
       <c s="8" t="inlineStr" r="E50">
         <is>
-          <t xml:space="preserve">2424.70</t>
+          <t xml:space="preserve">2236.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F50"/>
       <c s="8" t="inlineStr" r="G50">
         <is>
-          <t xml:space="preserve">2766.80</t>
+          <t xml:space="preserve">4215.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H50">
         <is>
-          <t xml:space="preserve">1479.90</t>
+          <t xml:space="preserve">1934.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I50">
         <is>
-          <t xml:space="preserve">1479.90</t>
+          <t xml:space="preserve">1934.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J50">
@@ -2504,12 +2504,12 @@
       </c>
       <c s="8" t="inlineStr" r="K50">
         <is>
-          <t xml:space="preserve">1479.90</t>
+          <t xml:space="preserve">1934.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L50">
         <is>
-          <t xml:space="preserve">3500.69</t>
+          <t xml:space="preserve">2949.81</t>
         </is>
       </c>
     </row>
@@ -2524,23 +2524,23 @@
       </c>
       <c s="8" t="inlineStr" r="E51">
         <is>
-          <t xml:space="preserve">2318.60</t>
+          <t xml:space="preserve">2135.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F51"/>
       <c s="8" t="inlineStr" r="G51">
         <is>
-          <t xml:space="preserve">2806.90</t>
+          <t xml:space="preserve">4233.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H51">
         <is>
-          <t xml:space="preserve">1514.90</t>
+          <t xml:space="preserve">1833.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I51">
         <is>
-          <t xml:space="preserve">1514.90</t>
+          <t xml:space="preserve">1833.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J51">
@@ -2550,12 +2550,12 @@
       </c>
       <c s="8" t="inlineStr" r="K51">
         <is>
-          <t xml:space="preserve">1514.90</t>
+          <t xml:space="preserve">1833.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L51">
         <is>
-          <t xml:space="preserve">3500.05</t>
+          <t xml:space="preserve">2949.74</t>
         </is>
       </c>
     </row>
@@ -2574,23 +2574,23 @@
       </c>
       <c s="8" t="inlineStr" r="E52">
         <is>
-          <t xml:space="preserve">2669.00</t>
+          <t xml:space="preserve">2820.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F52"/>
       <c s="8" t="inlineStr" r="G52">
         <is>
-          <t xml:space="preserve">2670.00</t>
+          <t xml:space="preserve">3837.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H52">
         <is>
-          <t xml:space="preserve">1626.20</t>
+          <t xml:space="preserve">2068.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I52">
         <is>
-          <t xml:space="preserve">1626.20</t>
+          <t xml:space="preserve">2068.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J52">
@@ -2600,12 +2600,12 @@
       </c>
       <c s="8" t="inlineStr" r="K52">
         <is>
-          <t xml:space="preserve">1626.20</t>
+          <t xml:space="preserve">2068.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L52">
         <is>
-          <t xml:space="preserve">3550.18</t>
+          <t xml:space="preserve">3215.34</t>
         </is>
       </c>
     </row>
@@ -2620,23 +2620,23 @@
       </c>
       <c s="8" t="inlineStr" r="E53">
         <is>
-          <t xml:space="preserve">2859.00</t>
+          <t xml:space="preserve">2924.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F53"/>
       <c s="8" t="inlineStr" r="G53">
         <is>
-          <t xml:space="preserve">2850.40</t>
+          <t xml:space="preserve">3909.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H53">
         <is>
-          <t xml:space="preserve">1789.90</t>
+          <t xml:space="preserve">2172.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I53">
         <is>
-          <t xml:space="preserve">1789.90</t>
+          <t xml:space="preserve">2172.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J53">
@@ -2646,12 +2646,12 @@
       </c>
       <c s="8" t="inlineStr" r="K53">
         <is>
-          <t xml:space="preserve">1789.90</t>
+          <t xml:space="preserve">2172.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L53">
         <is>
-          <t xml:space="preserve">3550.26</t>
+          <t xml:space="preserve">3215.60</t>
         </is>
       </c>
     </row>
@@ -2668,23 +2668,23 @@
       </c>
       <c s="8" t="inlineStr" r="E54">
         <is>
-          <t xml:space="preserve">2775.30</t>
+          <t xml:space="preserve">3738.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F54"/>
       <c s="8" t="inlineStr" r="G54">
         <is>
-          <t xml:space="preserve">2680.10</t>
+          <t xml:space="preserve">3510.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H54">
         <is>
-          <t xml:space="preserve">1721.40</t>
+          <t xml:space="preserve">2457.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I54">
         <is>
-          <t xml:space="preserve">1721.40</t>
+          <t xml:space="preserve">2457.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J54">
@@ -2694,12 +2694,12 @@
       </c>
       <c s="8" t="inlineStr" r="K54">
         <is>
-          <t xml:space="preserve">1721.40</t>
+          <t xml:space="preserve">2457.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L54">
         <is>
-          <t xml:space="preserve">3550.79</t>
+          <t xml:space="preserve">3550.90</t>
         </is>
       </c>
     </row>
@@ -2714,23 +2714,23 @@
       </c>
       <c s="8" t="inlineStr" r="E55">
         <is>
-          <t xml:space="preserve">2839.40</t>
+          <t xml:space="preserve">3932.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F55"/>
       <c s="8" t="inlineStr" r="G55">
         <is>
-          <t xml:space="preserve">2597.80</t>
+          <t xml:space="preserve">3847.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H55">
         <is>
-          <t xml:space="preserve">1684.40</t>
+          <t xml:space="preserve">2695.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I55">
         <is>
-          <t xml:space="preserve">1684.40</t>
+          <t xml:space="preserve">2695.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J55">
@@ -2740,12 +2740,12 @@
       </c>
       <c s="8" t="inlineStr" r="K55">
         <is>
-          <t xml:space="preserve">1684.40</t>
+          <t xml:space="preserve">2695.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L55">
         <is>
-          <t xml:space="preserve">3800.77</t>
+          <t xml:space="preserve">3550.53</t>
         </is>
       </c>
     </row>
@@ -2764,23 +2764,23 @@
       </c>
       <c s="8" t="inlineStr" r="E56">
         <is>
-          <t xml:space="preserve">2666.80</t>
+          <t xml:space="preserve">3581.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F56"/>
       <c s="8" t="inlineStr" r="G56">
         <is>
-          <t xml:space="preserve">3531.00</t>
+          <t xml:space="preserve">3846.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H56">
         <is>
-          <t xml:space="preserve">2036.10</t>
+          <t xml:space="preserve">2831.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I56">
         <is>
-          <t xml:space="preserve">2036.10</t>
+          <t xml:space="preserve">2831.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J56">
@@ -2790,12 +2790,12 @@
       </c>
       <c s="8" t="inlineStr" r="K56">
         <is>
-          <t xml:space="preserve">2036.10</t>
+          <t xml:space="preserve">2831.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L56">
         <is>
-          <t xml:space="preserve">3350.86</t>
+          <t xml:space="preserve">3550.21</t>
         </is>
       </c>
     </row>
@@ -2810,23 +2810,23 @@
       </c>
       <c s="8" t="inlineStr" r="E57">
         <is>
-          <t xml:space="preserve">2553.70</t>
+          <t xml:space="preserve">3459.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F57"/>
       <c s="8" t="inlineStr" r="G57">
         <is>
-          <t xml:space="preserve">3727.50</t>
+          <t xml:space="preserve">3741.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H57">
         <is>
-          <t xml:space="preserve">2017.13</t>
+          <t xml:space="preserve">2712.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I57">
         <is>
-          <t xml:space="preserve">2017.13</t>
+          <t xml:space="preserve">2712.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J57">
@@ -2836,12 +2836,12 @@
       </c>
       <c s="8" t="inlineStr" r="K57">
         <is>
-          <t xml:space="preserve">2017.13</t>
+          <t xml:space="preserve">2712.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L57">
         <is>
-          <t xml:space="preserve">3245.39</t>
+          <t xml:space="preserve">3550.23</t>
         </is>
       </c>
     </row>
@@ -2858,23 +2858,23 @@
       </c>
       <c s="8" t="inlineStr" r="E58">
         <is>
-          <t xml:space="preserve">1908.40</t>
+          <t xml:space="preserve">3486.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F58"/>
       <c s="8" t="inlineStr" r="G58">
         <is>
-          <t xml:space="preserve">4727.50</t>
+          <t xml:space="preserve">3804.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H58">
         <is>
-          <t xml:space="preserve">1591.08</t>
+          <t xml:space="preserve">2617.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I58">
         <is>
-          <t xml:space="preserve">1591.08</t>
+          <t xml:space="preserve">2617.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J58">
@@ -2884,12 +2884,12 @@
       </c>
       <c s="8" t="inlineStr" r="K58">
         <is>
-          <t xml:space="preserve">1591.08</t>
+          <t xml:space="preserve">2617.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L58">
         <is>
-          <t xml:space="preserve">2739.48</t>
+          <t xml:space="preserve">3549.72</t>
         </is>
       </c>
     </row>
@@ -2904,23 +2904,23 @@
       </c>
       <c s="8" t="inlineStr" r="E59">
         <is>
-          <t xml:space="preserve">1868.40</t>
+          <t xml:space="preserve">3524.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F59"/>
       <c s="8" t="inlineStr" r="G59">
         <is>
-          <t xml:space="preserve">4917.10</t>
+          <t xml:space="preserve">3723.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H59">
         <is>
-          <t xml:space="preserve">1551.09</t>
+          <t xml:space="preserve">2646.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I59">
         <is>
-          <t xml:space="preserve">1551.09</t>
+          <t xml:space="preserve">2646.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J59">
@@ -2930,12 +2930,12 @@
       </c>
       <c s="8" t="inlineStr" r="K59">
         <is>
-          <t xml:space="preserve">1551.09</t>
+          <t xml:space="preserve">2646.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L59">
         <is>
-          <t xml:space="preserve">2739.27</t>
+          <t xml:space="preserve">3898.68</t>
         </is>
       </c>
     </row>
@@ -2954,23 +2954,23 @@
       </c>
       <c s="8" t="inlineStr" r="E60">
         <is>
-          <t xml:space="preserve">2364.20</t>
+          <t xml:space="preserve">2248.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F60"/>
       <c s="8" t="inlineStr" r="G60">
         <is>
-          <t xml:space="preserve">4343.80</t>
+          <t xml:space="preserve">5166.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H60">
         <is>
-          <t xml:space="preserve">1863.10</t>
+          <t xml:space="preserve">2021.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I60">
         <is>
-          <t xml:space="preserve">1863.10</t>
+          <t xml:space="preserve">2021.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J60">
@@ -2980,12 +2980,12 @@
       </c>
       <c s="8" t="inlineStr" r="K60">
         <is>
-          <t xml:space="preserve">1863.10</t>
+          <t xml:space="preserve">2021.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L60">
         <is>
-          <t xml:space="preserve">2574.10</t>
+          <t xml:space="preserve">2989.24</t>
         </is>
       </c>
     </row>
@@ -3000,23 +3000,23 @@
       </c>
       <c s="8" t="inlineStr" r="E61">
         <is>
-          <t xml:space="preserve">2212.60</t>
+          <t xml:space="preserve">2220.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F61"/>
       <c s="8" t="inlineStr" r="G61">
         <is>
-          <t xml:space="preserve">3978.60</t>
+          <t xml:space="preserve">4402.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H61">
         <is>
-          <t xml:space="preserve">1888.60</t>
+          <t xml:space="preserve">1978.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I61">
         <is>
-          <t xml:space="preserve">1888.60</t>
+          <t xml:space="preserve">1978.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J61">
@@ -3026,12 +3026,12 @@
       </c>
       <c s="8" t="inlineStr" r="K61">
         <is>
-          <t xml:space="preserve">1888.60</t>
+          <t xml:space="preserve">1978.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L61">
         <is>
-          <t xml:space="preserve">2797.49</t>
+          <t xml:space="preserve">3215.42</t>
         </is>
       </c>
     </row>
@@ -3048,23 +3048,23 @@
       </c>
       <c s="8" t="inlineStr" r="E62">
         <is>
-          <t xml:space="preserve">2714.40</t>
+          <t xml:space="preserve">2148.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F62"/>
       <c s="8" t="inlineStr" r="G62">
         <is>
-          <t xml:space="preserve">4088.10</t>
+          <t xml:space="preserve">4257.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H62">
         <is>
-          <t xml:space="preserve">2190.40</t>
+          <t xml:space="preserve">1917.18</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I62">
         <is>
-          <t xml:space="preserve">2190.40</t>
+          <t xml:space="preserve">1917.18</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J62">
@@ -3074,12 +3074,12 @@
       </c>
       <c s="8" t="inlineStr" r="K62">
         <is>
-          <t xml:space="preserve">2190.40</t>
+          <t xml:space="preserve">1917.18</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L62">
         <is>
-          <t xml:space="preserve">2739.87</t>
+          <t xml:space="preserve">3000.28</t>
         </is>
       </c>
     </row>
@@ -3094,23 +3094,23 @@
       </c>
       <c s="8" t="inlineStr" r="E63">
         <is>
-          <t xml:space="preserve">2853.40</t>
+          <t xml:space="preserve">2151.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F63"/>
       <c s="8" t="inlineStr" r="G63">
         <is>
-          <t xml:space="preserve">4055.60</t>
+          <t xml:space="preserve">4196.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H63">
         <is>
-          <t xml:space="preserve">2226.40</t>
+          <t xml:space="preserve">1840.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I63">
         <is>
-          <t xml:space="preserve">2226.40</t>
+          <t xml:space="preserve">1840.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J63">
@@ -3120,12 +3120,12 @@
       </c>
       <c s="8" t="inlineStr" r="K63">
         <is>
-          <t xml:space="preserve">2226.40</t>
+          <t xml:space="preserve">1840.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L63">
         <is>
-          <t xml:space="preserve">2800.96</t>
+          <t xml:space="preserve">3012.86</t>
         </is>
       </c>
     </row>
@@ -3144,23 +3144,23 @@
       </c>
       <c s="8" t="inlineStr" r="E64">
         <is>
-          <t xml:space="preserve">2279.50</t>
+          <t xml:space="preserve">2402.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F64"/>
       <c s="8" t="inlineStr" r="G64">
         <is>
-          <t xml:space="preserve">4569.20</t>
+          <t xml:space="preserve">4866.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H64">
         <is>
-          <t xml:space="preserve">2128.80</t>
+          <t xml:space="preserve">2163.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I64">
         <is>
-          <t xml:space="preserve">2128.80</t>
+          <t xml:space="preserve">2163.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J64">
@@ -3170,12 +3170,12 @@
       </c>
       <c s="8" t="inlineStr" r="K64">
         <is>
-          <t xml:space="preserve">2128.80</t>
+          <t xml:space="preserve">2163.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L64">
         <is>
-          <t xml:space="preserve">2487.36</t>
+          <t xml:space="preserve">2949.31</t>
         </is>
       </c>
     </row>
@@ -3190,23 +3190,23 @@
       </c>
       <c s="8" t="inlineStr" r="E65">
         <is>
-          <t xml:space="preserve">2245.20</t>
+          <t xml:space="preserve">2520.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F65"/>
       <c s="8" t="inlineStr" r="G65">
         <is>
-          <t xml:space="preserve">4126.60</t>
+          <t xml:space="preserve">4617.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H65">
         <is>
-          <t xml:space="preserve">2094.50</t>
+          <t xml:space="preserve">2213.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I65">
         <is>
-          <t xml:space="preserve">2094.50</t>
+          <t xml:space="preserve">2213.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J65">
@@ -3216,12 +3216,12 @@
       </c>
       <c s="8" t="inlineStr" r="K65">
         <is>
-          <t xml:space="preserve">2094.50</t>
+          <t xml:space="preserve">2213.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L65">
         <is>
-          <t xml:space="preserve">2496.38</t>
+          <t xml:space="preserve">2949.73</t>
         </is>
       </c>
     </row>
@@ -3238,23 +3238,23 @@
       </c>
       <c s="8" t="inlineStr" r="E66">
         <is>
-          <t xml:space="preserve">3177.80</t>
+          <t xml:space="preserve">3183.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F66"/>
       <c s="8" t="inlineStr" r="G66">
         <is>
-          <t xml:space="preserve">4269.60</t>
+          <t xml:space="preserve">4351.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H66">
         <is>
-          <t xml:space="preserve">2516.30</t>
+          <t xml:space="preserve">2581.09</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I66">
         <is>
-          <t xml:space="preserve">2516.30</t>
+          <t xml:space="preserve">2581.09</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J66">
@@ -3264,12 +3264,12 @@
       </c>
       <c s="8" t="inlineStr" r="K66">
         <is>
-          <t xml:space="preserve">2516.30</t>
+          <t xml:space="preserve">2581.09</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L66">
         <is>
-          <t xml:space="preserve">2797.94</t>
+          <t xml:space="preserve">3215.05</t>
         </is>
       </c>
     </row>
@@ -3284,23 +3284,23 @@
       </c>
       <c s="8" t="inlineStr" r="E67">
         <is>
-          <t xml:space="preserve">3586.60</t>
+          <t xml:space="preserve">3192.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F67"/>
       <c s="8" t="inlineStr" r="G67">
         <is>
-          <t xml:space="preserve">4026.40</t>
+          <t xml:space="preserve">4125.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H67">
         <is>
-          <t xml:space="preserve">2401.47</t>
+          <t xml:space="preserve">2466.89</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I67">
         <is>
-          <t xml:space="preserve">2401.47</t>
+          <t xml:space="preserve">2466.89</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J67">
@@ -3310,12 +3310,12 @@
       </c>
       <c s="8" t="inlineStr" r="K67">
         <is>
-          <t xml:space="preserve">2401.47</t>
+          <t xml:space="preserve">2466.89</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L67">
         <is>
-          <t xml:space="preserve">2970.69</t>
+          <t xml:space="preserve">3299.18</t>
         </is>
       </c>
     </row>
@@ -3334,23 +3334,23 @@
       </c>
       <c s="8" t="inlineStr" r="E68">
         <is>
-          <t xml:space="preserve">3659.10</t>
+          <t xml:space="preserve">3570.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F68"/>
       <c s="8" t="inlineStr" r="G68">
         <is>
-          <t xml:space="preserve">4525.40</t>
+          <t xml:space="preserve">4915.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H68">
         <is>
-          <t xml:space="preserve">2801.48</t>
+          <t xml:space="preserve">3008.68</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I68">
         <is>
-          <t xml:space="preserve">2801.48</t>
+          <t xml:space="preserve">3008.68</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J68">
@@ -3360,12 +3360,12 @@
       </c>
       <c s="8" t="inlineStr" r="K68">
         <is>
-          <t xml:space="preserve">2801.48</t>
+          <t xml:space="preserve">3008.68</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L68">
         <is>
-          <t xml:space="preserve">3000.54</t>
+          <t xml:space="preserve">3215.10</t>
         </is>
       </c>
     </row>
@@ -3380,23 +3380,23 @@
       </c>
       <c s="8" t="inlineStr" r="E69">
         <is>
-          <t xml:space="preserve">3073.10</t>
+          <t xml:space="preserve">3761.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F69"/>
       <c s="8" t="inlineStr" r="G69">
         <is>
-          <t xml:space="preserve">4459.10</t>
+          <t xml:space="preserve">4832.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H69">
         <is>
-          <t xml:space="preserve">2666.50</t>
+          <t xml:space="preserve">3092.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I69">
         <is>
-          <t xml:space="preserve">2666.50</t>
+          <t xml:space="preserve">3092.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J69">
@@ -3406,12 +3406,12 @@
       </c>
       <c s="8" t="inlineStr" r="K69">
         <is>
-          <t xml:space="preserve">2666.50</t>
+          <t xml:space="preserve">3092.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L69">
         <is>
-          <t xml:space="preserve">2854.11</t>
+          <t xml:space="preserve">3250.77</t>
         </is>
       </c>
     </row>
@@ -3428,23 +3428,23 @@
       </c>
       <c s="8" t="inlineStr" r="E70">
         <is>
-          <t xml:space="preserve">3731.30</t>
+          <t xml:space="preserve">3197.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F70"/>
       <c s="8" t="inlineStr" r="G70">
         <is>
-          <t xml:space="preserve">3891.30</t>
+          <t xml:space="preserve">4143.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H70">
         <is>
-          <t xml:space="preserve">2518.50</t>
+          <t xml:space="preserve">2505.16</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I70">
         <is>
-          <t xml:space="preserve">2518.50</t>
+          <t xml:space="preserve">2505.16</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J70">
@@ -3454,12 +3454,12 @@
       </c>
       <c s="8" t="inlineStr" r="K70">
         <is>
-          <t xml:space="preserve">2518.50</t>
+          <t xml:space="preserve">2505.16</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L70">
         <is>
-          <t xml:space="preserve">3305.97</t>
+          <t xml:space="preserve">3245.41</t>
         </is>
       </c>
     </row>
@@ -3474,23 +3474,23 @@
       </c>
       <c s="8" t="inlineStr" r="E71">
         <is>
-          <t xml:space="preserve">3401.30</t>
+          <t xml:space="preserve">3029.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F71"/>
       <c s="8" t="inlineStr" r="G71">
         <is>
-          <t xml:space="preserve">4083.10</t>
+          <t xml:space="preserve">4069.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H71">
         <is>
-          <t xml:space="preserve">2518.30</t>
+          <t xml:space="preserve">2356.69</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I71">
         <is>
-          <t xml:space="preserve">2518.30</t>
+          <t xml:space="preserve">2356.69</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J71">
@@ -3500,12 +3500,12 @@
       </c>
       <c s="8" t="inlineStr" r="K71">
         <is>
-          <t xml:space="preserve">2518.30</t>
+          <t xml:space="preserve">2356.69</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L71">
         <is>
-          <t xml:space="preserve">3166.16</t>
+          <t xml:space="preserve">3198.36</t>
         </is>
       </c>
     </row>
@@ -3524,23 +3524,23 @@
       </c>
       <c s="8" t="inlineStr" r="E72">
         <is>
-          <t xml:space="preserve">3146.20</t>
+          <t xml:space="preserve">3530.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F72"/>
       <c s="8" t="inlineStr" r="G72">
         <is>
-          <t xml:space="preserve">3618.10</t>
+          <t xml:space="preserve">3988.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H72">
         <is>
-          <t xml:space="preserve">2363.00</t>
+          <t xml:space="preserve">2770.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I72">
         <is>
-          <t xml:space="preserve">2363.00</t>
+          <t xml:space="preserve">2770.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J72">
@@ -3550,12 +3550,12 @@
       </c>
       <c s="8" t="inlineStr" r="K72">
         <is>
-          <t xml:space="preserve">2363.00</t>
+          <t xml:space="preserve">2770.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L72">
         <is>
-          <t xml:space="preserve">3320.60</t>
+          <t xml:space="preserve">3186.15</t>
         </is>
       </c>
     </row>
@@ -3570,23 +3570,23 @@
       </c>
       <c s="8" t="inlineStr" r="E73">
         <is>
-          <t xml:space="preserve">3340.90</t>
+          <t xml:space="preserve">3062.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F73"/>
       <c s="8" t="inlineStr" r="G73">
         <is>
-          <t xml:space="preserve">3401.40</t>
+          <t xml:space="preserve">3840.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H73">
         <is>
-          <t xml:space="preserve">2211.10</t>
+          <t xml:space="preserve">2618.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I73">
         <is>
-          <t xml:space="preserve">2211.10</t>
+          <t xml:space="preserve">2618.31</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J73">
@@ -3596,12 +3596,12 @@
       </c>
       <c s="8" t="inlineStr" r="K73">
         <is>
-          <t xml:space="preserve">2211.10</t>
+          <t xml:space="preserve">2618.31</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L73">
         <is>
-          <t xml:space="preserve">3425.90</t>
+          <t xml:space="preserve">3000.11</t>
         </is>
       </c>
     </row>
@@ -3618,23 +3618,23 @@
       </c>
       <c s="8" t="inlineStr" r="E74">
         <is>
-          <t xml:space="preserve">3586.80</t>
+          <t xml:space="preserve">2799.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F74"/>
       <c s="8" t="inlineStr" r="G74">
         <is>
-          <t xml:space="preserve">3302.40</t>
+          <t xml:space="preserve">4027.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H74">
         <is>
-          <t xml:space="preserve">2199.26</t>
+          <t xml:space="preserve">2352.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I74">
         <is>
-          <t xml:space="preserve">2199.26</t>
+          <t xml:space="preserve">2352.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J74">
@@ -3644,12 +3644,12 @@
       </c>
       <c s="8" t="inlineStr" r="K74">
         <is>
-          <t xml:space="preserve">2199.26</t>
+          <t xml:space="preserve">2352.00</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L74">
         <is>
-          <t xml:space="preserve">3550.56</t>
+          <t xml:space="preserve">2963.10</t>
         </is>
       </c>
     </row>
@@ -3664,23 +3664,23 @@
       </c>
       <c s="8" t="inlineStr" r="E75">
         <is>
-          <t xml:space="preserve">3631.40</t>
+          <t xml:space="preserve">2573.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F75"/>
       <c s="8" t="inlineStr" r="G75">
         <is>
-          <t xml:space="preserve">3373.10</t>
+          <t xml:space="preserve">3972.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H75">
         <is>
-          <t xml:space="preserve">2189.81</t>
+          <t xml:space="preserve">2183.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I75">
         <is>
-          <t xml:space="preserve">2189.81</t>
+          <t xml:space="preserve">2183.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J75">
@@ -3690,12 +3690,12 @@
       </c>
       <c s="8" t="inlineStr" r="K75">
         <is>
-          <t xml:space="preserve">2189.81</t>
+          <t xml:space="preserve">2183.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L75">
         <is>
-          <t xml:space="preserve">3500.81</t>
+          <t xml:space="preserve">2949.79</t>
         </is>
       </c>
     </row>
@@ -3714,23 +3714,23 @@
       </c>
       <c s="8" t="inlineStr" r="E76">
         <is>
-          <t xml:space="preserve">2965.60</t>
+          <t xml:space="preserve">1582.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F76"/>
       <c s="8" t="inlineStr" r="G76">
         <is>
-          <t xml:space="preserve">3032.00</t>
+          <t xml:space="preserve">3836.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H76">
         <is>
-          <t xml:space="preserve">1993.20</t>
+          <t xml:space="preserve">1393.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I76">
         <is>
-          <t xml:space="preserve">1993.20</t>
+          <t xml:space="preserve">1393.10</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J76">
@@ -3740,12 +3740,12 @@
       </c>
       <c s="8" t="inlineStr" r="K76">
         <is>
-          <t xml:space="preserve">1993.20</t>
+          <t xml:space="preserve">1393.10</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L76">
         <is>
-          <t xml:space="preserve">3502.05</t>
+          <t xml:space="preserve">2781.58</t>
         </is>
       </c>
     </row>
@@ -3760,23 +3760,23 @@
       </c>
       <c s="8" t="inlineStr" r="E77">
         <is>
-          <t xml:space="preserve">2951.60</t>
+          <t xml:space="preserve">1670.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F77"/>
       <c s="8" t="inlineStr" r="G77">
         <is>
-          <t xml:space="preserve">2935.30</t>
+          <t xml:space="preserve">3914.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H77">
         <is>
-          <t xml:space="preserve">1961.11</t>
+          <t xml:space="preserve">1480.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I77">
         <is>
-          <t xml:space="preserve">1961.11</t>
+          <t xml:space="preserve">1480.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J77">
@@ -3786,12 +3786,12 @@
       </c>
       <c s="8" t="inlineStr" r="K77">
         <is>
-          <t xml:space="preserve">1961.11</t>
+          <t xml:space="preserve">1480.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L77">
         <is>
-          <t xml:space="preserve">3549.89</t>
+          <t xml:space="preserve">2781.67</t>
         </is>
       </c>
     </row>
@@ -3808,23 +3808,23 @@
       </c>
       <c s="8" t="inlineStr" r="E78">
         <is>
-          <t xml:space="preserve">2427.40</t>
+          <t xml:space="preserve">1857.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F78"/>
       <c s="8" t="inlineStr" r="G78">
         <is>
-          <t xml:space="preserve">3581.80</t>
+          <t xml:space="preserve">4319.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H78">
         <is>
-          <t xml:space="preserve">1779.64</t>
+          <t xml:space="preserve">1595.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I78">
         <is>
-          <t xml:space="preserve">1779.64</t>
+          <t xml:space="preserve">1595.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J78">
@@ -3834,12 +3834,12 @@
       </c>
       <c s="8" t="inlineStr" r="K78">
         <is>
-          <t xml:space="preserve">1779.64</t>
+          <t xml:space="preserve">1595.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L78">
         <is>
-          <t xml:space="preserve">3245.65</t>
+          <t xml:space="preserve">2889.30</t>
         </is>
       </c>
     </row>
@@ -3854,23 +3854,23 @@
       </c>
       <c s="8" t="inlineStr" r="E79">
         <is>
-          <t xml:space="preserve">2475.40</t>
+          <t xml:space="preserve">1789.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F79"/>
       <c s="8" t="inlineStr" r="G79">
         <is>
-          <t xml:space="preserve">3466.70</t>
+          <t xml:space="preserve">4549.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H79">
         <is>
-          <t xml:space="preserve">1827.64</t>
+          <t xml:space="preserve">1656.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I79">
         <is>
-          <t xml:space="preserve">1827.64</t>
+          <t xml:space="preserve">1656.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J79">
@@ -3880,12 +3880,12 @@
       </c>
       <c s="8" t="inlineStr" r="K79">
         <is>
-          <t xml:space="preserve">1827.64</t>
+          <t xml:space="preserve">1656.30</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L79">
         <is>
-          <t xml:space="preserve">3245.88</t>
+          <t xml:space="preserve">2693.17</t>
         </is>
       </c>
     </row>
@@ -3904,23 +3904,23 @@
       </c>
       <c s="8" t="inlineStr" r="E80">
         <is>
-          <t xml:space="preserve">2021.50</t>
+          <t xml:space="preserve">1617.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F80"/>
       <c s="8" t="inlineStr" r="G80">
         <is>
-          <t xml:space="preserve">3413.70</t>
+          <t xml:space="preserve">3849.60</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H80">
         <is>
-          <t xml:space="preserve">1618.72</t>
+          <t xml:space="preserve">1477.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I80">
         <is>
-          <t xml:space="preserve">1618.72</t>
+          <t xml:space="preserve">1477.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J80">
@@ -3930,12 +3930,12 @@
       </c>
       <c s="8" t="inlineStr" r="K80">
         <is>
-          <t xml:space="preserve">1618.72</t>
+          <t xml:space="preserve">1477.40</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L80">
         <is>
-          <t xml:space="preserve">3245.42</t>
+          <t xml:space="preserve">2889.46</t>
         </is>
       </c>
     </row>
@@ -3950,23 +3950,23 @@
       </c>
       <c s="8" t="inlineStr" r="E81">
         <is>
-          <t xml:space="preserve">2160.70</t>
+          <t xml:space="preserve">2343.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F81"/>
       <c s="8" t="inlineStr" r="G81">
         <is>
-          <t xml:space="preserve">2721.10</t>
+          <t xml:space="preserve">4139.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H81">
         <is>
-          <t xml:space="preserve">1493.92</t>
+          <t xml:space="preserve">2121.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I81">
         <is>
-          <t xml:space="preserve">1493.92</t>
+          <t xml:space="preserve">2121.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J81">
@@ -3976,12 +3976,12 @@
       </c>
       <c s="8" t="inlineStr" r="K81">
         <is>
-          <t xml:space="preserve">1493.92</t>
+          <t xml:space="preserve">2121.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L81">
         <is>
-          <t xml:space="preserve">3422.91</t>
+          <t xml:space="preserve">2949.94</t>
         </is>
       </c>
     </row>
@@ -3998,23 +3998,23 @@
       </c>
       <c s="8" t="inlineStr" r="E82">
         <is>
-          <t xml:space="preserve">2190.70</t>
+          <t xml:space="preserve">3102.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F82"/>
       <c s="8" t="inlineStr" r="G82">
         <is>
-          <t xml:space="preserve">2210.70</t>
+          <t xml:space="preserve">3495.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H82">
         <is>
-          <t xml:space="preserve">1275.64</t>
+          <t xml:space="preserve">2345.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I82">
         <is>
-          <t xml:space="preserve">1275.64</t>
+          <t xml:space="preserve">2345.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J82">
@@ -4024,12 +4024,12 @@
       </c>
       <c s="8" t="inlineStr" r="K82">
         <is>
-          <t xml:space="preserve">1275.64</t>
+          <t xml:space="preserve">2345.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L82">
         <is>
-          <t xml:space="preserve">4075.33</t>
+          <t xml:space="preserve">3250.87</t>
         </is>
       </c>
     </row>
@@ -4044,23 +4044,23 @@
       </c>
       <c s="8" t="inlineStr" r="E83">
         <is>
-          <t xml:space="preserve">2436.80</t>
+          <t xml:space="preserve">3014.30</t>
         </is>
       </c>
       <c s="4" t="str" r="F83"/>
       <c s="8" t="inlineStr" r="G83">
         <is>
-          <t xml:space="preserve">2077.60</t>
+          <t xml:space="preserve">3297.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H83">
         <is>
-          <t xml:space="preserve">1241.40</t>
+          <t xml:space="preserve">2460.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I83">
         <is>
-          <t xml:space="preserve">1241.40</t>
+          <t xml:space="preserve">2460.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J83">
@@ -4070,12 +4070,12 @@
       </c>
       <c s="8" t="inlineStr" r="K83">
         <is>
-          <t xml:space="preserve">1241.40</t>
+          <t xml:space="preserve">2460.20</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L83">
         <is>
-          <t xml:space="preserve">4619.18</t>
+          <t xml:space="preserve">3250.37</t>
         </is>
       </c>
     </row>
@@ -4094,23 +4094,23 @@
       </c>
       <c s="8" t="inlineStr" r="E84">
         <is>
-          <t xml:space="preserve">2244.70</t>
+          <t xml:space="preserve">3448.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F84"/>
       <c s="8" t="inlineStr" r="G84">
         <is>
-          <t xml:space="preserve">1681.20</t>
+          <t xml:space="preserve">2912.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H84">
         <is>
-          <t xml:space="preserve">1037.40</t>
+          <t xml:space="preserve">2728.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I84">
         <is>
-          <t xml:space="preserve">1037.40</t>
+          <t xml:space="preserve">2728.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J84">
@@ -4120,12 +4120,12 @@
       </c>
       <c s="8" t="inlineStr" r="K84">
         <is>
-          <t xml:space="preserve">1037.40</t>
+          <t xml:space="preserve">2728.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L84">
         <is>
-          <t xml:space="preserve">4619.60</t>
+          <t xml:space="preserve">3450.20</t>
         </is>
       </c>
     </row>
@@ -4140,23 +4140,23 @@
       </c>
       <c s="8" t="inlineStr" r="E85">
         <is>
-          <t xml:space="preserve">2516.10</t>
+          <t xml:space="preserve">3334.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F85"/>
       <c s="8" t="inlineStr" r="G85">
         <is>
-          <t xml:space="preserve">1636.40</t>
+          <t xml:space="preserve">2920.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H85">
         <is>
-          <t xml:space="preserve">1279.00</t>
+          <t xml:space="preserve">2699.95</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I85">
         <is>
-          <t xml:space="preserve">1279.00</t>
+          <t xml:space="preserve">2699.95</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J85">
@@ -4166,12 +4166,12 @@
       </c>
       <c s="8" t="inlineStr" r="K85">
         <is>
-          <t xml:space="preserve">1279.00</t>
+          <t xml:space="preserve">2699.95</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L85">
         <is>
-          <t xml:space="preserve">4999.44</t>
+          <t xml:space="preserve">3424.62</t>
         </is>
       </c>
     </row>
@@ -4188,23 +4188,23 @@
       </c>
       <c s="8" t="inlineStr" r="E86">
         <is>
-          <t xml:space="preserve">2503.40</t>
+          <t xml:space="preserve">2775.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F86"/>
       <c s="8" t="inlineStr" r="G86">
         <is>
-          <t xml:space="preserve">1871.90</t>
+          <t xml:space="preserve">3262.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H86">
         <is>
-          <t xml:space="preserve">1003.60</t>
+          <t xml:space="preserve">2530.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I86">
         <is>
-          <t xml:space="preserve">1003.60</t>
+          <t xml:space="preserve">2530.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J86">
@@ -4214,12 +4214,12 @@
       </c>
       <c s="8" t="inlineStr" r="K86">
         <is>
-          <t xml:space="preserve">1003.60</t>
+          <t xml:space="preserve">2530.64</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L86">
         <is>
-          <t xml:space="preserve">4500.97</t>
+          <t xml:space="preserve">3185.56</t>
         </is>
       </c>
     </row>
@@ -4234,23 +4234,23 @@
       </c>
       <c s="8" t="inlineStr" r="E87">
         <is>
-          <t xml:space="preserve">2396.80</t>
+          <t xml:space="preserve">2831.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F87"/>
       <c s="8" t="inlineStr" r="G87">
         <is>
-          <t xml:space="preserve">1870.80</t>
+          <t xml:space="preserve">3389.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H87">
         <is>
-          <t xml:space="preserve">1002.30</t>
+          <t xml:space="preserve">2588.32</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I87">
         <is>
-          <t xml:space="preserve">1002.30</t>
+          <t xml:space="preserve">2588.32</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J87">
@@ -4260,12 +4260,12 @@
       </c>
       <c s="8" t="inlineStr" r="K87">
         <is>
-          <t xml:space="preserve">1002.30</t>
+          <t xml:space="preserve">2588.32</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L87">
         <is>
-          <t xml:space="preserve">3920.67</t>
+          <t xml:space="preserve">3168.84</t>
         </is>
       </c>
     </row>
@@ -4284,23 +4284,23 @@
       </c>
       <c s="8" t="inlineStr" r="E88">
         <is>
-          <t xml:space="preserve">2003.10</t>
+          <t xml:space="preserve">2050.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F88"/>
       <c s="8" t="inlineStr" r="G88">
         <is>
-          <t xml:space="preserve">1822.90</t>
+          <t xml:space="preserve">3738.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H88">
         <is>
-          <t xml:space="preserve">907.70</t>
+          <t xml:space="preserve">1853.04</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I88">
         <is>
-          <t xml:space="preserve">907.70</t>
+          <t xml:space="preserve">1853.04</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J88">
@@ -4310,12 +4310,12 @@
       </c>
       <c s="8" t="inlineStr" r="K88">
         <is>
-          <t xml:space="preserve">907.70</t>
+          <t xml:space="preserve">1853.04</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L88">
         <is>
-          <t xml:space="preserve">3718.86</t>
+          <t xml:space="preserve">2949.59</t>
         </is>
       </c>
     </row>
@@ -4330,23 +4330,23 @@
       </c>
       <c s="8" t="inlineStr" r="E89">
         <is>
-          <t xml:space="preserve">1953.40</t>
+          <t xml:space="preserve">2125.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F89"/>
       <c s="8" t="inlineStr" r="G89">
         <is>
-          <t xml:space="preserve">1848.20</t>
+          <t xml:space="preserve">3852.20</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H89">
         <is>
-          <t xml:space="preserve">863.20</t>
+          <t xml:space="preserve">1928.94</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I89">
         <is>
-          <t xml:space="preserve">863.20</t>
+          <t xml:space="preserve">1928.94</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J89">
@@ -4356,12 +4356,12 @@
       </c>
       <c s="8" t="inlineStr" r="K89">
         <is>
-          <t xml:space="preserve">863.20</t>
+          <t xml:space="preserve">1928.94</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L89">
         <is>
-          <t xml:space="preserve">3718.88</t>
+          <t xml:space="preserve">2949.72</t>
         </is>
       </c>
     </row>
@@ -4378,23 +4378,23 @@
       </c>
       <c s="8" t="inlineStr" r="E90">
         <is>
-          <t xml:space="preserve">2365.60</t>
+          <t xml:space="preserve">2545.40</t>
         </is>
       </c>
       <c s="4" t="str" r="F90"/>
       <c s="8" t="inlineStr" r="G90">
         <is>
-          <t xml:space="preserve">1836.20</t>
+          <t xml:space="preserve">4138.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H90">
         <is>
-          <t xml:space="preserve">1053.30</t>
+          <t xml:space="preserve">2347.33</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I90">
         <is>
-          <t xml:space="preserve">1053.30</t>
+          <t xml:space="preserve">2347.33</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J90">
@@ -4404,12 +4404,12 @@
       </c>
       <c s="8" t="inlineStr" r="K90">
         <is>
-          <t xml:space="preserve">1053.30</t>
+          <t xml:space="preserve">2347.33</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L90">
         <is>
-          <t xml:space="preserve">4619.22</t>
+          <t xml:space="preserve">2962.13</t>
         </is>
       </c>
     </row>
@@ -4424,23 +4424,23 @@
       </c>
       <c s="8" t="inlineStr" r="E91">
         <is>
-          <t xml:space="preserve">2493.00</t>
+          <t xml:space="preserve">2768.80</t>
         </is>
       </c>
       <c s="4" t="str" r="F91"/>
       <c s="8" t="inlineStr" r="G91">
         <is>
-          <t xml:space="preserve">1789.70</t>
+          <t xml:space="preserve">4188.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H91">
         <is>
-          <t xml:space="preserve">1176.30</t>
+          <t xml:space="preserve">2376.22</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I91">
         <is>
-          <t xml:space="preserve">1176.30</t>
+          <t xml:space="preserve">2376.22</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J91">
@@ -4450,12 +4450,12 @@
       </c>
       <c s="8" t="inlineStr" r="K91">
         <is>
-          <t xml:space="preserve">1176.30</t>
+          <t xml:space="preserve">2376.22</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L91">
         <is>
-          <t xml:space="preserve">4619.71</t>
+          <t xml:space="preserve">3003.98</t>
         </is>
       </c>
     </row>
@@ -4474,23 +4474,23 @@
       </c>
       <c s="8" t="inlineStr" r="E92">
         <is>
-          <t xml:space="preserve">2629.30</t>
+          <t xml:space="preserve">2745.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F92"/>
       <c s="8" t="inlineStr" r="G92">
         <is>
-          <t xml:space="preserve">2247.70</t>
+          <t xml:space="preserve">4421.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H92">
         <is>
-          <t xml:space="preserve">1396.64</t>
+          <t xml:space="preserve">2458.37</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I92">
         <is>
-          <t xml:space="preserve">1396.64</t>
+          <t xml:space="preserve">2458.37</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J92">
@@ -4500,12 +4500,12 @@
       </c>
       <c s="8" t="inlineStr" r="K92">
         <is>
-          <t xml:space="preserve">1396.64</t>
+          <t xml:space="preserve">2458.37</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L92">
         <is>
-          <t xml:space="preserve">3922.79</t>
+          <t xml:space="preserve">2958.84</t>
         </is>
       </c>
     </row>
@@ -4520,23 +4520,23 @@
       </c>
       <c s="8" t="inlineStr" r="E93">
         <is>
-          <t xml:space="preserve">2744.50</t>
+          <t xml:space="preserve">2990.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F93"/>
       <c s="8" t="inlineStr" r="G93">
         <is>
-          <t xml:space="preserve">2029.20</t>
+          <t xml:space="preserve">4436.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H93">
         <is>
-          <t xml:space="preserve">1524.34</t>
+          <t xml:space="preserve">2703.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I93">
         <is>
-          <t xml:space="preserve">1524.34</t>
+          <t xml:space="preserve">2703.97</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J93">
@@ -4546,12 +4546,12 @@
       </c>
       <c s="8" t="inlineStr" r="K93">
         <is>
-          <t xml:space="preserve">1524.34</t>
+          <t xml:space="preserve">2703.97</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L93">
         <is>
-          <t xml:space="preserve">3902.81</t>
+          <t xml:space="preserve">2964.81</t>
         </is>
       </c>
     </row>
@@ -4568,23 +4568,23 @@
       </c>
       <c s="8" t="inlineStr" r="E94">
         <is>
-          <t xml:space="preserve">2648.30</t>
+          <t xml:space="preserve">2868.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F94"/>
       <c s="8" t="inlineStr" r="G94">
         <is>
-          <t xml:space="preserve">1971.00</t>
+          <t xml:space="preserve">4147.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H94">
         <is>
-          <t xml:space="preserve">1467.15</t>
+          <t xml:space="preserve">2640.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I94">
         <is>
-          <t xml:space="preserve">1467.15</t>
+          <t xml:space="preserve">2640.64</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J94">
@@ -4594,12 +4594,12 @@
       </c>
       <c s="8" t="inlineStr" r="K94">
         <is>
-          <t xml:space="preserve">1467.15</t>
+          <t xml:space="preserve">2640.64</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L94">
         <is>
-          <t xml:space="preserve">4111.02</t>
+          <t xml:space="preserve">2949.89</t>
         </is>
       </c>
     </row>
@@ -4614,23 +4614,23 @@
       </c>
       <c s="8" t="inlineStr" r="E95">
         <is>
-          <t xml:space="preserve">2625.40</t>
+          <t xml:space="preserve">2898.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F95"/>
       <c s="8" t="inlineStr" r="G95">
         <is>
-          <t xml:space="preserve">2059.40</t>
+          <t xml:space="preserve">3884.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H95">
         <is>
-          <t xml:space="preserve">1543.63</t>
+          <t xml:space="preserve">2572.71</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I95">
         <is>
-          <t xml:space="preserve">1543.63</t>
+          <t xml:space="preserve">2572.71</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J95">
@@ -4640,12 +4640,12 @@
       </c>
       <c s="8" t="inlineStr" r="K95">
         <is>
-          <t xml:space="preserve">1543.63</t>
+          <t xml:space="preserve">2572.71</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L95">
         <is>
-          <t xml:space="preserve">3900.69</t>
+          <t xml:space="preserve">3006.38</t>
         </is>
       </c>
     </row>
@@ -4664,23 +4664,23 @@
       </c>
       <c s="8" t="inlineStr" r="E96">
         <is>
-          <t xml:space="preserve">3282.20</t>
+          <t xml:space="preserve">3419.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F96"/>
       <c s="8" t="inlineStr" r="G96">
         <is>
-          <t xml:space="preserve">1479.20</t>
+          <t xml:space="preserve">3333.40</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H96">
         <is>
-          <t xml:space="preserve">1201.20</t>
+          <t xml:space="preserve">2593.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I96">
         <is>
-          <t xml:space="preserve">1201.20</t>
+          <t xml:space="preserve">2593.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J96">
@@ -4690,12 +4690,12 @@
       </c>
       <c s="8" t="inlineStr" r="K96">
         <is>
-          <t xml:space="preserve">1201.20</t>
+          <t xml:space="preserve">2593.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L96">
         <is>
-          <t xml:space="preserve">5359.14</t>
+          <t xml:space="preserve">3400.51</t>
         </is>
       </c>
     </row>
@@ -4710,23 +4710,23 @@
       </c>
       <c s="8" t="inlineStr" r="E97">
         <is>
-          <t xml:space="preserve">3586.40</t>
+          <t xml:space="preserve">3324.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F97"/>
       <c s="8" t="inlineStr" r="G97">
         <is>
-          <t xml:space="preserve">1343.50</t>
+          <t xml:space="preserve">3113.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H97">
         <is>
-          <t xml:space="preserve">1176.20</t>
+          <t xml:space="preserve">2422.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I97">
         <is>
-          <t xml:space="preserve">1176.20</t>
+          <t xml:space="preserve">2422.50</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J97">
@@ -4736,12 +4736,12 @@
       </c>
       <c s="8" t="inlineStr" r="K97">
         <is>
-          <t xml:space="preserve">1176.20</t>
+          <t xml:space="preserve">2422.50</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L97">
         <is>
-          <t xml:space="preserve">5989.41</t>
+          <t xml:space="preserve">3400.85</t>
         </is>
       </c>
     </row>
@@ -4758,23 +4758,23 @@
       </c>
       <c s="8" t="inlineStr" r="E98">
         <is>
-          <t xml:space="preserve">3324.20</t>
+          <t xml:space="preserve">3313.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F98"/>
       <c s="8" t="inlineStr" r="G98">
         <is>
-          <t xml:space="preserve">1553.00</t>
+          <t xml:space="preserve">3835.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H98">
         <is>
-          <t xml:space="preserve">1440.17</t>
+          <t xml:space="preserve">2744.29</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I98">
         <is>
-          <t xml:space="preserve">1440.17</t>
+          <t xml:space="preserve">2744.29</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J98">
@@ -4784,12 +4784,12 @@
       </c>
       <c s="8" t="inlineStr" r="K98">
         <is>
-          <t xml:space="preserve">1440.17</t>
+          <t xml:space="preserve">2744.29</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L98">
         <is>
-          <t xml:space="preserve">6000.51</t>
+          <t xml:space="preserve">2949.17</t>
         </is>
       </c>
     </row>
@@ -4804,23 +4804,23 @@
       </c>
       <c s="8" t="inlineStr" r="E99">
         <is>
-          <t xml:space="preserve">3081.20</t>
+          <t xml:space="preserve">3233.50</t>
         </is>
       </c>
       <c s="4" t="str" r="F99"/>
       <c s="8" t="inlineStr" r="G99">
         <is>
-          <t xml:space="preserve">1529.30</t>
+          <t xml:space="preserve">3221.00</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H99">
         <is>
-          <t xml:space="preserve">1416.47</t>
+          <t xml:space="preserve">2431.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I99">
         <is>
-          <t xml:space="preserve">1416.47</t>
+          <t xml:space="preserve">2431.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J99">
@@ -4830,12 +4830,12 @@
       </c>
       <c s="8" t="inlineStr" r="K99">
         <is>
-          <t xml:space="preserve">1416.47</t>
+          <t xml:space="preserve">2431.80</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L99">
         <is>
-          <t xml:space="preserve">6000.15</t>
+          <t xml:space="preserve">3400.39</t>
         </is>
       </c>
     </row>
@@ -4854,23 +4854,23 @@
       </c>
       <c s="8" t="inlineStr" r="E100">
         <is>
-          <t xml:space="preserve">3926.90</t>
+          <t xml:space="preserve">3823.20</t>
         </is>
       </c>
       <c s="4" t="str" r="F100"/>
       <c s="8" t="inlineStr" r="G100">
         <is>
-          <t xml:space="preserve">1346.10</t>
+          <t xml:space="preserve">3795.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H100">
         <is>
-          <t xml:space="preserve">1326.60</t>
+          <t xml:space="preserve">3113.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I100">
         <is>
-          <t xml:space="preserve">1326.60</t>
+          <t xml:space="preserve">3113.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J100">
@@ -4880,12 +4880,12 @@
       </c>
       <c s="8" t="inlineStr" r="K100">
         <is>
-          <t xml:space="preserve">1326.60</t>
+          <t xml:space="preserve">3113.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L100">
         <is>
-          <t xml:space="preserve">6500.08</t>
+          <t xml:space="preserve">3289.23</t>
         </is>
       </c>
     </row>
@@ -4900,23 +4900,23 @@
       </c>
       <c s="8" t="inlineStr" r="E101">
         <is>
-          <t xml:space="preserve">3834.40</t>
+          <t xml:space="preserve">3872.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F101"/>
       <c s="8" t="inlineStr" r="G101">
         <is>
-          <t xml:space="preserve">1175.20</t>
+          <t xml:space="preserve">3406.30</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H101">
         <is>
-          <t xml:space="preserve">1155.70</t>
+          <t xml:space="preserve">2766.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I101">
         <is>
-          <t xml:space="preserve">1155.70</t>
+          <t xml:space="preserve">2766.70</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J101">
@@ -4926,12 +4926,12 @@
       </c>
       <c s="8" t="inlineStr" r="K101">
         <is>
-          <t xml:space="preserve">1155.70</t>
+          <t xml:space="preserve">2766.70</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L101">
         <is>
-          <t xml:space="preserve">7000.42</t>
+          <t xml:space="preserve">3425.38</t>
         </is>
       </c>
     </row>
@@ -4948,23 +4948,23 @@
       </c>
       <c s="8" t="inlineStr" r="E102">
         <is>
-          <t xml:space="preserve">3288.30</t>
+          <t xml:space="preserve">3680.70</t>
         </is>
       </c>
       <c s="4" t="str" r="F102"/>
       <c s="8" t="inlineStr" r="G102">
         <is>
-          <t xml:space="preserve">1439.20</t>
+          <t xml:space="preserve">4215.80</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H102">
         <is>
-          <t xml:space="preserve">1313.50</t>
+          <t xml:space="preserve">3032.44</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I102">
         <is>
-          <t xml:space="preserve">1313.50</t>
+          <t xml:space="preserve">3032.44</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J102">
@@ -4974,12 +4974,12 @@
       </c>
       <c s="8" t="inlineStr" r="K102">
         <is>
-          <t xml:space="preserve">1313.50</t>
+          <t xml:space="preserve">3032.44</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L102">
         <is>
-          <t xml:space="preserve">5989.92</t>
+          <t xml:space="preserve">3186.31</t>
         </is>
       </c>
     </row>
@@ -4994,23 +4994,23 @@
       </c>
       <c s="8" t="inlineStr" r="E103">
         <is>
-          <t xml:space="preserve">3168.60</t>
+          <t xml:space="preserve">3493.00</t>
         </is>
       </c>
       <c s="4" t="str" r="F103"/>
       <c s="8" t="inlineStr" r="G103">
         <is>
-          <t xml:space="preserve">1474.00</t>
+          <t xml:space="preserve">4135.90</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="H103">
         <is>
-          <t xml:space="preserve">1259.53</t>
+          <t xml:space="preserve">2936.39</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="I103">
         <is>
-          <t xml:space="preserve">1259.53</t>
+          <t xml:space="preserve">2936.39</t>
         </is>
       </c>
       <c s="8" t="inlineStr" r="J103">
@@ -5020,12 +5020,12 @@
       </c>
       <c s="8" t="inlineStr" r="K103">
         <is>
-          <t xml:space="preserve">1259.53</t>
+          <t xml:space="preserve">2936.39</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L103">
         <is>
-          <t xml:space="preserve">5500.87</t>
+          <t xml:space="preserve">2969.12</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
     <row r="107" ht="14.4" customHeight="0">
       <c s="5" t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">19-04-2021</t>
+          <t xml:space="preserve">20-04-2021</t>
         </is>
       </c>
       <c s="16" t="inlineStr" r="B107">
@@ -5115,23 +5115,23 @@
       <c s="4" t="str" r="D107"/>
       <c s="17" t="inlineStr" r="E107">
         <is>
-          <t xml:space="preserve">60554.95</t>
+          <t xml:space="preserve">72770.10</t>
         </is>
       </c>
       <c s="4" t="str" r="F107"/>
       <c s="17" t="inlineStr" r="G107">
         <is>
-          <t xml:space="preserve">70652.70</t>
+          <t xml:space="preserve">82672.20</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H107">
         <is>
-          <t xml:space="preserve">38817.12</t>
+          <t xml:space="preserve">53195.14</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I107">
         <is>
-          <t xml:space="preserve">38817.11</t>
+          <t xml:space="preserve">53195.14</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J107">
@@ -5141,7 +5141,7 @@
       </c>
       <c s="17" t="inlineStr" r="K107">
         <is>
-          <t xml:space="preserve">38817.11</t>
+          <t xml:space="preserve">53195.14</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L107">
@@ -5161,23 +5161,23 @@
       <c s="4" t="str" r="D108"/>
       <c s="17" t="inlineStr" r="E108">
         <is>
-          <t xml:space="preserve">3926.90</t>
+          <t xml:space="preserve">4248.90</t>
         </is>
       </c>
       <c s="4" t="str" r="F108"/>
       <c s="17" t="inlineStr" r="G108">
         <is>
-          <t xml:space="preserve">4917.10</t>
+          <t xml:space="preserve">5166.10</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H108">
         <is>
-          <t xml:space="preserve">2801.48</t>
+          <t xml:space="preserve">3113.90</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I108">
         <is>
-          <t xml:space="preserve">2801.48</t>
+          <t xml:space="preserve">3113.90</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J108">
@@ -5187,12 +5187,12 @@
       </c>
       <c s="17" t="inlineStr" r="K108">
         <is>
-          <t xml:space="preserve">2801.48</t>
+          <t xml:space="preserve">3113.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L108">
         <is>
-          <t xml:space="preserve">7000.42</t>
+          <t xml:space="preserve">6000.00</t>
         </is>
       </c>
     </row>
@@ -5207,23 +5207,23 @@
       <c s="4" t="str" r="D109"/>
       <c s="17" t="inlineStr" r="E109">
         <is>
-          <t xml:space="preserve">1191.30</t>
+          <t xml:space="preserve">1582.60</t>
         </is>
       </c>
       <c s="4" t="str" r="F109"/>
       <c s="17" t="inlineStr" r="G109">
         <is>
-          <t xml:space="preserve">1175.20</t>
+          <t xml:space="preserve">1145.70</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H109">
         <is>
-          <t xml:space="preserve">851.70</t>
+          <t xml:space="preserve">983.90</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I109">
         <is>
-          <t xml:space="preserve">851.70</t>
+          <t xml:space="preserve">983.90</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J109">
@@ -5233,12 +5233,12 @@
       </c>
       <c s="17" t="inlineStr" r="K109">
         <is>
-          <t xml:space="preserve">851.70</t>
+          <t xml:space="preserve">983.90</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L109">
         <is>
-          <t xml:space="preserve">1999.93</t>
+          <t xml:space="preserve">2693.17</t>
         </is>
       </c>
     </row>
@@ -5253,23 +5253,23 @@
       <c s="4" t="str" r="D110"/>
       <c s="17" t="inlineStr" r="E110">
         <is>
-          <t xml:space="preserve">2523.12</t>
+          <t xml:space="preserve">3032.09</t>
         </is>
       </c>
       <c s="4" t="str" r="F110"/>
       <c s="17" t="inlineStr" r="G110">
         <is>
-          <t xml:space="preserve">2943.86</t>
+          <t xml:space="preserve">3444.68</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="H110">
         <is>
-          <t xml:space="preserve">1617.38</t>
+          <t xml:space="preserve">2216.46</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="I110">
         <is>
-          <t xml:space="preserve">1617.38</t>
+          <t xml:space="preserve">2216.46</t>
         </is>
       </c>
       <c s="17" t="inlineStr" r="J110">
@@ -5279,12 +5279,12 @@
       </c>
       <c s="17" t="inlineStr" r="K110">
         <is>
-          <t xml:space="preserve">1617.38</t>
+          <t xml:space="preserve">2216.46</t>
         </is>
       </c>
       <c s="9" t="inlineStr" r="L110">
         <is>
-          <t xml:space="preserve">3509.13</t>
+          <t xml:space="preserve">3540.86</t>
         </is>
       </c>
     </row>
